--- a/dataset/lg/naarayana.xlsx
+++ b/dataset/lg/naarayana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>శ్రీరామామణి పాణిపంకజమృదుశ్రీతజ్ఞ పాదాబ్జ శృం
 గారాకారశరీర, చారుకరుణాగంభీర, సద్భక్తమం
@@ -477,32 +474,29 @@
 పారావారవిహార, నా దురితముల్‌ భంజింపు నారాయణా!</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('రా', 'U'), ('మా', 'U'), ('మ', '|'), ('ణి', '|'), ('పా', 'U'), ('ణి', '|'), ('పం', 'U'), ('క', '|'), ('జ', '|'), ('మృ', '|'), ('దు', 'U'), ('శ్రీ', 'U'), ('త', 'U'), ('జ్ఞ', '|'), ('పా', 'U'), ('దా', 'U'), ('బ్జ', '|'), ('శృం', 'U'), ('గా', 'U'), ('రా', 'U'), ('కా', 'U'), ('ర', '|'), ('శ', '|'), ('రీ', 'U'), ('ర', '|'), ('చా', 'U'), ('రు', '|'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('గం', 'U'), ('భీ', 'U'), ('ర', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('రాం', 'U'), ('భో', 'U'), ('రు', '|'), ('హ', '|'), ('ప', 'U'), ('త్ర', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('క', '|'), ('ళా', 'U'), ('ధా', 'U'), ('రో', 'U'), ('రు', '|'), ('సం', 'U'), ('ప', 'U'), ('త్సు', '|'), ('ధా', 'U'), ('పా', 'U'), ('రా', 'U'), ('వా', 'U'), ('ర', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('నా', 'U'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('ముల్', 'U'), ('భం', 'U'), ('జిం', 'U'), ('పు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>కడకుం బాయక వేయినోళ్ళు గల యా కాకోదరాధీశుఁడున్‌
 గడముట్ట న్వినుతింప లేక నిగుడ\న్‌ గ్రాలంగ నొప్పారు మి
@@ -510,32 +504,29 @@
 జడుఁడ, న్నజ్ఞుఁడ, నైకజిహ్వుఁడ, జనస్తబ్ధుండ, నారాయణా!</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('డ', '|'), ('కుం', 'U'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('వే', 'U'), ('యి', '|'), ('నో', 'U'), ('ళ్ళు', '|'), ('గ', '|'), ('ల', '|'), ('యా', 'U'), ('కా', 'U'), ('కో', 'U'), ('ద', '|'), ('రా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('డున్', 'U'), ('గ', '|'), ('డ', '|'), ('ము', 'U'), ('ట్ట', 'U'), ('న్వి', '|'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('లే', 'U'), ('క', '|'), ('ని', '|'), ('గు', '|'), ('డన్', 'U'), ('గ్రా', 'U'), ('లం', 'U'), ('గ', '|'), ('నొ', 'U'), ('ప్పా', 'U'), ('రు', '|'), ('మి', 'U'), ('మ్మ', '|'), ('డ', '|'), ('రన్', 'U'), ('స', 'U'), ('న్ను', '|'), ('తి', '|'), ('సే', 'U'), ('య', '|'), ('నా', 'U'), ('దు', '|'), ('వ', '|'), ('శ', '|'), ('మే', 'U'), ('య', 'U'), ('జ్ఞా', 'U'), ('ని', '|'), ('లో', 'U'), ('భా', 'U'), ('త్ము', '|'), ('డన్', 'U'), ('జ', '|'), ('డు', '|'), ('డ', 'U'), ('న్న', 'U'), ('జ్ఞు', '|'), ('డ', '|'), ('నై', 'U'), ('క', '|'), ('జి', 'U'), ('హ్వు', '|'), ('డ', '|'), ('జ', '|'), ('న', 'U'), ('స్త', 'U'), ('బ్ధుం', 'U'), ('డ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>నే నీదాసుఁడ నీవు నాపతివి నిన్నే కాని యొండెవ్వరి\న్‌
 ధ్యానింపం బ్రణుతింప నట్లగుటకు న్నా నేర్చు చందంబున\న్‌
@@ -543,32 +534,29 @@
 వానిన్‌ లోఁగొనుమయ్య, తండ్రి, విహితవ్యాపార, నారాయణా!</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('నే', 'U'), ('నీ', 'U'), ('దా', 'U'), ('సు', '|'), ('డ', '|'), ('నీ', 'U'), ('వు', '|'), ('నా', 'U'), ('ప', '|'), ('తి', '|'), ('వి', '|'), ('ని', 'U'), ('న్నే', 'U'), ('కా', 'U'), ('ని', '|'), ('యొం', 'U'), ('డె', 'U'), ('వ్వ', '|'), ('రిన్', 'U'), ('ధ్యా', 'U'), ('నిం', 'U'), ('పం', 'U'), ('బ్ర', '|'), ('ణు', '|'), ('తిం', 'U'), ('ప', '|'), ('న', 'U'), ('ట్ల', '|'), ('గు', '|'), ('ట', '|'), ('కు', 'U'), ('న్నా', 'U'), ('నే', 'U'), ('ర్చు', '|'), ('చం', 'U'), ('దం', 'U'), ('బు', '|'), ('నన్', 'U'), ('నీ', 'U'), ('నా', 'U'), ('మ', 'U'), ('స్తు', '|'), ('తు', '|'), ('లా', 'U'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('నె', '|'), ('డ', '|'), ('ల', 'U'), ('న్నే', 'U'), ('త', 'U'), ('ప్పు', '|'), ('లుం', 'U'), ('గ', 'U'), ('ల్గి', '|'), ('నన్', 'U'), ('వా', 'U'), ('నిన్', 'U'), ('లో', 'U'), ('గొ', '|'), ('ను', '|'), ('మ', 'U'), ('య్య', '|'), ('తం', 'U'), ('డ్రి', '|'), ('వి', '|'), ('హి', '|'), ('త', 'U'), ('వ్యా', 'U'), ('పా', 'U'), ('ర', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>నెరయ న్నిర్మల మైన నీ స్తుతికథానీకంబు పద్యంబులో
 నొరుగుల్‌ మిక్కిలి గల్గెనేనియుఁ గడు న్యోగంబె చర్చింపఁగాఁ
@@ -576,32 +564,29 @@
 జెఱకుం గోలకు తీపు గాక కలదే, చే దెందు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('నె', '|'), ('ర', '|'), ('య', 'U'), ('న్ని', '|'), ('ర్మ', '|'), ('ల', '|'), ('మై', 'U'), ('న', '|'), ('నీ', 'U'), ('స్తు', '|'), ('తి', '|'), ('క', '|'), ('థా', 'U'), ('నీ', 'U'), ('కం', 'U'), ('బు', '|'), ('ప', 'U'), ('ద్యం', 'U'), ('బు', '|'), ('లో', 'U'), ('నొ', '|'), ('రు', '|'), ('గుల్', 'U'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('గ', 'U'), ('ల్గె', '|'), ('నే', 'U'), ('ని', '|'), ('యు', '|'), ('గ', '|'), ('డు', 'U'), ('న్యో', 'U'), ('గం', 'U'), ('బె', '|'), ('చ', 'U'), ('ర్చిం', 'U'), ('ప', '|'), ('గా', 'U'), ('గు', '|'), ('ఱు', '|'), ('గ', 'U'), ('ణ్పై', 'U'), ('న', '|'), ('ను', '|'), ('వం', 'U'), ('క', '|'), ('బో', 'U'), ('యి', '|'), ('న', '|'), ('గ', '|'), ('డుం', 'U'), ('గు', 'U'), ('జ్జై', 'U'), ('న', '|'), ('బే', 'U'), ('డె', 'U'), ('త్తి', '|'), ('నం', 'U'), ('జె', '|'), ('ఱ', '|'), ('కుం', 'U'), ('గో', 'U'), ('ల', '|'), ('కు', '|'), ('తీ', 'U'), ('పు', '|'), ('గా', 'U'), ('క', '|'), ('క', '|'), ('ల', '|'), ('దే', 'U'), ('చే', 'U'), ('దెం', 'U'), ('దు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>చదువుల్‌ పెక్కులు సంగ్రహించి పిదపం జాలంగ సుజ్ఞాని యై
 మదిలోఁ బాయక నిన్ను నిల్పఁ దగు నామర్మంబు వీక్షింపఁడే
@@ -609,32 +594,29 @@
 కది సౌరభ్యపరీక్ష జూడ కుశలే యవ్యక్త, నారాయణా!</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('చ', '|'), ('దు', '|'), ('వుల్', 'U'), ('పె', 'U'), ('క్కు', '|'), ('లు', '|'), ('సం', 'U'), ('గ్ర', '|'), ('హిం', 'U'), ('చి', '|'), ('పి', '|'), ('ద', '|'), ('పం', 'U'), ('జా', 'U'), ('లం', 'U'), ('గ', '|'), ('సు', 'U'), ('జ్ఞా', 'U'), ('ని', '|'), ('యై', 'U'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('ని', 'U'), ('న్ను', '|'), ('ని', 'U'), ('ల్ప', '|'), ('ద', '|'), ('గు', '|'), ('నా', 'U'), ('మ', '|'), ('ర్మం', 'U'), ('బు', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('డే', 'U'), ('మొ', '|'), ('ద', '|'), ('లం', 'U'), ('గా', 'U'), ('డి', '|'), ('ద', '|'), ('చా', 'U'), ('రు', '|'), ('గం', 'U'), ('ధ', '|'), ('వి', '|'), ('త', '|'), ('తుల్', 'U'), ('మో', 'U'), ('వం', 'U'), ('గ', '|'), ('శ', 'U'), ('క్యం', 'U'), ('బె', '|'), ('కా', 'U'), ('క', '|'), ('ది', '|'), ('సౌ', 'U'), ('ర', 'U'), ('భ్య', '|'), ('ప', '|'), ('రీ', 'U'), ('క్ష', '|'), ('జూ', 'U'), ('డ', '|'), ('కు', '|'), ('శ', '|'), ('లే', 'U'), ('య', 'U'), ('వ్య', 'U'), ('క్త', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>లలిఁ గబ్బంబు కరాట మివ్వసుధ నెల్లం న్మించెఁ బో నీకథా
 వళి కర్పూరము నించిన న్నితరమౌ వ్యర్ధార్థకామోదముల్‌
@@ -642,32 +624,29 @@
 చలదిందీవరపత్రలోచన, ఘనశ్యామాంగ, నారాయణా!</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('ల', '|'), ('లి', '|'), ('గ', 'U'), ('బ్బం', 'U'), ('బు', '|'), ('క', '|'), ('రా', 'U'), ('ట', '|'), ('మి', 'U'), ('వ్వ', '|'), ('సు', '|'), ('ధ', '|'), ('నె', 'U'), ('ల్లం', 'U'), ('న్మిం', 'U'), ('చె', '|'), ('బో', 'U'), ('నీ', 'U'), ('క', '|'), ('థా', 'U'), ('వ', '|'), ('ళి', '|'), ('క', 'U'), ('ర్పూ', 'U'), ('ర', '|'), ('ము', '|'), ('నిం', 'U'), ('చి', '|'), ('న', 'U'), ('న్ని', '|'), ('త', '|'), ('ర', '|'), ('మౌ', 'U'), ('వ్య', 'U'), ('ర్ధా', 'U'), ('ర్థ', '|'), ('కా', 'U'), ('మో', 'U'), ('ద', '|'), ('ముల్', 'U'), ('పె', '|'), ('లు', '|'), ('చం', 'U'), ('బూ', 'U'), ('ని', '|'), ('న', '|'), ('య', 'U'), ('క్క', '|'), ('రా', 'U'), ('ట', '|'), ('ము', '|'), ('తు', '|'), ('దిన్', 'U'), ('బే', 'U'), ('తే', 'U'), ('క', '|'), ('రా', 'U'), ('టం', 'U'), ('బె', '|'), ('పో', 'U'), ('చ', '|'), ('ల', '|'), ('దిం', 'U'), ('దీ', 'U'), ('వ', '|'), ('ర', '|'), ('ప', 'U'), ('త్ర', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('ఘ', '|'), ('న', 'U'), ('శ్యా', 'U'), ('మాం', 'U'), ('గ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>మన మార న్నచలేంద్రజాధిపతికి న్మస్తాగ్రమాణిక్యమై
 మునికోపానలదగ్ధ రాజతతికి న్ముక్తిస్ఫురన్మార్గమై
@@ -675,32 +654,29 @@
 జని మూలంబగు నంఘ్రి నాదు మదిలోఁ జర్చింతు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('న', '|'), ('మా', 'U'), ('ర', 'U'), ('న్న', '|'), ('చ', '|'), ('లేం', 'U'), ('ద్ర', '|'), ('జా', 'U'), ('ధి', '|'), ('ప', '|'), ('తి', '|'), ('కి', 'U'), ('న్మ', 'U'), ('స్తా', 'U'), ('గ్ర', '|'), ('మా', 'U'), ('ణి', 'U'), ('క్య', '|'), ('మై', 'U'), ('ము', '|'), ('ని', '|'), ('కో', 'U'), ('పా', 'U'), ('న', '|'), ('ల', '|'), ('ద', 'U'), ('గ్ధ', '|'), ('రా', 'U'), ('జ', '|'), ('త', '|'), ('తి', '|'), ('కి', 'U'), ('న్ము', 'U'), ('క్తి', 'U'), ('స్ఫు', '|'), ('ర', 'U'), ('న్మా', 'U'), ('ర్గ', '|'), ('మై', 'U'), ('యె', '|'), ('న', '|'), ('యన్', 'U'), ('సా', 'U'), ('య', '|'), ('క', '|'), ('శా', 'U'), ('యి', '|'), ('కిం', 'U'), ('జ', '|'), ('న', '|'), ('ని', '|'), ('యై', 'U'), ('యే', 'U'), ('పా', 'U'), ('రు', '|'), ('మి', 'U'), ('న్నే', 'U'), ('టి', '|'), ('కిం', 'U'), ('జ', '|'), ('ని', '|'), ('మూ', 'U'), ('లం', 'U'), ('బ', '|'), ('గు', '|'), ('నం', 'U'), ('ఘ్రి', '|'), ('నా', 'U'), ('దు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('జ', 'U'), ('ర్చిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>నీ పుత్రుండు చరాచరప్రతతుల న్నిర్మించి పెంపారఁగా
 నీ పుణ్యాంగన సర్వజీవతతుల న్నిత్యంబు రక్షింపఁగా
@@ -708,32 +684,29 @@
 నీ పెంపేమని చెప్పవచ్చు సుగుణా నిత్యాత్మ, నారాయణా!</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('పు', 'U'), ('త్రుం', 'U'), ('డు', '|'), ('చ', '|'), ('రా', 'U'), ('చ', '|'), ('ర', 'U'), ('ప్ర', '|'), ('త', '|'), ('తు', '|'), ('ల', 'U'), ('న్ని', '|'), ('ర్మిం', 'U'), ('చి', '|'), ('పెం', 'U'), ('పా', 'U'), ('ర', '|'), ('గా', 'U'), ('నీ', 'U'), ('పు', 'U'), ('ణ్యాం', 'U'), ('గ', '|'), ('న', '|'), ('స', 'U'), ('ర్వ', '|'), ('జీ', 'U'), ('వ', '|'), ('త', '|'), ('తు', '|'), ('ల', 'U'), ('న్ని', 'U'), ('త్యం', 'U'), ('బు', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('గా', 'U'), ('నీ', 'U'), ('పా', 'U'), ('దో', 'U'), ('ద', '|'), ('క', '|'), ('మీ', 'U'), ('జ', '|'), ('గ', 'U'), ('త్త్ర', '|'), ('య', '|'), ('ము', '|'), ('ల', 'U'), ('న్ని', 'U'), ('ష్పా', 'U'), ('పు', '|'), ('లం', 'U'), ('జే', 'U'), ('య', '|'), ('గా', 'U'), ('నీ', 'U'), ('పెం', 'U'), ('పే', 'U'), ('మ', '|'), ('ని', '|'), ('చె', 'U'), ('ప్ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('సు', '|'), ('గు', '|'), ('ణా', 'U'), ('ని', 'U'), ('త్యా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>బ్రహ్మాండావలిలోన సత్వగుణివై బాహ్యంబునం దాదిమ
 బ్రహ్మాఖ్యం బరతత్వబోధములకున్‌ భవ్యాధినాథుండవై
@@ -741,32 +714,29 @@
 జిహ్మవ్యాప్తుల నెన్న నాదు వశమే చిద్రూప, నారాయణా!</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('బ్ర', 'U'), ('హ్మాం', 'U'), ('డా', 'U'), ('వ', '|'), ('లి', '|'), ('లో', 'U'), ('న', '|'), ('స', 'U'), ('త్వ', '|'), ('గు', '|'), ('ణి', '|'), ('వై', 'U'), ('బా', 'U'), ('హ్యం', 'U'), ('బు', '|'), ('నం', 'U'), ('దా', 'U'), ('ది', '|'), ('మ', 'U'), ('బ్ర', 'U'), ('హ్మా', 'U'), ('ఖ్యం', 'U'), ('బ', '|'), ('ర', '|'), ('త', 'U'), ('త్వ', '|'), ('బో', 'U'), ('ధ', '|'), ('ము', '|'), ('ల', '|'), ('కున్', 'U'), ('భ', 'U'), ('వ్యా', 'U'), ('ధి', '|'), ('నా', 'U'), ('థుం', 'U'), ('డ', '|'), ('వై', 'U'), ('బ్ర', 'U'), ('హ్మేం', 'U'), ('ద్రా', 'U'), ('మ', '|'), ('ర', '|'), ('వా', 'U'), ('యు', '|'), ('భు', 'U'), ('క్ప', '|'), ('తు', '|'), ('ల', '|'), ('కున్', 'U'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('రా', 'U'), ('కు', 'U'), ('న్న', '|'), ('నా', 'U'), ('జి', 'U'), ('హ్మ', 'U'), ('వ్యా', 'U'), ('ప్తు', '|'), ('ల', '|'), ('నె', 'U'), ('న్న', '|'), ('నా', 'U'), ('దు', '|'), ('వ', '|'), ('శ', '|'), ('మే', 'U'), ('చి', '|'), ('ద్రూ', 'U'), ('ప', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>ధర సింహాసనమై నభంబు గొడుగై తద్దేవతల్‌ భృత్యులై
 పరమామ్నాయము లెల్ల వందిగణమై బ్రహ్మాండ మాగారమై
@@ -774,32 +744,29 @@
 వరుస న్నీ ఘనరాజసంబు నిజమై వర్ధిల్లు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('సిం', 'U'), ('హా', 'U'), ('స', '|'), ('న', '|'), ('మై', 'U'), ('న', '|'), ('భం', 'U'), ('బు', '|'), ('గొ', '|'), ('డు', '|'), ('గై', 'U'), ('త', 'U'), ('ద్దే', 'U'), ('వ', '|'), ('తల్', 'U'), ('భృ', 'U'), ('త్యు', '|'), ('లై', 'U'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('మ్నా', 'U'), ('య', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('వం', 'U'), ('ది', '|'), ('గ', '|'), ('ణ', '|'), ('మై', 'U'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డ', '|'), ('మా', 'U'), ('గా', 'U'), ('ర', '|'), ('మై', 'U'), ('సి', '|'), ('రి', '|'), ('భా', 'U'), ('ర్యా', 'U'), ('మ', '|'), ('ణి', '|'), ('యై', 'U'), ('వి', '|'), ('రిం', 'U'), ('చి', '|'), ('కొ', '|'), ('డు', '|'), ('కై', 'U'), ('శ్రీ', 'U'), ('గం', 'U'), ('గ', '|'), ('స', 'U'), ('త్పు', 'U'), ('త్రి', '|'), ('యై', 'U'), ('వ', '|'), ('రు', '|'), ('స', 'U'), ('న్నీ', 'U'), ('ఘ', '|'), ('న', '|'), ('రా', 'U'), ('జ', '|'), ('సం', 'U'), ('బు', '|'), ('ని', '|'), ('జ', '|'), ('మై', 'U'), ('వ', 'U'), ('ర్ధి', 'U'), ('ల్లు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>మగమీనాకృతి వార్ధిఁ జొచ్చి యసురు న్మర్దించి యవ్వేదముల్‌
 మగుడం దెచ్చి విరించి కిచ్చి యతని న్మన్నించి యేపారఁగాఁ
@@ -807,32 +774,29 @@
 ఖగరాజధ్వజ భక్తవత్సల జగత్కారుణ్య, నారాయణా!</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('గ', '|'), ('మీ', 'U'), ('నా', 'U'), ('కృ', '|'), ('తి', '|'), ('వా', 'U'), ('ర్ధి', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('య', '|'), ('సు', '|'), ('రు', 'U'), ('న్మ', '|'), ('ర్దిం', 'U'), ('చి', '|'), ('య', 'U'), ('వ్వే', 'U'), ('ద', '|'), ('ముల్', 'U'), ('మ', '|'), ('గు', '|'), ('డం', 'U'), ('దె', 'U'), ('చ్చి', '|'), ('వి', '|'), ('రిం', 'U'), ('చి', '|'), ('కి', 'U'), ('చ్చి', '|'), ('య', '|'), ('త', '|'), ('ని', 'U'), ('న్మ', 'U'), ('న్నిం', 'U'), ('చి', '|'), ('యే', 'U'), ('పా', 'U'), ('ర', '|'), ('గా', 'U'), ('బ', '|'), ('గ', '|'), ('సా', 'U'), ('ధిం', 'U'), ('చి', '|'), ('న', '|'), ('ది', 'U'), ('వ్య', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వ', '|'), ('ని', '|'), ('నే', 'U'), ('భా', 'U'), ('విం', 'U'), ('తు', '|'), ('నె', 'U'), ('ల్ల', 'U'), ('ప్పు', '|'), ('డున్', 'U'), ('ఖ', '|'), ('గ', '|'), ('రా', 'U'), ('జ', 'U'), ('ధ్వ', '|'), ('జ', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', 'U'), ('త్స', '|'), ('ల', '|'), ('జ', '|'), ('గ', 'U'), ('త్కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>అమరుల్‌ రాక్షసనాయకుల్‌ కడఁకతో నత్యంతసామర్థ్యులై
 భ్రమరీదండము మందరాచలముగా బాథోనిధిం ద్రచ్చగా
@@ -840,32 +804,29 @@
 గమఠంబై ధరియించి మించిన జగత్కల్యాణ, నారాయణా!</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('రుల్', 'U'), ('రా', 'U'), ('క్ష', '|'), ('స', '|'), ('నా', 'U'), ('య', '|'), ('కుల్', 'U'), ('క', '|'), ('డ', '|'), ('క', '|'), ('తో', 'U'), ('న', 'U'), ('త్యం', 'U'), ('త', '|'), ('సా', 'U'), ('మ', 'U'), ('ర్థ్యు', '|'), ('లై', 'U'), ('భ్ర', '|'), ('మ', '|'), ('రీ', 'U'), ('దం', 'U'), ('డ', '|'), ('ము', '|'), ('మం', 'U'), ('ద', '|'), ('రా', 'U'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('గా', 'U'), ('బా', 'U'), ('థో', 'U'), ('ని', '|'), ('ధిం', 'U'), ('ద్ర', 'U'), ('చ్చ', '|'), ('గా', 'U'), ('ద', '|'), ('మ', '|'), ('కిం', 'U'), ('చెన్', 'U'), ('భు', '|'), ('వ', '|'), ('న', 'U'), ('త్ర', '|'), ('యం', 'U'), ('బు', '|'), ('ను', '|'), ('గి', '|'), ('రుల్', 'U'), ('దం', 'U'), ('తా', 'U'), ('వ', '|'), ('ళుల్', 'U'), ('మ్రొ', 'U'), ('గ్గి', '|'), ('నం', 'U'), ('గ', '|'), ('మ', '|'), ('ఠం', 'U'), ('బై', 'U'), ('ధ', '|'), ('రి', '|'), ('యిం', 'U'), ('చి', '|'), ('మిం', 'U'), ('చి', '|'), ('న', '|'), ('జ', '|'), ('గ', 'U'), ('త్క', 'U'), ('ల్యా', 'U'), ('ణ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>భీమాకారవరాహమై భువనముల్‌ భీతిల్లి కంపింప ను
 ద్దామోర్విం గొనిపోయి నీరనిధిలో డాఁగున్న గర్వాంధునిన్‌
@@ -873,32 +834,29 @@
 భూమిం దక్షిణదంష్ట్ర నెత్తిన నినుం బూజింతు నారాయణా!</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('భీ', 'U'), ('మా', 'U'), ('కా', 'U'), ('ర', '|'), ('వ', '|'), ('రా', 'U'), ('హ', '|'), ('మై', 'U'), ('భు', '|'), ('వ', '|'), ('న', '|'), ('ముల్', 'U'), ('భీ', 'U'), ('తి', 'U'), ('ల్లి', '|'), ('కం', 'U'), ('పిం', 'U'), ('ప', '|'), ('ను', 'U'), ('ద్దా', 'U'), ('మో', 'U'), ('ర్విం', 'U'), ('గొ', '|'), ('ని', '|'), ('పో', 'U'), ('యి', '|'), ('నీ', 'U'), ('ర', '|'), ('ని', '|'), ('ధి', '|'), ('లో', 'U'), ('డా', 'U'), ('గు', 'U'), ('న్న', '|'), ('గ', 'U'), ('ర్వాం', 'U'), ('ధు', '|'), ('నిన్', 'U'), ('హే', 'U'), ('మా', 'U'), ('క్షా', 'U'), ('సు', '|'), ('రు', '|'), ('వీ', 'U'), ('క', '|'), ('దా', 'U'), ('కి', '|'), ('జ', '|'), ('య', '|'), ('ల', '|'), ('క్ష్మిన్', 'U'), ('గా', 'U'), ('ర', '|'), ('విం', 'U'), ('పం', 'U'), ('గ', '|'), ('నీ', 'U'), ('భూ', 'U'), ('మిం', 'U'), ('ద', 'U'), ('క్షి', '|'), ('ణ', '|'), ('దం', 'U'), ('ష్ట్ర', '|'), ('నె', 'U'), ('త్తి', '|'), ('న', '|'), ('ని', '|'), ('నుం', 'U'), ('బూ', 'U'), ('జిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>స్తంభంబందు నృసింహమై వెడలి యచ్చండాట్టహాసధ్వనుల్‌
 దంభోళిం గడువంగ హేమకశిపోద్దండాసురాధీశ్వరు\న్‌
@@ -906,32 +864,29 @@
 జ్జంభారాతిని బ్రీతిఁ దేల్చిన నినుం జర్చింతు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('స్తం', 'U'), ('భం', 'U'), ('బం', 'U'), ('దు', '|'), ('నృ', '|'), ('సిం', 'U'), ('హ', '|'), ('మై', 'U'), ('వె', '|'), ('డ', '|'), ('లి', '|'), ('య', 'U'), ('చ్చం', 'U'), ('డా', 'U'), ('ట్ట', '|'), ('హా', 'U'), ('స', 'U'), ('ధ్వ', '|'), ('నుల్', 'U'), ('దం', 'U'), ('భో', 'U'), ('ళిం', 'U'), ('గ', '|'), ('డు', '|'), ('వం', 'U'), ('గ', '|'), ('హే', 'U'), ('మ', '|'), ('క', '|'), ('శి', '|'), ('పో', 'U'), ('ద్దం', 'U'), ('డా', 'U'), ('సు', '|'), ('రా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('రున్', 'U'), ('శుం', 'U'), ('భ', 'U'), ('ద్గ', 'U'), ('ర్భ', '|'), ('ము', 'U'), ('వ్ర', 'U'), ('చ్చి', '|'), ('వా', 'U'), ('ని', '|'), ('సు', '|'), ('తు', '|'), ('నిన్', 'U'), ('శో', 'U'), ('భి', 'U'), ('ల్ల', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('చి', '|'), ('య', 'U'), ('జ్జం', 'U'), ('భా', 'U'), ('రా', 'U'), ('తి', '|'), ('ని', 'U'), ('బ్రీ', 'U'), ('తి', '|'), ('దే', 'U'), ('ల్చి', '|'), ('న', '|'), ('ని', '|'), ('నుం', 'U'), ('జ', 'U'), ('ర్చిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>మహియు న్నాకసముం బదద్వయ పరీమాణంబుగాఁ బెట్టి యా
 గ్రహ మొప్పం బలిమస్తకం బొక పదగ్రస్తంబుగా నెమ్మితో
@@ -939,32 +894,29 @@
 సహజంబై వెలసిల్లు వామన లసచ్చారిత్ర, నారాయణా!</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('హి', '|'), ('యు', 'U'), ('న్నా', 'U'), ('క', '|'), ('స', '|'), ('ముం', 'U'), ('బ', '|'), ('ద', 'U'), ('ద్వ', '|'), ('య', '|'), ('ప', '|'), ('రీ', 'U'), ('మా', 'U'), ('ణం', 'U'), ('బు', '|'), ('గా', 'U'), ('బె', 'U'), ('ట్టి', '|'), ('యా', 'U'), ('గ్ర', '|'), ('హ', '|'), ('మొ', 'U'), ('ప్పం', 'U'), ('బ', '|'), ('లి', '|'), ('మ', 'U'), ('స్త', '|'), ('కం', 'U'), ('బొ', '|'), ('క', '|'), ('ప', '|'), ('ద', 'U'), ('గ్ర', 'U'), ('స్తం', 'U'), ('బు', '|'), ('గా', 'U'), ('నె', 'U'), ('మ్మి', '|'), ('తో', 'U'), ('వి', '|'), ('హ', '|'), ('రిం', 'U'), ('చిం', 'U'), ('ద్ర', '|'), ('వి', '|'), ('రిం', 'U'), ('చి', '|'), ('శం', 'U'), ('క', '|'), ('ర', '|'), ('మ', '|'), ('హా', 'U'), ('వి', 'U'), ('ర్భూ', 'U'), ('త', '|'), ('ది', 'U'), ('వ్యా', 'U'), ('కృ', '|'), ('తిన్', 'U'), ('స', '|'), ('హ', '|'), ('జం', 'U'), ('బై', 'U'), ('వె', '|'), ('ల', '|'), ('సి', 'U'), ('ల్లు', '|'), ('వా', 'U'), ('మ', '|'), ('న', '|'), ('ల', '|'), ('స', 'U'), ('చ్చా', 'U'), ('రి', 'U'), ('త్ర', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>ధరణిన్‌ రక్తమహాహ్రదంబు లెలమిం ద్రైలోక్య నిర్దిష్టమై
 పరగం బైతృక తర్పణంబుకొరకై ప్రఖ్యాతిగాఁ దీవ్రతన్‌
@@ -972,32 +924,29 @@
 త్పరశుభ్రాజిత రామనామము కడు\న్‌ ధన్యంబు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('ణిన్', 'U'), ('ర', 'U'), ('క్త', '|'), ('మ', '|'), ('హా', 'U'), ('హ్ర', '|'), ('దం', 'U'), ('బు', '|'), ('లె', '|'), ('ల', '|'), ('మిం', 'U'), ('ద్రై', 'U'), ('లో', 'U'), ('క్య', '|'), ('ని', '|'), ('ర్ది', 'U'), ('ష్ట', '|'), ('మై', 'U'), ('ప', '|'), ('ర', '|'), ('గం', 'U'), ('బై', 'U'), ('తృ', '|'), ('క', '|'), ('త', 'U'), ('ర్ప', '|'), ('ణం', 'U'), ('బు', '|'), ('కొ', '|'), ('ర', '|'), ('కై', 'U'), ('ప్ర', 'U'), ('ఖ్యా', 'U'), ('తి', '|'), ('గా', 'U'), ('దీ', 'U'), ('వ్ర', '|'), ('తన్', 'U'), ('ని', '|'), ('రు', '|'), ('వై', 'U'), ('యొ', 'U'), ('క్క', '|'), ('టి', '|'), ('మా', 'U'), ('రు', 'U'), ('క్ష', 'U'), ('త్ర', '|'), ('వ', '|'), ('రు', '|'), ('ల', 'U'), ('న్నే', 'U'), ('పా', 'U'), ('ర', '|'), ('ని', 'U'), ('ర్జిం', 'U'), ('చి', '|'), ('త', 'U'), ('త్ప', '|'), ('ర', '|'), ('శు', 'U'), ('భ్రా', 'U'), ('జి', '|'), ('త', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('క', '|'), ('డున్', 'U'), ('ధ', 'U'), ('న్యం', 'U'), ('బు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>వరుసం దాటకిఁ జంపి కైశికు మఘ స్వాస్థ్యంబు గావించి శం
 కరు చాపం బొగిఁ ద్రుంచి జానకిఁ దగం గల్యాణమై తండ్రిపం
@@ -1005,32 +954,29 @@
 ధరణిం గూల్చిన రామనామము కడు\న్‌ ధన్యంబు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('రు', '|'), ('సం', 'U'), ('దా', 'U'), ('ట', '|'), ('కి', '|'), ('జం', 'U'), ('పి', '|'), ('కై', 'U'), ('శి', '|'), ('కు', '|'), ('మ', '|'), ('ఘ', 'U'), ('స్వా', 'U'), ('స్థ్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('శం', 'U'), ('క', '|'), ('రు', '|'), ('చా', 'U'), ('పం', 'U'), ('బొ', '|'), ('గి', '|'), ('ద్రుం', 'U'), ('చి', '|'), ('జా', 'U'), ('న', '|'), ('కి', '|'), ('ద', '|'), ('గం', 'U'), ('గ', 'U'), ('ల్యా', 'U'), ('ణ', '|'), ('మై', 'U'), ('తం', 'U'), ('డ్రి', '|'), ('పం', 'U'), ('ప', '|'), ('రు', '|'), ('దా', 'U'), ('రన్', 'U'), ('వ', '|'), ('న', '|'), ('భూ', 'U'), ('మి', '|'), ('కే', 'U'), ('గి', '|'), ('జ', '|'), ('గ', '|'), ('దా', 'U'), ('హ్లా', 'U'), ('దం', 'U'), ('బు', '|'), ('గా', 'U'), ('రా', 'U'), ('వ', '|'), ('ణున్', 'U'), ('ధ', '|'), ('ర', '|'), ('ణిం', 'U'), ('గూ', 'U'), ('ల్చి', '|'), ('న', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('క', '|'), ('డున్', 'U'), ('ధ', 'U'), ('న్యం', 'U'), ('బు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>యదువంశంబునఁ గృష్ణు కగ్రజుఁడవై యాభీల శౌర్యోన్నతిన్‌
 మదవద్ధేనుక ముష్టికా ద్యసురుల\న్‌ మర్దించి లీలారసా
@@ -1038,32 +984,29 @@
 విదితంబౌ బలరామమూర్తివని నిన్‌ వీక్షింతు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('దు', '|'), ('వం', 'U'), ('శం', 'U'), ('బు', '|'), ('న', '|'), ('గృ', 'U'), ('ష్ణు', '|'), ('క', 'U'), ('గ్ర', '|'), ('జు', '|'), ('డ', '|'), ('వై', 'U'), ('యా', 'U'), ('భీ', 'U'), ('ల', '|'), ('శౌ', 'U'), ('ర్యో', 'U'), ('న్న', '|'), ('తిన్', 'U'), ('మ', '|'), ('ద', '|'), ('వ', 'U'), ('ద్ధే', 'U'), ('ను', '|'), ('క', '|'), ('ము', 'U'), ('ష్టి', '|'), ('కా', 'U'), ('ద్య', '|'), ('సు', '|'), ('రు', '|'), ('లన్', 'U'), ('మ', '|'), ('ర్దిం', 'U'), ('చి', '|'), ('లీ', 'U'), ('లా', 'U'), ('ర', '|'), ('సా', 'U'), ('స్ప', '|'), ('ద', '|'), ('కే', 'U'), ('ళీ', 'U'), ('ర', '|'), ('తి', '|'), ('రే', 'U'), ('వ', '|'), ('తీ', 'U'), ('వ', '|'), ('ద', '|'), ('న', '|'), ('కం', 'U'), ('జా', 'U'), ('తాం', 'U'), ('త', '|'), ('భృం', 'U'), ('గం', 'U'), ('బ', '|'), ('నన్', 'U'), ('వి', '|'), ('ది', '|'), ('తం', 'U'), ('బౌ', 'U'), ('బ', '|'), ('ల', '|'), ('రా', 'U'), ('మ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వ', '|'), ('ని', '|'), ('నిన్', 'U'), ('వీ', 'U'), ('క్షిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>పురము ల్మూడును మూడులోకములు నేప్రొద్దు న్విదారింపఁ ద
 త్పురనారీ మహిమోన్నతుల్‌ సెడుటకై బుద్ధుండవై బుద్ధితో
@@ -1071,32 +1014,29 @@
 ప్పురముల్‌ గెల్చిన నీ యుపాయము జగత్పూజ్యంబు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('పు', '|'), ('ర', '|'), ('ము', 'U'), ('ల్మూ', 'U'), ('డు', '|'), ('ను', '|'), ('మూ', 'U'), ('డు', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('లు', '|'), ('నే', 'U'), ('ప్రొ', 'U'), ('ద్దు', 'U'), ('న్వి', '|'), ('దా', 'U'), ('రిం', 'U'), ('ప', '|'), ('ద', 'U'), ('త్పు', '|'), ('ర', '|'), ('నా', 'U'), ('రీ', 'U'), ('మ', '|'), ('హి', '|'), ('మో', 'U'), ('న్న', '|'), ('తుల్', 'U'), ('సె', '|'), ('డు', '|'), ('ట', '|'), ('కై', 'U'), ('బు', 'U'), ('ద్ధుం', 'U'), ('డ', '|'), ('వై', 'U'), ('బు', 'U'), ('ద్ధి', '|'), ('తో', 'U'), ('వ', '|'), ('ర', '|'), ('బో', 'U'), ('ధ', '|'), ('ద్రు', '|'), ('మ', '|'), ('సే', 'U'), ('వ', '|'), ('జే', 'U'), ('యు', '|'), ('ట', '|'), ('కు', '|'), ('నై', 'U'), ('వా', 'U'), ('రిం', 'U'), ('బ్ర', '|'), ('బో', 'U'), ('ధిం', 'U'), ('చి', '|'), ('య', 'U'), ('ప్పు', '|'), ('ర', '|'), ('ముల్', 'U'), ('గె', 'U'), ('ల్చి', '|'), ('న', '|'), ('నీ', 'U'), ('యు', '|'), ('పా', 'U'), ('య', '|'), ('ము', '|'), ('జ', '|'), ('గ', 'U'), ('త్పూ', 'U'), ('జ్యం', 'U'), ('బు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>కలిధర్మంబునఁ బాపసంకలితులై గర్వాంధులై తుచ్ఛులై
 కులశీలంబులు మాని హేయగతులం గ్రొవ్వారు దుష్టాత్ములం
@@ -1104,32 +1044,29 @@
 వలనం గల్క్యవతార మొందఁగల నిన్‌ వర్ణింతు నారాయణా!</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('లి', '|'), ('ధ', '|'), ('ర్మం', 'U'), ('బు', '|'), ('న', '|'), ('బా', 'U'), ('ప', '|'), ('సం', 'U'), ('క', '|'), ('లి', '|'), ('తు', '|'), ('లై', 'U'), ('గ', 'U'), ('ర్వాం', 'U'), ('ధు', '|'), ('లై', 'U'), ('తు', 'U'), ('చ్ఛు', '|'), ('లై', 'U'), ('కు', '|'), ('ల', '|'), ('శీ', 'U'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('మా', 'U'), ('ని', '|'), ('హే', 'U'), ('య', '|'), ('గ', '|'), ('తు', '|'), ('లం', 'U'), ('గ్రొ', 'U'), ('వ్వా', 'U'), ('రు', '|'), ('దు', 'U'), ('ష్టా', 'U'), ('త్ము', '|'), ('లం', 'U'), ('బ', '|'), ('లి', '|'), ('గా', 'U'), ('జే', 'U'), ('య', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('ధ', '|'), ('ర్మ', '|'), ('మె', '|'), ('ల', '|'), ('మిం', 'U'), ('బా', 'U'), ('లిం', 'U'), ('చి', '|'), ('ని', 'U'), ('ల్పం', 'U'), ('గ', '|'), ('మీ', 'U'), ('వ', '|'), ('ల', '|'), ('నం', 'U'), ('గ', 'U'), ('ల్క్య', '|'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మొం', 'U'), ('ద', '|'), ('గ', '|'), ('ల', '|'), ('నిన్', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>ఇరవొంద\న్‌ సచరాచరప్రతతుల న్నెన్నంగ శక్యంబు కా
 కరయ\న్‌ పద్మభవాండ భాండచయము న్నారంగ మీకుక్షిలో
@@ -1137,32 +1074,29 @@
 తర వాఃపూరము చంద మొంది యెపుడున్‌ దైత్యారి నారాయణా!</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('ర', '|'), ('వొం', 'U'), ('దన్', 'U'), ('స', '|'), ('చ', '|'), ('రా', 'U'), ('చ', '|'), ('ర', 'U'), ('ప్ర', '|'), ('త', '|'), ('తు', '|'), ('ల', 'U'), ('న్నె', 'U'), ('న్నం', 'U'), ('గ', '|'), ('శ', 'U'), ('క్యం', 'U'), ('బు', '|'), ('కా', 'U'), ('క', '|'), ('ర', '|'), ('యన్', 'U'), ('ప', 'U'), ('ద్మ', '|'), ('భ', '|'), ('వాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', '|'), ('చ', '|'), ('య', '|'), ('ము', 'U'), ('న్నా', 'U'), ('రం', 'U'), ('గ', '|'), ('మీ', 'U'), ('కు', 'U'), ('క్షి', '|'), ('లో', 'U'), ('న', '|'), ('రు', '|'), ('దా', 'U'), ('ర', 'U'), ('న్ను', '|'), ('ద', '|'), ('యిం', 'U'), ('చు', '|'), ('బెం', 'U'), ('చు', '|'), ('న', '|'), ('డ', '|'), ('గు', 'U'), ('న్న', 'U'), ('న్నా', 'U'), ('రి', '|'), ('కే', 'U'), ('ళో', 'U'), ('ద్భ', '|'), ('వాం', 'U'), ('త', '|'), ('ర', '|'), ('వాః', 'U'), ('పూ', 'U'), ('ర', '|'), ('ము', '|'), ('చం', 'U'), ('ద', '|'), ('మొం', 'U'), ('ది', '|'), ('యె', '|'), ('పు', '|'), ('డున్', 'U'), ('దై', 'U'), ('త్యా', 'U'), ('రి', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>దళదిందీవర నీలనీరద సముద్యద్భాసితాకార, శ్రీ
 లలనా కౌస్తుభచారువక్ష విబుధశ్లాఘోద్భవస్థాన కో
@@ -1170,32 +1104,29 @@
 జ్జలజాతాయతనేత్ర నిన్ను మదిలోఁ జర్చింతు నారాయణా!</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('ద', '|'), ('ళ', '|'), ('దిం', 'U'), ('దీ', 'U'), ('వ', '|'), ('ర', '|'), ('నీ', 'U'), ('ల', '|'), ('నీ', 'U'), ('ర', '|'), ('ద', '|'), ('స', '|'), ('ము', 'U'), ('ద్య', 'U'), ('ద్భా', 'U'), ('సి', '|'), ('తా', 'U'), ('కా', 'U'), ('ర', 'U'), ('శ్రీ', 'U'), ('ల', '|'), ('ల', '|'), ('నా', 'U'), ('కౌ', 'U'), ('స్తు', '|'), ('భ', '|'), ('చా', 'U'), ('రు', '|'), ('వ', 'U'), ('క్ష', '|'), ('వి', '|'), ('బు', '|'), ('ధ', 'U'), ('శ్లా', 'U'), ('ఘో', 'U'), ('ద్భ', '|'), ('వ', 'U'), ('స్థా', 'U'), ('న', '|'), ('కో', 'U'), ('మ', '|'), ('ల', '|'), ('నా', 'U'), ('భీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణా', 'U'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('జ', '|'), ('ని', '|'), ('తా', 'U'), ('మ్నా', 'U'), ('యా', 'U'), ('ద్య', '|'), ('గం', 'U'), ('గా', 'U'), ('ల', '|'), ('స', 'U'), ('జ్జ', '|'), ('ల', '|'), ('జా', 'U'), ('తా', 'U'), ('య', '|'), ('త', '|'), ('నే', 'U'), ('త్ర', '|'), ('ని', 'U'), ('న్ను', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('జ', 'U'), ('ర్చిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>జగదాధారక భక్తవత్సల కృపాజన్మాలయాపాంగ! భూ
 గగనార్కేందుజలాత్మపావక మరుత్కాయా! ప్రదీపప్రయో
@@ -1203,32 +1134,29 @@
 త్రిగుణాతీత! ముకుంద! నాదు మదిలో దీపింపు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('గ', '|'), ('దా', 'U'), ('ధా', 'U'), ('ర', '|'), ('క', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', 'U'), ('త్స', '|'), ('ల', '|'), ('కృ', '|'), ('పా', 'U'), ('జ', 'U'), ('న్మా', 'U'), ('ల', '|'), ('యా', 'U'), ('పాం', 'U'), ('గ', '|'), ('భూ', 'U'), ('గ', '|'), ('గ', '|'), ('నా', 'U'), ('ర్కేం', 'U'), ('దు', '|'), ('జ', '|'), ('లా', 'U'), ('త్మ', '|'), ('పా', 'U'), ('వ', '|'), ('క', '|'), ('మ', '|'), ('రు', 'U'), ('త్కా', 'U'), ('యా', 'U'), ('ప్ర', '|'), ('దీ', 'U'), ('ప', 'U'), ('ప్ర', '|'), ('యో', 'U'), ('గి', '|'), ('గ', '|'), ('ణ', 'U'), ('స్తు', 'U'), ('త్య', '|'), ('మ', '|'), ('హా', 'U'), ('ఘ', '|'), ('నా', 'U'), ('శ', '|'), ('న', '|'), ('ల', '|'), ('స', 'U'), ('ద్గీ', 'U'), ('ర్వా', 'U'), ('ణ', '|'), ('సం', 'U'), ('సే', 'U'), ('వి', '|'), ('తా', 'U'), ('త్రి', '|'), ('గు', '|'), ('ణా', 'U'), ('తీ', 'U'), ('త', '|'), ('ము', '|'), ('కుం', 'U'), ('ద', '|'), ('నా', 'U'), ('దు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('దీ', 'U'), ('పిం', 'U'), ('పు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
         <is>
           <t>భూతవ్రాతము నంబుజాసనుఁడవై పుట్టింతు విష్ణుండవై
 ప్రీతిం బ్రోతు హరుండవై చెఱుతు నిర్భేద్యుండవై త్రైగుణో
@@ -1236,32 +1164,29 @@
 బ్జాతోద్భూతసుజాతపూజితపదాబ్జశ్రేష్ఠ, నారాయణా!</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('భూ', 'U'), ('త', 'U'), ('వ్రా', 'U'), ('త', '|'), ('ము', '|'), ('నం', 'U'), ('బు', '|'), ('జా', 'U'), ('స', '|'), ('ను', '|'), ('డ', '|'), ('వై', 'U'), ('పు', 'U'), ('ట్టిం', 'U'), ('తు', '|'), ('వి', 'U'), ('ష్ణుం', 'U'), ('డ', '|'), ('వై', 'U'), ('ప్రీ', 'U'), ('తిం', 'U'), ('బ్రో', 'U'), ('తు', '|'), ('హ', '|'), ('రుం', 'U'), ('డ', '|'), ('వై', 'U'), ('చె', '|'), ('ఱు', '|'), ('తు', '|'), ('ని', 'U'), ('ర్భే', 'U'), ('ద్యుం', 'U'), ('డ', '|'), ('వై', 'U'), ('త్రై', 'U'), ('గు', '|'), ('ణో', 'U'), ('పే', 'U'), ('తం', 'U'), ('బై', 'U'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('త్మ', '|'), ('వై', 'U'), ('ని', '|'), ('లు', '|'), ('తు', '|'), ('నీ', 'U'), ('పెం', 'U'), ('పె', 'U'), ('వ్వ', '|'), ('రుం', 'U'), ('గా', 'U'), ('న', '|'), ('ర', 'U'), ('బ్జా', 'U'), ('తో', 'U'), ('ద్భూ', 'U'), ('త', '|'), ('సు', '|'), ('జా', 'U'), ('త', '|'), ('పూ', 'U'), ('జి', '|'), ('త', '|'), ('ప', '|'), ('దా', 'U'), ('బ్జ', 'U'), ('శ్రే', 'U'), ('ష్ఠ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>వరనాభీధవళాంబుజోదరమున\న్‌ వాణీశుఁ గల్పించి య
 ప్పురుషశ్రేష్ఠుని ఫాలమందు శివునిం బుట్టించి యామేటికిం
@@ -1269,32 +1194,29 @@
 సరి యెవ్వారలు మీరు దక్కఁగ రమాసాధ్వీశ, నారాయణా!</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ర', '|'), ('నా', 'U'), ('భీ', 'U'), ('ధ', '|'), ('వ', '|'), ('ళాం', 'U'), ('బు', '|'), ('జో', 'U'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('నన్', 'U'), ('వా', 'U'), ('ణీ', 'U'), ('శు', '|'), ('గ', 'U'), ('ల్పిం', 'U'), ('చి', '|'), ('య', 'U'), ('ప్పు', '|'), ('రు', '|'), ('ష', 'U'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('ని', '|'), ('ఫా', 'U'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('శి', '|'), ('వు', '|'), ('నిం', 'U'), ('బు', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('యా', 'U'), ('మే', 'U'), ('టి', '|'), ('కిం', 'U'), ('బ', '|'), ('ర', '|'), ('మో', 'U'), ('త్తం', 'U'), ('స', '|'), ('ము', '|'), ('గా', 'U'), ('వి', '|'), ('య', 'U'), ('త్త', '|'), ('ల', '|'), ('న', '|'), ('దిం', 'U'), ('బా', 'U'), ('దం', 'U'), ('బు', '|'), ('లం', 'U'), ('గ', 'U'), ('న్న', '|'), ('మీ', 'U'), ('స', '|'), ('రి', '|'), ('యె', 'U'), ('వ్వా', 'U'), ('ర', '|'), ('లు', '|'), ('మీ', 'U'), ('రు', '|'), ('ద', 'U'), ('క్క', '|'), ('గ', '|'), ('ర', '|'), ('మా', 'U'), ('సా', 'U'), ('ధ్వీ', 'U'), ('శ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
         <is>
           <t>ప్రభ మీనాభి జనించినట్టి విలసత్పద్మోరుసద్మంబునం
 బ్రభవంబైన విరించి ఫాలజనిత ప్రస్వేదసంభూతుఁడై
@@ -1302,32 +1224,29 @@
 నభవాఖ్యుండవు ని న్నెఱుంగవశమే యబ్జాక్ష, నారాయణా!</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('ప్ర', '|'), ('భ', '|'), ('మీ', 'U'), ('నా', 'U'), ('భి', '|'), ('జ', '|'), ('నిం', 'U'), ('చి', '|'), ('న', 'U'), ('ట్టి', '|'), ('వి', '|'), ('ల', '|'), ('స', 'U'), ('త్ప', 'U'), ('ద్మో', 'U'), ('రు', '|'), ('స', 'U'), ('ద్మం', 'U'), ('బు', '|'), ('నం', 'U'), ('బ్ర', '|'), ('భ', '|'), ('వం', 'U'), ('బై', 'U'), ('న', '|'), ('వి', '|'), ('రిం', 'U'), ('చి', '|'), ('ఫా', 'U'), ('ల', '|'), ('జ', '|'), ('ని', '|'), ('త', 'U'), ('ప్ర', 'U'), ('స్వే', 'U'), ('ద', '|'), ('సం', 'U'), ('భూ', 'U'), ('తు', '|'), ('డై', 'U'), ('య', '|'), ('భి', '|'), ('ధా', 'U'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('గో', 'U'), ('రి', '|'), ('కాం', 'U'), ('చె', '|'), ('ను', '|'), ('భ', '|'), ('వుం', 'U'), ('డా', 'U'), ('ర్యే', 'U'), ('శు', '|'), ('లూ', 'U'), ('హిం', 'U'), ('ప', '|'), ('గా', 'U'), ('న', '|'), ('భ', '|'), ('వా', 'U'), ('ఖ్యుం', 'U'), ('డ', '|'), ('వు', '|'), ('ని', 'U'), ('న్నె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('వ', '|'), ('శ', '|'), ('మే', 'U'), ('య', 'U'), ('బ్జా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>పటుగర్భాంతరగోళభాగమున నీ బ్రహ్మాండభాండంబు ప్రా
 కట దివ్యాద్భుతలీలఁ దాల్చి మహిమం గల్పాంత మంభోధిపై
@@ -1335,32 +1254,29 @@
 నిటలాక్షాంబురుహాసనాదికులకు న్నిర్వాణ, నారాయణా!</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('టు', '|'), ('గ', 'U'), ('ర్భాం', 'U'), ('త', '|'), ('ర', '|'), ('గో', 'U'), ('ళ', '|'), ('భా', 'U'), ('గ', '|'), ('ము', '|'), ('న', '|'), ('నీ', 'U'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డం', 'U'), ('బు', 'U'), ('ప్రా', 'U'), ('క', '|'), ('ట', '|'), ('ది', 'U'), ('వ్యా', 'U'), ('ద్భు', '|'), ('త', '|'), ('లీ', 'U'), ('ల', '|'), ('దా', 'U'), ('ల్చి', '|'), ('మ', '|'), ('హి', '|'), ('మం', 'U'), ('గ', 'U'), ('ల్పాం', 'U'), ('త', '|'), ('మం', 'U'), ('భో', 'U'), ('ధి', '|'), ('పై', 'U'), ('వ', '|'), ('ట', '|'), ('ప', 'U'), ('త్రా', 'U'), ('గ్ర', '|'), ('ము', '|'), ('జెం', 'U'), ('ది', '|'), ('యొ', 'U'), ('ప్పి', '|'), ('న', '|'), ('మి', '|'), ('ము', 'U'), ('న్వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('గా', 'U'), ('శ', 'U'), ('క్య', '|'), ('మే', 'U'), ('ని', '|'), ('ట', '|'), ('లా', 'U'), ('క్షాం', 'U'), ('బు', '|'), ('రు', '|'), ('హా', 'U'), ('స', '|'), ('నా', 'U'), ('ది', '|'), ('కు', '|'), ('ల', '|'), ('కు', 'U'), ('న్ని', 'U'), ('ర్వా', 'U'), ('ణ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>సవిశేషోరు సువర్ణబిందువిలస చ్చక్రాంకలింగాకృతి\న్‌
 భవుచే నుద్ధవుచేఁ బయోజభవుచేఁ బద్మారిచే భానుచే
@@ -1368,32 +1284,29 @@
 నవదివ్యార్చన లందుచుందువు రమానారీశ, నారాయణా!</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('వి', '|'), ('శే', 'U'), ('షో', 'U'), ('రు', '|'), ('సు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('బిం', 'U'), ('దు', '|'), ('వి', '|'), ('ల', '|'), ('స', 'U'), ('చ్చ', 'U'), ('క్రాం', 'U'), ('క', '|'), ('లిం', 'U'), ('గా', 'U'), ('కృ', '|'), ('తిన్', 'U'), ('భ', '|'), ('వు', '|'), ('చే', 'U'), ('ను', 'U'), ('ద్ధ', '|'), ('వు', '|'), ('చే', 'U'), ('బ', '|'), ('యో', 'U'), ('జ', '|'), ('భ', '|'), ('వు', '|'), ('చే', 'U'), ('బ', 'U'), ('ద్మా', 'U'), ('రి', '|'), ('చే', 'U'), ('భా', 'U'), ('ను', '|'), ('చే', 'U'), ('ధ్రు', '|'), ('వు', '|'), ('చే', 'U'), ('నా', 'U'), ('ది', '|'), ('వి', '|'), ('జా', 'U'), ('ధి', '|'), ('నా', 'U'), ('య', '|'), ('కు', '|'), ('ల', '|'), ('చే', 'U'), ('దీ', 'U'), ('ప్య', 'U'), ('న్ము', '|'), ('నీం', 'U'), ('ద్రా', 'U'), ('ళి', '|'), ('చే', 'U'), ('న', '|'), ('వ', '|'), ('ది', 'U'), ('వ్యా', 'U'), ('ర్చ', '|'), ('న', '|'), ('లం', 'U'), ('దు', '|'), ('చుం', 'U'), ('దు', '|'), ('వు', '|'), ('ర', '|'), ('మా', 'U'), ('నా', 'U'), ('రీ', 'U'), ('శ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>సర్వంబున్‌ వసియించు నీతనువునన్‌ సర్వంబునం దుండగా
 సర్వాత్మా! వసియించు దీవని మదిన్‌ సార్థంబుగాఁ జూచి యా
@@ -1401,32 +1314,29 @@
 శీర్వాదంబు భవన్మహామహిమ లక్ష్మీనాథ, నారాయణా!</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('స', 'U'), ('ర్వం', 'U'), ('బున్', 'U'), ('వ', '|'), ('సి', '|'), ('యిం', 'U'), ('చు', '|'), ('నీ', 'U'), ('త', '|'), ('ను', '|'), ('వు', '|'), ('నన్', 'U'), ('స', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('నం', 'U'), ('దుం', 'U'), ('డ', '|'), ('గా', 'U'), ('స', 'U'), ('ర్వా', 'U'), ('త్మా', 'U'), ('వ', '|'), ('సి', '|'), ('యిం', 'U'), ('చు', '|'), ('దీ', 'U'), ('వ', '|'), ('ని', '|'), ('మ', '|'), ('దిన్', 'U'), ('సా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('గా', 'U'), ('జూ', 'U'), ('చి', '|'), ('యా', 'U'), ('గీ', 'U'), ('ర్వా', 'U'), ('ణా', 'U'), ('దు', '|'), ('లు', '|'), ('వా', 'U'), ('సు', '|'), ('దే', 'U'), ('వు', '|'), ('డ', '|'), ('ను', '|'), ('చున్', 'U'), ('గీ', 'U'), ('ర్తిం', 'U'), ('తు', '|'), ('రే', 'U'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('నా', 'U'), ('శీ', 'U'), ('ర్వా', 'U'), ('దం', 'U'), ('బు', '|'), ('భ', '|'), ('వ', 'U'), ('న్మ', '|'), ('హా', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('నా', 'U'), ('థ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
         <is>
           <t>గగనాద్యంచితపంచభూతమయమై కంజాతజాండావలిన్‌
 సగుణబ్రహ్మమయాఖ్యతం దనరుచున్‌ సంసారివై చిత్కళా
@@ -1434,32 +1344,29 @@
 నిగమోత్తంస గుణావతంస సుమహానిత్యాత్మ, నారాయణా!</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('గ', '|'), ('నా', 'U'), ('ద్యం', 'U'), ('చి', '|'), ('త', '|'), ('పం', 'U'), ('చ', '|'), ('భూ', 'U'), ('త', '|'), ('మ', '|'), ('య', '|'), ('మై', 'U'), ('కం', 'U'), ('జా', 'U'), ('త', '|'), ('జాం', 'U'), ('డా', 'U'), ('వ', '|'), ('లిన్', 'U'), ('స', '|'), ('గు', '|'), ('ణ', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('మ', '|'), ('యా', 'U'), ('ఖ్య', '|'), ('తం', 'U'), ('ద', '|'), ('న', '|'), ('రు', '|'), ('చున్', 'U'), ('సం', 'U'), ('సా', 'U'), ('రి', '|'), ('వై', 'U'), ('చి', 'U'), ('త్క', '|'), ('ళా', 'U'), ('సు', '|'), ('గు', '|'), ('ణం', 'U'), ('బై', 'U'), ('వి', '|'), ('ల', '|'), ('సి', 'U'), ('ల్లు', '|'), ('దీ', 'U'), ('వు', '|'), ('వి', '|'), ('పు', '|'), ('ల', 'U'), ('స్థూ', 'U'), ('లం', 'U'), ('బు', '|'), ('సూ', 'U'), ('క్ష్మం', 'U'), ('బు', '|'), ('నై', 'U'), ('ని', '|'), ('గ', '|'), ('మో', 'U'), ('త్తం', 'U'), ('స', '|'), ('గు', '|'), ('ణా', 'U'), ('వ', '|'), ('తం', 'U'), ('స', '|'), ('సు', '|'), ('మ', '|'), ('హా', 'U'), ('ని', 'U'), ('త్యా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>ఎల రారన్‌ భవదీయనామకథనం బేమర్త్యుచిత్తంబులోఁ
 బొలుపారం దగిలుండునేని యఘముల్‌ పొందంగ నె ట్లోపెడు\న్‌
@@ -1467,32 +1374,29 @@
 నిలువ న్నేర్చునే భక్తపోషణ కృపానిత్యాత్మ, నారాయణా!</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('ఎ', '|'), ('ల', '|'), ('రా', 'U'), ('రన్', 'U'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('నా', 'U'), ('మ', '|'), ('క', '|'), ('థ', '|'), ('నం', 'U'), ('బే', 'U'), ('మ', 'U'), ('ర్త్యు', '|'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('లో', 'U'), ('బొ', '|'), ('లు', '|'), ('పా', 'U'), ('రం', 'U'), ('ద', '|'), ('గి', '|'), ('లుం', 'U'), ('డు', '|'), ('నే', 'U'), ('ని', '|'), ('య', '|'), ('ఘ', '|'), ('ముల్', 'U'), ('పొం', 'U'), ('దం', 'U'), ('గ', '|'), ('నె', 'U'), ('ట్లో', 'U'), ('పె', '|'), ('డున్', 'U'), ('క', '|'), ('ల', '|'), ('యం', 'U'), ('బా', 'U'), ('వ', '|'), ('కు', '|'), ('చే', 'U'), ('త', '|'), ('బ', 'U'), ('ట్టు', '|'), ('వ', '|'), ('డు', '|'), ('న', 'U'), ('క్కా', 'U'), ('ష్ఠం', 'U'), ('బు', '|'), ('పై', 'U'), ('గీ', 'U'), ('ట', '|'), ('ముల్', 'U'), ('ని', '|'), ('లు', '|'), ('వ', 'U'), ('న్నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('భ', 'U'), ('క్త', '|'), ('పో', 'U'), ('ష', '|'), ('ణ', '|'), ('కృ', '|'), ('పా', 'U'), ('ని', 'U'), ('త్యా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
         <is>
           <t>కలయం దిక్కులు నిండి చండతరమై కప్పారు మేఘౌఘముల్‌
 వెలయ\న్‌ ఘోరసమీరణస్ఫురణచే వే పాయుచందంబున\న్‌
@@ -1500,32 +1404,29 @@
 దొలఁగు న్మీ దగు దివ్యమంత్రపఠన\న్‌ దోషఘ్న, నారాయణా!</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ల', '|'), ('యం', 'U'), ('ది', 'U'), ('క్కు', '|'), ('లు', '|'), ('నిం', 'U'), ('డి', '|'), ('చం', 'U'), ('డ', '|'), ('త', '|'), ('ర', '|'), ('మై', 'U'), ('క', 'U'), ('ప్పా', 'U'), ('రు', '|'), ('మే', 'U'), ('ఘౌ', 'U'), ('ఘ', '|'), ('ముల్', 'U'), ('వె', '|'), ('ల', '|'), ('యన్', 'U'), ('ఘో', 'U'), ('ర', '|'), ('స', '|'), ('మీ', 'U'), ('ర', '|'), ('ణ', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణ', '|'), ('చే', 'U'), ('వే', 'U'), ('పా', 'U'), ('యు', '|'), ('చం', 'U'), ('దం', 'U'), ('బు', '|'), ('నన్', 'U'), ('జ', '|'), ('ల', '|'), ('దం', 'U'), ('భో', 'U'), ('ళి', '|'), ('మృ', '|'), ('గా', 'U'), ('గ్ని', '|'), ('త', 'U'), ('స్క', '|'), ('ర', '|'), ('రు', '|'), ('జా', 'U'), ('శ', 'U'), ('త్రో', 'U'), ('ర', '|'), ('గ', 'U'), ('వ్రా', 'U'), ('త', '|'), ('ముల్', 'U'), ('దొ', '|'), ('ల', '|'), ('గు', 'U'), ('న్మీ', 'U'), ('ద', '|'), ('గు', '|'), ('ది', 'U'), ('వ్య', '|'), ('మం', 'U'), ('త్ర', '|'), ('ప', '|'), ('ఠ', '|'), ('నన్', 'U'), ('దో', 'U'), ('ష', 'U'), ('ఘ్న', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>కలుషాగాథవినాశకారి యగుచుం గైవల్యసంధాయియై
 నలి నొప్పారెడు మంత్రరాజమగు నీనామంబు ప్రేమంబుతో
@@ -1533,32 +1434,29 @@
 వెలయన్‌ భూరుహకోటరం బదియ సూ వేదాత్మ, నారాయణా!</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('లు', '|'), ('షా', 'U'), ('గా', 'U'), ('థ', '|'), ('వి', '|'), ('నా', 'U'), ('శ', '|'), ('కా', 'U'), ('రి', '|'), ('య', '|'), ('గు', '|'), ('చుం', 'U'), ('గై', 'U'), ('వ', 'U'), ('ల్య', '|'), ('సం', 'U'), ('ధా', 'U'), ('యి', '|'), ('యై', 'U'), ('న', '|'), ('లి', '|'), ('నొ', 'U'), ('ప్పా', 'U'), ('రె', '|'), ('డు', '|'), ('మం', 'U'), ('త్ర', '|'), ('రా', 'U'), ('జ', '|'), ('మ', '|'), ('గు', '|'), ('నీ', 'U'), ('నా', 'U'), ('మం', 'U'), ('బు', 'U'), ('ప్రే', 'U'), ('మం', 'U'), ('బు', '|'), ('తో', 'U'), ('న', '|'), ('ల', '|'), ('ర', 'U'), ('న్నె', 'U'), ('వ్వ', '|'), ('ని', '|'), ('వా', 'U'), ('క్కు', '|'), ('నం', 'U'), ('బొ', '|'), ('ర', '|'), ('య', '|'), ('దే', 'U'), ('న', 'U'), ('న్నీ', 'U'), ('చు', '|'), ('ఘో', 'U'), ('రా', 'U'), ('త్మ', '|'), ('యున్', 'U'), ('వె', '|'), ('ల', '|'), ('యన్', 'U'), ('భూ', 'U'), ('రు', '|'), ('హ', '|'), ('కో', 'U'), ('ట', '|'), ('రం', 'U'), ('బ', '|'), ('ది', '|'), ('య', '|'), ('సూ', 'U'), ('వే', 'U'), ('దా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
         <is>
           <t>పరమంబై పరతత్వమై సకలసంపత్సారమై భవ్యమై
 సురసిద్ధోరగయక్ష పక్షిమునిరక్షో హృద్గుహాభ్యంతర
@@ -1566,32 +1464,29 @@
 సరి లే కెప్పుడు నీదునామ మమరున్‌ సత్యంబు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('మం', 'U'), ('బై', 'U'), ('ప', '|'), ('ర', '|'), ('త', 'U'), ('త్వ', '|'), ('మై', 'U'), ('స', '|'), ('క', '|'), ('ల', '|'), ('సం', 'U'), ('ప', 'U'), ('త్సా', 'U'), ('ర', '|'), ('మై', 'U'), ('భ', 'U'), ('వ్య', '|'), ('మై', 'U'), ('సు', '|'), ('ర', '|'), ('సి', 'U'), ('ద్ధో', 'U'), ('ర', '|'), ('గ', '|'), ('య', 'U'), ('క్ష', '|'), ('ప', 'U'), ('క్షి', '|'), ('ము', '|'), ('ని', '|'), ('ర', 'U'), ('క్షో', 'U'), ('హృ', 'U'), ('ద్గు', '|'), ('హా', 'U'), ('భ్యం', 'U'), ('త', '|'), ('ర', 'U'), ('స్థి', '|'), ('ర', '|'), ('సు', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('సు', '|'), ('దీ', 'U'), ('ప', '|'), ('మై', 'U'), ('శ్రు', '|'), ('తి', '|'), ('క', '|'), ('ళా', 'U'), ('సి', 'U'), ('ద్ధాం', 'U'), ('త', '|'), ('మై', 'U'), ('సి', 'U'), ('ద్ధ', '|'), ('మై', 'U'), ('స', '|'), ('రి', '|'), ('లే', 'U'), ('కె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('నీ', 'U'), ('దు', '|'), ('నా', 'U'), ('మ', '|'), ('మ', '|'), ('మ', '|'), ('రున్', 'U'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>అధికాఘౌఘ తమోదివాకరమునై యద్రీంద్రజా జిహ్వకున్‌
 సుధయై వేదవినూత్నరత్నములకున్‌ సూత్రాభిధానంబునై
@@ -1599,32 +1494,29 @@
 విధులై మీబహునామరాజి వెలయున్‌ వేదాత్మ, నారాయణా!</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ధి', '|'), ('కా', 'U'), ('ఘౌ', 'U'), ('ఘ', '|'), ('త', '|'), ('మో', 'U'), ('ది', '|'), ('వా', 'U'), ('క', '|'), ('ర', '|'), ('ము', '|'), ('నై', 'U'), ('య', '|'), ('ద్రీం', 'U'), ('ద్ర', '|'), ('జా', 'U'), ('జి', 'U'), ('హ్వ', '|'), ('కున్', 'U'), ('సు', '|'), ('ధ', '|'), ('యై', 'U'), ('వే', 'U'), ('ద', '|'), ('వి', '|'), ('నూ', 'U'), ('త్న', '|'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('ల', '|'), ('కున్', 'U'), ('సూ', 'U'), ('త్రా', 'U'), ('భి', '|'), ('ధా', 'U'), ('నం', 'U'), ('బు', '|'), ('నై', 'U'), ('బు', '|'), ('ధ', '|'), ('సం', 'U'), ('దో', 'U'), ('హ', '|'), ('మ', '|'), ('నో', 'U'), ('హ', '|'), ('రాం', 'U'), ('కు', '|'), ('ర', '|'), ('ము', '|'), ('నై', 'U'), ('భూ', 'U'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('కో', 'U'), ('టి', '|'), ('కిన్', 'U'), ('వి', '|'), ('ధు', '|'), ('లై', 'U'), ('మీ', 'U'), ('బ', '|'), ('హు', '|'), ('నా', 'U'), ('మ', '|'), ('రా', 'U'), ('జి', '|'), ('వె', '|'), ('ల', '|'), ('యున్', 'U'), ('వే', 'U'), ('దా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
         <is>
           <t>పొనర న్ముక్తికిఁ ద్రోవ వేదములకుం బుట్టిల్లు మోదంబునం
 దునికిస్థానము నిష్టభోగములకు న్నుత్పత్తి యేప్రొద్దును\న్‌
@@ -1632,32 +1524,29 @@
 వినుతాంఘ్రిద్వయపద్మసేవన గదా విశ్వేశ, నారాయణా!</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('పొ', '|'), ('న', '|'), ('ర', 'U'), ('న్ము', 'U'), ('క్తి', '|'), ('కి', '|'), ('ద్రో', 'U'), ('వ', '|'), ('వే', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('కుం', 'U'), ('బు', 'U'), ('ట్టి', 'U'), ('ల్లు', '|'), ('మో', 'U'), ('దం', 'U'), ('బు', '|'), ('నం', 'U'), ('దు', '|'), ('ని', '|'), ('కి', 'U'), ('స్థా', 'U'), ('న', '|'), ('ము', '|'), ('ని', 'U'), ('ష్ట', '|'), ('భో', 'U'), ('గ', '|'), ('ము', '|'), ('ల', '|'), ('కు', 'U'), ('న్ను', 'U'), ('త్ప', 'U'), ('త్తి', '|'), ('యే', 'U'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('నున్', 'U'), ('ఘ', '|'), ('న', '|'), ('పా', 'U'), ('పం', 'U'), ('బు', '|'), ('ల', '|'), ('వై', 'U'), ('రి', '|'), ('ష', 'U'), ('డ్రి', '|'), ('పు', '|'), ('ల', '|'), ('కున్', 'U'), ('గా', 'U'), ('లా', 'U'), ('వ', '|'), ('సా', 'U'), ('నం', 'U'), ('బు', '|'), ('మీ', 'U'), ('వి', '|'), ('ను', '|'), ('తాం', 'U'), ('ఘ్రి', 'U'), ('ద్వ', '|'), ('య', '|'), ('ప', 'U'), ('ద్మ', '|'), ('సే', 'U'), ('వ', '|'), ('న', '|'), ('గ', '|'), ('దా', 'U'), ('వి', 'U'), ('శ్వే', 'U'), ('శ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>భవరోగంబుల మందు పాతకతమోబాలార్కబింబంబు క
 ర్మ విషజ్వాలసుధాంశుగామృత తుషారవ్రాతపాథోధిమూ
@@ -1665,32 +1554,29 @@
 భువిలో మీదగు మంత్రరాజ మమరున్‌ భూతాత్మ, నారాయణా!</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('భ', '|'), ('వ', '|'), ('రో', 'U'), ('గం', 'U'), ('బు', '|'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('పా', 'U'), ('త', '|'), ('క', '|'), ('త', '|'), ('మో', 'U'), ('బా', 'U'), ('లా', 'U'), ('ర్క', '|'), ('బిం', 'U'), ('బం', 'U'), ('బు', '|'), ('క', '|'), ('ర్మ', '|'), ('వి', '|'), ('ష', 'U'), ('జ్వా', 'U'), ('ల', '|'), ('సు', '|'), ('ధాం', 'U'), ('శు', '|'), ('గా', 'U'), ('మృ', '|'), ('త', '|'), ('తు', '|'), ('షా', 'U'), ('ర', 'U'), ('వ్రా', 'U'), ('త', '|'), ('పా', 'U'), ('థో', 'U'), ('ధి', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వి', '|'), ('కై', 'U'), ('వ', 'U'), ('ల్య', '|'), ('ప', '|'), ('దా', 'U'), ('వ', '|'), ('లో', 'U'), ('క', '|'), ('న', '|'), ('క', '|'), ('ళా', 'U'), ('ది', 'U'), ('వ్యాం', 'U'), ('జ', '|'), ('న', 'U'), ('శ్రే', 'U'), ('ష్ఠ', '|'), ('మై', 'U'), ('భు', '|'), ('వి', '|'), ('లో', 'U'), ('మీ', 'U'), ('ద', '|'), ('గు', '|'), ('మం', 'U'), ('త్ర', '|'), ('రా', 'U'), ('జ', '|'), ('మ', '|'), ('మ', '|'), ('రున్', 'U'), ('భూ', 'U'), ('తా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
         <is>
           <t>వరుసన్‌ గర్మపిపీలికాకృత తనూవల్మీకనాళంబులోఁ
 బరుషాకారముతో వసించిన మహా పాపోరగశ్రేణికిం
@@ -1698,32 +1584,29 @@
 తిరుమంత్రం బగు మంత్రరాజ మమరుం దివ్యాత్మ, నారాయణా!</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('రు', '|'), ('సన్', 'U'), ('గ', '|'), ('ర్మ', '|'), ('పి', '|'), ('పీ', 'U'), ('లి', '|'), ('కా', 'U'), ('కృ', '|'), ('త', '|'), ('త', '|'), ('నూ', 'U'), ('వ', 'U'), ('ల్మీ', 'U'), ('క', '|'), ('నా', 'U'), ('ళం', 'U'), ('బు', '|'), ('లో', 'U'), ('బ', '|'), ('రు', '|'), ('షా', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('తో', 'U'), ('వ', '|'), ('సిం', 'U'), ('చి', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('పా', 'U'), ('పో', 'U'), ('ర', '|'), ('గ', 'U'), ('శ్రే', 'U'), ('ణి', '|'), ('కిం', 'U'), ('బ', '|'), ('ర', '|'), ('మో', 'U'), ('చ్చా', 'U'), ('ట', '|'), ('న', '|'), ('మై', 'U'), ('ర', '|'), ('హ', 'U'), ('స్య', '|'), ('మ', '|'), ('హి', '|'), ('మం', 'U'), ('బా', 'U'), ('టిం', 'U'), ('పు', '|'), ('చు', 'U'), ('న్నుం', 'U'), ('డు', '|'), ('మీ', 'U'), ('తి', '|'), ('రు', '|'), ('మం', 'U'), ('త్రం', 'U'), ('బ', '|'), ('గు', '|'), ('మం', 'U'), ('త్ర', '|'), ('రా', 'U'), ('జ', '|'), ('మ', '|'), ('మ', '|'), ('రుం', 'U'), ('ది', 'U'), ('వ్యా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>హరుని న్నద్రిజ నాంజనేయుని గుహు న్నయ్యంబరీషున్‌ ధ్రువుం
 గరిఁ బ్రహ్లాదు విభీషణాఖ్యుని బలిన్‌ ఘంటాశ్రవు న్నారదు\న్‌
@@ -1731,32 +1614,29 @@
 నరు నక్రూరునిఁ బాయకుండును భవన్నామంబు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('రు', '|'), ('ని', 'U'), ('న్న', '|'), ('ద్రి', '|'), ('జ', '|'), ('నాం', 'U'), ('జ', '|'), ('నే', 'U'), ('యు', '|'), ('ని', '|'), ('గు', '|'), ('హు', 'U'), ('న్న', 'U'), ('య్యం', 'U'), ('బ', '|'), ('రీ', 'U'), ('షున్', 'U'), ('ధ్రు', '|'), ('వుం', 'U'), ('గ', '|'), ('రి', 'U'), ('బ్ర', 'U'), ('హ్లా', 'U'), ('దు', '|'), ('వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణా', 'U'), ('ఖ్యు', '|'), ('ని', '|'), ('బ', '|'), ('లిన్', 'U'), ('ఘం', 'U'), ('టా', 'U'), ('శ్ర', '|'), ('వు', 'U'), ('న్నా', 'U'), ('ర', '|'), ('దున్', 'U'), ('గ', '|'), ('ర', '|'), ('మొ', 'U'), ('ప్ప', 'U'), ('న్వి', '|'), ('దు', '|'), ('రున్', 'U'), ('బ', '|'), ('రా', 'U'), ('శ', '|'), ('ర', '|'), ('సు', '|'), ('తున్', 'U'), ('గాం', 'U'), ('గే', 'U'), ('యు', '|'), ('నిన్', 'U'), ('ద్రౌ', 'U'), ('ప', '|'), ('దిన్', 'U'), ('న', '|'), ('రు', '|'), ('న', 'U'), ('క్రూ', 'U'), ('రు', '|'), ('ని', '|'), ('బా', 'U'), ('య', '|'), ('కుం', 'U'), ('డు', '|'), ('ను', '|'), ('భ', '|'), ('వ', 'U'), ('న్నా', 'U'), ('మం', 'U'), ('బు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>శ్రీకిన్మందిరమైన వక్షము, సురజ్యేష్ఠోద్భవస్థాన నా
 భీకంజాతము, చంద్రికాంతర సుధాభివ్యక్త నేత్రంబులు\న్‌,
@@ -1764,32 +1644,29 @@
 లోకారాధ్యుఁడ వైన నిన్నెపుడు నాలోఁ జూతు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('కి', 'U'), ('న్మం', 'U'), ('ది', '|'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('వ', 'U'), ('క్ష', '|'), ('ము', '|'), ('సు', '|'), ('ర', 'U'), ('జ్యే', 'U'), ('ష్ఠో', 'U'), ('ద్భ', '|'), ('వ', 'U'), ('స్థా', 'U'), ('న', '|'), ('నా', 'U'), ('భీ', 'U'), ('కం', 'U'), ('జా', 'U'), ('త', '|'), ('ము', '|'), ('చం', 'U'), ('ద్రి', '|'), ('కాం', 'U'), ('త', '|'), ('ర', '|'), ('సు', '|'), ('ధా', 'U'), ('భి', 'U'), ('వ్య', 'U'), ('క్త', '|'), ('నే', 'U'), ('త్రం', 'U'), ('బు', '|'), ('లు', 'U'), ('న్లో', 'U'), ('క', 'U'), ('స్తు', 'U'), ('త్య', '|'), ('మ', '|'), ('రు', 'U'), ('న్న', '|'), ('దీ', 'U'), ('జ', '|'), ('న', '|'), ('క', '|'), ('మా', 'U'), ('లో', 'U'), ('లాం', 'U'), ('ఘ్రి', '|'), ('యున్', 'U'), ('గ', 'U'), ('ల్గు', '|'), ('నా', 'U'), ('లో', 'U'), ('కా', 'U'), ('రా', 'U'), ('ధ్యు', '|'), ('డ', '|'), ('వై', 'U'), ('న', '|'), ('ని', 'U'), ('న్నె', '|'), ('పు', '|'), ('డు', '|'), ('నా', 'U'), ('లో', 'U'), ('జూ', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>విందుల్‌ విందు లటంచు గోపరమణుల్‌ వ్రేపల్లెలోఁ బిన్ననాఁ
 డందెల్‌ మ్రోయఁగ ముద్దుమోమలర ని న్నాలింగితుం జేయుచో
@@ -1797,32 +1674,29 @@
 మందస్మేర ముఖేందురోచులు మము న్మన్నించు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('విం', 'U'), ('దుల్', 'U'), ('విం', 'U'), ('దు', '|'), ('ల', '|'), ('టం', 'U'), ('చు', '|'), ('గో', 'U'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('ణుల్', 'U'), ('వ్రే', 'U'), ('ప', 'U'), ('ల్లె', '|'), ('లో', 'U'), ('బి', 'U'), ('న్న', '|'), ('నా', 'U'), ('డం', 'U'), ('దెల్', 'U'), ('మ్రో', 'U'), ('య', '|'), ('గ', '|'), ('ము', 'U'), ('ద్దు', '|'), ('మో', 'U'), ('మ', '|'), ('ల', '|'), ('ర', '|'), ('ని', 'U'), ('న్నా', 'U'), ('లిం', 'U'), ('గి', '|'), ('తుం', 'U'), ('జే', 'U'), ('యు', '|'), ('చో', 'U'), ('డెం', 'U'), ('దం', 'U'), ('బుల్', 'U'), ('ద', '|'), ('ని', '|'), ('వా', 'U'), ('ర', '|'), ('రా', 'U'), ('గ', '|'), ('ర', '|'), ('స', '|'), ('వీ', 'U'), ('టీ', 'U'), ('లీ', 'U'), ('ల', '|'), ('లన్', 'U'), ('దే', 'U'), ('ల్చు', '|'), ('మీ', 'U'), ('మం', 'U'), ('ద', 'U'), ('స్మే', 'U'), ('ర', '|'), ('ము', '|'), ('ఖేం', 'U'), ('దు', '|'), ('రో', 'U'), ('చు', '|'), ('లు', '|'), ('మ', '|'), ('ము', 'U'), ('న్మ', 'U'), ('న్నిం', 'U'), ('చు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
         <is>
           <t>విందు ల్వచ్చిరి మీయశోదకడకు న్వేగంబె పొ మ్మయ్యయో
 నందానందన! చందనాంకురమ! కృష్ణా! యింకఁబో వేమి మా
@@ -1830,32 +1704,29 @@
 చందం బబ్బిన నుబ్బకుండుదురె ఘోషస్త్రీలు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('విం', 'U'), ('దు', 'U'), ('ల్వ', 'U'), ('చ్చి', '|'), ('రి', '|'), ('మీ', 'U'), ('య', '|'), ('శో', 'U'), ('ద', '|'), ('క', '|'), ('డ', '|'), ('కు', 'U'), ('న్వే', 'U'), ('గం', 'U'), ('బె', '|'), ('పొ', 'U'), ('మ్మ', 'U'), ('య్య', '|'), ('యో', 'U'), ('నం', 'U'), ('దా', 'U'), ('నం', 'U'), ('ద', '|'), ('న', '|'), ('చం', 'U'), ('ద', '|'), ('నాం', 'U'), ('కు', '|'), ('ర', '|'), ('మ', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('యిం', 'U'), ('క', '|'), ('బో', 'U'), ('వే', 'U'), ('మి', '|'), ('మా', 'U'), ('మం', 'U'), ('దం', 'U'), ('జా', 'U'), ('త', '|'), ('ర', '|'), ('సే', 'U'), ('య', '|'), ('బో', 'U'), ('ద', '|'), ('మి', '|'), ('దె', '|'), ('ర', 'U'), ('మ్మా', 'U'), ('యం', 'U'), ('చు', '|'), ('మి', 'U'), ('మ్మె', 'U'), ('త్తు', '|'), ('కో', 'U'), ('చం', 'U'), ('దం', 'U'), ('బ', 'U'), ('బ్బి', '|'), ('న', '|'), ('ను', 'U'), ('బ్బ', '|'), ('కుం', 'U'), ('డు', '|'), ('దు', '|'), ('రె', '|'), ('ఘో', 'U'), ('ష', 'U'), ('స్త్రీ', 'U'), ('లు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>అన్నా కృష్ణమ నేడు వేల్పులకు మీఁదన్నార మీచట్లలో
 వెన్నల్‌ ముట్టకు మన్న నాక్షణమున న్విశ్వాకృతిస్ఫూర్తి వై
@@ -1863,32 +1734,29 @@
 గన్నుల్‌ మూయ యశోదకున్‌ జిఱుత వై కన్పింతు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('న్నా', 'U'), ('కృ', 'U'), ('ష్ణ', '|'), ('మ', '|'), ('నే', 'U'), ('డు', '|'), ('వే', 'U'), ('ల్పు', '|'), ('ల', '|'), ('కు', '|'), ('మీ', 'U'), ('ద', 'U'), ('న్నా', 'U'), ('ర', '|'), ('మీ', 'U'), ('చ', 'U'), ('ట్ల', '|'), ('లో', 'U'), ('వె', '|'), ('న్నల్', 'U'), ('ము', 'U'), ('ట్ట', '|'), ('కు', '|'), ('మ', 'U'), ('న్న', '|'), ('నా', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ము', '|'), ('న', 'U'), ('న్వి', 'U'), ('శ్వా', 'U'), ('కృ', '|'), ('తి', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('యు', '|'), ('న్నన్', 'U'), ('ది', 'U'), ('క్కు', '|'), ('లు', '|'), ('చూ', 'U'), ('చు', '|'), ('చున్', 'U'), ('బె', '|'), ('గ', '|'), ('డి', '|'), ('ని', 'U'), ('న్నో', 'U'), ('లి', 'U'), ('న్ను', '|'), ('తుల్', 'U'), ('సే', 'U'), ('యు', '|'), ('చున్', 'U'), ('గ', '|'), ('న్నుల్', 'U'), ('మూ', 'U'), ('య', '|'), ('య', '|'), ('శో', 'U'), ('ద', '|'), ('కున్', 'U'), ('జి', '|'), ('ఱు', '|'), ('త', '|'), ('వై', 'U'), ('క', 'U'), ('న్పిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
         <is>
           <t>ఉల్లోలంబులుగాఁ గురుల్‌ నుదుటిపై నుప్పొంగ మోమెత్తి ధ
 మ్మిల్లం బల్లలనాడ రాగరససమ్మిశ్రంబుగా నీవు వ్రే
@@ -1896,32 +1764,29 @@
 పిల్లంగ్రోవిని జుట్టి రాఁ దిగుచు నీ పెంపొప్పు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('ఉ', 'U'), ('ల్లో', 'U'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('గా', 'U'), ('గు', '|'), ('రుల్', 'U'), ('ను', '|'), ('దు', '|'), ('టి', '|'), ('పై', 'U'), ('ను', 'U'), ('ప్పొం', 'U'), ('గ', '|'), ('మో', 'U'), ('మె', 'U'), ('త్తి', '|'), ('ధ', 'U'), ('మ్మి', 'U'), ('ల్లం', 'U'), ('బ', 'U'), ('ల్ల', '|'), ('ల', '|'), ('నా', 'U'), ('డ', '|'), ('రా', 'U'), ('గ', '|'), ('ర', '|'), ('స', '|'), ('స', 'U'), ('మ్మి', 'U'), ('శ్రం', 'U'), ('బు', '|'), ('గా', 'U'), ('నీ', 'U'), ('వు', 'U'), ('వ్రే', 'U'), ('ప', 'U'), ('ల్లెం', 'U'), ('దా', 'U'), ('డు', '|'), ('చు', '|'), ('గో', 'U'), ('ప', '|'), ('గో', 'U'), ('ని', '|'), ('వ', '|'), ('హ', '|'), ('గో', 'U'), ('ప', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('యు', 'U'), ('ల్లం', 'U'), ('బు', '|'), ('మీ', 'U'), ('పి', 'U'), ('ల్లం', 'U'), ('గ్రో', 'U'), ('వి', '|'), ('ని', '|'), ('జు', 'U'), ('ట్టి', '|'), ('రా', 'U'), ('ది', '|'), ('గు', '|'), ('చు', '|'), ('నీ', 'U'), ('పెం', 'U'), ('పొ', 'U'), ('ప్పు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>కసవొప్పన్‌ పసి మేసి ప్రొద్దు గలుగం గాంతారముం బాసి య
 ప్పసియు న్నీవును వచ్చుచో నెదురుగాఁ బైకొన్న గోపాంగనా
@@ -1929,32 +1794,29 @@
 పసిఁ గొంచున్‌ బసిఁ గొంచు వచ్చుటలు నే భావింతు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('స', '|'), ('వొ', '|'), ('ప్పన్', 'U'), ('ప', '|'), ('సి', '|'), ('మే', 'U'), ('సి', 'U'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('గ', '|'), ('లు', '|'), ('గం', 'U'), ('గాం', 'U'), ('తా', 'U'), ('ర', '|'), ('ముం', 'U'), ('బా', 'U'), ('సి', '|'), ('య', 'U'), ('ప్ప', '|'), ('సి', '|'), ('యు', 'U'), ('న్నీ', 'U'), ('వు', '|'), ('ను', '|'), ('వ', 'U'), ('చ్చు', '|'), ('చో', 'U'), ('నె', '|'), ('దు', '|'), ('రు', '|'), ('గా', 'U'), ('బై', 'U'), ('కొ', 'U'), ('న్న', '|'), ('గో', 'U'), ('పాం', 'U'), ('గ', '|'), ('నా', 'U'), ('ర', '|'), ('స', '|'), ('వ', 'U'), ('ద్వృ', 'U'), ('త్త', '|'), ('ప', '|'), ('యో', 'U'), ('ధ', '|'), ('ర', 'U'), ('ద్వ', '|'), ('య', '|'), ('హ', '|'), ('రి', '|'), ('ద్రా', 'U'), ('లే', 'U'), ('ప', '|'), ('నా', 'U'), ('మో', 'U'), ('ద', '|'), ('ముల్', 'U'), ('ప', '|'), ('సి', '|'), ('గొం', 'U'), ('చున్', 'U'), ('బ', '|'), ('సి', '|'), ('గొం', 'U'), ('చు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ట', '|'), ('లు', '|'), ('నే', 'U'), ('భా', 'U'), ('విం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
         <is>
           <t>చన్నుల్‌ మీదిఁకి చౌకళింప నడుముం జవ్వాడ కందర్పసం
 పన్నాఖ్యంబు నటించు మాడ్కి కబరీభారంబు లూటాడఁగా
@@ -1962,32 +1824,29 @@
 వన్నెల్‌ కన్నుల ముంచి గ్రోలుటలు నే వర్ణింతు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('చ', '|'), ('న్నుల్', 'U'), ('మీ', 'U'), ('ది', '|'), ('కి', '|'), ('చౌ', 'U'), ('క', '|'), ('ళిం', 'U'), ('ప', '|'), ('న', '|'), ('డు', '|'), ('ముం', 'U'), ('జ', 'U'), ('వ్వా', 'U'), ('డ', '|'), ('కం', 'U'), ('ద', 'U'), ('ర్ప', '|'), ('సం', 'U'), ('ప', 'U'), ('న్నా', 'U'), ('ఖ్యం', 'U'), ('బు', '|'), ('న', '|'), ('టిం', 'U'), ('చు', '|'), ('మా', 'U'), ('డ్కి', '|'), ('క', '|'), ('బ', '|'), ('రీ', 'U'), ('భా', 'U'), ('రం', 'U'), ('బు', '|'), ('లూ', 'U'), ('టా', 'U'), ('డ', '|'), ('గా', 'U'), ('వి', 'U'), ('న్నా', 'U'), ('ణం', 'U'), ('బు', '|'), ('న', '|'), ('టిం', 'U'), ('ప', '|'), ('గో', 'U'), ('ప', '|'), ('జ', '|'), ('న', '|'), ('గో', 'U'), ('బృం', 'U'), ('దం', 'U'), ('బు', '|'), ('తో', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('మీ', 'U'), ('వ', '|'), ('న్నెల్', 'U'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('ముం', 'U'), ('చి', 'U'), ('గ్రో', 'U'), ('లు', '|'), ('ట', '|'), ('లు', '|'), ('నే', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>పెరుగుల్‌ ద్రచ్చుచు నొక్కగోపిక మిముం బ్రేమంబునం జూచి రా
 గ రసావేశత రిత్త ద్రచ్చ నిడ నాకవ్వంబు నీవు న్మనో
@@ -1995,32 +1854,29 @@
 వరవృత్తాంతము లేను పుణ్యకథగా వర్ణింతు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('పె', '|'), ('రు', '|'), ('గుల్', 'U'), ('ద్ర', 'U'), ('చ్చు', '|'), ('చు', '|'), ('నొ', 'U'), ('క్క', '|'), ('గో', 'U'), ('పి', '|'), ('క', '|'), ('మి', '|'), ('ముం', 'U'), ('బ్రే', 'U'), ('మం', 'U'), ('బు', '|'), ('నం', 'U'), ('జూ', 'U'), ('చి', '|'), ('రా', 'U'), ('గ', '|'), ('ర', '|'), ('సా', 'U'), ('వే', 'U'), ('శ', '|'), ('త', '|'), ('రి', 'U'), ('త్త', '|'), ('ద్ర', 'U'), ('చ్చ', '|'), ('ని', '|'), ('డ', '|'), ('నా', 'U'), ('క', 'U'), ('వ్వం', 'U'), ('బు', '|'), ('నీ', 'U'), ('వు', 'U'), ('న్మ', '|'), ('నో', 'U'), ('హ', '|'), ('ర', '|'), ('లీ', 'U'), ('లం', 'U'), ('గ', '|'), ('ను', '|'), ('గొం', 'U'), ('చు', '|'), ('ధే', 'U'), ('ను', '|'), ('వ', '|'), ('ని', '|'), ('య', 'U'), ('య్యా', 'U'), ('బో', 'U'), ('తు', '|'), ('నుం', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('తీ', 'U'), ('వ', '|'), ('ర', '|'), ('వృ', 'U'), ('త్తాం', 'U'), ('త', '|'), ('ము', '|'), ('లే', 'U'), ('ను', '|'), ('పు', 'U'), ('ణ్య', '|'), ('క', '|'), ('థ', '|'), ('గా', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
         <is>
           <t>కేల\న్‌ గోలయు గూటిచిక్కము నొగిం గీలించి నెత్తంబునం
 బీలీపించముఁ జుట్టి నెన్నడుమునం బింఛావళి\న్‌ గట్టి క
@@ -2028,32 +1884,29 @@
 వాలన్‌ గాచినభావ మిట్టి దని నే వర్ణింతు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('కే', 'U'), ('లన్', 'U'), ('గో', 'U'), ('ల', '|'), ('యు', '|'), ('గూ', 'U'), ('టి', '|'), ('చి', 'U'), ('క్క', '|'), ('ము', '|'), ('నొ', '|'), ('గిం', 'U'), ('గీ', 'U'), ('లిం', 'U'), ('చి', '|'), ('నె', 'U'), ('త్తం', 'U'), ('బు', '|'), ('నం', 'U'), ('బీ', 'U'), ('లీ', 'U'), ('పిం', 'U'), ('చ', '|'), ('ము', '|'), ('జు', 'U'), ('ట్టి', '|'), ('నె', 'U'), ('న్న', '|'), ('డు', '|'), ('ము', '|'), ('నం', 'U'), ('బిం', 'U'), ('ఛా', 'U'), ('వ', '|'), ('ళిన్', 'U'), ('గ', 'U'), ('ట్టి', '|'), ('క', 'U'), ('ర్ణా', 'U'), ('లం', 'U'), ('కా', 'U'), ('ర', '|'), ('క', '|'), ('దం', 'U'), ('బ', '|'), ('గు', 'U'), ('చ్ఛ', '|'), ('మ', '|'), ('ధు', '|'), ('మ', 'U'), ('త్తా', 'U'), ('లీ', 'U'), ('స్వ', '|'), ('నం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('నీ', 'U'), ('వా', 'U'), ('లన్', 'U'), ('గా', 'U'), ('చి', '|'), ('న', '|'), ('భా', 'U'), ('వ', '|'), ('మి', 'U'), ('ట్టి', '|'), ('ద', '|'), ('ని', '|'), ('నే', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>కాళిందీతటభూమి నాలకదుపుల్‌ కాలూఁది మేయ\న్‌ సము
 త్తాలోల తమాలపాదప శిఖాంతస్థుండవై వేణురం
@@ -2061,32 +1914,29 @@
 పాలవ్రాతము గండుగోయిలలుగా వర్ణింతు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('ళిం', 'U'), ('దీ', 'U'), ('త', '|'), ('ట', '|'), ('భూ', 'U'), ('మి', '|'), ('నా', 'U'), ('ల', '|'), ('క', '|'), ('దు', '|'), ('పుల్', 'U'), ('కా', 'U'), ('లూ', 'U'), ('ది', '|'), ('మే', 'U'), ('యన్', 'U'), ('స', '|'), ('ము', 'U'), ('త్తా', 'U'), ('లో', 'U'), ('ల', '|'), ('త', '|'), ('మా', 'U'), ('ల', '|'), ('పా', 'U'), ('ద', '|'), ('ప', '|'), ('శి', '|'), ('ఖాం', 'U'), ('త', 'U'), ('స్థుం', 'U'), ('డ', '|'), ('వై', 'U'), ('వే', 'U'), ('ణు', '|'), ('రం', 'U'), ('ధ్రా', 'U'), ('లిన్', 'U'), ('రా', 'U'), ('గ', '|'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('నిం', 'U'), ('డ', '|'), ('వి', '|'), ('ల', '|'), ('స', '|'), ('ద్రా', 'U'), ('గం', 'U'), ('బు', '|'), ('సం', 'U'), ('ధిం', 'U'), ('చి', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', 'U'), ('వ్రా', 'U'), ('త', '|'), ('ము', '|'), ('గం', 'U'), ('డు', '|'), ('గో', 'U'), ('యి', '|'), ('ల', '|'), ('లు', '|'), ('గా', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
         <is>
           <t>రాణించెన్‌ గడు నంచు నీసహచరుల్‌ రాగిల్లి సోలంగ మీ
 వేణుక్వాణము వీనులం బడి మనోవీథుల్‌ బయల్‌ముట్టఁగా
@@ -2094,32 +1944,29 @@
 శ్రేణుల్‌ చిందులు ద్రొక్కి యాడుటలు నేఁ జర్చింతు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('ణిం', 'U'), ('చెన్', 'U'), ('గ', '|'), ('డు', '|'), ('నం', 'U'), ('చు', '|'), ('నీ', 'U'), ('స', '|'), ('హ', '|'), ('చ', '|'), ('రుల్', 'U'), ('రా', 'U'), ('గి', 'U'), ('ల్లి', '|'), ('సో', 'U'), ('లం', 'U'), ('గ', '|'), ('మీ', 'U'), ('వే', 'U'), ('ణు', 'U'), ('క్వా', 'U'), ('ణ', '|'), ('ము', '|'), ('వీ', 'U'), ('ను', '|'), ('లం', 'U'), ('బ', '|'), ('డి', '|'), ('మ', '|'), ('నో', 'U'), ('వీ', 'U'), ('థుల్', 'U'), ('బ', '|'), ('య', 'U'), ('ల్ము', 'U'), ('ట్ట', '|'), ('గా', 'U'), ('ఘో', 'U'), ('ణా', 'U'), ('గ్రం', 'U'), ('బు', '|'), ('లు', '|'), ('మీ', 'U'), ('ది', '|'), ('కె', 'U'), ('త్తు', '|'), ('కొ', '|'), ('ని', '|'), ('లాం', 'U'), ('గూ', 'U'), ('లం', 'U'), ('బు', '|'), ('ల', 'U'), ('ల్లా', 'U'), ('ర్చి', '|'), ('గో', 'U'), ('శ్రే', 'U'), ('ణుల్', 'U'), ('చిం', 'U'), ('దు', '|'), ('లు', '|'), ('ద్రొ', 'U'), ('క్కి', '|'), ('యా', 'U'), ('డు', '|'), ('ట', '|'), ('లు', '|'), ('నే', 'U'), ('జ', 'U'), ('ర్చిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>పసులంగాపరి యే మెఱుంగు మధురప్రాయోల్లసద్వృత్తవా
 గ్విసరారావము మోవి దా వెదురుగ్రోవిం బెట్టినాఁ డంచు ని\న్‌
@@ -2127,32 +1974,29 @@
 వ్యసనాసక్తులఁ జేయుచందములు నే వర్ణింతు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('సు', '|'), ('లం', 'U'), ('గా', 'U'), ('ప', '|'), ('రి', '|'), ('యే', 'U'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('మ', '|'), ('ధు', '|'), ('ర', 'U'), ('ప్రా', 'U'), ('యో', 'U'), ('ల్ల', '|'), ('స', 'U'), ('ద్వృ', 'U'), ('త్త', '|'), ('వా', 'U'), ('గ్వి', '|'), ('స', '|'), ('రా', 'U'), ('రా', 'U'), ('వ', '|'), ('ము', '|'), ('మో', 'U'), ('వి', '|'), ('దా', 'U'), ('వె', '|'), ('దు', '|'), ('రు', 'U'), ('గ్రో', 'U'), ('విం', 'U'), ('బె', 'U'), ('ట్టి', '|'), ('నా', 'U'), ('డం', 'U'), ('చు', '|'), ('నిన్', 'U'), ('గ', '|'), ('స', '|'), ('టుల్', 'U'), ('సే', 'U'), ('య', '|'), ('గ', '|'), ('నా', 'U'), ('డు', '|'), ('గో', 'U'), ('పి', '|'), ('క', '|'), ('ల', '|'), ('త', 'U'), ('ద్గా', 'U'), ('నం', 'U'), ('బు', '|'), ('లన్', 'U'), ('మ', 'U'), ('న్మ', '|'), ('థ', 'U'), ('వ్య', '|'), ('స', '|'), ('నా', 'U'), ('స', 'U'), ('క్తు', '|'), ('ల', '|'), ('జే', 'U'), ('యు', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('నే', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
         <is>
           <t>జడ యెంతేఁ దడ వయ్యె జెయ్యి యలసె\న్‌ శైలంబు మాచేతులం
 దిడు మన్న\న్‌ జిరునవ్వుతో వదలిన\న్‌ హీనోక్తి గీపెట్ట నె
@@ -2160,32 +2004,29 @@
 గొడుగై యుండగఁ గేలఁ బూనితి గదా గోవింద, నారాయణా!</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('డ', '|'), ('యెం', 'U'), ('తే', 'U'), ('ద', '|'), ('డ', '|'), ('వ', 'U'), ('య్యె', '|'), ('జె', 'U'), ('య్యి', '|'), ('య', '|'), ('ల', '|'), ('సెన్', 'U'), ('శై', 'U'), ('లం', 'U'), ('బు', '|'), ('మా', 'U'), ('చే', 'U'), ('తు', '|'), ('లం', 'U'), ('ది', '|'), ('డు', '|'), ('మ', '|'), ('న్నన్', 'U'), ('జి', '|'), ('రు', '|'), ('న', 'U'), ('వ్వు', '|'), ('తో', 'U'), ('వ', '|'), ('ద', '|'), ('లి', '|'), ('నన్', 'U'), ('హీ', 'U'), ('నో', 'U'), ('క్తి', '|'), ('గీ', 'U'), ('పె', 'U'), ('ట్ట', '|'), ('నె', 'U'), ('క్కు', '|'), ('డు', '|'), ('గో', 'U'), ('వుల్', 'U'), ('బ్రి', '|'), ('య', '|'), ('మం', 'U'), ('ద', '|'), ('నిం', 'U'), ('ద్రు', '|'), ('డ', '|'), ('డ', '|'), ('లం', 'U'), ('గో', 'U'), ('వ', 'U'), ('ర్ధ', '|'), ('నా', 'U'), ('ద్రీం', 'U'), ('ద్ర', '|'), ('మున్', 'U'), ('గొ', '|'), ('డు', '|'), ('గై', 'U'), ('యుం', 'U'), ('డ', '|'), ('గ', '|'), ('గే', 'U'), ('ల', '|'), ('బూ', 'U'), ('ని', '|'), ('తి', '|'), ('గ', '|'), ('దా', 'U'), ('గో', 'U'), ('విం', 'U'), ('ద', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>లలితాకుంచితవేణియం దడవిమొల్లల్‌ జాఱ ఫాలస్థలి\న్‌
 దిలకం బొయ్యన జాఱఁ గుండలరుచుల్‌ దీపింప లేఁజెక్కులన్‌
@@ -2193,32 +2034,29 @@
 నలి గైకొందువు గాదె నీవు మురళీనాట్యంబు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('ల', '|'), ('లి', '|'), ('తా', 'U'), ('కుం', 'U'), ('చి', '|'), ('త', '|'), ('వే', 'U'), ('ణి', '|'), ('యం', 'U'), ('ద', '|'), ('డ', '|'), ('వి', '|'), ('మొ', '|'), ('ల్లల్', 'U'), ('జా', 'U'), ('ఱ', '|'), ('ఫా', 'U'), ('ల', 'U'), ('స్థ', '|'), ('లిన్', 'U'), ('ది', '|'), ('ల', '|'), ('కం', 'U'), ('బొ', 'U'), ('య్య', '|'), ('న', '|'), ('జా', 'U'), ('ఱ', '|'), ('గుం', 'U'), ('డ', '|'), ('ల', '|'), ('రు', '|'), ('చుల్', 'U'), ('దీ', 'U'), ('పిం', 'U'), ('ప', '|'), ('లే', 'U'), ('జె', 'U'), ('క్కు', '|'), ('లన్', 'U'), ('మొ', '|'), ('ల', '|'), ('క', 'U'), ('న్న', 'U'), ('వ్వు', '|'), ('ల', '|'), ('చూ', 'U'), ('పు', '|'), ('లో', 'U'), ('ర', '|'), ('గి', '|'), ('ల', '|'), ('మే', 'U'), ('న్ము', 'U'), ('వ్వం', 'U'), ('క', '|'), ('లన్', 'U'), ('బో', 'U'), ('వ', '|'), ('గా', 'U'), ('న', '|'), ('లి', '|'), ('గై', 'U'), ('కొం', 'U'), ('దు', '|'), ('వు', '|'), ('గా', 'U'), ('దె', '|'), ('నీ', 'U'), ('వు', '|'), ('ము', '|'), ('ర', '|'), ('ళీ', 'U'), ('నా', 'U'), ('ట్యం', 'U'), ('బు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
         <is>
           <t>మాపాలం గడు గ్రొవ్వి గోపికలతో మత్తిల్లి వర్తింతువే
 మాపాలెంబుల వచ్చి యుండుదు వెస న్మాపాలలో నుండు మీ
@@ -2226,32 +2064,29 @@
 మాపాలం గలవేల్పు వీవె యని కా మన్నింతు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('పా', 'U'), ('లం', 'U'), ('గ', '|'), ('డు', 'U'), ('గ్రొ', 'U'), ('వ్వి', '|'), ('గో', 'U'), ('పి', '|'), ('క', '|'), ('ల', '|'), ('తో', 'U'), ('మ', 'U'), ('త్తి', 'U'), ('ల్లి', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('తు', '|'), ('వే', 'U'), ('మా', 'U'), ('పా', 'U'), ('లెం', 'U'), ('బు', '|'), ('ల', '|'), ('వ', 'U'), ('చ్చి', '|'), ('యుం', 'U'), ('డు', '|'), ('దు', '|'), ('వె', '|'), ('స', 'U'), ('న్మా', 'U'), ('పా', 'U'), ('ల', '|'), ('లో', 'U'), ('నుం', 'U'), ('డు', '|'), ('మీ', 'U'), ('మా', 'U'), ('పా', 'U'), ('లై', 'U'), ('న', '|'), ('సు', '|'), ('ఖా', 'U'), ('బ్ధి', '|'), ('లో', 'U'), ('ము', '|'), ('ను', '|'), ('గు', '|'), ('చున్', 'U'), ('మ', 'U'), ('న్నిం', 'U'), ('చి', '|'), ('తా', 'U'), ('గొ', 'U'), ('ల్ల', '|'), ('లన్', 'U'), ('మా', 'U'), ('పా', 'U'), ('లం', 'U'), ('గ', '|'), ('ల', '|'), ('వే', 'U'), ('ల్పు', '|'), ('వీ', 'U'), ('వె', '|'), ('య', '|'), ('ని', '|'), ('కా', 'U'), ('మ', 'U'), ('న్నిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>ఒకకాంతామణి కొక్క డీవు మఱియు న్నొక్కర్తె కొక్కండ వై
 సకలస్త్రీలకు సంతతం బలర రాసక్రీడ తన్మధ్య క
@@ -2259,32 +2094,29 @@
 పికలం జెంది వినోద మొందునెడ నీ పెంపొప్పు నారాయణా!</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('ఒ', '|'), ('క', '|'), ('కాం', 'U'), ('తా', 'U'), ('మ', '|'), ('ణి', '|'), ('కొ', 'U'), ('క్క', '|'), ('డీ', 'U'), ('వు', '|'), ('మ', '|'), ('ఱి', '|'), ('యు', 'U'), ('న్నొ', 'U'), ('క్క', 'U'), ('ర్తె', '|'), ('కొ', 'U'), ('క్కం', 'U'), ('డ', '|'), ('వై', 'U'), ('స', '|'), ('క', '|'), ('ల', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('కు', '|'), ('సం', 'U'), ('త', '|'), ('తం', 'U'), ('బ', '|'), ('ల', '|'), ('ర', '|'), ('రా', 'U'), ('స', 'U'), ('క్రీ', 'U'), ('డ', '|'), ('త', 'U'), ('న్మ', 'U'), ('ధ్య', '|'), ('క', 'U'), ('ల్ప', '|'), ('క', '|'), ('మూ', 'U'), ('లం', 'U'), ('బు', '|'), ('స', '|'), ('వే', 'U'), ('ణు', '|'), ('నా', 'U'), ('ద', '|'), ('ర', '|'), ('స', '|'), ('మొ', 'U'), ('ప్పం', 'U'), ('గా', 'U'), ('బ', '|'), ('దా', 'U'), ('ర్వే', 'U'), ('ల', '|'), ('గో', 'U'), ('పి', '|'), ('క', '|'), ('లం', 'U'), ('జెం', 'U'), ('ది', '|'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('మొం', 'U'), ('దు', '|'), ('నె', '|'), ('డ', '|'), ('నీ', 'U'), ('పెం', 'U'), ('పొ', 'U'), ('ప్పు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
         <is>
           <t>లలితం బైన భవత్తనూవిలసనన్‌ లావణ్యదివ్యామృతం
 బలుఁగు ల్వారఁగ నీకటాక్షమునఁ దా మందంద గోపాంగనల్‌
@@ -2292,32 +2124,29 @@
 నెలతల్‌ తీవెలు చైత్రవిస్ఫురణమౌ నీ యొప్పు నారాయణా!</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('ల', '|'), ('లి', '|'), ('తం', 'U'), ('బై', 'U'), ('న', '|'), ('భ', '|'), ('వ', 'U'), ('త్త', '|'), ('నూ', 'U'), ('వి', '|'), ('ల', '|'), ('స', '|'), ('నన్', 'U'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('ది', 'U'), ('వ్యా', 'U'), ('మృ', '|'), ('తం', 'U'), ('బ', '|'), ('లు', '|'), ('గు', 'U'), ('ల్వా', 'U'), ('ర', '|'), ('గ', '|'), ('నీ', 'U'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('ము', '|'), ('న', '|'), ('దా', 'U'), ('మం', 'U'), ('దం', 'U'), ('ద', '|'), ('గో', 'U'), ('పాం', 'U'), ('గ', '|'), ('నల్', 'U'), ('త', '|'), ('ల', '|'), ('పు', 'U'), ('ల్పా', 'U'), ('దు', '|'), ('లు', '|'), ('క', 'U'), ('ట్టి', '|'), ('కం', 'U'), ('ద', '|'), ('ళి', '|'), ('త', '|'), ('నూ', 'U'), ('త్న', 'U'), ('శ్రీ', 'U'), ('లు', '|'), ('వా', 'U'), ('టిం', 'U'), ('తు', '|'), ('రా', 'U'), ('నె', '|'), ('ల', '|'), ('తల్', 'U'), ('తీ', 'U'), ('వె', '|'), ('లు', '|'), ('చై', 'U'), ('త్ర', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణ', '|'), ('మౌ', 'U'), ('నీ', 'U'), ('యొ', 'U'), ('ప్పు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>లీలన్‌ పూతనప్రాణవాయువులు పాలిండ్లందు వెళ్ళించి, దు
 శ్శీలుండై చను బండిదానవు వెసం జిందై పడం దన్ని యా
@@ -2325,32 +2154,29 @@
 కూలన్‌ కంసునిఁ గొట్టి గోపికలకోర్కుల్‌ దీర్తు, నారాయణా!</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('లీ', 'U'), ('లన్', 'U'), ('పూ', 'U'), ('త', '|'), ('న', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('వా', 'U'), ('యు', '|'), ('వు', '|'), ('లు', '|'), ('పా', 'U'), ('లిం', 'U'), ('డ్లం', 'U'), ('దు', '|'), ('వె', 'U'), ('ళ్ళిం', 'U'), ('చి', '|'), ('దు', 'U'), ('శ్శీ', 'U'), ('లుం', 'U'), ('డై', 'U'), ('చ', '|'), ('ను', '|'), ('బం', 'U'), ('డి', '|'), ('దా', 'U'), ('న', '|'), ('వు', '|'), ('వె', '|'), ('సం', 'U'), ('జిం', 'U'), ('దై', 'U'), ('ప', '|'), ('డం', 'U'), ('ద', 'U'), ('న్ని', '|'), ('యా', 'U'), ('రో', 'U'), ('ల', 'U'), ('న్మ', 'U'), ('ద్దు', '|'), ('లు', '|'), ('గూ', 'U'), ('ల్చి', '|'), ('ధే', 'U'), ('ను', '|'), ('ద', '|'), ('ను', '|'), ('జున్', 'U'), ('రో', 'U'), ('జం', 'U'), ('గ', '|'), ('నీ', 'U'), ('ల్గిం', 'U'), ('చి', '|'), ('వే', 'U'), ('కూ', 'U'), ('లన్', 'U'), ('కం', 'U'), ('సు', '|'), ('ని', '|'), ('గొ', 'U'), ('ట్టి', '|'), ('గో', 'U'), ('పి', '|'), ('క', '|'), ('ల', '|'), ('కో', 'U'), ('ర్కుల్', 'U'), ('దీ', 'U'), ('ర్తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
         <is>
           <t>రసనాగ్రంబున నీదు నామరుచియు\న్‌ రమ్యంబుగాఁ జెవ్లుకు
 న్నసలారంగ భవత్కథాభిరతియున్‌ హస్తాబ్జయుగ్మంబులన్‌
@@ -2358,32 +2184,29 @@
 వెస నింపొందనివాఁడు దాఁ బశువు సూ వేదాత్మ, నారాయణా!</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('ర', '|'), ('స', '|'), ('నా', 'U'), ('గ్రం', 'U'), ('బు', '|'), ('న', '|'), ('నీ', 'U'), ('దు', '|'), ('నా', 'U'), ('మ', '|'), ('రు', '|'), ('చి', '|'), ('యున్', 'U'), ('ర', 'U'), ('మ్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('జె', 'U'), ('వ్లు', '|'), ('కు', 'U'), ('న్న', '|'), ('స', '|'), ('లా', 'U'), ('రం', 'U'), ('గ', '|'), ('భ', '|'), ('వ', 'U'), ('త్క', '|'), ('థా', 'U'), ('భి', '|'), ('ర', '|'), ('తి', '|'), ('యున్', 'U'), ('హ', 'U'), ('స్తా', 'U'), ('బ్జ', '|'), ('యు', 'U'), ('గ్మం', 'U'), ('బు', '|'), ('లన్', 'U'), ('వె', '|'), ('స', '|'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('సు', '|'), ('పూ', 'U'), ('జి', '|'), ('తా', 'U'), ('ది', '|'), ('యు', '|'), ('గ', '|'), ('మున్', 'U'), ('వి', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('మ', 'U'), ('ధ్యా', 'U'), ('త్మ', '|'), ('కున్', 'U'), ('వె', '|'), ('స', '|'), ('నిం', 'U'), ('పొం', 'U'), ('ద', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('దా', 'U'), ('బ', '|'), ('శు', '|'), ('వు', '|'), ('సూ', 'U'), ('వే', 'U'), ('దా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>వరకాళిందితరంగడోలికలలో వైకుంఠధామంబులో
 వెర వొప్పార నయోధ్యలో మధురలో వ్రేపల్లెలో ద్వారకా
@@ -2391,32 +2214,29 @@
 బురుహం బొప్ప నటించు టొప్పును సితాంభోజాక్ష, నారాయణా!</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ర', '|'), ('కా', 'U'), ('ళిం', 'U'), ('ది', '|'), ('త', '|'), ('రం', 'U'), ('గ', '|'), ('డో', 'U'), ('లి', '|'), ('క', '|'), ('ల', '|'), ('లో', 'U'), ('వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('ధా', 'U'), ('మం', 'U'), ('బు', '|'), ('లో', 'U'), ('వె', '|'), ('ర', '|'), ('వొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('న', '|'), ('యో', 'U'), ('ధ్య', '|'), ('లో', 'U'), ('మ', '|'), ('ధు', '|'), ('ర', '|'), ('లో', 'U'), ('వ్రే', 'U'), ('ప', 'U'), ('ల్లె', '|'), ('లో', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('కా', 'U'), ('పు', '|'), ('రి', '|'), ('లో', 'U'), ('నా', 'U'), ('డె', '|'), ('డు', '|'), ('భం', 'U'), ('గి', '|'), ('నా', 'U'), ('దు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('భూ', 'U'), ('రి', 'U'), ('ప్ర', '|'), ('స', 'U'), ('న్నా', 'U'), ('న', '|'), ('నాం', 'U'), ('బు', '|'), ('రు', '|'), ('హం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('న', '|'), ('టిం', 'U'), ('చు', '|'), ('టొ', 'U'), ('ప్పు', '|'), ('ను', '|'), ('సి', '|'), ('తాం', 'U'), ('భో', 'U'), ('జా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
         <is>
           <t>చల్ల ల్వేఱొకయూర నమ్ముకొను నాసం బోవుచోఁ ద్రోవ నీ
 వుల్లాసంబున నడ్డ కట్టి మదనోద్యోగానులాపంబుల\న్‌
@@ -2424,32 +2244,29 @@
 చల్లంబోరుతెఱంగు జిత్తమున నే జర్చింతు నారాయణా!</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('చ', 'U'), ('ల్ల', 'U'), ('ల్వే', 'U'), ('ఱొ', '|'), ('క', '|'), ('యూ', 'U'), ('ర', '|'), ('న', 'U'), ('మ్ము', '|'), ('కొ', '|'), ('ను', '|'), ('నా', 'U'), ('సం', 'U'), ('బో', 'U'), ('వు', '|'), ('చో', 'U'), ('ద్రో', 'U'), ('వ', '|'), ('నీ', 'U'), ('వు', 'U'), ('ల్లా', 'U'), ('సం', 'U'), ('బు', '|'), ('న', '|'), ('న', 'U'), ('డ్డ', '|'), ('క', 'U'), ('ట్టి', '|'), ('మ', '|'), ('ద', '|'), ('నో', 'U'), ('ద్యో', 'U'), ('గా', 'U'), ('ను', '|'), ('లా', 'U'), ('పం', 'U'), ('బు', '|'), ('లన్', 'U'), ('చ', '|'), ('ల్లన్', 'U'), ('జ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('చూ', 'U'), ('పు', '|'), ('జ', 'U'), ('ల్లు', '|'), ('మ', '|'), ('ని', '|'), ('గో', 'U'), ('ప', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('పై', 'U'), ('జ', 'U'), ('ల్లు', '|'), ('మీ', 'U'), ('చ', 'U'), ('ల్లం', 'U'), ('బో', 'U'), ('రు', '|'), ('తె', '|'), ('ఱం', 'U'), ('గు', '|'), ('జి', 'U'), ('త్త', '|'), ('ము', '|'), ('న', '|'), ('నే', 'U'), ('జ', 'U'), ('ర్చిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>కలయ న్వేదములు\న్‌ బురాణములు బ్రఖ్యాతంబుగా తెల్పి మీ
 వలనన్‌ భక్తి విహీనుఁ డైన పిదపన్‌ వ్యర్థప్రయత్నంబె పో
@@ -2457,32 +2274,29 @@
 ఫలకాలంబున నీచపోవు పగిదిన్‌ పద్మాక్ష, నారాయణా!</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ల', '|'), ('య', 'U'), ('న్వే', 'U'), ('ద', '|'), ('ము', '|'), ('లున్', 'U'), ('బు', '|'), ('రా', 'U'), ('ణ', '|'), ('ము', '|'), ('లు', 'U'), ('బ్ర', 'U'), ('ఖ్యా', 'U'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('తె', 'U'), ('ల్పి', '|'), ('మీ', 'U'), ('వ', '|'), ('ల', '|'), ('నన్', 'U'), ('భ', 'U'), ('క్తి', '|'), ('వి', '|'), ('హీ', 'U'), ('ను', '|'), ('డై', 'U'), ('న', '|'), ('పి', '|'), ('ద', '|'), ('పన్', 'U'), ('వ్య', 'U'), ('ర్థ', 'U'), ('ప్ర', '|'), ('య', 'U'), ('త్నం', 'U'), ('బె', '|'), ('పో', 'U'), ('గు', '|'), ('ల', '|'), ('కాం', 'U'), ('తా', 'U'), ('మ', '|'), ('ణి', '|'), ('గొ', 'U'), ('డ్డు', '|'), ('వో', 'U'), ('యి', '|'), ('న', '|'), ('గ', '|'), ('తిం', 'U'), ('గ్రొ', 'U'), ('వ్వా', 'U'), ('రు', '|'), ('స', 'U'), ('స్యం', 'U'), ('బు', '|'), ('దా', 'U'), ('ఫ', '|'), ('ల', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('నీ', 'U'), ('చ', '|'), ('పో', 'U'), ('వు', '|'), ('ప', '|'), ('గి', '|'), ('దిన్', 'U'), ('ప', 'U'), ('ద్మా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
         <is>
           <t>స్నానంబుల్‌ నదులందు జేయుట గజస్నానంబు చందంబగు\న్‌
 మౌనం బొప్ప జపించువేద మటవీ మధ్యంబులోనే డ్పగున్‌
@@ -2490,32 +2304,29 @@
 న్నీనామోక్తియు నీపదాబ్జరతియున్‌ లేకున్న నారాయణా!</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('స్నా', 'U'), ('నం', 'U'), ('బుల్', 'U'), ('న', '|'), ('దు', '|'), ('లం', 'U'), ('దు', '|'), ('జే', 'U'), ('యు', '|'), ('ట', '|'), ('గ', '|'), ('జ', 'U'), ('స్నా', 'U'), ('నం', 'U'), ('బు', '|'), ('చం', 'U'), ('దం', 'U'), ('బ', '|'), ('గున్', 'U'), ('మౌ', 'U'), ('నం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('జ', '|'), ('పిం', 'U'), ('చు', '|'), ('వే', 'U'), ('ద', '|'), ('మ', '|'), ('ట', '|'), ('వీ', 'U'), ('మ', 'U'), ('ధ్యం', 'U'), ('బు', '|'), ('లో', 'U'), ('నే', 'U'), ('డ్ప', '|'), ('గున్', 'U'), ('నా', 'U'), ('నా', 'U'), ('హో', 'U'), ('మ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('బూ', 'U'), ('డి', '|'), ('ద', '|'), ('ల', '|'), ('లో', 'U'), ('న', 'U'), ('న్వే', 'U'), ('ల్చు', '|'), ('నె', 'U'), ('య్యై', 'U'), ('చ', '|'), ('ను', 'U'), ('న్నీ', 'U'), ('నా', 'U'), ('మో', 'U'), ('క్తి', '|'), ('యు', '|'), ('నీ', 'U'), ('ప', '|'), ('దా', 'U'), ('బ్జ', '|'), ('ర', '|'), ('తి', '|'), ('యున్', 'U'), ('లే', 'U'), ('కు', 'U'), ('న్న', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>అల నీటం దగురొంపిపైఁ జిలికిన న్నానీటనే పాయు నా
 యిల పాపంబులు దుర్భరత్వము మహాహేయంబునం బొందినం
@@ -2523,32 +2334,29 @@
 పొలియుం గాక భవత్సుపాదజలముం బ్రోక్షింప నారాయణా!</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ల', '|'), ('నీ', 'U'), ('టం', 'U'), ('ద', '|'), ('గు', '|'), ('రొం', 'U'), ('పి', '|'), ('పై', 'U'), ('జి', '|'), ('లి', '|'), ('కి', '|'), ('న', 'U'), ('న్నా', 'U'), ('నీ', 'U'), ('ట', '|'), ('నే', 'U'), ('పా', 'U'), ('యు', '|'), ('నా', 'U'), ('యి', '|'), ('ల', '|'), ('పా', 'U'), ('పం', 'U'), ('బు', '|'), ('లు', '|'), ('దు', 'U'), ('ర్భ', '|'), ('ర', 'U'), ('త్వ', '|'), ('ము', '|'), ('మ', '|'), ('హా', 'U'), ('హే', 'U'), ('యం', 'U'), ('బు', '|'), ('నం', 'U'), ('బొం', 'U'), ('ది', '|'), ('నం', 'U'), ('బ', '|'), ('లు', '|'), ('వై', 'U'), ('జీ', 'U'), ('వు', '|'), ('ని', '|'), ('దొ', 'U'), ('ప్ప', '|'), ('దో', 'U'), ('గి', '|'), ('న', '|'), ('వి', '|'), ('యీ', 'U'), ('బా', 'U'), ('హ్యం', 'U'), ('బు', '|'), ('నం', 'U'), ('బా', 'U'), ('యు', '|'), ('నే', 'U'), ('పొ', '|'), ('లి', '|'), ('యుం', 'U'), ('గా', 'U'), ('క', '|'), ('భ', '|'), ('వ', 'U'), ('త్సు', '|'), ('పా', 'U'), ('ద', '|'), ('జ', '|'), ('ల', '|'), ('ముం', 'U'), ('బ్రో', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
         <is>
           <t>తనచిత్తాబ్జము మీపదాబ్జములకుం దాత్పర్యసద్భక్తి తం
 తున బంధించిన బంధనంబు కతనం దుష్పాపపుంజంబు లె
@@ -2556,32 +2364,29 @@
 సున కింపొందును మోక్షవైభవము దా సుశ్లోక నారాయణా!</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('చి', 'U'), ('త్తా', 'U'), ('బ్జ', '|'), ('ము', '|'), ('మీ', 'U'), ('ప', '|'), ('దా', 'U'), ('బ్జ', '|'), ('ము', '|'), ('ల', '|'), ('కుం', 'U'), ('దా', 'U'), ('త్ప', 'U'), ('ర్య', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('తం', 'U'), ('తు', '|'), ('న', '|'), ('బం', 'U'), ('ధిం', 'U'), ('చి', '|'), ('న', '|'), ('బం', 'U'), ('ధ', '|'), ('నం', 'U'), ('బు', '|'), ('క', '|'), ('త', '|'), ('నం', 'U'), ('దు', 'U'), ('ష్పా', 'U'), ('ప', '|'), ('పుం', 'U'), ('జం', 'U'), ('బు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('ను', '|'), ('వి', 'U'), ('చ్ఛి', 'U'), ('న్న', '|'), ('ము', '|'), ('లై', 'U'), ('య', '|'), ('డం', 'U'), ('గు', '|'), ('మ', '|'), ('హి', '|'), ('మో', 'U'), ('ల్లా', 'U'), ('సా', 'U'), ('బ్ధి', '|'), ('యై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('దా', 'U'), ('సు', '|'), ('న', '|'), ('కిం', 'U'), ('పొం', 'U'), ('దు', '|'), ('ను', '|'), ('మో', 'U'), ('క్ష', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('దా', 'U'), ('సు', 'U'), ('శ్లో', 'U'), ('క', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>తనువుం జీవుఁడు నేక మైనపిదపన్‌ ధర్మక్రియారంభుఁ డై
 యనయంబు న్మది దన్నెఱుంగక తుది న్నామాయచే మగ్నుఁ డై
@@ -2589,32 +2394,29 @@
 ర్శన మింపారఁగ భక్తివైభవ మహాసంకాశ నారాయణా!</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ను', '|'), ('వుం', 'U'), ('జీ', 'U'), ('వు', '|'), ('డు', '|'), ('నే', 'U'), ('క', '|'), ('మై', 'U'), ('న', '|'), ('పి', '|'), ('ద', '|'), ('పన్', 'U'), ('ధ', '|'), ('ర్మ', 'U'), ('క్రి', '|'), ('యా', 'U'), ('రం', 'U'), ('భు', '|'), ('డై', 'U'), ('య', '|'), ('న', '|'), ('యం', 'U'), ('బు', 'U'), ('న్మ', '|'), ('ది', '|'), ('ద', 'U'), ('న్నె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('క', '|'), ('తు', '|'), ('ది', 'U'), ('న్నా', 'U'), ('మా', 'U'), ('య', '|'), ('చే', 'U'), ('మ', 'U'), ('గ్ను', '|'), ('డై', 'U'), ('త', '|'), ('ను', '|'), ('త', 'U'), ('త్త్వా', 'U'), ('ది', '|'), ('వి', '|'), ('యో', 'U'), ('గ', '|'), ('మై', 'U'), ('న', '|'), ('పి', '|'), ('ద', '|'), ('పం', 'U'), ('దా', 'U'), ('నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('నీ', 'U'), ('దు', '|'), ('ద', 'U'), ('ర్శ', '|'), ('న', '|'), ('మిం', 'U'), ('పా', 'U'), ('ర', '|'), ('గ', '|'), ('భ', 'U'), ('క్తి', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('మ', '|'), ('హా', 'U'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
         <is>
           <t>తనకు\న్‌ సాత్వికసంపదాన్విత మహాదాసోహభావంబునన్‌
 ననయంబు న్మది నన్యదైవభజనం బారంగ దూలింపుచున్‌
@@ -2622,32 +2424,29 @@
 గనుగొన్నంతనె కల్మషంబు లడఁగుం గర్మఘ్న నారాయణా!</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('కున్', 'U'), ('సా', 'U'), ('త్వి', '|'), ('క', '|'), ('సం', 'U'), ('ప', '|'), ('దా', 'U'), ('న్వి', '|'), ('త', '|'), ('మ', '|'), ('హా', 'U'), ('దా', 'U'), ('సో', 'U'), ('హ', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('నన్', 'U'), ('న', '|'), ('న', '|'), ('యం', 'U'), ('బు', 'U'), ('న్మ', '|'), ('ది', '|'), ('న', 'U'), ('న్య', '|'), ('దై', 'U'), ('వ', '|'), ('భ', '|'), ('జ', '|'), ('నం', 'U'), ('బా', 'U'), ('రం', 'U'), ('గ', '|'), ('దూ', 'U'), ('లిం', 'U'), ('పు', '|'), ('చున్', 'U'), ('జ', '|'), ('ని', '|'), ('తా', 'U'), ('హ్లా', 'U'), ('ద', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('నీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణ', '|'), ('ముల్', 'U'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('పూ', 'U'), ('జిం', 'U'), ('చి', '|'), ('నిన్', 'U'), ('గ', '|'), ('ను', '|'), ('గొ', 'U'), ('న్నం', 'U'), ('త', '|'), ('నె', '|'), ('క', 'U'), ('ల్మ', '|'), ('షం', 'U'), ('బు', '|'), ('ల', '|'), ('డ', '|'), ('గుం', 'U'), ('గ', '|'), ('ర్మ', 'U'), ('ఘ్న', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>పరికింపన్‌ హరిభక్తి భేషజునకున్‌ భవ్యంబు గా మీఁద మీ
 చరణాంభోరుహదర్శనంబు గలదే సంప్రీతి నెట్లన్నఁ దా
@@ -2655,32 +2454,29 @@
 బొరయ న్నేర్చునె దుర్లభం బగు గృపాంభోజాక్ష నారాయణా!</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('రి', '|'), ('కిం', 'U'), ('పన్', 'U'), ('హ', '|'), ('రి', '|'), ('భ', 'U'), ('క్తి', '|'), ('భే', 'U'), ('ష', '|'), ('జు', '|'), ('న', '|'), ('కున్', 'U'), ('భ', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('మీ', 'U'), ('ద', '|'), ('మీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణాం', 'U'), ('భో', 'U'), ('రు', '|'), ('హ', '|'), ('ద', 'U'), ('ర్శ', '|'), ('నం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('దే', 'U'), ('సం', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('నె', 'U'), ('ట్ల', 'U'), ('న్న', '|'), ('దా', 'U'), ('ధ', '|'), ('ర', '|'), ('లో', 'U'), ('జో', 'U'), ('రు', '|'), ('డు', '|'), ('గ', 'U'), ('న్న', '|'), ('దు', 'U'), ('స్త', '|'), ('ర', '|'), ('ప', '|'), ('ర', '|'), ('ద్ర', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('పై', 'U'), ('నా', 'U'), ('శ', '|'), ('లం', 'U'), ('బొ', '|'), ('ర', '|'), ('య', 'U'), ('న్నే', 'U'), ('ర్చు', '|'), ('నె', '|'), ('దు', 'U'), ('ర్ల', '|'), ('భం', 'U'), ('బ', '|'), ('గు', '|'), ('గృ', '|'), ('పాం', 'U'), ('భో', 'U'), ('జా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
         <is>
           <t>పరమజ్ఞాన వివేక పూరిత మహా భవ్యాంతరాళంబున\న్‌
 పరగ న్నీ నిజనామమంత్ర మొనరన్‌ భక్తి న్ననుష్ఠింపుచుం
@@ -2688,32 +2484,29 @@
 డరుగున్‌ భవ్యపదంబు నొందుటకు నై యవ్యక్త నారాయణా!</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('మ', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('పూ', 'U'), ('రి', '|'), ('త', '|'), ('మ', '|'), ('హా', 'U'), ('భ', 'U'), ('వ్యాం', 'U'), ('త', '|'), ('రా', 'U'), ('ళం', 'U'), ('బు', '|'), ('నన్', 'U'), ('ప', '|'), ('ర', '|'), ('గ', 'U'), ('న్నీ', 'U'), ('ని', '|'), ('జ', '|'), ('నా', 'U'), ('మ', '|'), ('మం', 'U'), ('త్ర', '|'), ('మొ', '|'), ('న', '|'), ('రన్', 'U'), ('భ', 'U'), ('క్తి', 'U'), ('న్న', '|'), ('ను', 'U'), ('ష్ఠిం', 'U'), ('పు', '|'), ('చుం', 'U'), ('దు', '|'), ('రి', '|'), ('తా', 'U'), ('న్వే', 'U'), ('ష', '|'), ('ణ', '|'), ('కా', 'U'), ('ల', '|'), ('భూ', 'U'), ('త', '|'), ('ము', '|'), ('వె', '|'), ('సన్', 'U'), ('దూ', 'U'), ('లం', 'U'), ('గ', '|'), ('వా', 'U'), ('క', 'U'), ('ట్టు', '|'), ('వా', 'U'), ('డ', '|'), ('రు', '|'), ('గున్', 'U'), ('భ', 'U'), ('వ్య', '|'), ('ప', '|'), ('దం', 'U'), ('బు', '|'), ('నొం', 'U'), ('దు', '|'), ('ట', '|'), ('కు', '|'), ('నై', 'U'), ('య', 'U'), ('వ్య', 'U'), ('క్త', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>సరిఘోరాంధక బోధకారణ విపత్సంసార మాలిన్యము\న్‌
 పరమానంద సుబోధకారణ లసద్భస్మంబుపై నూఁది యా
@@ -2721,32 +2514,29 @@
 నరయం గాంచినవాఁడు నిన్నుఁగనువాఁ డబ్జాక్ష నారాయణా!</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('రి', '|'), ('ఘో', 'U'), ('రాం', 'U'), ('ధ', '|'), ('క', '|'), ('బో', 'U'), ('ధ', '|'), ('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('వి', '|'), ('ప', 'U'), ('త్సం', 'U'), ('సా', 'U'), ('ర', '|'), ('మా', 'U'), ('లి', 'U'), ('న్య', '|'), ('మున్', 'U'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('నం', 'U'), ('ద', '|'), ('సు', '|'), ('బో', 'U'), ('ధ', '|'), ('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('ల', '|'), ('స', 'U'), ('ద్భ', 'U'), ('స్మం', 'U'), ('బు', '|'), ('పై', 'U'), ('నూ', 'U'), ('ది', '|'), ('యా', 'U'), ('ని', '|'), ('ర', '|'), ('త', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('సు', '|'), ('కాం', 'U'), ('తి', '|'), ('ద', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('ము', '|'), ('న', 'U'), ('న్ని', 'U'), ('స్సం', 'U'), ('గు', '|'), ('డై', 'U'), ('త', 'U'), ('న్ను', '|'), ('దా', 'U'), ('న', '|'), ('ర', '|'), ('యం', 'U'), ('గాం', 'U'), ('చి', '|'), ('న', '|'), ('వా', 'U'), ('డు', '|'), ('ని', 'U'), ('న్ను', '|'), ('గ', '|'), ('ను', '|'), ('వా', 'U'), ('డ', 'U'), ('బ్జా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
         <is>
           <t>పరుషాలాపము లాడ నోడి మది నీపాపార్జనారంభుఁ డై
 నిరసిం చేరికిఁ గీడు సేయక మది న్నిర్ముక్తకర్ముండు నై
@@ -2754,32 +2544,29 @@
 పరమజ్ఞాని భవత్కృపం బొరయు నో పద్మాక్ష నారాయణా!</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('రు', '|'), ('షా', 'U'), ('లా', 'U'), ('ప', '|'), ('ము', '|'), ('లా', 'U'), ('డ', '|'), ('నో', 'U'), ('డి', '|'), ('మ', '|'), ('ది', '|'), ('నీ', 'U'), ('పా', 'U'), ('పా', 'U'), ('ర్జ', '|'), ('నా', 'U'), ('రం', 'U'), ('భు', '|'), ('డై', 'U'), ('ని', '|'), ('ర', '|'), ('సిం', 'U'), ('చే', 'U'), ('రి', '|'), ('కి', '|'), ('గీ', 'U'), ('డు', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('మ', '|'), ('ది', 'U'), ('న్ని', '|'), ('ర్ము', 'U'), ('క్త', '|'), ('క', '|'), ('ర్ముం', 'U'), ('డు', '|'), ('నై', 'U'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('నం', 'U'), ('ద', '|'), ('ని', '|'), ('షే', 'U'), ('ధ', '|'), ('ముల్', 'U'), ('స', '|'), ('మ', '|'), ('ము', '|'), ('గా', 'U'), ('భా', 'U'), ('విం', 'U'), ('చి', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('నా', 'U'), ('ప', '|'), ('ర', '|'), ('మ', 'U'), ('జ్ఞా', 'U'), ('ని', '|'), ('భ', '|'), ('వ', 'U'), ('త్కృ', '|'), ('పం', 'U'), ('బొ', '|'), ('ర', '|'), ('యు', '|'), ('నో', 'U'), ('ప', 'U'), ('ద్మా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>ఒరులం దన్ను నెఱుంగు నియ్యెఱుకయు న్నొప్పార నేకాంత మం
 దరయం బైపడు నన్యభామినులపై నాకాంక్షదూరత్వమున్‌
@@ -2787,32 +2574,29 @@
 ధరలోన న్నివి దుర్లభంబులు సుధాధామాక్ష నారాయణా!</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('ఒ', '|'), ('రు', '|'), ('లం', 'U'), ('ద', 'U'), ('న్ను', '|'), ('నె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('ని', 'U'), ('య్యె', '|'), ('ఱు', '|'), ('క', '|'), ('యు', 'U'), ('న్నొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('నే', 'U'), ('కాం', 'U'), ('త', '|'), ('మం', 'U'), ('ద', '|'), ('ర', '|'), ('యం', 'U'), ('బై', 'U'), ('ప', '|'), ('డు', '|'), ('న', 'U'), ('న్య', '|'), ('భా', 'U'), ('మి', '|'), ('ను', '|'), ('ల', '|'), ('పై', 'U'), ('నా', 'U'), ('కాం', 'U'), ('క్ష', '|'), ('దూ', 'U'), ('ర', 'U'), ('త్వ', '|'), ('మున్', 'U'), ('మ', '|'), ('ర', '|'), ('ణా', 'U'), ('వ', 'U'), ('స్థ', '|'), ('ను', '|'), ('నీ', 'U'), ('దు', '|'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('లె', '|'), ('స', 'U'), ('న్మా', 'U'), ('నం', 'U'), ('బు', '|'), ('నం', 'U'), ('దో', 'U'), ('చు', '|'), ('టల్', 'U'), ('ధ', '|'), ('ర', '|'), ('లో', 'U'), ('న', 'U'), ('న్ని', '|'), ('వి', '|'), ('దు', 'U'), ('ర్ల', '|'), ('భం', 'U'), ('బు', '|'), ('లు', '|'), ('సు', '|'), ('ధా', 'U'), ('ధా', 'U'), ('మా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
         <is>
           <t>వెర వొప్ప న్బహుశాస్త్రమంత్రము లొగి న్వీక్షించి వే తెల్పి మీ
 వరనామామృతపూర మానుచుఁ దగన్‌ వైరాగ్యభావంబున\న్‌
@@ -2820,32 +2604,29 @@
 ధరదుగ్ధంబులు గ్రోల నేరరు వెస\న్‌ దైత్యారి నారాయణా!</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('ర', '|'), ('వొ', 'U'), ('ప్ప', 'U'), ('న్బ', '|'), ('హు', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('లొ', '|'), ('గి', 'U'), ('న్వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('వే', 'U'), ('తె', 'U'), ('ల్పి', '|'), ('మీ', 'U'), ('వ', '|'), ('ర', '|'), ('నా', 'U'), ('మా', 'U'), ('మృ', '|'), ('త', '|'), ('పూ', 'U'), ('ర', '|'), ('మా', 'U'), ('ను', '|'), ('చు', '|'), ('ద', '|'), ('గన్', 'U'), ('వై', 'U'), ('రా', 'U'), ('గ్య', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('నన్', 'U'), ('స', '|'), ('రి', '|'), ('న', 'U'), ('శ్రాం', 'U'), ('త', '|'), ('ము', '|'), ('గో', 'U'), ('రు', '|'), ('వా', 'U'), ('రు', '|'), ('పి', '|'), ('ద', '|'), ('పన్', 'U'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('మా', 'U'), ('తుః', 'U'), ('ప', '|'), ('యో', 'U'), ('ధ', '|'), ('ర', '|'), ('దు', 'U'), ('గ్ధం', 'U'), ('బు', '|'), ('లు', 'U'), ('గ్రో', 'U'), ('ల', '|'), ('నే', 'U'), ('ర', '|'), ('రు', '|'), ('వె', '|'), ('సన్', 'U'), ('దై', 'U'), ('త్యా', 'U'), ('రి', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>వేదంబందు సునిశ్చయుండగు మహావేల్పెవ్వఁడో యంచు నా
 వేదవ్యాస పరాశరుల్‌ వెదకిన న్వేఱొండు లేఁ డంచు మీ
@@ -2853,32 +2634,29 @@
 శ్రీదేవీవదనారవిందమధుపా శ్రీరంగ నారాయణా!</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('వే', 'U'), ('దం', 'U'), ('బం', 'U'), ('దు', '|'), ('సు', '|'), ('ని', 'U'), ('శ్చ', '|'), ('యుం', 'U'), ('డ', '|'), ('గు', '|'), ('మ', '|'), ('హా', 'U'), ('వే', 'U'), ('ల్పె', 'U'), ('వ్వ', '|'), ('డో', 'U'), ('యం', 'U'), ('చు', '|'), ('నా', 'U'), ('వే', 'U'), ('ద', 'U'), ('వ్యా', 'U'), ('స', '|'), ('ప', '|'), ('రా', 'U'), ('శ', '|'), ('రుల్', 'U'), ('వె', '|'), ('ద', '|'), ('కి', '|'), ('న', 'U'), ('న్వే', 'U'), ('ఱొం', 'U'), ('డు', '|'), ('లే', 'U'), ('డం', 'U'), ('చు', '|'), ('మీ', 'U'), ('పా', 'U'), ('దాం', 'U'), ('భో', 'U'), ('జ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', 'U'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('భా', 'U'), ('విం', 'U'), ('తు', '|'), ('ర', 'U'), ('త్యు', 'U'), ('న్న', '|'), ('తిన్', 'U'), ('శ్రీ', 'U'), ('దే', 'U'), ('వీ', 'U'), ('వ', '|'), ('ద', '|'), ('నా', 'U'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('మ', '|'), ('ధు', '|'), ('పా', 'U'), ('శ్రీ', 'U'), ('రం', 'U'), ('గ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
         <is>
           <t>సుతదారాప్తజనాదివిత్తములపై శూన్యాభిలాషుండు నై
 యతనోద్రేకయుతంబులై పొదలునయ్యై యింద్రియవ్రాతముల్‌
@@ -2886,32 +2664,29 @@
 ర్గతసంసారి భవత్కృపం బొరయు నో కంజాక్ష నారాయణా!</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('త', '|'), ('దా', 'U'), ('రా', 'U'), ('ప్త', '|'), ('జ', '|'), ('నా', 'U'), ('ది', '|'), ('వి', 'U'), ('త్త', '|'), ('ము', '|'), ('ల', '|'), ('పై', 'U'), ('శూ', 'U'), ('న్యా', 'U'), ('భి', '|'), ('లా', 'U'), ('షుం', 'U'), ('డు', '|'), ('నై', 'U'), ('య', '|'), ('త', '|'), ('నో', 'U'), ('ద్రే', 'U'), ('క', '|'), ('యు', '|'), ('తం', 'U'), ('బు', '|'), ('లై', 'U'), ('పొ', '|'), ('ద', '|'), ('లు', '|'), ('న', 'U'), ('య్యై', 'U'), ('యిం', 'U'), ('ద్రి', '|'), ('య', 'U'), ('వ్రా', 'U'), ('త', '|'), ('ముల్', 'U'), ('మృ', '|'), ('తి', '|'), ('బొం', 'U'), ('దిం', 'U'), ('చి', '|'), ('ద', '|'), ('మం', 'U'), ('బు', '|'), ('నన్', 'U'), ('శ', '|'), ('మ', '|'), ('ము', '|'), ('నన్', 'U'), ('మీ', 'U'), ('ఱం', 'U'), ('గ', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('ని', 'U'), ('ర్గ', '|'), ('త', '|'), ('సం', 'U'), ('సా', 'U'), ('రి', '|'), ('భ', '|'), ('వ', 'U'), ('త్కృ', '|'), ('పం', 'U'), ('బొ', '|'), ('ర', '|'), ('యు', '|'), ('నో', 'U'), ('కం', 'U'), ('జా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>ప్రమదం బారఁగ పుణ్యకాలగతులన్‌ భక్తి న్ననుష్ఠింపుచున్‌
 నమర న్నన్న సువర్ణ గో సలిల కన్యా ధారుణి గ్రామ దా
@@ -2919,32 +2694,29 @@
 డమరేంద్రార్చిత వైభవోన్నతుఁ డగు న్నామీఁద నారాయణా!</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('ప్ర', '|'), ('మ', '|'), ('దం', 'U'), ('బా', 'U'), ('ర', '|'), ('గ', '|'), ('పు', 'U'), ('ణ్య', '|'), ('కా', 'U'), ('ల', '|'), ('గ', '|'), ('తు', '|'), ('లన్', 'U'), ('భ', 'U'), ('క్తి', 'U'), ('న్న', '|'), ('ను', 'U'), ('ష్ఠిం', 'U'), ('పు', '|'), ('చున్', 'U'), ('న', '|'), ('మ', '|'), ('ర', 'U'), ('న్న', 'U'), ('న్న', '|'), ('సు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('గో', 'U'), ('స', '|'), ('లి', '|'), ('ల', '|'), ('క', 'U'), ('న్యా', 'U'), ('ధా', 'U'), ('రు', '|'), ('ణి', 'U'), ('గ్రా', 'U'), ('మ', '|'), ('దా', 'U'), ('న', '|'), ('ము', '|'), ('లా', 'U'), ('మ్నా', 'U'), ('య', '|'), ('వి', '|'), ('ధో', 'U'), ('క్తి', '|'), ('భూ', 'U'), ('సు', '|'), ('రు', '|'), ('ల', '|'), ('కున్', 'U'), ('స', 'U'), ('న్మా', 'U'), ('ర్గు', '|'), ('డై', 'U'), ('యి', 'U'), ('చ్చు', '|'), ('వా', 'U'), ('డ', '|'), ('మ', '|'), ('రేం', 'U'), ('ద్రా', 'U'), ('ర్చి', '|'), ('త', '|'), ('వై', 'U'), ('భ', '|'), ('వో', 'U'), ('న్న', '|'), ('తు', '|'), ('డ', '|'), ('గు', 'U'), ('న్నా', 'U'), ('మీ', 'U'), ('ద', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
         <is>
           <t>ఇల నెవ్వారి మనంబులో నెఱుక దా నెంతెంత గల్గుండు నా
 కొలదిం జెంది వెలుంగుచుందు కలయ న్గోవింద నీరూపుల\న్‌
@@ -2952,32 +2724,29 @@
 నిల నొప్పారెడు చంద మొందె దెపుడు న్నీలాంగ నారాయణా!</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('ల', '|'), ('నె', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('లో', 'U'), ('నె', '|'), ('ఱు', '|'), ('క', '|'), ('దా', 'U'), ('నెం', 'U'), ('తెం', 'U'), ('త', '|'), ('గ', 'U'), ('ల్గుం', 'U'), ('డు', '|'), ('నా', 'U'), ('కొ', '|'), ('ల', '|'), ('దిం', 'U'), ('జెం', 'U'), ('ది', '|'), ('వె', '|'), ('లుం', 'U'), ('గు', '|'), ('చుం', 'U'), ('దు', '|'), ('క', '|'), ('ల', '|'), ('య', 'U'), ('న్గో', 'U'), ('విం', 'U'), ('ద', '|'), ('నీ', 'U'), ('రూ', 'U'), ('పు', '|'), ('లన్', 'U'), ('అ', '|'), ('ల', '|'), ('ర', 'U'), ('న్నం', 'U'), ('బు', '|'), ('మి', '|'), ('తం', 'U'), ('బు', '|'), ('లై', 'U'), ('స', '|'), ('ర', '|'), ('సి', '|'), ('లో', 'U'), ('నం', 'U'), ('భో', 'U'), ('రు', '|'), ('హం', 'U'), ('బుల్', 'U'), ('ద', '|'), ('గన్', 'U'), ('ని', '|'), ('ల', '|'), ('నొ', 'U'), ('ప్పా', 'U'), ('రె', '|'), ('డు', '|'), ('చం', 'U'), ('ద', '|'), ('మొం', 'U'), ('దె', '|'), ('దె', '|'), ('పు', '|'), ('డు', 'U'), ('న్నీ', 'U'), ('లాం', 'U'), ('గ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>మదిలో నుత్తమభక్తి పీఠముపయి\న్‌ మానాథ మీపాదముల్‌
 గదియం జేర్చిన వాని కే నొడయడన్‌ గా దంచు నత్యున్నతిన్‌
@@ -2985,32 +2754,29 @@
 పదపద్మార్చకు లెంత పుణ్యులొ కృపాపారీణ నారాయణా!</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ది', '|'), ('లో', 'U'), ('ను', 'U'), ('త్త', '|'), ('మ', '|'), ('భ', 'U'), ('క్తి', '|'), ('పీ', 'U'), ('ఠ', '|'), ('ము', '|'), ('ప', '|'), ('యిన్', 'U'), ('మా', 'U'), ('నా', 'U'), ('థ', '|'), ('మీ', 'U'), ('పా', 'U'), ('ద', '|'), ('ముల్', 'U'), ('గ', '|'), ('ది', '|'), ('యం', 'U'), ('జే', 'U'), ('ర్చి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('కే', 'U'), ('నొ', '|'), ('డ', '|'), ('య', '|'), ('డన్', 'U'), ('గా', 'U'), ('దం', 'U'), ('చు', '|'), ('న', 'U'), ('త్యు', 'U'), ('న్న', '|'), ('తిన్', 'U'), ('ప', '|'), ('ది', '|'), ('లుం', 'U'), ('డై', 'U'), ('స', '|'), ('మ', '|'), ('వ', 'U'), ('ర్తి', '|'), ('మృ', 'U'), ('త్యు', '|'), ('వు', '|'), ('న', '|'), ('కున్', 'U'), ('బా', 'U'), ('ఠం', 'U'), ('బు', '|'), ('గా', 'U'), ('బ', 'U'), ('ల్కు', '|'), ('మీ', 'U'), ('ప', '|'), ('ద', '|'), ('ప', 'U'), ('ద్మా', 'U'), ('ర్చ', '|'), ('కు', '|'), ('లెం', 'U'), ('త', '|'), ('పు', 'U'), ('ణ్యు', '|'), ('లొ', '|'), ('కృ', '|'), ('పా', 'U'), ('పా', 'U'), ('రీ', 'U'), ('ణ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
         <is>
           <t>కుల మెన్నం గొల దేల యేకులజుఁడుం గోత్రాభిమానాభిలా
 షలునజ్ఞానము బాసి జ్ఞానము మదిన్‌ సంధించి శుద్ధాత్ముఁడై
@@ -3018,32 +2784,29 @@
 వెలయు న్నాగతివాఁడు ముక్తి కరుగున్‌ వేదాత్మ నారాయణా!</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('ల', '|'), ('మె', 'U'), ('న్నం', 'U'), ('గొ', '|'), ('ల', '|'), ('దే', 'U'), ('ల', '|'), ('యే', 'U'), ('కు', '|'), ('ల', '|'), ('జు', '|'), ('డుం', 'U'), ('గో', 'U'), ('త్రా', 'U'), ('భి', '|'), ('మా', 'U'), ('నా', 'U'), ('భి', '|'), ('లా', 'U'), ('ష', '|'), ('లు', '|'), ('న', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('బా', 'U'), ('సి', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('మ', '|'), ('దిన్', 'U'), ('సం', 'U'), ('ధిం', 'U'), ('చి', '|'), ('శు', 'U'), ('ద్ధా', 'U'), ('త్ము', '|'), ('డై', 'U'), ('య', '|'), ('ల', '|'), ('రా', 'U'), ('రం', 'U'), ('బ', '|'), ('రు', '|'), ('సం', 'U'), ('బు', '|'), ('సో', 'U'), ('కు', '|'), ('ని', '|'), ('ను', '|'), ('మున్', 'U'), ('హే', 'U'), ('మా', 'U'), ('కృ', '|'), ('తి', 'U'), ('స్తో', 'U'), ('మ', '|'), ('మై', 'U'), ('వె', '|'), ('ల', '|'), ('యు', 'U'), ('న్నా', 'U'), ('గ', '|'), ('తి', '|'), ('వా', 'U'), ('డు', '|'), ('ము', 'U'), ('క్తి', '|'), ('క', '|'), ('రు', '|'), ('గున్', 'U'), ('వే', 'U'), ('దా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>నిరతానందయోగులై నియతులై నిర్భాగ్యులై నీచులై
 కరుణాహీనమనస్కులై మలినులై కష్టాత్ములై నష్టులై
@@ -3051,32 +2814,29 @@
 రరయ న్ని న్నొగి నాత్మయం దిడనివా రబ్జాక్ష నారాయణా!</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ర', '|'), ('తా', 'U'), ('నం', 'U'), ('ద', '|'), ('యో', 'U'), ('గు', '|'), ('లై', 'U'), ('ని', '|'), ('య', '|'), ('తు', '|'), ('లై', 'U'), ('ని', 'U'), ('ర్భా', 'U'), ('గ్యు', '|'), ('లై', 'U'), ('నీ', 'U'), ('చు', '|'), ('లై', 'U'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('హీ', 'U'), ('న', '|'), ('మ', '|'), ('న', 'U'), ('స్కు', '|'), ('లై', 'U'), ('మ', '|'), ('లి', '|'), ('ను', '|'), ('లై', 'U'), ('క', 'U'), ('ష్టా', 'U'), ('త్ము', '|'), ('లై', 'U'), ('న', 'U'), ('ష్టు', '|'), ('లై', 'U'), ('ప', '|'), ('రు', '|'), ('ష', 'U'), ('వ్యా', 'U'), ('ధి', '|'), ('ని', '|'), ('బ', 'U'), ('ద్ధు', '|'), ('లై', 'U'), ('ప', '|'), ('తి', '|'), ('తు', '|'), ('లై', 'U'), ('భ', 'U'), ('గ్నాం', 'U'), ('గు', '|'), ('లై', 'U'), ('మ్ర', 'U'), ('గ్గు', '|'), ('వా', 'U'), ('ర', '|'), ('ర', '|'), ('య', 'U'), ('న్ని', 'U'), ('న్నొ', '|'), ('గి', '|'), ('నా', 'U'), ('త్మ', '|'), ('యం', 'U'), ('ది', '|'), ('డ', '|'), ('ని', '|'), ('వా', 'U'), ('ర', 'U'), ('బ్జా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>ఘనభోగాస్పదులై గతౌఘమతులై కారుణ్యులై ముక్తులై
 ధనకీర్తిప్రదులై దయాభిరతులై ధర్మాత్ములై నిత్యులై
@@ -3084,32 +2844,29 @@
 యొనర న్నొప్పెడువారు నీపదరుచి న్నూహించు నారాయణా!</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('ఘ', '|'), ('న', '|'), ('భో', 'U'), ('గా', 'U'), ('స్ప', '|'), ('దు', '|'), ('లై', 'U'), ('గ', '|'), ('తౌ', 'U'), ('ఘ', '|'), ('మ', '|'), ('తు', '|'), ('లై', 'U'), ('కా', 'U'), ('రు', 'U'), ('ణ్యు', '|'), ('లై', 'U'), ('ము', 'U'), ('క్తు', '|'), ('లై', 'U'), ('ధ', '|'), ('న', '|'), ('కీ', 'U'), ('ర్తి', 'U'), ('ప్ర', '|'), ('దు', '|'), ('లై', 'U'), ('ద', '|'), ('యా', 'U'), ('భి', '|'), ('ర', '|'), ('తు', '|'), ('లై', 'U'), ('ధ', '|'), ('ర్మా', 'U'), ('త్ము', '|'), ('లై', 'U'), ('ని', 'U'), ('త్యు', '|'), ('లై', 'U'), ('మ', '|'), ('ను', '|'), ('జా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('లై', 'U'), ('మ', '|'), ('నో', 'U'), ('జ', '|'), ('ని', '|'), ('భు', '|'), ('లై', 'U'), ('మా', 'U'), ('న్య', 'U'), ('స్థు', '|'), ('లై', 'U'), ('స్వ', 'U'), ('స్థు', '|'), ('లై', 'U'), ('యొ', '|'), ('న', '|'), ('ర', 'U'), ('న్నొ', 'U'), ('ప్పె', '|'), ('డు', '|'), ('వా', 'U'), ('రు', '|'), ('నీ', 'U'), ('ప', '|'), ('ద', '|'), ('రు', '|'), ('చి', 'U'), ('న్నూ', 'U'), ('హిం', 'U'), ('చు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>విదితామ్నాయ నికాయ భూతములలో విజ్ఞానసంపత్కళా
 స్పద యోగీంద్రమనస్సరోజములలో బ్రహ్మేంద్రదిక్పాలక
@@ -3117,32 +2874,29 @@
 పదపద్మంబులు భావగేహమున నే భావింతు నారాయణా!</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('ది', '|'), ('తా', 'U'), ('మ్నా', 'U'), ('య', '|'), ('ని', '|'), ('కా', 'U'), ('య', '|'), ('భూ', 'U'), ('త', '|'), ('ము', '|'), ('ల', '|'), ('లో', 'U'), ('వి', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('సం', 'U'), ('ప', 'U'), ('త్క', '|'), ('ళా', 'U'), ('స్ప', '|'), ('ద', '|'), ('యో', 'U'), ('గీం', 'U'), ('ద్ర', '|'), ('మ', '|'), ('న', 'U'), ('స్స', '|'), ('రో', 'U'), ('జ', '|'), ('ము', '|'), ('ల', '|'), ('లో', 'U'), ('బ్ర', 'U'), ('హ్మేం', 'U'), ('ద్ర', '|'), ('ది', 'U'), ('క్పా', 'U'), ('ల', '|'), ('క', 'U'), ('త్రి', '|'), ('ద', '|'), ('శ', 'U'), ('వ్రా', 'U'), ('త', '|'), ('కి', '|'), ('రీ', 'U'), ('ట', '|'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('ల', '|'), ('లో', 'U'), ('దీ', 'U'), ('పిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('మీ', 'U'), ('ప', '|'), ('ద', '|'), ('ప', 'U'), ('ద్మం', 'U'), ('బు', '|'), ('లు', '|'), ('భా', 'U'), ('వ', '|'), ('గే', 'U'), ('హ', '|'), ('ము', '|'), ('న', '|'), ('నే', 'U'), ('భా', 'U'), ('విం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
         <is>
           <t>వెలయన్‌ యౌవనకాలమందు మరుఁడున్‌ వృద్ధాప్యకాలంబునన్‌
 బలురోగంబులు నంత్య మందు యముఁడుం బాధింప నట్టైన యీ
@@ -3150,32 +2904,29 @@
 ఫలితానంద దయావలోకనము నాపైఁ జూపు నారాయణా!</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('ల', '|'), ('యన్', 'U'), ('యౌ', 'U'), ('వ', '|'), ('న', '|'), ('కా', 'U'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('మ', '|'), ('రు', '|'), ('డున్', 'U'), ('వృ', 'U'), ('ద్ధా', 'U'), ('ప్య', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('నన్', 'U'), ('బ', '|'), ('లు', '|'), ('రో', 'U'), ('గం', 'U'), ('బు', '|'), ('లు', '|'), ('నం', 'U'), ('త్య', '|'), ('మం', 'U'), ('దు', '|'), ('య', '|'), ('ము', '|'), ('డుం', 'U'), ('బా', 'U'), ('ధిం', 'U'), ('ప', '|'), ('న', 'U'), ('ట్టై', 'U'), ('న', '|'), ('యీ', 'U'), ('ప', '|'), ('లు', '|'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('లు', '|'), ('చా', 'U'), ('ల', '|'), ('దూ', 'U'), ('లి', '|'), ('తి', '|'), ('న', '|'), ('నుం', 'U'), ('బా', 'U'), ('లిం', 'U'), ('ప', '|'), ('వే', 'U'), ('దే', 'U'), ('వ', '|'), ('మీ', 'U'), ('ఫ', '|'), ('లి', '|'), ('తా', 'U'), ('నం', 'U'), ('ద', '|'), ('ద', '|'), ('యా', 'U'), ('వ', '|'), ('లో', 'U'), ('క', '|'), ('న', '|'), ('ము', '|'), ('నా', 'U'), ('పై', 'U'), ('జూ', 'U'), ('పు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>బలుకర్మాయత పాశబంధవితతి\న్‌ బాహాపరిశ్రేణికి\న్‌
 జలయంత్రాన్విత బంధయాతనగతిన్‌ సంసారకూపంబులో
@@ -3183,32 +2934,29 @@
 వెలయ న్నీకృపచేతఁ జేకొనవె నన్‌ వేవేగ నారాయణా!</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('లు', '|'), ('క', '|'), ('ర్మా', 'U'), ('య', '|'), ('త', '|'), ('పా', 'U'), ('శ', '|'), ('బం', 'U'), ('ధ', '|'), ('వి', '|'), ('త', '|'), ('తిన్', 'U'), ('బా', 'U'), ('హా', 'U'), ('ప', '|'), ('రి', 'U'), ('శ్రే', 'U'), ('ణి', '|'), ('కిన్', 'U'), ('జ', '|'), ('ల', '|'), ('యం', 'U'), ('త్రా', 'U'), ('న్వి', '|'), ('త', '|'), ('బం', 'U'), ('ధ', '|'), ('యా', 'U'), ('త', '|'), ('న', '|'), ('గ', '|'), ('తిన్', 'U'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('కూ', 'U'), ('పం', 'U'), ('బు', '|'), ('లో', 'U'), ('న', '|'), ('ల', '|'), ('రం', 'U'), ('ద్రి', 'U'), ('మ్మ', '|'), ('రు', '|'), ('చుం', 'U'), ('డు', '|'), ('న', 'U'), ('న్ను', '|'), ('న', '|'), ('క', '|'), ('టా', 'U'), ('యా', 'U'), ('ర్తుం', 'U'), ('డ', '|'), ('నై', 'U'), ('వే', 'U'), ('డె', '|'), ('దన్', 'U'), ('వె', '|'), ('ల', '|'), ('య', 'U'), ('న్నీ', 'U'), ('కృ', '|'), ('ప', '|'), ('చే', 'U'), ('త', '|'), ('జే', 'U'), ('కొ', '|'), ('న', '|'), ('వె', '|'), ('నన్', 'U'), ('వే', 'U'), ('వే', 'U'), ('గ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
         <is>
           <t>మమహంకార వికారసన్నిభ మహామత్తాది లోభాంధకా
 రముచే ముక్తికి నేఁగుమార్గ మెఱుగ\న్‌ రా దింక నాలోన నీ
@@ -3216,32 +2964,29 @@
 కమలానంద విహారవక్షలలితా! కంజాక్ష! నారాయణా!</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('మ', '|'), ('హం', 'U'), ('కా', 'U'), ('ర', '|'), ('వి', '|'), ('కా', 'U'), ('ర', '|'), ('స', 'U'), ('న్ని', '|'), ('భ', '|'), ('మ', '|'), ('హా', 'U'), ('మ', 'U'), ('త్తా', 'U'), ('ది', '|'), ('లో', 'U'), ('భాం', 'U'), ('ధ', '|'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('చే', 'U'), ('ము', 'U'), ('క్తి', '|'), ('కి', '|'), ('నే', 'U'), ('గు', '|'), ('మా', 'U'), ('ర్గ', '|'), ('మె', '|'), ('ఱు', '|'), ('గన్', 'U'), ('రా', 'U'), ('దిం', 'U'), ('క', '|'), ('నా', 'U'), ('లో', 'U'), ('న', '|'), ('నీ', 'U'), ('వి', '|'), ('మ', '|'), ('లా', 'U'), ('పాం', 'U'), ('గ', '|'), ('ద', '|'), ('యా', 'U'), ('ది', '|'), ('వా', 'U'), ('క', '|'), ('ర', '|'), ('రు', '|'), ('చిన్', 'U'), ('వె', 'U'), ('ల్గిం', 'U'), ('పు', '|'), ('మిం', 'U'), ('పా', 'U'), ('ర', '|'), ('నో', 'U'), ('క', '|'), ('మ', '|'), ('లా', 'U'), ('నం', 'U'), ('ద', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('వ', 'U'), ('క్ష', '|'), ('ల', '|'), ('లి', '|'), ('తా', 'U'), ('కం', 'U'), ('జా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>పరిపంధిక్రియ నొత్తి వెంటఁ బడునప్పాపంబుఁ దూలించి మీ
 చరణాబ్జస్థితి పంజరంబు శరణేచ్ఛం జొచ్చితిం గావుమీ
@@ -3249,32 +2994,29 @@
 బొరయ న్నీ కపకీర్తి గాదె శరదంభోజాక్ష నారాయణా!</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('రి', '|'), ('పం', 'U'), ('ధి', 'U'), ('క్రి', '|'), ('య', '|'), ('నొ', 'U'), ('త్తి', '|'), ('వెం', 'U'), ('ట', '|'), ('బ', '|'), ('డు', '|'), ('న', 'U'), ('ప్పా', 'U'), ('పం', 'U'), ('బు', '|'), ('దూ', 'U'), ('లిం', 'U'), ('చి', '|'), ('మీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణా', 'U'), ('బ్జ', 'U'), ('స్థి', '|'), ('తి', '|'), ('పం', 'U'), ('జ', '|'), ('రం', 'U'), ('బు', '|'), ('శ', '|'), ('ర', '|'), ('ణే', 'U'), ('చ్ఛం', 'U'), ('జొ', 'U'), ('చ్చి', '|'), ('తిం', 'U'), ('గా', 'U'), ('వు', '|'), ('మీ', 'U'), ('బి', '|'), ('రు', '|'), ('దుం', 'U'), ('జూ', 'U'), ('డు', '|'), ('ము', '|'), ('మీ', 'U'), ('రు', '|'), ('సూ', 'U'), ('డ', '|'), ('గ', '|'), ('భ', '|'), ('వ', 'U'), ('ద్భృ', 'U'), ('త్యుం', 'U'), ('డు', '|'), ('దుః', 'U'), ('ఖం', 'U'), ('బు', '|'), ('లం', 'U'), ('బొ', '|'), ('ర', '|'), ('య', 'U'), ('న్నీ', 'U'), ('క', '|'), ('ప', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('గా', 'U'), ('దె', '|'), ('శ', '|'), ('ర', '|'), ('దం', 'U'), ('భో', 'U'), ('జా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
         <is>
           <t>సతతాచారము సూనృతంబు కృపయున్‌ సత్యంబునున్‌ శీలమున్‌
 నతిశాంతత్వము చిత్తశుద్ధికరము న్నధ్యాత్మయు\న్‌ ధ్యానము\న్‌
@@ -3282,32 +3024,29 @@
 మ్మతికిం జేరువ మీనివాససుఖమున్‌ మానాథ నారాయణా!</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('త', '|'), ('తా', 'U'), ('చా', 'U'), ('ర', '|'), ('ము', '|'), ('సూ', 'U'), ('నృ', '|'), ('తం', 'U'), ('బు', '|'), ('కృ', '|'), ('ప', '|'), ('యున్', 'U'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('నున్', 'U'), ('శీ', 'U'), ('ల', '|'), ('మున్', 'U'), ('న', '|'), ('తి', '|'), ('శాం', 'U'), ('త', 'U'), ('త్వ', '|'), ('ము', '|'), ('చి', 'U'), ('త్త', '|'), ('శు', 'U'), ('ద్ధి', '|'), ('క', '|'), ('ర', '|'), ('ము', 'U'), ('న్న', 'U'), ('ధ్యా', 'U'), ('త్మ', '|'), ('యున్', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('మున్', 'U'), ('ధృ', '|'), ('తి', '|'), ('యున్', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('ము', '|'), ('స', 'U'), ('ర్వ', '|'), ('జీ', 'U'), ('వ', '|'), ('హి', '|'), ('త', '|'), ('ముం', 'U'), ('దూ', 'U'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('కుం', 'U'), ('డ', '|'), ('స', 'U'), ('మ్మ', '|'), ('తి', '|'), ('కిం', 'U'), ('జే', 'U'), ('రు', '|'), ('వ', '|'), ('మీ', 'U'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('సు', '|'), ('ఖ', '|'), ('మున్', 'U'), ('మా', 'U'), ('నా', 'U'), ('థ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>భవనాశి\న్‌ గయ తుంగభద్ర యమున\న్‌ భాగీరథిం గృష్ణ వే
 త్రవతి న్నర్మద పెన్న గౌతమి పయోరాశి న్వియద్గంగ యం
@@ -3315,32 +3054,29 @@
 భవదంఘ్రిస్మరణంబునం గలుగు పో పద్మాక్ష నారాయణా!</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('భ', '|'), ('వ', '|'), ('నా', 'U'), ('శిన్', 'U'), ('గ', '|'), ('య', '|'), ('తుం', 'U'), ('గ', '|'), ('భ', '|'), ('ద్ర', '|'), ('య', '|'), ('ము', '|'), ('నన్', 'U'), ('భా', 'U'), ('గీ', 'U'), ('ర', '|'), ('థిం', 'U'), ('గృ', 'U'), ('ష్ణ', '|'), ('వే', 'U'), ('త్ర', '|'), ('వ', '|'), ('తి', 'U'), ('న్న', '|'), ('ర్మ', '|'), ('ద', '|'), ('పె', 'U'), ('న్న', '|'), ('గౌ', 'U'), ('త', '|'), ('మి', '|'), ('ప', '|'), ('యో', 'U'), ('రా', 'U'), ('శి', 'U'), ('న్వి', '|'), ('య', 'U'), ('ద్గం', 'U'), ('గ', '|'), ('యం', 'U'), ('ద', '|'), ('వ', '|'), ('గా', 'U'), ('హం', 'U'), ('బు', '|'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('పు', 'U'), ('ణ్య', '|'), ('ము', '|'), ('లు', '|'), ('బెం', 'U'), ('పా', 'U'), ('రం', 'U'), ('గ', '|'), ('నే', 'U'), ('డి', 'U'), ('చ్చ', '|'), ('టన్', 'U'), ('భ', '|'), ('వ', '|'), ('దం', 'U'), ('ఘ్రి', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('నం', 'U'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('పో', 'U'), ('ప', 'U'), ('ద్మా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
         <is>
           <t>ధర గ్రామాధిపు నింటిదాసుఁడు వెసం దా ద్రోహముం జేసినన్‌
 పరగం జెల్లుట సూచి తీ భువనసంపాద్యుండ వైనట్టి మీ
@@ -3348,32 +3084,29 @@
 కరుణం జేకొని కావు మయ్య త్రిజగత్కల్యాణ నారాయణా!</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', 'U'), ('గ్రా', 'U'), ('మా', 'U'), ('ధి', '|'), ('పు', '|'), ('నిం', 'U'), ('టి', '|'), ('దా', 'U'), ('సు', '|'), ('డు', '|'), ('వె', '|'), ('సం', 'U'), ('దా', 'U'), ('ద్రో', 'U'), ('హ', '|'), ('ముం', 'U'), ('జే', 'U'), ('సి', '|'), ('నన్', 'U'), ('ప', '|'), ('ర', '|'), ('గం', 'U'), ('జె', 'U'), ('ల్లు', '|'), ('ట', '|'), ('సూ', 'U'), ('చి', '|'), ('తీ', 'U'), ('భు', '|'), ('వ', '|'), ('న', '|'), ('సం', 'U'), ('పా', 'U'), ('ద్యుం', 'U'), ('డ', '|'), ('వై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('మీ', 'U'), ('వ', '|'), ('ర', '|'), ('దా', 'U'), ('సా', 'U'), ('వ', '|'), ('లి', '|'), ('దా', 'U'), ('స', '|'), ('దా', 'U'), ('సి', '|'), ('న', '|'), ('ని', '|'), ('దు', 'U'), ('ర్వా', 'U'), ('రౌ', 'U'), ('ఘ', '|'), ('ముల్', 'U'), ('జే', 'U'), ('సి', '|'), ('తిన్', 'U'), ('క', '|'), ('రు', '|'), ('ణం', 'U'), ('జే', 'U'), ('కొ', '|'), ('ని', '|'), ('కా', 'U'), ('వు', '|'), ('మ', 'U'), ('య్య', 'U'), ('త్రి', '|'), ('జ', '|'), ('గ', 'U'), ('త్క', 'U'), ('ల్యా', 'U'), ('ణ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>గణుతింప\న్‌ బహుధర్మశాస్త్రనిగమౌఘం బెప్పుడు న్ని న్నకా
 రణబంధుం డని చెప్ప నత్తెఱఁగు దూరం బందకుండంగ నే
@@ -3381,32 +3114,29 @@
 ఋణమా నానుతి నీవు శ్రీపతివి నీ కే లప్పు? నారాయణా!</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('ణు', '|'), ('తిం', 'U'), ('పన్', 'U'), ('బ', '|'), ('హు', '|'), ('ధ', '|'), ('ర్మ', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ని', '|'), ('గ', '|'), ('మౌ', 'U'), ('ఘం', 'U'), ('బె', 'U'), ('ప్పు', '|'), ('డు', 'U'), ('న్ని', 'U'), ('న్న', '|'), ('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('బం', 'U'), ('ధుం', 'U'), ('డ', '|'), ('ని', '|'), ('చె', 'U'), ('ప్ప', '|'), ('న', 'U'), ('త్తె', '|'), ('ఱ', '|'), ('గు', '|'), ('దూ', 'U'), ('రం', 'U'), ('బం', 'U'), ('ద', '|'), ('కుం', 'U'), ('డం', 'U'), ('గ', '|'), ('నే', 'U'), ('బ్ర', '|'), ('ణ', '|'), ('తుల్', 'U'), ('జే', 'U'), ('సె', '|'), ('ద', '|'), ('గొం', 'U'), ('త', '|'), ('యై', 'U'), ('న', '|'), ('గ', '|'), ('ణు', '|'), ('తిం', 'U'), ('పం', 'U'), ('బా', 'U'), ('డి', '|'), ('లే', 'U'), ('కుం', 'U'), ('డి', '|'), ('నన్', 'U'), ('ఋ', '|'), ('ణ', '|'), ('మా', 'U'), ('నా', 'U'), ('ను', '|'), ('తి', '|'), ('నీ', 'U'), ('వు', 'U'), ('శ్రీ', 'U'), ('ప', '|'), ('తి', '|'), ('వి', '|'), ('నీ', 'U'), ('కే', 'U'), ('ల', 'U'), ('ప్పు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
         <is>
           <t>కరినాథుండు జలగ్రహగ్రహణ దుఃఖాక్రాంతుఁడై యీశ మీ
 శరణం బన్నఁ గృశాను భానుశతతేజస్ఫూర్తి యైనట్టి మీ
@@ -3414,32 +3144,29 @@
 పరసద్భక్త భయానక ప్రకర సత్ప్రాకట్య నారాయణా!</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('రి', '|'), ('నా', 'U'), ('థుం', 'U'), ('డు', '|'), ('జ', '|'), ('ల', 'U'), ('గ్ర', '|'), ('హ', 'U'), ('గ్ర', '|'), ('హ', '|'), ('ణ', '|'), ('దుః', 'U'), ('ఖా', 'U'), ('క్రాం', 'U'), ('తు', '|'), ('డై', 'U'), ('యీ', 'U'), ('శ', '|'), ('మీ', 'U'), ('శ', '|'), ('ర', '|'), ('ణం', 'U'), ('బ', 'U'), ('న్న', '|'), ('గృ', '|'), ('శా', 'U'), ('ను', '|'), ('భా', 'U'), ('ను', '|'), ('శ', '|'), ('త', '|'), ('తే', 'U'), ('జ', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('యై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('మీ', 'U'), ('క', '|'), ('ర', '|'), ('చ', 'U'), ('క్రం', 'U'), ('బు', '|'), ('న', '|'), ('న', 'U'), ('క్ర', '|'), ('కం', 'U'), ('ఠ', '|'), ('ము', '|'), ('వె', '|'), ('సన్', 'U'), ('ఖం', 'U'), ('డిం', 'U'), ('చి', '|'), ('మిం', 'U'), ('చెం', 'U'), ('ద', '|'), ('యా', 'U'), ('ప', '|'), ('ర', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్త', '|'), ('భ', '|'), ('యా', 'U'), ('న', '|'), ('క', 'U'), ('ప్ర', '|'), ('క', '|'), ('ర', '|'), ('స', 'U'), ('త్ప్రా', 'U'), ('క', 'U'), ('ట్య', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>ఏభావంబున ని\న్‌ దలంచె గజయూధేంద్రుండు ఆపన్నుఁడై
 యేభావంబున ద్రౌప దయ్యెడ రమాధీశా యనె న్వాయసం
@@ -3447,32 +3174,29 @@
 నాభావంబున నీతలంపుఁ గలుగ న్నా కిమ్ము నారాయణా!</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('న', '|'), ('నిన్', 'U'), ('ద', '|'), ('లం', 'U'), ('చె', '|'), ('గ', '|'), ('జ', '|'), ('యూ', 'U'), ('ధేం', 'U'), ('ద్రుం', 'U'), ('డు', '|'), ('ఆ', 'U'), ('ప', 'U'), ('న్ను', '|'), ('డై', 'U'), ('యే', 'U'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('న', '|'), ('ద్రౌ', 'U'), ('ప', '|'), ('ద', 'U'), ('య్యె', '|'), ('డ', '|'), ('ర', '|'), ('మా', 'U'), ('ధీ', 'U'), ('శా', 'U'), ('య', '|'), ('నె', 'U'), ('న్వా', 'U'), ('య', '|'), ('సం', 'U'), ('బే', 'U'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('న', '|'), ('నీ', 'U'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', '|'), ('నె', '|'), ('నో', 'U'), ('యీ', 'U'), ('నీ', 'U'), ('కృ', '|'), ('పా', 'U'), ('దృ', 'U'), ('ష్టి', '|'), ('చే', 'U'), ('నా', 'U'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('న', '|'), ('నీ', 'U'), ('త', '|'), ('లం', 'U'), ('పు', '|'), ('గ', '|'), ('లు', '|'), ('గ', 'U'), ('న్నా', 'U'), ('కి', 'U'), ('మ్ము', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
         <is>
           <t>నీలగ్రీవుఁడు చేతిపున్క విడిచె న్నీయింతి భిక్షంబున\న్‌
 నీలగ్రీవుఁడు యీశ్వరాఖ్యఁ దనరె న్నీనామజప్యంబునన్‌
@@ -3480,32 +3204,29 @@
 నీలగ్రీవ ముఖాబ్జభాస్కర కృపానిత్యాత్మ నారాయణా!</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('ల', 'U'), ('గ్రీ', 'U'), ('వు', '|'), ('డు', '|'), ('చే', 'U'), ('తి', '|'), ('పు', 'U'), ('న్క', '|'), ('వి', '|'), ('డి', '|'), ('చె', 'U'), ('న్నీ', 'U'), ('యిం', 'U'), ('తి', '|'), ('భి', 'U'), ('క్షం', 'U'), ('బు', '|'), ('నన్', 'U'), ('నీ', 'U'), ('ల', 'U'), ('గ్రీ', 'U'), ('వు', '|'), ('డు', '|'), ('యీ', 'U'), ('శ్వ', '|'), ('రా', 'U'), ('ఖ్య', '|'), ('ద', '|'), ('న', '|'), ('రె', 'U'), ('న్నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('జ', 'U'), ('ప్యం', 'U'), ('బు', '|'), ('నన్', 'U'), ('నీ', 'U'), ('ల', 'U'), ('గ్రీ', 'U'), ('వు', '|'), ('డు', '|'), ('మిం', 'U'), ('చి', 'U'), ('త్రుం', 'U'), ('చె', '|'), ('బు', '|'), ('ర', '|'), ('ముల్', 'U'), ('నీ', 'U'), ('ప్రా', 'U'), ('పు', '|'), ('సే', 'U'), ('విం', 'U'), ('చి', '|'), ('నన్', 'U'), ('నీ', 'U'), ('ల', 'U'), ('గ్రీ', 'U'), ('వ', '|'), ('ము', '|'), ('ఖా', 'U'), ('బ్జ', '|'), ('భా', 'U'), ('స్క', '|'), ('ర', '|'), ('కృ', '|'), ('పా', 'U'), ('ని', 'U'), ('త్యా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>నిను వర్ణింపనివాఁడు మూఁగ మదిలో నీనామమున్‌ వీనుల\న్‌
 విని మోదింపనివాఁడు చెవ్డు మరి ని\న్‌ వేడ్క\న్‌ మనోవీథిని\న్‌
@@ -3513,32 +3234,29 @@
 తనలోఁ గాననివాఁడు నీచమతి పో తత్వజ్ఞ నారాయణా!</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ను', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('మూ', 'U'), ('గ', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('మున్', 'U'), ('వీ', 'U'), ('ను', '|'), ('లన్', 'U'), ('వి', '|'), ('ని', '|'), ('మో', 'U'), ('దిం', 'U'), ('ప', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('చె', 'U'), ('వ్డు', '|'), ('మ', '|'), ('రి', '|'), ('నిన్', 'U'), ('వే', 'U'), ('డ్కన్', 'U'), ('మ', '|'), ('నో', 'U'), ('వీ', 'U'), ('థి', '|'), ('నిన్', 'U'), ('గ', '|'), ('ని', '|'), ('పూ', 'U'), ('జిం', 'U'), ('ప', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('నా', 'U'), ('శ', '|'), ('క', '|'), ('రు', '|'), ('డౌ', 'U'), ('క', '|'), ('ర్మ', 'U'), ('క్రి', '|'), ('యా', 'U'), ('రం', 'U'), ('భు', '|'), ('డై', 'U'), ('త', '|'), ('న', '|'), ('లో', 'U'), ('గా', 'U'), ('న', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('నీ', 'U'), ('చ', '|'), ('మ', '|'), ('తి', '|'), ('పో', 'U'), ('త', 'U'), ('త్వ', 'U'), ('జ్ఞ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
         <is>
           <t>నిను వర్ణింపని నీచబంధమతి దా నిర్మగ్నమూఢాత్ముఁడై
 పెనుదైవంబులఁ గోరి తా మనమునన్‌ సేవించుచందంబు తా
@@ -3546,32 +3264,29 @@
 ల్చిన చందంబున వ్యర్థమై తనరు జూ చిద్రూప నారాయణా!</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ను', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('ని', '|'), ('నీ', 'U'), ('చ', '|'), ('బం', 'U'), ('ధ', '|'), ('మ', '|'), ('తి', '|'), ('దా', 'U'), ('ని', '|'), ('ర్మ', 'U'), ('గ్న', '|'), ('మూ', 'U'), ('ఢా', 'U'), ('త్ము', '|'), ('డై', 'U'), ('పె', '|'), ('ను', '|'), ('దై', 'U'), ('వం', 'U'), ('బు', '|'), ('ల', '|'), ('గో', 'U'), ('రి', '|'), ('తా', 'U'), ('మ', '|'), ('న', '|'), ('ము', '|'), ('నన్', 'U'), ('సే', 'U'), ('విం', 'U'), ('చు', '|'), ('చం', 'U'), ('దం', 'U'), ('బు', '|'), ('తా', 'U'), ('న', '|'), ('వ', '|'), ('లం', 'U'), ('బా', 'U'), ('రి', '|'), ('న', '|'), ('భూ', 'U'), ('తి', '|'), ('యం', 'U'), ('దు', '|'), ('వె', '|'), ('ల', '|'), ('య', 'U'), ('న్నా', 'U'), ('జ్యా', 'U'), ('హు', '|'), ('తుల్', 'U'), ('పూ', 'U'), ('ని', '|'), ('వే', 'U'), ('ల్చి', '|'), ('న', '|'), ('చం', 'U'), ('దం', 'U'), ('బు', '|'), ('న', 'U'), ('వ్య', 'U'), ('ర్థ', '|'), ('మై', 'U'), ('త', '|'), ('న', '|'), ('రు', '|'), ('జూ', 'U'), ('చి', '|'), ('ద్రూ', 'U'), ('ప', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>నిను వర్ణింపని జిహ్వ దాఁ బదటికా? నీలాభ్రదేహాంగకా
 నిను నాలింపని చెవ్లు దాఁ బదటికా? నీరేజపత్రేక్షణా
@@ -3579,32 +3294,29 @@
 నినుఁ జింతింపని యాత్మ దాఁ బదటికా? నిర్వాణ నారాయణా!</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ను', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('ని', '|'), ('జి', 'U'), ('హ్వ', '|'), ('దా', 'U'), ('బ', '|'), ('ద', '|'), ('టి', '|'), ('కా', 'U'), ('నీ', 'U'), ('లా', 'U'), ('భ్ర', '|'), ('దే', 'U'), ('హాం', 'U'), ('గ', '|'), ('కా', 'U'), ('ని', '|'), ('ను', '|'), ('నా', 'U'), ('లిం', 'U'), ('ప', '|'), ('ని', '|'), ('చె', 'U'), ('వ్లు', '|'), ('దా', 'U'), ('బ', '|'), ('ద', '|'), ('టి', '|'), ('కా', 'U'), ('నీ', 'U'), ('రే', 'U'), ('జ', '|'), ('ప', 'U'), ('త్రే', 'U'), ('క్ష', '|'), ('ణా', 'U'), ('ని', '|'), ('ను', '|'), ('బూ', 'U'), ('జిం', 'U'), ('ప', '|'), ('ని', '|'), ('కే', 'U'), ('లు', '|'), ('దా', 'U'), ('బ', '|'), ('ద', '|'), ('టి', '|'), ('కా', 'U'), ('ని', 'U'), ('ర్వా', 'U'), ('హ', '|'), ('క', 'U'), ('క్ష్మా', 'U'), ('త', '|'), ('లా', 'U'), ('ని', '|'), ('ను', '|'), ('జిం', 'U'), ('తిం', 'U'), ('ప', '|'), ('ని', '|'), ('యా', 'U'), ('త్మ', '|'), ('దా', 'U'), ('బ', '|'), ('ద', '|'), ('టి', '|'), ('కా', 'U'), ('ని', 'U'), ('ర్వా', 'U'), ('ణ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
         <is>
           <t>నీవే తల్లివి నీవె తండ్రి వరయ న్నీవే జగన్నాథుఁడౌ
 నీవే నిశ్చలబాంధవుండ వరయ న్నీవే మునిస్తుత్యుఁడౌ
@@ -3612,32 +3324,29 @@
 నీవే దిక్కనువారి వారలె కడు న్నీవారు నారాయణా!</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('వే', 'U'), ('త', 'U'), ('ల్లి', '|'), ('వి', '|'), ('నీ', 'U'), ('వె', '|'), ('తం', 'U'), ('డ్రి', '|'), ('వ', '|'), ('ర', '|'), ('య', 'U'), ('న్నీ', 'U'), ('వే', 'U'), ('జ', '|'), ('గ', 'U'), ('న్నా', 'U'), ('థు', '|'), ('డౌ', 'U'), ('నీ', 'U'), ('వే', 'U'), ('ని', 'U'), ('శ్చ', '|'), ('ల', '|'), ('బాం', 'U'), ('ధ', '|'), ('వుం', 'U'), ('డ', '|'), ('వ', '|'), ('ర', '|'), ('య', 'U'), ('న్నీ', 'U'), ('వే', 'U'), ('ము', '|'), ('ని', 'U'), ('స్తు', 'U'), ('త్యు', '|'), ('డౌ', 'U'), ('నీ', 'U'), ('వే', 'U'), ('శం', 'U'), ('క', '|'), ('ర', '|'), ('మూ', 'U'), ('ల', '|'), ('మం', 'U'), ('త్ర', '|'), ('మ', '|'), ('ర', '|'), ('యన్', 'U'), ('నీ', 'U'), ('వే', 'U'), ('జ', '|'), ('గ', 'U'), ('త్క', 'U'), ('ర్త', '|'), ('వున్', 'U'), ('నీ', 'U'), ('వే', 'U'), ('ది', 'U'), ('క్క', '|'), ('ను', '|'), ('వా', 'U'), ('రి', '|'), ('వా', 'U'), ('ర', '|'), ('లె', '|'), ('క', '|'), ('డు', 'U'), ('న్నీ', 'U'), ('వా', 'U'), ('రు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>అపరాధంబులు నిన్ను నమ్మి విను మే నాజన్మపర్యంతము\న్‌
 విపరీతంబుగఁ జేసినాఁడ నిఁక నీవే దిక్కు నాలోనికి\న్‌
@@ -3645,32 +3354,29 @@
 కృపకుం బాత్రుఁడ నయ్య ధర్మపురి లక్ష్మీనాథ నారాయణా!</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ప', '|'), ('రా', 'U'), ('ధం', 'U'), ('బు', '|'), ('లు', '|'), ('ని', 'U'), ('న్ను', '|'), ('న', 'U'), ('మ్మి', '|'), ('వి', '|'), ('ను', '|'), ('మే', 'U'), ('నా', 'U'), ('జ', 'U'), ('న్మ', '|'), ('ప', 'U'), ('ర్యం', 'U'), ('త', '|'), ('మున్', 'U'), ('వి', '|'), ('ప', '|'), ('రీ', 'U'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('నా', 'U'), ('డ', '|'), ('ని', '|'), ('క', '|'), ('నీ', 'U'), ('వే', 'U'), ('ది', 'U'), ('క్కు', '|'), ('నా', 'U'), ('లో', 'U'), ('ని', '|'), ('కిన్', 'U'), ('గ', '|'), ('ప', '|'), ('టం', 'U'), ('బిం', 'U'), ('త', '|'), ('యు', '|'), ('లే', 'U'), ('క', '|'), ('దం', 'U'), ('డ', '|'), ('ధ', '|'), ('రు', '|'), ('కుం', 'U'), ('గ', 'U'), ('ట్టీ', 'U'), ('క', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('మీ', 'U'), ('కృ', '|'), ('ప', '|'), ('కుం', 'U'), ('బా', 'U'), ('త్రు', '|'), ('డ', '|'), ('న', 'U'), ('య్య', '|'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('రి', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('నా', 'U'), ('థ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
         <is>
           <t>చెల్లం జేసితి పాతకంబులు మది\న్‌ శ్రీనాథ మీనామముల్‌
 పొల్లుల్‌ బోవని నమ్మి పద్యశతమున్‌ బూర్ణంబుగాఁ జెప్పితిన్‌
@@ -3678,32 +3384,29 @@
 తల్లిం దండ్రియు నీవు గాక యొరులే తర్కింప నారాయణా!</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('చె', 'U'), ('ల్లం', 'U'), ('జే', 'U'), ('సి', '|'), ('తి', '|'), ('పా', 'U'), ('త', '|'), ('కం', 'U'), ('బు', '|'), ('లు', '|'), ('మ', '|'), ('దిన్', 'U'), ('శ్రీ', 'U'), ('నా', 'U'), ('థ', '|'), ('మీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ముల్', 'U'), ('పొ', '|'), ('ల్లుల్', 'U'), ('బో', 'U'), ('వ', '|'), ('ని', '|'), ('న', 'U'), ('మ్మి', '|'), ('ప', 'U'), ('ద్య', '|'), ('శ', '|'), ('త', '|'), ('మున్', 'U'), ('బూ', 'U'), ('ర్ణం', 'U'), ('బు', '|'), ('గా', 'U'), ('జె', 'U'), ('ప్పి', '|'), ('తిన్', 'U'), ('చె', 'U'), ('ల్లం', 'U'), ('బో', 'U'), ('న', '|'), ('ను', '|'), ('న', 'U'), ('మ్మె', '|'), ('వీ', 'U'), ('డ', '|'), ('ని', '|'), ('ద', '|'), ('యం', 'U'), ('జే', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('మీ', 'U'), ('త', 'U'), ('ల్లిం', 'U'), ('దం', 'U'), ('డ్రి', '|'), ('యు', '|'), ('నీ', 'U'), ('వు', '|'), ('గా', 'U'), ('క', '|'), ('యొ', '|'), ('రు', '|'), ('లే', 'U'), ('త', 'U'), ('ర్కిం', 'U'), ('ప', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
         <is>
           <t>నరసిం హాచ్యుత వాసుదేవ వికసన్నాళీకపత్రాక్ష భూ
 ధర గోవింద ముకుంద కేశవ జగత్త్రా తాహితల్పాంబుజో
@@ -3711,32 +3414,29 @@
 దిర పీతాంబర భక్తవత్సల కృపన్‌ దీవింపు నారాయణా!</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హా', 'U'), ('చ్యు', '|'), ('త', '|'), ('వా', 'U'), ('సు', '|'), ('దే', 'U'), ('వ', '|'), ('వి', '|'), ('క', '|'), ('స', 'U'), ('న్నా', 'U'), ('ళీ', 'U'), ('క', '|'), ('ప', 'U'), ('త్రా', 'U'), ('క్ష', '|'), ('భూ', 'U'), ('ధ', '|'), ('ర', '|'), ('గో', 'U'), ('విం', 'U'), ('ద', '|'), ('ము', '|'), ('కుం', 'U'), ('ద', '|'), ('కే', 'U'), ('శ', '|'), ('వ', '|'), ('జ', '|'), ('గ', 'U'), ('త్త్రా', 'U'), ('తా', 'U'), ('హి', '|'), ('త', 'U'), ('ల్పాం', 'U'), ('బు', '|'), ('జో', 'U'), ('ద', '|'), ('ర', '|'), ('దా', 'U'), ('మో', 'U'), ('ద', '|'), ('ర', '|'), ('తా', 'U'), ('ర్క్ష్య', '|'), ('వా', 'U'), ('హ', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('దై', 'U'), ('త్యా', 'U'), ('రి', '|'), ('వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('మం', 'U'), ('ది', '|'), ('ర', '|'), ('పీ', 'U'), ('తాం', 'U'), ('బ', '|'), ('ర', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', 'U'), ('త్స', '|'), ('ల', '|'), ('కృ', '|'), ('పన్', 'U'), ('దీ', 'U'), ('విం', 'U'), ('పు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
         <is>
           <t>కడకంటం గడలేని సంపద లొగిం గావింపు లక్ష్మీశ పా
 ల్కడలిన్‌ బన్నగశాయివై భువనముల్‌ గల్పించు సత్పుత్రుని\న్‌
@@ -3744,32 +3444,29 @@
 పడతిం గన్న పదారవిందముల నే భావింతు నారాయణా!</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('డ', '|'), ('కం', 'U'), ('టం', 'U'), ('గ', '|'), ('డ', '|'), ('లే', 'U'), ('ని', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('లొ', '|'), ('గిం', 'U'), ('గా', 'U'), ('విం', 'U'), ('పు', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('శ', '|'), ('పా', 'U'), ('ల్క', '|'), ('డ', '|'), ('లిన్', 'U'), ('బ', 'U'), ('న్న', '|'), ('గ', '|'), ('శా', 'U'), ('యి', '|'), ('వై', 'U'), ('భు', '|'), ('వ', '|'), ('న', '|'), ('ముల్', 'U'), ('గ', 'U'), ('ల్పిం', 'U'), ('చు', '|'), ('స', 'U'), ('త్పు', 'U'), ('త్రు', '|'), ('నిన్', 'U'), ('బొ', '|'), ('డ', '|'), ('మన్', 'U'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('నా', 'U'), ('భి', '|'), ('పం', 'U'), ('క', '|'), ('జ', '|'), ('జ', '|'), ('గ', 'U'), ('త్పు', 'U'), ('ణ్యా', 'U'), ('త్మ', '|'), ('భా', 'U'), ('గీ', 'U'), ('ర', '|'), ('థీ', 'U'), ('ప', '|'), ('డ', '|'), ('తిం', 'U'), ('గ', 'U'), ('న్న', '|'), ('ప', '|'), ('దా', 'U'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('నే', 'U'), ('భా', 'U'), ('విం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
         <is>
           <t>తపముల్‌ మంత్రసమస్తయజ్ఞఫలముల్‌ దానక్రియారంభముల్‌
 జపముల్‌ పుణ్యసుతీర్థసేవఫలముల్‌ సద్వేదవిజ్ఞానము\న్‌
@@ -3777,32 +3474,29 @@
 నుపమింపం గలవారికే గలుగు వేయు న్నేల నారాయణా!</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ప', '|'), ('ముల్', 'U'), ('మం', 'U'), ('త్ర', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('య', 'U'), ('జ్ఞ', '|'), ('ఫ', '|'), ('ల', '|'), ('ముల్', 'U'), ('దా', 'U'), ('న', 'U'), ('క్రి', '|'), ('యా', 'U'), ('రం', 'U'), ('భ', '|'), ('ముల్', 'U'), ('జ', '|'), ('ప', '|'), ('ముల్', 'U'), ('పు', 'U'), ('ణ్య', '|'), ('సు', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('సే', 'U'), ('వ', '|'), ('ఫ', '|'), ('ల', '|'), ('ముల్', 'U'), ('స', 'U'), ('ద్వే', 'U'), ('ద', '|'), ('వి', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('మున్', 'U'), ('ఉ', '|'), ('ప', '|'), ('వా', 'U'), ('స', 'U'), ('వ్ర', '|'), ('త', '|'), ('శీ', 'U'), ('ల', '|'), ('క', '|'), ('ర్మ', '|'), ('ఫ', '|'), ('ల', '|'), ('ముల్', 'U'), ('ఒ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('ని', 'U'), ('న్నా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('ను', '|'), ('ప', '|'), ('మిం', 'U'), ('పం', 'U'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('రి', '|'), ('కే', 'U'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('వే', 'U'), ('యు', 'U'), ('న్నే', 'U'), ('ల', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
         <is>
           <t>శ్రీనారాయణ యన్నఁ జాలు దురితశ్రేణి న్నివారింపఁగా
 నానందస్థితి గల్గు నంచు నిగమార్థానేక మెల్లప్పుడు\న్‌
@@ -3810,32 +3504,29 @@
 న్నే నే నెప్పుడు గొల్తు బ్రోవఁ గదె తండ్రీ నన్ను నారాయణా!</t>
         </is>
       </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణ', '|'), ('య', 'U'), ('న్న', '|'), ('జా', 'U'), ('లు', '|'), ('దు', '|'), ('రి', '|'), ('త', 'U'), ('శ్రే', 'U'), ('ణి', 'U'), ('న్ని', '|'), ('వా', 'U'), ('రిం', 'U'), ('ప', '|'), ('గా', 'U'), ('నా', 'U'), ('నం', 'U'), ('ద', 'U'), ('స్థి', '|'), ('తి', '|'), ('గ', 'U'), ('ల్గు', '|'), ('నం', 'U'), ('చు', '|'), ('ని', '|'), ('గ', '|'), ('మా', 'U'), ('ర్థా', 'U'), ('నే', 'U'), ('క', '|'), ('మె', 'U'), ('ల్ల', 'U'), ('ప్పు', '|'), ('డున్', 'U'), ('నా', 'U'), ('నా', 'U'), ('భం', 'U'), ('గు', '|'), ('ల', '|'), ('జె', 'U'), ('ప్ప', '|'), ('నే', 'U'), ('ను', '|'), ('వి', '|'), ('ని', 'U'), ('శ్రీ', 'U'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U'), ('యం', 'U'), ('చు', '|'), ('ని', 'U'), ('న్నే', 'U'), ('నే', 'U'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('గొ', 'U'), ('ల్తు', 'U'), ('బ్రో', 'U'), ('వ', '|'), ('గ', '|'), ('దె', '|'), ('తం', 'U'), ('డ్రీ', 'U'), ('న', 'U'), ('న్ను', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
         <is>
           <t>కలితాఘౌఘ వినాశకారి యగుచుం గైవల్యసంధాయియై
 నలి నొప్పారెడు మంత్రరాజ మగు నీనామంబు ప్రేమంబున\న్‌
@@ -3843,32 +3534,29 @@
 వెలయ\న్‌ భూరుహకోటరం బదియ సూ వేదాత్మ నారాయణా!</t>
         </is>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('లి', '|'), ('తా', 'U'), ('ఘౌ', 'U'), ('ఘ', '|'), ('వి', '|'), ('నా', 'U'), ('శ', '|'), ('కా', 'U'), ('రి', '|'), ('య', '|'), ('గు', '|'), ('చుం', 'U'), ('గై', 'U'), ('వ', 'U'), ('ల్య', '|'), ('సం', 'U'), ('ధా', 'U'), ('యి', '|'), ('యై', 'U'), ('న', '|'), ('లి', '|'), ('నొ', 'U'), ('ప్పా', 'U'), ('రె', '|'), ('డు', '|'), ('మం', 'U'), ('త్ర', '|'), ('రా', 'U'), ('జ', '|'), ('మ', '|'), ('గు', '|'), ('నీ', 'U'), ('నా', 'U'), ('మం', 'U'), ('బు', 'U'), ('ప్రే', 'U'), ('మం', 'U'), ('బు', '|'), ('నన్', 'U'), ('అ', '|'), ('ల', '|'), ('ర', 'U'), ('న్నె', 'U'), ('వ్వ', '|'), ('ని', '|'), ('వా', 'U'), ('క్కు', '|'), ('నం', 'U'), ('బొ', '|'), ('ర', '|'), ('య', '|'), ('దో', 'U'), ('య', 'U'), ('న్నీ', 'U'), ('చు', '|'), ('దే', 'U'), ('హం', 'U'), ('బు', '|'), ('దా', 'U'), ('వె', '|'), ('ల', '|'), ('యన్', 'U'), ('భూ', 'U'), ('రు', '|'), ('హ', '|'), ('కో', 'U'), ('ట', '|'), ('రం', 'U'), ('బ', '|'), ('ది', '|'), ('య', '|'), ('సూ', 'U'), ('వే', 'U'), ('దా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B105" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
         <is>
           <t>రమణీయంబుగ నాదిమంబు నవతారంబు\న్‌ భవద్దివ్యరూ
 పము నామామృతము\న్‌ దలంప దశకప్రా ప్తయ్యెఁ గృష్ణావతా
@@ -3876,32 +3564,29 @@
 వ్యము నర్పించితి మీపదాబ్జములకు\న్‌ వైకుంఠ నారాయణా!</t>
         </is>
       </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
           <t>[('ర', '|'), ('మ', '|'), ('ణీ', 'U'), ('యం', 'U'), ('బు', '|'), ('గ', '|'), ('నా', 'U'), ('ది', '|'), ('మం', 'U'), ('బు', '|'), ('న', '|'), ('వ', '|'), ('తా', 'U'), ('రం', 'U'), ('బున్', 'U'), ('భ', '|'), ('వ', 'U'), ('ద్ది', 'U'), ('వ్య', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('నా', 'U'), ('మా', 'U'), ('మృ', '|'), ('త', '|'), ('మున్', 'U'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('ద', '|'), ('శ', '|'), ('క', 'U'), ('ప్రా', 'U'), ('ప్త', 'U'), ('య్యె', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ము', '|'), ('సు', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('మో', 'U'), ('క్ష', '|'), ('మున్', 'U'), ('ద్వి', '|'), ('వి', '|'), ('ధ', '|'), ('సం', 'U'), ('ప్రా', 'U'), ('ప్తిన్', 'U'), ('శ', '|'), ('తాం', 'U'), ('ధ్రా', 'U'), ('ఖ్య', '|'), ('కా', 'U'), ('వ్య', '|'), ('ము', '|'), ('న', 'U'), ('ర్పిం', 'U'), ('చి', '|'), ('తి', '|'), ('మీ', 'U'), ('ప', '|'), ('దా', 'U'), ('బ్జ', '|'), ('ము', '|'), ('ల', '|'), ('కున్', 'U'), ('వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
         <is>
           <t>నీమూర్తుల్‌ గన నీకథల్‌ వినఁ దుది\న్‌ నీ పాద నిర్మాల్యని
 ష్ఠామోదంబు నెఱుంగ, నీచరణాతోయం బాడ, నైవేద్యముల్‌
@@ -3909,17 +3594,17 @@
 శ్రీ మించ\న్‌ బహుజన్మ జన్మములకు\న్‌ శ్రీయాదినారాయణా!</t>
         </is>
       </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>naarayana</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
-        <is>
-          <t>naarayana</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
         <is>
           <t>[('నీ', 'U'), ('మూ', 'U'), ('ర్తుల్', 'U'), ('గ', '|'), ('న', '|'), ('నీ', 'U'), ('క', '|'), ('థల్', 'U'), ('వి', '|'), ('న', '|'), ('దు', '|'), ('దిన్', 'U'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('ని', '|'), ('ర్మా', 'U'), ('ల్య', '|'), ('ని', 'U'), ('ష్ఠా', 'U'), ('మో', 'U'), ('దం', 'U'), ('బు', '|'), ('నె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('నీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణా', 'U'), ('తో', 'U'), ('యం', 'U'), ('బా', 'U'), ('డ', '|'), ('నై', 'U'), ('వే', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('నీ', 'U'), ('మం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('నీ', 'U'), ('జ', '|'), ('ప', '|'), ('ము', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('పన్', 'U'), ('గృ', '|'), ('పం', 'U'), ('జే', 'U'), ('య', '|'), ('వే', 'U'), ('శ్రీ', 'U'), ('మిం', 'U'), ('చన్', 'U'), ('బ', '|'), ('హు', '|'), ('జ', 'U'), ('న్మ', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('ల', '|'), ('కున్', 'U'), ('శ్రీ', 'U'), ('యా', 'U'), ('ది', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>

--- a/dataset/lg/naarayana.xlsx
+++ b/dataset/lg/naarayana.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('శ్రీ', 'U'), ('రా', 'U'), ('మా', 'U'), ('మ', '|'), ('ణి', '|'), ('పా', 'U'), ('ణి', '|'), ('పం', 'U'), ('క', '|'), ('జ', '|'), ('మృ', '|'), ('దు', '|'), ('శ్రీ', 'U'), ('త', 'U'), ('జ్ఞ', '|'), ('పా', 'U'), ('దా', 'U'), ('బ్జ', '|'), ('శృం', 'U'), ('గా', 'U'), ('రా', 'U'), ('కా', 'U'), ('ర', '|'), ('శ', '|'), ('రీ', 'U'), ('ర', '|'), ('చా', 'U'), ('రు', '|'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('గం', 'U'), ('భీ', 'U'), ('ర', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('రాం', 'U'), ('భో', 'U'), ('రు', '|'), ('హ', '|'), ('ప', '|'), ('త్ర', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('క', '|'), ('ళా', 'U'), ('ధా', 'U'), ('రో', 'U'), ('రు', '|'), ('సం', 'U'), ('ప', 'U'), ('త్సు', '|'), ('ధా', 'U'), ('పా', 'U'), ('రా', 'U'), ('వా', 'U'), ('ర', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('నా', 'U'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('ముల్', 'U'), ('భం', 'U'), ('జిం', 'U'), ('పు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('శ్రీ', 'U'), ('రా', 'U'), ('మా', 'U'), ('మ', '|'), ('ణి', '|'), ('పా', 'U'), ('ణి', '|'), ('పం', 'U'), ('క', '|'), ('జ', '|'), ('మృ', '|'), ('దు', '|'), ('శ్రీ', 'U'), ('త', 'U'), ('జ్ఞ', '|'), ('పా', 'U'), ('దా', 'U'), ('బ్జ', '|'), ('శృం', 'U'), ('గా', 'U'), ('రా', 'U'), ('కా', 'U'), ('ర', '|'), ('శ', '|'), ('రీ', 'U'), ('ర', '|'), ('చా', 'U'), ('రు', '|'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('గం', 'U'), ('భీ', 'U'), ('ర', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్త', '|'), ('మం', 'U'), ('దా', 'U'), ('రాం', 'U'), ('భో', 'U'), ('రు', '|'), ('హ', '|'), ('ప', '|'), ('త్ర', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('క', '|'), ('ళా', 'U'), ('ధా', 'U'), ('రో', 'U'), ('రు', '|'), ('సం', 'U'), ('ప', 'U'), ('త్సు', '|'), ('ధా', 'U'), ('పా', 'U'), ('రా', 'U'), ('వా', 'U'), ('ర', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('నా', 'U'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('ము', 'U'), ('ల్భం', 'U'), ('జిం', 'U'), ('పు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('డ', '|'), ('కుం', 'U'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('వే', 'U'), ('యి', '|'), ('నో', 'U'), ('ళ్ళు', '|'), ('గ', '|'), ('ల', '|'), ('యా', 'U'), ('కా', 'U'), ('కో', 'U'), ('ద', '|'), ('రా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('డున్', 'U'), ('గ', '|'), ('డ', '|'), ('ము', 'U'), ('ట్ట', 'U'), ('న్వి', '|'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('లే', 'U'), ('క', '|'), ('ని', '|'), ('గు', '|'), ('డన్', 'U'), ('గ్రా', 'U'), ('లం', 'U'), ('గ', '|'), ('నొ', 'U'), ('ప్పా', 'U'), ('రు', '|'), ('మి', 'U'), ('మ్మ', '|'), ('డ', '|'), ('రన్', 'U'), ('స', 'U'), ('న్ను', '|'), ('తి', '|'), ('సే', 'U'), ('య', '|'), ('నా', 'U'), ('దు', '|'), ('వ', '|'), ('శ', '|'), ('మే', 'U'), ('య', 'U'), ('జ్ఞా', 'U'), ('ని', '|'), ('లో', 'U'), ('భా', 'U'), ('త్ము', '|'), ('డన్', 'U'), ('జ', '|'), ('డు', '|'), ('డ', 'U'), ('న్న', 'U'), ('జ్ఞు', '|'), ('డ', '|'), ('నై', 'U'), ('క', '|'), ('జి', 'U'), ('హ్వు', '|'), ('డ', '|'), ('జ', '|'), ('న', 'U'), ('స్త', 'U'), ('బ్ధుం', 'U'), ('డ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('క', '|'), ('డ', '|'), ('కుం', 'U'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('వే', 'U'), ('యి', '|'), ('నో', 'U'), ('ళ్ళు', '|'), ('గ', '|'), ('ల', '|'), ('యా', 'U'), ('కా', 'U'), ('కో', 'U'), ('ద', '|'), ('రా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('డున్', 'U'), ('గ', '|'), ('డ', '|'), ('ము', 'U'), ('ట్ట', 'U'), ('న్వి', '|'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('లే', 'U'), ('క', '|'), ('ని', '|'), ('గు', '|'), ('డ', 'U'), ('న్గ్రా', 'U'), ('లం', 'U'), ('గ', '|'), ('నొ', 'U'), ('ప్పా', 'U'), ('రు', '|'), ('మి', 'U'), ('మ్మ', '|'), ('డ', '|'), ('ర', 'U'), ('న్స', 'U'), ('న్ను', '|'), ('తి', '|'), ('సే', 'U'), ('య', '|'), ('నా', 'U'), ('దు', '|'), ('వ', '|'), ('శ', '|'), ('మే', 'U'), ('య', 'U'), ('జ్ఞా', 'U'), ('ని', '|'), ('లో', 'U'), ('భా', 'U'), ('త్ము', '|'), ('డన్', 'U'), ('జ', '|'), ('డు', '|'), ('డ', 'U'), ('న్న', 'U'), ('జ్ఞు', '|'), ('డ', '|'), ('నై', 'U'), ('క', '|'), ('జి', 'U'), ('హ్వు', '|'), ('డ', '|'), ('జ', '|'), ('న', 'U'), ('స్త', 'U'), ('బ్ధుం', 'U'), ('డ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('నే', 'U'), ('నీ', 'U'), ('దా', 'U'), ('సు', '|'), ('డ', '|'), ('నీ', 'U'), ('వు', '|'), ('నా', 'U'), ('ప', '|'), ('తి', '|'), ('వి', '|'), ('ని', 'U'), ('న్నే', 'U'), ('కా', 'U'), ('ని', '|'), ('యొం', 'U'), ('డె', 'U'), ('వ్వ', '|'), ('రిన్', 'U'), ('ధ్యా', 'U'), ('నిం', 'U'), ('పం', 'U'), ('బ్ర', '|'), ('ణు', '|'), ('తిం', 'U'), ('ప', '|'), ('న', 'U'), ('ట్ల', '|'), ('గు', '|'), ('ట', '|'), ('కు', 'U'), ('న్నా', 'U'), ('నే', 'U'), ('ర్చు', '|'), ('చం', 'U'), ('దం', 'U'), ('బు', '|'), ('నన్', 'U'), ('నీ', 'U'), ('నా', 'U'), ('మ', 'U'), ('స్తు', '|'), ('తు', '|'), ('లా', 'U'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('నె', '|'), ('డ', '|'), ('ల', 'U'), ('న్నే', 'U'), ('త', 'U'), ('ప్పు', '|'), ('లుం', 'U'), ('గ', 'U'), ('ల్గి', '|'), ('నన్', 'U'), ('వా', 'U'), ('నిన్', 'U'), ('లో', 'U'), ('గొ', '|'), ('ను', '|'), ('మ', 'U'), ('య్య', '|'), ('తం', 'U'), ('డ్రి', '|'), ('వి', '|'), ('హి', '|'), ('త', 'U'), ('వ్యా', 'U'), ('పా', 'U'), ('ర', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('నే', 'U'), ('నీ', 'U'), ('దా', 'U'), ('సు', '|'), ('డ', '|'), ('నీ', 'U'), ('వు', '|'), ('నా', 'U'), ('ప', '|'), ('తి', '|'), ('వి', '|'), ('ని', 'U'), ('న్నే', 'U'), ('కా', 'U'), ('ని', '|'), ('యొం', 'U'), ('డె', 'U'), ('వ్వ', '|'), ('రిన్', 'U'), ('ధ్యా', 'U'), ('నిం', 'U'), ('పం', 'U'), ('బ్ర', '|'), ('ణు', '|'), ('తిం', 'U'), ('ప', '|'), ('న', 'U'), ('ట్ల', '|'), ('గు', '|'), ('ట', '|'), ('కు', 'U'), ('న్నా', 'U'), ('నే', 'U'), ('ర్చు', '|'), ('చం', 'U'), ('దం', 'U'), ('బు', '|'), ('నన్', 'U'), ('నీ', 'U'), ('నా', 'U'), ('మ', 'U'), ('స్తు', '|'), ('తు', '|'), ('లా', 'U'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('నె', '|'), ('డ', '|'), ('ల', 'U'), ('న్నే', 'U'), ('త', 'U'), ('ప్పు', '|'), ('లుం', 'U'), ('గ', 'U'), ('ల్గి', '|'), ('నన్', 'U'), ('వా', 'U'), ('ని', 'U'), ('న్లో', 'U'), ('గొ', '|'), ('ను', '|'), ('మ', 'U'), ('య్య', '|'), ('తం', 'U'), ('డ్రి', '|'), ('వి', '|'), ('హి', '|'), ('త', 'U'), ('వ్యా', 'U'), ('పా', 'U'), ('ర', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('నె', '|'), ('ర', '|'), ('య', 'U'), ('న్ని', 'U'), ('ర్మ', '|'), ('ల', '|'), ('మై', 'U'), ('న', '|'), ('నీ', 'U'), ('స్తు', '|'), ('తి', '|'), ('క', '|'), ('థా', 'U'), ('నీ', 'U'), ('కం', 'U'), ('బు', '|'), ('ప', 'U'), ('ద్యం', 'U'), ('బు', '|'), ('లో', 'U'), ('నొ', '|'), ('రు', '|'), ('గుల్', 'U'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('గ', 'U'), ('ల్గె', '|'), ('నే', 'U'), ('ని', '|'), ('యు', '|'), ('గ', '|'), ('డు', 'U'), ('న్యో', 'U'), ('గం', 'U'), ('బె', '|'), ('చ', 'U'), ('ర్చిం', 'U'), ('ప', '|'), ('గా', 'U'), ('గు', '|'), ('ఱు', '|'), ('గ', 'U'), ('ణ్పై', 'U'), ('న', '|'), ('ను', '|'), ('వం', 'U'), ('క', '|'), ('బో', 'U'), ('యి', '|'), ('న', '|'), ('గ', '|'), ('డుం', 'U'), ('గు', 'U'), ('జ్జై', 'U'), ('న', '|'), ('బే', 'U'), ('డె', 'U'), ('త్తి', '|'), ('నం', 'U'), ('జె', '|'), ('ఱ', '|'), ('కుం', 'U'), ('గో', 'U'), ('ల', '|'), ('కు', '|'), ('తీ', 'U'), ('పు', '|'), ('గా', 'U'), ('క', '|'), ('క', '|'), ('ల', '|'), ('దే', 'U'), ('చే', 'U'), ('దెం', 'U'), ('దు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('నె', '|'), ('ర', '|'), ('య', 'U'), ('న్ని', 'U'), ('ర్మ', '|'), ('ల', '|'), ('మై', 'U'), ('న', '|'), ('నీ', 'U'), ('స్తు', '|'), ('తి', '|'), ('క', '|'), ('థా', 'U'), ('నీ', 'U'), ('కం', 'U'), ('బు', '|'), ('ప', 'U'), ('ద్యం', 'U'), ('బు', '|'), ('లో', 'U'), ('నొ', '|'), ('రు', '|'), ('గు', 'U'), ('ల్మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('గ', 'U'), ('ల్గె', '|'), ('నే', 'U'), ('ని', '|'), ('యు', '|'), ('గ', '|'), ('డు', 'U'), ('న్యో', 'U'), ('గం', 'U'), ('బె', '|'), ('చ', 'U'), ('ర్చిం', 'U'), ('ప', '|'), ('గా', 'U'), ('గు', '|'), ('ఱు', '|'), ('గ', 'U'), ('ణ్పై', 'U'), ('న', '|'), ('ను', '|'), ('వం', 'U'), ('క', '|'), ('బో', 'U'), ('యి', '|'), ('న', '|'), ('గ', '|'), ('డుం', 'U'), ('గు', 'U'), ('జ్జై', 'U'), ('న', '|'), ('బే', 'U'), ('డె', 'U'), ('త్తి', '|'), ('నం', 'U'), ('జె', '|'), ('ఱ', '|'), ('కుం', 'U'), ('గో', 'U'), ('ల', '|'), ('కు', '|'), ('తీ', 'U'), ('పు', '|'), ('గా', 'U'), ('క', '|'), ('క', '|'), ('ల', '|'), ('దే', 'U'), ('చే', 'U'), ('దెం', 'U'), ('దు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('చ', '|'), ('దు', '|'), ('వుల్', 'U'), ('పె', 'U'), ('క్కు', '|'), ('లు', '|'), ('సం', 'U'), ('గ్ర', '|'), ('హిం', 'U'), ('చి', '|'), ('పి', '|'), ('ద', '|'), ('పం', 'U'), ('జా', 'U'), ('లం', 'U'), ('గ', '|'), ('సు', 'U'), ('జ్ఞా', 'U'), ('ని', '|'), ('యై', 'U'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('ని', 'U'), ('న్ను', '|'), ('ని', 'U'), ('ల్ప', '|'), ('ద', '|'), ('గు', '|'), ('నా', 'U'), ('మ', 'U'), ('ర్మం', 'U'), ('బు', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('డే', 'U'), ('మొ', '|'), ('ద', '|'), ('లం', 'U'), ('గా', 'U'), ('డి', '|'), ('ద', '|'), ('చా', 'U'), ('రు', '|'), ('గం', 'U'), ('ధ', '|'), ('వి', '|'), ('త', '|'), ('తుల్', 'U'), ('మో', 'U'), ('వం', 'U'), ('గ', '|'), ('శ', 'U'), ('క్యం', 'U'), ('బె', '|'), ('కా', 'U'), ('క', '|'), ('ది', '|'), ('సౌ', 'U'), ('ర', 'U'), ('భ్య', '|'), ('ప', '|'), ('రీ', 'U'), ('క్ష', '|'), ('జూ', 'U'), ('డ', '|'), ('కు', '|'), ('శ', '|'), ('లే', 'U'), ('య', 'U'), ('వ్య', 'U'), ('క్త', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('చ', '|'), ('దు', '|'), ('వు', 'U'), ('ల్పె', 'U'), ('క్కు', '|'), ('లు', '|'), ('సం', 'U'), ('గ్ర', '|'), ('హిం', 'U'), ('చి', '|'), ('పి', '|'), ('ద', '|'), ('పం', 'U'), ('జా', 'U'), ('లం', 'U'), ('గ', '|'), ('సు', 'U'), ('జ్ఞా', 'U'), ('ని', '|'), ('యై', 'U'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('ని', 'U'), ('న్ను', '|'), ('ని', 'U'), ('ల్ప', '|'), ('ద', '|'), ('గు', '|'), ('నా', 'U'), ('మ', 'U'), ('ర్మం', 'U'), ('బు', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('డే', 'U'), ('మొ', '|'), ('ద', '|'), ('లం', 'U'), ('గా', 'U'), ('డి', '|'), ('ద', '|'), ('చా', 'U'), ('రు', '|'), ('గం', 'U'), ('ధ', '|'), ('వి', '|'), ('త', '|'), ('తు', 'U'), ('ల్మో', 'U'), ('వం', 'U'), ('గ', '|'), ('శ', 'U'), ('క్యం', 'U'), ('బె', '|'), ('కా', 'U'), ('క', '|'), ('ది', '|'), ('సౌ', 'U'), ('ర', 'U'), ('భ్య', '|'), ('ప', '|'), ('రీ', 'U'), ('క్ష', '|'), ('జూ', 'U'), ('డ', '|'), ('కు', '|'), ('శ', '|'), ('లే', 'U'), ('య', 'U'), ('వ్య', 'U'), ('క్త', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('ల', '|'), ('లి', '|'), ('గ', 'U'), ('బ్బం', 'U'), ('బు', '|'), ('క', '|'), ('రా', 'U'), ('ట', '|'), ('మి', 'U'), ('వ్వ', '|'), ('సు', '|'), ('ధ', '|'), ('నె', 'U'), ('ల్లం', 'U'), ('న్మిం', 'U'), ('చె', '|'), ('బో', 'U'), ('నీ', 'U'), ('క', '|'), ('థా', 'U'), ('వ', '|'), ('ళి', '|'), ('క', 'U'), ('ర్పూ', 'U'), ('ర', '|'), ('ము', '|'), ('నిం', 'U'), ('చి', '|'), ('న', 'U'), ('న్ని', '|'), ('త', '|'), ('ర', '|'), ('మౌ', 'U'), ('వ్య', 'U'), ('ర్ధా', 'U'), ('ర్థ', '|'), ('కా', 'U'), ('మో', 'U'), ('ద', '|'), ('ముల్', 'U'), ('పె', '|'), ('లు', '|'), ('చం', 'U'), ('బూ', 'U'), ('ని', '|'), ('న', '|'), ('య', 'U'), ('క్క', '|'), ('రా', 'U'), ('ట', '|'), ('ము', '|'), ('తు', '|'), ('దిన్', 'U'), ('బే', 'U'), ('తే', 'U'), ('క', '|'), ('రా', 'U'), ('టం', 'U'), ('బె', '|'), ('పో', 'U'), ('చ', '|'), ('ల', '|'), ('దిం', 'U'), ('దీ', 'U'), ('వ', '|'), ('ర', '|'), ('ప', '|'), ('త్ర', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('ఘ', '|'), ('న', 'U'), ('శ్యా', 'U'), ('మాం', 'U'), ('గ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('ల', '|'), ('లి', '|'), ('గ', 'U'), ('బ్బం', 'U'), ('బు', '|'), ('క', '|'), ('రా', 'U'), ('ట', '|'), ('మి', 'U'), ('వ్వ', '|'), ('సు', '|'), ('ధ', '|'), ('నె', 'U'), ('ల్లం', 'U'), ('న్మిం', 'U'), ('చె', '|'), ('బో', 'U'), ('నీ', 'U'), ('క', '|'), ('థా', 'U'), ('వ', '|'), ('ళి', '|'), ('క', 'U'), ('ర్పూ', 'U'), ('ర', '|'), ('ము', '|'), ('నిం', 'U'), ('చి', '|'), ('న', 'U'), ('న్ని', '|'), ('త', '|'), ('ర', '|'), ('మౌ', 'U'), ('వ్య', 'U'), ('ర్ధా', 'U'), ('ర్థ', '|'), ('కా', 'U'), ('మో', 'U'), ('ద', '|'), ('ముల్', 'U'), ('పె', '|'), ('లు', '|'), ('చం', 'U'), ('బూ', 'U'), ('ని', '|'), ('న', '|'), ('య', 'U'), ('క్క', '|'), ('రా', 'U'), ('ట', '|'), ('ము', '|'), ('తు', '|'), ('ది', 'U'), ('న్బే', 'U'), ('తే', 'U'), ('క', '|'), ('రా', 'U'), ('టం', 'U'), ('బె', '|'), ('పో', 'U'), ('చ', '|'), ('ల', '|'), ('దిం', 'U'), ('దీ', 'U'), ('వ', '|'), ('ర', '|'), ('ప', '|'), ('త్ర', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('ఘ', '|'), ('న', 'U'), ('శ్యా', 'U'), ('మాం', 'U'), ('గ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('మ', '|'), ('న', '|'), ('మా', 'U'), ('ర', 'U'), ('న్న', '|'), ('చ', '|'), ('లేం', 'U'), ('ద్ర', '|'), ('జా', 'U'), ('ధి', '|'), ('ప', '|'), ('తి', '|'), ('కి', 'U'), ('న్మ', 'U'), ('స్తా', 'U'), ('గ్ర', '|'), ('మా', 'U'), ('ణి', 'U'), ('క్య', '|'), ('మై', 'U'), ('ము', '|'), ('ని', '|'), ('కో', 'U'), ('పా', 'U'), ('న', '|'), ('ల', '|'), ('ద', 'U'), ('గ్ధ', '|'), ('రా', 'U'), ('జ', '|'), ('త', '|'), ('తి', '|'), ('కి', 'U'), ('న్ము', 'U'), ('క్తి', 'U'), ('స్ఫు', '|'), ('ర', 'U'), ('న్మా', 'U'), ('ర్గ', '|'), ('మై', 'U'), ('యె', '|'), ('న', '|'), ('యన్', 'U'), ('సా', 'U'), ('య', '|'), ('క', '|'), ('శా', 'U'), ('యి', '|'), ('కిం', 'U'), ('జ', '|'), ('న', '|'), ('ని', '|'), ('యై', 'U'), ('యే', 'U'), ('పా', 'U'), ('రు', '|'), ('మి', 'U'), ('న్నే', 'U'), ('టి', '|'), ('కిం', 'U'), ('జ', '|'), ('ని', '|'), ('మూ', 'U'), ('లం', 'U'), ('బ', '|'), ('గు', '|'), ('నం', 'U'), ('ఘ్రి', '|'), ('నా', 'U'), ('దు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('జ', 'U'), ('ర్చిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('మ', '|'), ('న', '|'), ('మా', 'U'), ('ర', 'U'), ('న్న', '|'), ('చ', '|'), ('లేం', 'U'), ('ద్ర', '|'), ('జా', 'U'), ('ధి', '|'), ('ప', '|'), ('తి', '|'), ('కి', 'U'), ('న్మ', 'U'), ('స్తా', 'U'), ('గ్ర', '|'), ('మా', 'U'), ('ణి', 'U'), ('క్య', '|'), ('మై', 'U'), ('ము', '|'), ('ని', '|'), ('కో', 'U'), ('పా', 'U'), ('న', '|'), ('ల', '|'), ('ద', 'U'), ('గ్ధ', '|'), ('రా', 'U'), ('జ', '|'), ('త', '|'), ('తి', '|'), ('కి', 'U'), ('న్ము', 'U'), ('క్తి', 'U'), ('స్ఫు', '|'), ('ర', 'U'), ('న్మా', 'U'), ('ర్గ', '|'), ('మై', 'U'), ('యె', '|'), ('న', '|'), ('య', 'U'), ('న్సా', 'U'), ('య', '|'), ('క', '|'), ('శా', 'U'), ('యి', '|'), ('కిం', 'U'), ('జ', '|'), ('న', '|'), ('ని', '|'), ('యై', 'U'), ('యే', 'U'), ('పా', 'U'), ('రు', '|'), ('మి', 'U'), ('న్నే', 'U'), ('టి', '|'), ('కిం', 'U'), ('జ', '|'), ('ని', '|'), ('మూ', 'U'), ('లం', 'U'), ('బ', '|'), ('గు', '|'), ('నం', 'U'), ('ఘ్రి', '|'), ('నా', 'U'), ('దు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('జ', 'U'), ('ర్చిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('బ్ర', 'U'), ('హ్మాం', 'U'), ('డా', 'U'), ('వ', '|'), ('లి', '|'), ('లో', 'U'), ('న', '|'), ('స', 'U'), ('త్వ', '|'), ('గు', '|'), ('ణి', '|'), ('వై', 'U'), ('బా', 'U'), ('హ్యం', 'U'), ('బు', '|'), ('నం', 'U'), ('దా', 'U'), ('ది', '|'), ('మ', '|'), ('బ్ర', 'U'), ('హ్మా', 'U'), ('ఖ్యం', 'U'), ('బ', '|'), ('ర', '|'), ('త', 'U'), ('త్వ', '|'), ('బో', 'U'), ('ధ', '|'), ('ము', '|'), ('ల', '|'), ('కున్', 'U'), ('భ', 'U'), ('వ్యా', 'U'), ('ధి', '|'), ('నా', 'U'), ('థుం', 'U'), ('డ', '|'), ('వై', 'U'), ('బ్ర', 'U'), ('హ్మేం', 'U'), ('ద్రా', 'U'), ('మ', '|'), ('ర', '|'), ('వా', 'U'), ('యు', '|'), ('భు', 'U'), ('క్ప', '|'), ('తు', '|'), ('ల', '|'), ('కున్', 'U'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('రా', 'U'), ('కు', 'U'), ('న్న', '|'), ('నా', 'U'), ('జి', 'U'), ('హ్మ', 'U'), ('వ్యా', 'U'), ('ప్తు', '|'), ('ల', '|'), ('నె', 'U'), ('న్న', '|'), ('నా', 'U'), ('దు', '|'), ('వ', '|'), ('శ', '|'), ('మే', 'U'), ('చి', '|'), ('ద్రూ', 'U'), ('ప', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('బ్ర', 'U'), ('హ్మాం', 'U'), ('డా', 'U'), ('వ', '|'), ('లి', '|'), ('లో', 'U'), ('న', '|'), ('స', 'U'), ('త్వ', '|'), ('గు', '|'), ('ణి', '|'), ('వై', 'U'), ('బా', 'U'), ('హ్యం', 'U'), ('బు', '|'), ('నం', 'U'), ('దా', 'U'), ('ది', '|'), ('మ', '|'), ('బ్ర', 'U'), ('హ్మా', 'U'), ('ఖ్యం', 'U'), ('బ', '|'), ('ర', '|'), ('త', 'U'), ('త్వ', '|'), ('బో', 'U'), ('ధ', '|'), ('ము', '|'), ('ల', '|'), ('కు', 'U'), ('న్భ', 'U'), ('వ్యా', 'U'), ('ధి', '|'), ('నా', 'U'), ('థుం', 'U'), ('డ', '|'), ('వై', 'U'), ('బ్ర', 'U'), ('హ్మేం', 'U'), ('ద్రా', 'U'), ('మ', '|'), ('ర', '|'), ('వా', 'U'), ('యు', '|'), ('భు', 'U'), ('క్ప', '|'), ('తు', '|'), ('ల', '|'), ('కు', 'U'), ('న్భా', 'U'), ('విం', 'U'), ('ప', '|'), ('రా', 'U'), ('కు', 'U'), ('న్న', '|'), ('నా', 'U'), ('జి', 'U'), ('హ్మ', 'U'), ('వ్యా', 'U'), ('ప్తు', '|'), ('ల', '|'), ('నె', 'U'), ('న్న', '|'), ('నా', 'U'), ('దు', '|'), ('వ', '|'), ('శ', '|'), ('మే', 'U'), ('చి', '|'), ('ద్రూ', 'U'), ('ప', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('ధ', '|'), ('ర', '|'), ('సిం', 'U'), ('హా', 'U'), ('స', '|'), ('న', '|'), ('మై', 'U'), ('న', '|'), ('భం', 'U'), ('బు', '|'), ('గొ', '|'), ('డు', '|'), ('గై', 'U'), ('త', 'U'), ('ద్దే', 'U'), ('వ', '|'), ('తల్', 'U'), ('భృ', 'U'), ('త్యు', '|'), ('లై', 'U'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('మ్నా', 'U'), ('య', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('వం', 'U'), ('ది', '|'), ('గ', '|'), ('ణ', '|'), ('మై', 'U'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డ', '|'), ('మా', 'U'), ('గా', 'U'), ('ర', '|'), ('మై', 'U'), ('సి', '|'), ('రి', '|'), ('భా', 'U'), ('ర్యా', 'U'), ('మ', '|'), ('ణి', '|'), ('యై', 'U'), ('వి', '|'), ('రిం', 'U'), ('చి', '|'), ('కొ', '|'), ('డు', '|'), ('కై', 'U'), ('శ్రీ', 'U'), ('గం', 'U'), ('గ', '|'), ('స', 'U'), ('త్పు', '|'), ('త్రి', '|'), ('యై', 'U'), ('వ', '|'), ('రు', '|'), ('స', 'U'), ('న్నీ', 'U'), ('ఘ', '|'), ('న', '|'), ('రా', 'U'), ('జ', '|'), ('సం', 'U'), ('బు', '|'), ('ని', '|'), ('జ', '|'), ('మై', 'U'), ('వ', 'U'), ('ర్ధి', 'U'), ('ల్లు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('ధ', '|'), ('ర', '|'), ('సిం', 'U'), ('హా', 'U'), ('స', '|'), ('న', '|'), ('మై', 'U'), ('న', '|'), ('భం', 'U'), ('బు', '|'), ('గొ', '|'), ('డు', '|'), ('గై', 'U'), ('త', 'U'), ('ద్దే', 'U'), ('వ', '|'), ('త', 'U'), ('ల్భృ', 'U'), ('త్యు', '|'), ('లై', 'U'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('మ్నా', 'U'), ('య', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('వం', 'U'), ('ది', '|'), ('గ', '|'), ('ణ', '|'), ('మై', 'U'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డ', '|'), ('మా', 'U'), ('గా', 'U'), ('ర', '|'), ('మై', 'U'), ('సి', '|'), ('రి', '|'), ('భా', 'U'), ('ర్యా', 'U'), ('మ', '|'), ('ణి', '|'), ('యై', 'U'), ('వి', '|'), ('రిం', 'U'), ('చి', '|'), ('కొ', '|'), ('డు', '|'), ('కై', 'U'), ('శ్రీ', 'U'), ('గం', 'U'), ('గ', '|'), ('స', 'U'), ('త్పు', '|'), ('త్రి', '|'), ('యై', 'U'), ('వ', '|'), ('రు', '|'), ('స', 'U'), ('న్నీ', 'U'), ('ఘ', '|'), ('న', '|'), ('రా', 'U'), ('జ', '|'), ('సం', 'U'), ('బు', '|'), ('ని', '|'), ('జ', '|'), ('మై', 'U'), ('వ', 'U'), ('ర్ధి', 'U'), ('ల్లు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('మ', '|'), ('రుల్', 'U'), ('రా', 'U'), ('క్ష', '|'), ('స', '|'), ('నా', 'U'), ('య', '|'), ('కుల్', 'U'), ('క', '|'), ('డ', '|'), ('క', '|'), ('తో', 'U'), ('న', 'U'), ('త్యం', 'U'), ('త', '|'), ('సా', 'U'), ('మ', 'U'), ('ర్థ్యు', '|'), ('లై', 'U'), ('భ్ర', '|'), ('మ', '|'), ('రీ', 'U'), ('దం', 'U'), ('డ', '|'), ('ము', '|'), ('మం', 'U'), ('ద', '|'), ('రా', 'U'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('గా', 'U'), ('బా', 'U'), ('థో', 'U'), ('ని', '|'), ('ధిం', 'U'), ('ద్ర', 'U'), ('చ్చ', '|'), ('గా', 'U'), ('ద', '|'), ('మ', '|'), ('కిం', 'U'), ('చెన్', 'U'), ('భు', '|'), ('వ', '|'), ('న', '|'), ('త్ర', '|'), ('యం', 'U'), ('బు', '|'), ('ను', '|'), ('గి', '|'), ('రుల్', 'U'), ('దం', 'U'), ('తా', 'U'), ('వ', '|'), ('ళుల్', 'U'), ('మ్రొ', 'U'), ('గ్గి', '|'), ('నం', 'U'), ('గ', '|'), ('మ', '|'), ('ఠం', 'U'), ('బై', 'U'), ('ధ', '|'), ('రి', '|'), ('యిం', 'U'), ('చి', '|'), ('మిం', 'U'), ('చి', '|'), ('న', '|'), ('జ', '|'), ('గ', 'U'), ('త్క', 'U'), ('ల్యా', 'U'), ('ణ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('అ', '|'), ('మ', '|'), ('రు', '|'), ('ల్రా', 'U'), ('క్ష', '|'), ('స', '|'), ('నా', 'U'), ('య', '|'), ('కు', 'U'), ('ల్క', '|'), ('డ', '|'), ('క', '|'), ('తో', 'U'), ('న', 'U'), ('త్యం', 'U'), ('త', '|'), ('సా', 'U'), ('మ', 'U'), ('ర్థ్యు', '|'), ('లై', 'U'), ('భ్ర', '|'), ('మ', '|'), ('రీ', 'U'), ('దం', 'U'), ('డ', '|'), ('ము', '|'), ('మం', 'U'), ('ద', '|'), ('రా', 'U'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('గా', 'U'), ('బా', 'U'), ('థో', 'U'), ('ని', '|'), ('ధిం', 'U'), ('ద్ర', 'U'), ('చ్చ', '|'), ('గా', 'U'), ('ద', '|'), ('మ', '|'), ('కిం', 'U'), ('చె', 'U'), ('న్భు', '|'), ('వ', '|'), ('న', '|'), ('త్ర', '|'), ('యం', 'U'), ('బు', '|'), ('ను', '|'), ('గి', '|'), ('రు', 'U'), ('ల్దం', 'U'), ('తా', 'U'), ('వ', '|'), ('ళు', 'U'), ('ల్మ్రొ', 'U'), ('గ్గి', '|'), ('నం', 'U'), ('గ', '|'), ('మ', '|'), ('ఠం', 'U'), ('బై', 'U'), ('ధ', '|'), ('రి', '|'), ('యిం', 'U'), ('చి', '|'), ('మిం', 'U'), ('చి', '|'), ('న', '|'), ('జ', '|'), ('గ', 'U'), ('త్క', 'U'), ('ల్యా', 'U'), ('ణ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('భీ', 'U'), ('మా', 'U'), ('కా', 'U'), ('ర', '|'), ('వ', '|'), ('రా', 'U'), ('హ', '|'), ('మై', 'U'), ('భు', '|'), ('వ', '|'), ('న', '|'), ('ముల్', 'U'), ('భీ', 'U'), ('తి', 'U'), ('ల్లి', '|'), ('కం', 'U'), ('పిం', 'U'), ('ప', '|'), ('ను', 'U'), ('ద్దా', 'U'), ('మో', 'U'), ('ర్విం', 'U'), ('గొ', '|'), ('ని', '|'), ('పో', 'U'), ('యి', '|'), ('నీ', 'U'), ('ర', '|'), ('ని', '|'), ('ధి', '|'), ('లో', 'U'), ('డా', 'U'), ('గు', 'U'), ('న్న', '|'), ('గ', 'U'), ('ర్వాం', 'U'), ('ధు', '|'), ('నిన్', 'U'), ('హే', 'U'), ('మా', 'U'), ('క్షా', 'U'), ('సు', '|'), ('రు', '|'), ('వీ', 'U'), ('క', '|'), ('దా', 'U'), ('కి', '|'), ('జ', '|'), ('య', '|'), ('ల', 'U'), ('క్ష్మిన్', 'U'), ('గా', 'U'), ('ర', '|'), ('విం', 'U'), ('పం', 'U'), ('గ', '|'), ('నీ', 'U'), ('భూ', 'U'), ('మిం', 'U'), ('ద', 'U'), ('క్షి', '|'), ('ణ', '|'), ('దం', 'U'), ('ష్ట్ర', '|'), ('నె', 'U'), ('త్తి', '|'), ('న', '|'), ('ని', '|'), ('నుం', 'U'), ('బూ', 'U'), ('జిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('భీ', 'U'), ('మా', 'U'), ('కా', 'U'), ('ర', '|'), ('వ', '|'), ('రా', 'U'), ('హ', '|'), ('మై', 'U'), ('భు', '|'), ('వ', '|'), ('న', '|'), ('ము', 'U'), ('ల్భీ', 'U'), ('తి', 'U'), ('ల్లి', '|'), ('కం', 'U'), ('పిం', 'U'), ('ప', '|'), ('ను', 'U'), ('ద్దా', 'U'), ('మో', 'U'), ('ర్విం', 'U'), ('గొ', '|'), ('ని', '|'), ('పో', 'U'), ('యి', '|'), ('నీ', 'U'), ('ర', '|'), ('ని', '|'), ('ధి', '|'), ('లో', 'U'), ('డా', 'U'), ('గు', 'U'), ('న్న', '|'), ('గ', 'U'), ('ర్వాం', 'U'), ('ధు', '|'), ('నిన్', 'U'), ('హే', 'U'), ('మా', 'U'), ('క్షా', 'U'), ('సు', '|'), ('రు', '|'), ('వీ', 'U'), ('క', '|'), ('దా', 'U'), ('కి', '|'), ('జ', '|'), ('య', '|'), ('ల', 'U'), ('క్ష్మి', 'U'), ('న్గా', 'U'), ('ర', '|'), ('విం', 'U'), ('పం', 'U'), ('గ', '|'), ('నీ', 'U'), ('భూ', 'U'), ('మిం', 'U'), ('ద', 'U'), ('క్షి', '|'), ('ణ', '|'), ('దం', 'U'), ('ష్ట్ర', '|'), ('నె', 'U'), ('త్తి', '|'), ('న', '|'), ('ని', '|'), ('నుం', 'U'), ('బూ', 'U'), ('జిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('స్తం', 'U'), ('భం', 'U'), ('బం', 'U'), ('దు', '|'), ('నృ', '|'), ('సిం', 'U'), ('హ', '|'), ('మై', 'U'), ('వె', '|'), ('డ', '|'), ('లి', '|'), ('య', 'U'), ('చ్చం', 'U'), ('డా', 'U'), ('ట్ట', '|'), ('హా', 'U'), ('స', 'U'), ('ధ్వ', '|'), ('నుల్', 'U'), ('దం', 'U'), ('భో', 'U'), ('ళిం', 'U'), ('గ', '|'), ('డు', '|'), ('వం', 'U'), ('గ', '|'), ('హే', 'U'), ('మ', '|'), ('క', '|'), ('శి', '|'), ('పో', 'U'), ('ద్దం', 'U'), ('డా', 'U'), ('సు', '|'), ('రా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('రున్', 'U'), ('శుం', 'U'), ('భ', 'U'), ('ద్గ', 'U'), ('ర్భ', '|'), ('ము', '|'), ('వ్ర', 'U'), ('చ్చి', '|'), ('వా', 'U'), ('ని', '|'), ('సు', '|'), ('తు', '|'), ('నిన్', 'U'), ('శో', 'U'), ('భి', 'U'), ('ల్ల', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('చి', '|'), ('య', 'U'), ('జ్జం', 'U'), ('భా', 'U'), ('రా', 'U'), ('తి', '|'), ('ని', '|'), ('బ్రీ', 'U'), ('తి', '|'), ('దే', 'U'), ('ల్చి', '|'), ('న', '|'), ('ని', '|'), ('నుం', 'U'), ('జ', 'U'), ('ర్చిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('స్తం', 'U'), ('భం', 'U'), ('బం', 'U'), ('దు', '|'), ('నృ', '|'), ('సిం', 'U'), ('హ', '|'), ('మై', 'U'), ('వె', '|'), ('డ', '|'), ('లి', '|'), ('య', 'U'), ('చ్చం', 'U'), ('డా', 'U'), ('ట్ట', '|'), ('హా', 'U'), ('స', 'U'), ('ధ్వ', '|'), ('నుల్', 'U'), ('దం', 'U'), ('భో', 'U'), ('ళిం', 'U'), ('గ', '|'), ('డు', '|'), ('వం', 'U'), ('గ', '|'), ('హే', 'U'), ('మ', '|'), ('క', '|'), ('శి', '|'), ('పో', 'U'), ('ద్దం', 'U'), ('డా', 'U'), ('సు', '|'), ('రా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('రున్', 'U'), ('శుం', 'U'), ('భ', 'U'), ('ద్గ', 'U'), ('ర్భ', '|'), ('ము', '|'), ('వ్ర', 'U'), ('చ్చి', '|'), ('వా', 'U'), ('ని', '|'), ('సు', '|'), ('తు', '|'), ('ని', 'U'), ('న్శో', 'U'), ('భి', 'U'), ('ల్ల', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('చి', '|'), ('య', 'U'), ('జ్జం', 'U'), ('భా', 'U'), ('రా', 'U'), ('తి', '|'), ('ని', '|'), ('బ్రీ', 'U'), ('తి', '|'), ('దే', 'U'), ('ల్చి', '|'), ('న', '|'), ('ని', '|'), ('నుం', 'U'), ('జ', 'U'), ('ర్చిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[('ధ', '|'), ('ర', '|'), ('ణిన్', 'U'), ('ర', 'U'), ('క్త', '|'), ('మ', '|'), ('హా', 'U'), ('హ్ర', '|'), ('దం', 'U'), ('బు', '|'), ('లె', '|'), ('ల', '|'), ('మిం', 'U'), ('ద్రై', 'U'), ('లో', 'U'), ('క్య', '|'), ('ని', 'U'), ('ర్ది', 'U'), ('ష్ట', '|'), ('మై', 'U'), ('ప', '|'), ('ర', '|'), ('గం', 'U'), ('బై', 'U'), ('తృ', '|'), ('క', '|'), ('త', 'U'), ('ర్ప', '|'), ('ణం', 'U'), ('బు', '|'), ('కొ', '|'), ('ర', '|'), ('కై', 'U'), ('ప్ర', 'U'), ('ఖ్యా', 'U'), ('తి', '|'), ('గా', 'U'), ('దీ', 'U'), ('వ్ర', '|'), ('తన్', 'U'), ('ని', '|'), ('రు', '|'), ('వై', 'U'), ('యొ', 'U'), ('క్క', '|'), ('టి', '|'), ('మా', 'U'), ('రు', 'U'), ('క్ష', '|'), ('త్ర', '|'), ('వ', '|'), ('రు', '|'), ('ల', 'U'), ('న్నే', 'U'), ('పా', 'U'), ('ర', '|'), ('ని', 'U'), ('ర్జిం', 'U'), ('చి', '|'), ('త', 'U'), ('త్ప', '|'), ('ర', '|'), ('శు', '|'), ('భ్రా', 'U'), ('జి', '|'), ('త', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('క', '|'), ('డున్', 'U'), ('ధ', 'U'), ('న్యం', 'U'), ('బు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('న్ర', 'U'), ('క్త', '|'), ('మ', '|'), ('హా', 'U'), ('హ్ర', '|'), ('దం', 'U'), ('బు', '|'), ('లె', '|'), ('ల', '|'), ('మిం', 'U'), ('ద్రై', 'U'), ('లో', 'U'), ('క్య', '|'), ('ని', 'U'), ('ర్ది', 'U'), ('ష్ట', '|'), ('మై', 'U'), ('ప', '|'), ('ర', '|'), ('గం', 'U'), ('బై', 'U'), ('తృ', '|'), ('క', '|'), ('త', 'U'), ('ర్ప', '|'), ('ణం', 'U'), ('బు', '|'), ('కొ', '|'), ('ర', '|'), ('కై', 'U'), ('ప్ర', 'U'), ('ఖ్యా', 'U'), ('తి', '|'), ('గా', 'U'), ('దీ', 'U'), ('వ్ర', '|'), ('తన్', 'U'), ('ని', '|'), ('రు', '|'), ('వై', 'U'), ('యొ', 'U'), ('క్క', '|'), ('టి', '|'), ('మా', 'U'), ('రు', 'U'), ('క్ష', '|'), ('త్ర', '|'), ('వ', '|'), ('రు', '|'), ('ల', 'U'), ('న్నే', 'U'), ('పా', 'U'), ('ర', '|'), ('ని', 'U'), ('ర్జిం', 'U'), ('చి', '|'), ('త', 'U'), ('త్ప', '|'), ('ర', '|'), ('శు', '|'), ('భ్రా', 'U'), ('జి', '|'), ('త', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('క', '|'), ('డు', 'U'), ('న్ధ', 'U'), ('న్యం', 'U'), ('బు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[('వ', '|'), ('రు', '|'), ('సం', 'U'), ('దా', 'U'), ('ట', '|'), ('కి', '|'), ('జం', 'U'), ('పి', '|'), ('కై', 'U'), ('శి', '|'), ('కు', '|'), ('మ', '|'), ('ఘ', 'U'), ('స్వా', 'U'), ('స్థ్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('శం', 'U'), ('క', '|'), ('రు', '|'), ('చా', 'U'), ('పం', 'U'), ('బొ', '|'), ('గి', '|'), ('ద్రుం', 'U'), ('చి', '|'), ('జా', 'U'), ('న', '|'), ('కి', '|'), ('ద', '|'), ('గం', 'U'), ('గ', 'U'), ('ల్యా', 'U'), ('ణ', '|'), ('మై', 'U'), ('తం', 'U'), ('డ్రి', '|'), ('పం', 'U'), ('ప', '|'), ('రు', '|'), ('దా', 'U'), ('రన్', 'U'), ('వ', '|'), ('న', '|'), ('భూ', 'U'), ('మి', '|'), ('కే', 'U'), ('గి', '|'), ('జ', '|'), ('గ', '|'), ('దా', 'U'), ('హ్లా', 'U'), ('దం', 'U'), ('బు', '|'), ('గా', 'U'), ('రా', 'U'), ('వ', '|'), ('ణున్', 'U'), ('ధ', '|'), ('ర', '|'), ('ణిం', 'U'), ('గూ', 'U'), ('ల్చి', '|'), ('న', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('క', '|'), ('డున్', 'U'), ('ధ', 'U'), ('న్యం', 'U'), ('బు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('వ', '|'), ('రు', '|'), ('సం', 'U'), ('దా', 'U'), ('ట', '|'), ('కి', '|'), ('జం', 'U'), ('పి', '|'), ('కై', 'U'), ('శి', '|'), ('కు', '|'), ('మ', '|'), ('ఘ', 'U'), ('స్వా', 'U'), ('స్థ్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('శం', 'U'), ('క', '|'), ('రు', '|'), ('చా', 'U'), ('పం', 'U'), ('బొ', '|'), ('గి', '|'), ('ద్రుం', 'U'), ('చి', '|'), ('జా', 'U'), ('న', '|'), ('కి', '|'), ('ద', '|'), ('గం', 'U'), ('గ', 'U'), ('ల్యా', 'U'), ('ణ', '|'), ('మై', 'U'), ('తం', 'U'), ('డ్రి', '|'), ('పం', 'U'), ('ప', '|'), ('రు', '|'), ('దా', 'U'), ('ర', 'U'), ('న్వ', '|'), ('న', '|'), ('భూ', 'U'), ('మి', '|'), ('కే', 'U'), ('గి', '|'), ('జ', '|'), ('గ', '|'), ('దా', 'U'), ('హ్లా', 'U'), ('దం', 'U'), ('బు', '|'), ('గా', 'U'), ('రా', 'U'), ('వ', '|'), ('ణున్', 'U'), ('ధ', '|'), ('ర', '|'), ('ణిం', 'U'), ('గూ', 'U'), ('ల్చి', '|'), ('న', '|'), ('రా', 'U'), ('మ', '|'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('క', '|'), ('డు', 'U'), ('న్ధ', 'U'), ('న్యం', 'U'), ('బు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[('య', '|'), ('దు', '|'), ('వం', 'U'), ('శం', 'U'), ('బు', '|'), ('న', '|'), ('గృ', 'U'), ('ష్ణు', '|'), ('క', '|'), ('గ్ర', '|'), ('జు', '|'), ('డ', '|'), ('వై', 'U'), ('యా', 'U'), ('భీ', 'U'), ('ల', '|'), ('శౌ', 'U'), ('ర్యో', 'U'), ('న్న', '|'), ('తిన్', 'U'), ('మ', '|'), ('ద', '|'), ('వ', 'U'), ('ద్ధే', 'U'), ('ను', '|'), ('క', '|'), ('ము', 'U'), ('ష్టి', '|'), ('కా', 'U'), ('ద్య', '|'), ('సు', '|'), ('రు', '|'), ('లన్', 'U'), ('మ', 'U'), ('ర్దిం', 'U'), ('చి', '|'), ('లీ', 'U'), ('లా', 'U'), ('ర', '|'), ('సా', 'U'), ('స్ప', '|'), ('ద', '|'), ('కే', 'U'), ('ళీ', 'U'), ('ర', '|'), ('తి', '|'), ('రే', 'U'), ('వ', '|'), ('తీ', 'U'), ('వ', '|'), ('ద', '|'), ('న', '|'), ('కం', 'U'), ('జా', 'U'), ('తాం', 'U'), ('త', '|'), ('భృం', 'U'), ('గం', 'U'), ('బ', '|'), ('నన్', 'U'), ('వి', '|'), ('ది', '|'), ('తం', 'U'), ('బౌ', 'U'), ('బ', '|'), ('ల', '|'), ('రా', 'U'), ('మ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వ', '|'), ('ని', '|'), ('నిన్', 'U'), ('వీ', 'U'), ('క్షిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('య', '|'), ('దు', '|'), ('వం', 'U'), ('శం', 'U'), ('బు', '|'), ('న', '|'), ('గృ', 'U'), ('ష్ణు', '|'), ('క', '|'), ('గ్ర', '|'), ('జు', '|'), ('డ', '|'), ('వై', 'U'), ('యా', 'U'), ('భీ', 'U'), ('ల', '|'), ('శౌ', 'U'), ('ర్యో', 'U'), ('న్న', '|'), ('తిన్', 'U'), ('మ', '|'), ('ద', '|'), ('వ', 'U'), ('ద్ధే', 'U'), ('ను', '|'), ('క', '|'), ('ము', 'U'), ('ష్టి', '|'), ('కా', 'U'), ('ద్య', '|'), ('సు', '|'), ('రు', '|'), ('ల', 'U'), ('న్మ', 'U'), ('ర్దిం', 'U'), ('చి', '|'), ('లీ', 'U'), ('లా', 'U'), ('ర', '|'), ('సా', 'U'), ('స్ప', '|'), ('ద', '|'), ('కే', 'U'), ('ళీ', 'U'), ('ర', '|'), ('తి', '|'), ('రే', 'U'), ('వ', '|'), ('తీ', 'U'), ('వ', '|'), ('ద', '|'), ('న', '|'), ('కం', 'U'), ('జా', 'U'), ('తాం', 'U'), ('త', '|'), ('భృం', 'U'), ('గం', 'U'), ('బ', '|'), ('నన్', 'U'), ('వి', '|'), ('ది', '|'), ('తం', 'U'), ('బౌ', 'U'), ('బ', '|'), ('ల', '|'), ('రా', 'U'), ('మ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వ', '|'), ('ని', '|'), ('ని', 'U'), ('న్వీ', 'U'), ('క్షిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[('పు', '|'), ('ర', '|'), ('ము', 'U'), ('ల్మూ', 'U'), ('డు', '|'), ('ను', '|'), ('మూ', 'U'), ('డు', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('లు', '|'), ('నే', 'U'), ('ప్రొ', 'U'), ('ద్దు', 'U'), ('న్వి', '|'), ('దా', 'U'), ('రిం', 'U'), ('ప', '|'), ('ద', 'U'), ('త్పు', '|'), ('ర', '|'), ('నా', 'U'), ('రీ', 'U'), ('మ', '|'), ('హి', '|'), ('మో', 'U'), ('న్న', '|'), ('తుల్', 'U'), ('సె', '|'), ('డు', '|'), ('ట', '|'), ('కై', 'U'), ('బు', 'U'), ('ద్ధుం', 'U'), ('డ', '|'), ('వై', 'U'), ('బు', 'U'), ('ద్ధి', '|'), ('తో', 'U'), ('వ', '|'), ('ర', '|'), ('బో', 'U'), ('ధ', '|'), ('ద్రు', '|'), ('మ', '|'), ('సే', 'U'), ('వ', '|'), ('జే', 'U'), ('యు', '|'), ('ట', '|'), ('కు', '|'), ('నై', 'U'), ('వా', 'U'), ('రిం', 'U'), ('బ్ర', '|'), ('బో', 'U'), ('ధిం', 'U'), ('చి', '|'), ('య', 'U'), ('ప్పు', '|'), ('ర', '|'), ('ముల్', 'U'), ('గె', 'U'), ('ల్చి', '|'), ('న', '|'), ('నీ', 'U'), ('యు', '|'), ('పా', 'U'), ('య', '|'), ('ము', '|'), ('జ', '|'), ('గ', 'U'), ('త్పూ', 'U'), ('జ్యం', 'U'), ('బు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('పు', '|'), ('ర', '|'), ('ము', 'U'), ('ల్మూ', 'U'), ('డు', '|'), ('ను', '|'), ('మూ', 'U'), ('డు', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('లు', '|'), ('నే', 'U'), ('ప్రొ', 'U'), ('ద్దు', 'U'), ('న్వి', '|'), ('దా', 'U'), ('రిం', 'U'), ('ప', '|'), ('ద', 'U'), ('త్పు', '|'), ('ర', '|'), ('నా', 'U'), ('రీ', 'U'), ('మ', '|'), ('హి', '|'), ('మో', 'U'), ('న్న', '|'), ('తు', 'U'), ('ల్సె', '|'), ('డు', '|'), ('ట', '|'), ('కై', 'U'), ('బు', 'U'), ('ద్ధుం', 'U'), ('డ', '|'), ('వై', 'U'), ('బు', 'U'), ('ద్ధి', '|'), ('తో', 'U'), ('వ', '|'), ('ర', '|'), ('బో', 'U'), ('ధ', '|'), ('ద్రు', '|'), ('మ', '|'), ('సే', 'U'), ('వ', '|'), ('జే', 'U'), ('యు', '|'), ('ట', '|'), ('కు', '|'), ('నై', 'U'), ('వా', 'U'), ('రిం', 'U'), ('బ్ర', '|'), ('బో', 'U'), ('ధిం', 'U'), ('చి', '|'), ('య', 'U'), ('ప్పు', '|'), ('ర', '|'), ('ము', 'U'), ('ల్గె', 'U'), ('ల్చి', '|'), ('న', '|'), ('నీ', 'U'), ('యు', '|'), ('పా', 'U'), ('య', '|'), ('ము', '|'), ('జ', '|'), ('గ', 'U'), ('త్పూ', 'U'), ('జ్యం', 'U'), ('బు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('లి', '|'), ('ధ', 'U'), ('ర్మం', 'U'), ('బు', '|'), ('న', '|'), ('బా', 'U'), ('ప', '|'), ('సం', 'U'), ('క', '|'), ('లి', '|'), ('తు', '|'), ('లై', 'U'), ('గ', 'U'), ('ర్వాం', 'U'), ('ధు', '|'), ('లై', 'U'), ('తు', 'U'), ('చ్ఛు', '|'), ('లై', 'U'), ('కు', '|'), ('ల', '|'), ('శీ', 'U'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('మా', 'U'), ('ని', '|'), ('హే', 'U'), ('య', '|'), ('గ', '|'), ('తు', '|'), ('లం', 'U'), ('గ్రొ', 'U'), ('వ్వా', 'U'), ('రు', '|'), ('దు', 'U'), ('ష్టా', 'U'), ('త్ము', '|'), ('లం', 'U'), ('బ', '|'), ('లి', '|'), ('గా', 'U'), ('జే', 'U'), ('య', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('మె', '|'), ('ల', '|'), ('మిం', 'U'), ('బా', 'U'), ('లిం', 'U'), ('చి', '|'), ('ని', 'U'), ('ల్పం', 'U'), ('గ', '|'), ('మీ', 'U'), ('వ', '|'), ('ల', '|'), ('నం', 'U'), ('గ', 'U'), ('ల్క్య', '|'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మొం', 'U'), ('ద', '|'), ('గ', '|'), ('ల', '|'), ('నిన్', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('క', '|'), ('లి', '|'), ('ధ', 'U'), ('ర్మం', 'U'), ('బు', '|'), ('న', '|'), ('బా', 'U'), ('ప', '|'), ('సం', 'U'), ('క', '|'), ('లి', '|'), ('తు', '|'), ('లై', 'U'), ('గ', 'U'), ('ర్వాం', 'U'), ('ధు', '|'), ('లై', 'U'), ('తు', 'U'), ('చ్ఛు', '|'), ('లై', 'U'), ('కు', '|'), ('ల', '|'), ('శీ', 'U'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('మా', 'U'), ('ని', '|'), ('హే', 'U'), ('య', '|'), ('గ', '|'), ('తు', '|'), ('లం', 'U'), ('గ్రొ', 'U'), ('వ్వా', 'U'), ('రు', '|'), ('దు', 'U'), ('ష్టా', 'U'), ('త్ము', '|'), ('లం', 'U'), ('బ', '|'), ('లి', '|'), ('గా', 'U'), ('జే', 'U'), ('య', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('మె', '|'), ('ల', '|'), ('మిం', 'U'), ('బా', 'U'), ('లిం', 'U'), ('చి', '|'), ('ని', 'U'), ('ల్పం', 'U'), ('గ', '|'), ('మీ', 'U'), ('వ', '|'), ('ల', '|'), ('నం', 'U'), ('గ', 'U'), ('ల్క్య', '|'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మొం', 'U'), ('ద', '|'), ('గ', '|'), ('ల', '|'), ('ని', 'U'), ('న్వ', 'U'), ('ర్ణిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[('ఇ', '|'), ('ర', '|'), ('వొం', 'U'), ('దన్', 'U'), ('స', '|'), ('చ', '|'), ('రా', 'U'), ('చ', '|'), ('ర', '|'), ('ప్ర', '|'), ('త', '|'), ('తు', '|'), ('ల', 'U'), ('న్నె', 'U'), ('న్నం', 'U'), ('గ', '|'), ('శ', 'U'), ('క్యం', 'U'), ('బు', '|'), ('కా', 'U'), ('క', '|'), ('ర', '|'), ('యన్', 'U'), ('ప', 'U'), ('ద్మ', '|'), ('భ', '|'), ('వాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', '|'), ('చ', '|'), ('య', '|'), ('ము', 'U'), ('న్నా', 'U'), ('రం', 'U'), ('గ', '|'), ('మీ', 'U'), ('కు', 'U'), ('క్షి', '|'), ('లో', 'U'), ('న', '|'), ('రు', '|'), ('దా', 'U'), ('ర', 'U'), ('న్ను', '|'), ('ద', '|'), ('యిం', 'U'), ('చు', '|'), ('బెం', 'U'), ('చు', '|'), ('న', '|'), ('డ', '|'), ('గు', 'U'), ('న్న', 'U'), ('న్నా', 'U'), ('రి', '|'), ('కే', 'U'), ('ళో', 'U'), ('ద్భ', '|'), ('వాం', 'U'), ('త', '|'), ('ర', '|'), ('వాః', 'U'), ('పూ', 'U'), ('ర', '|'), ('ము', '|'), ('చం', 'U'), ('ద', '|'), ('మొం', 'U'), ('ది', '|'), ('యె', '|'), ('పు', '|'), ('డున్', 'U'), ('దై', 'U'), ('త్యా', 'U'), ('రి', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('ఇ', '|'), ('ర', '|'), ('వొం', 'U'), ('ద', 'U'), ('న్స', '|'), ('చ', '|'), ('రా', 'U'), ('చ', '|'), ('ర', '|'), ('ప్ర', '|'), ('త', '|'), ('తు', '|'), ('ల', 'U'), ('న్నె', 'U'), ('న్నం', 'U'), ('గ', '|'), ('శ', 'U'), ('క్యం', 'U'), ('బు', '|'), ('కా', 'U'), ('క', '|'), ('ర', '|'), ('య', 'U'), ('న్ప', 'U'), ('ద్మ', '|'), ('భ', '|'), ('వాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డ', '|'), ('చ', '|'), ('య', '|'), ('ము', 'U'), ('న్నా', 'U'), ('రం', 'U'), ('గ', '|'), ('మీ', 'U'), ('కు', 'U'), ('క్షి', '|'), ('లో', 'U'), ('న', '|'), ('రు', '|'), ('దా', 'U'), ('ర', 'U'), ('న్ను', '|'), ('ద', '|'), ('యిం', 'U'), ('చు', '|'), ('బెం', 'U'), ('చు', '|'), ('న', '|'), ('డ', '|'), ('గు', 'U'), ('న్న', 'U'), ('న్నా', 'U'), ('రి', '|'), ('కే', 'U'), ('ళో', 'U'), ('ద్భ', '|'), ('వాం', 'U'), ('త', '|'), ('ర', '|'), ('వాః', 'U'), ('పూ', 'U'), ('ర', '|'), ('ము', '|'), ('చం', 'U'), ('ద', '|'), ('మొం', 'U'), ('ది', '|'), ('యె', '|'), ('పు', '|'), ('డు', 'U'), ('న్దై', 'U'), ('త్యా', 'U'), ('రి', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[('వ', '|'), ('ర', '|'), ('నా', 'U'), ('భీ', 'U'), ('ధ', '|'), ('వ', '|'), ('ళాం', 'U'), ('బు', '|'), ('జో', 'U'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('నన్', 'U'), ('వా', 'U'), ('ణీ', 'U'), ('శు', '|'), ('గ', 'U'), ('ల్పిం', 'U'), ('చి', '|'), ('య', 'U'), ('ప్పు', '|'), ('రు', '|'), ('ష', '|'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('ని', '|'), ('ఫా', 'U'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('శి', '|'), ('వు', '|'), ('నిం', 'U'), ('బు', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('యా', 'U'), ('మే', 'U'), ('టి', '|'), ('కిం', 'U'), ('బ', '|'), ('ర', '|'), ('మో', 'U'), ('త్తం', 'U'), ('స', '|'), ('ము', '|'), ('గా', 'U'), ('వి', '|'), ('య', 'U'), ('త్త', '|'), ('ల', '|'), ('న', '|'), ('దిం', 'U'), ('బా', 'U'), ('దం', 'U'), ('బు', '|'), ('లం', 'U'), ('గ', 'U'), ('న్న', '|'), ('మీ', 'U'), ('స', '|'), ('రి', '|'), ('యె', 'U'), ('వ్వా', 'U'), ('ర', '|'), ('లు', '|'), ('మీ', 'U'), ('రు', '|'), ('ద', 'U'), ('క్క', '|'), ('గ', '|'), ('ర', '|'), ('మా', 'U'), ('సా', 'U'), ('ధ్వీ', 'U'), ('శ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('వ', '|'), ('ర', '|'), ('నా', 'U'), ('భీ', 'U'), ('ధ', '|'), ('వ', '|'), ('ళాం', 'U'), ('బు', '|'), ('జో', 'U'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('న', 'U'), ('న్వా', 'U'), ('ణీ', 'U'), ('శు', '|'), ('గ', 'U'), ('ల్పిం', 'U'), ('చి', '|'), ('య', 'U'), ('ప్పు', '|'), ('రు', '|'), ('ష', '|'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('ని', '|'), ('ఫా', 'U'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('శి', '|'), ('వు', '|'), ('నిం', 'U'), ('బు', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('యా', 'U'), ('మే', 'U'), ('టి', '|'), ('కిం', 'U'), ('బ', '|'), ('ర', '|'), ('మో', 'U'), ('త్తం', 'U'), ('స', '|'), ('ము', '|'), ('గా', 'U'), ('వి', '|'), ('య', 'U'), ('త్త', '|'), ('ల', '|'), ('న', '|'), ('దిం', 'U'), ('బా', 'U'), ('దం', 'U'), ('బు', '|'), ('లం', 'U'), ('గ', 'U'), ('న్న', '|'), ('మీ', 'U'), ('స', '|'), ('రి', '|'), ('యె', 'U'), ('వ్వా', 'U'), ('ర', '|'), ('లు', '|'), ('మీ', 'U'), ('రు', '|'), ('ద', 'U'), ('క్క', '|'), ('గ', '|'), ('ర', '|'), ('మా', 'U'), ('సా', 'U'), ('ధ్వీ', 'U'), ('శ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[('స', 'U'), ('ర్వం', 'U'), ('బున్', 'U'), ('వ', '|'), ('సి', '|'), ('యిం', 'U'), ('చు', '|'), ('నీ', 'U'), ('త', '|'), ('ను', '|'), ('వు', '|'), ('నన్', 'U'), ('స', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('నం', 'U'), ('దుం', 'U'), ('డ', '|'), ('గా', 'U'), ('స', 'U'), ('ర్వా', 'U'), ('త్మా', 'U'), ('వ', '|'), ('సి', '|'), ('యిం', 'U'), ('చు', '|'), ('దీ', 'U'), ('వ', '|'), ('ని', '|'), ('మ', '|'), ('దిన్', 'U'), ('సా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('గా', 'U'), ('జూ', 'U'), ('చి', '|'), ('యా', 'U'), ('గీ', 'U'), ('ర్వా', 'U'), ('ణా', 'U'), ('దు', '|'), ('లు', '|'), ('వా', 'U'), ('సు', '|'), ('దే', 'U'), ('వు', '|'), ('డ', '|'), ('ను', '|'), ('చున్', 'U'), ('గీ', 'U'), ('ర్తిం', 'U'), ('తు', '|'), ('రే', 'U'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('నా', 'U'), ('శీ', 'U'), ('ర్వా', 'U'), ('దం', 'U'), ('బు', '|'), ('భ', '|'), ('వ', 'U'), ('న్మ', '|'), ('హా', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('నా', 'U'), ('థ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('స', 'U'), ('ర్వం', 'U'), ('బు', 'U'), ('న్వ', '|'), ('సి', '|'), ('యిం', 'U'), ('చు', '|'), ('నీ', 'U'), ('త', '|'), ('ను', '|'), ('వు', '|'), ('న', 'U'), ('న్స', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('నం', 'U'), ('దుం', 'U'), ('డ', '|'), ('గా', 'U'), ('స', 'U'), ('ర్వా', 'U'), ('త్మా', 'U'), ('వ', '|'), ('సి', '|'), ('యిం', 'U'), ('చు', '|'), ('దీ', 'U'), ('వ', '|'), ('ని', '|'), ('మ', '|'), ('ది', 'U'), ('న్సా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('గా', 'U'), ('జూ', 'U'), ('చి', '|'), ('యా', 'U'), ('గీ', 'U'), ('ర్వా', 'U'), ('ణా', 'U'), ('దు', '|'), ('లు', '|'), ('వా', 'U'), ('సు', '|'), ('దే', 'U'), ('వు', '|'), ('డ', '|'), ('ను', '|'), ('చు', 'U'), ('న్గీ', 'U'), ('ర్తిం', 'U'), ('తు', '|'), ('రే', 'U'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('నా', 'U'), ('శీ', 'U'), ('ర్వా', 'U'), ('దం', 'U'), ('బు', '|'), ('భ', '|'), ('వ', 'U'), ('న్మ', '|'), ('హా', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('నా', 'U'), ('థ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[('గ', '|'), ('గ', '|'), ('నా', 'U'), ('ద్యం', 'U'), ('చి', '|'), ('త', '|'), ('పం', 'U'), ('చ', '|'), ('భూ', 'U'), ('త', '|'), ('మ', '|'), ('య', '|'), ('మై', 'U'), ('కం', 'U'), ('జా', 'U'), ('త', '|'), ('జాం', 'U'), ('డా', 'U'), ('వ', '|'), ('లిన్', 'U'), ('స', '|'), ('గు', '|'), ('ణ', '|'), ('బ్ర', 'U'), ('హ్మ', '|'), ('మ', '|'), ('యా', 'U'), ('ఖ్య', '|'), ('తం', 'U'), ('ద', '|'), ('న', '|'), ('రు', '|'), ('చున్', 'U'), ('సం', 'U'), ('సా', 'U'), ('రి', '|'), ('వై', 'U'), ('చి', 'U'), ('త్క', '|'), ('ళా', 'U'), ('సు', '|'), ('గు', '|'), ('ణం', 'U'), ('బై', 'U'), ('వి', '|'), ('ల', '|'), ('సి', 'U'), ('ల్లు', '|'), ('దీ', 'U'), ('వు', '|'), ('వి', '|'), ('పు', '|'), ('ల', 'U'), ('స్థూ', 'U'), ('లం', 'U'), ('బు', '|'), ('సూ', 'U'), ('క్ష్మం', 'U'), ('బు', '|'), ('నై', 'U'), ('ని', '|'), ('గ', '|'), ('మో', 'U'), ('త్తం', 'U'), ('స', '|'), ('గు', '|'), ('ణా', 'U'), ('వ', '|'), ('తం', 'U'), ('స', '|'), ('సు', '|'), ('మ', '|'), ('హా', 'U'), ('ని', 'U'), ('త్యా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('గ', '|'), ('గ', '|'), ('నా', 'U'), ('ద్యం', 'U'), ('చి', '|'), ('త', '|'), ('పం', 'U'), ('చ', '|'), ('భూ', 'U'), ('త', '|'), ('మ', '|'), ('య', '|'), ('మై', 'U'), ('కం', 'U'), ('జా', 'U'), ('త', '|'), ('జాం', 'U'), ('డా', 'U'), ('వ', '|'), ('లిన్', 'U'), ('స', '|'), ('గు', '|'), ('ణ', '|'), ('బ్ర', 'U'), ('హ్మ', '|'), ('మ', '|'), ('యా', 'U'), ('ఖ్య', '|'), ('తం', 'U'), ('ద', '|'), ('న', '|'), ('రు', '|'), ('చు', 'U'), ('న్సం', 'U'), ('సా', 'U'), ('రి', '|'), ('వై', 'U'), ('చి', 'U'), ('త్క', '|'), ('ళా', 'U'), ('సు', '|'), ('గు', '|'), ('ణం', 'U'), ('బై', 'U'), ('వి', '|'), ('ల', '|'), ('సి', 'U'), ('ల్లు', '|'), ('దీ', 'U'), ('వు', '|'), ('వి', '|'), ('పు', '|'), ('ల', 'U'), ('స్థూ', 'U'), ('లం', 'U'), ('బు', '|'), ('సూ', 'U'), ('క్ష్మం', 'U'), ('బు', '|'), ('నై', 'U'), ('ని', '|'), ('గ', '|'), ('మో', 'U'), ('త్తం', 'U'), ('స', '|'), ('గు', '|'), ('ణా', 'U'), ('వ', '|'), ('తం', 'U'), ('స', '|'), ('సు', '|'), ('మ', '|'), ('హా', 'U'), ('ని', 'U'), ('త్యా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[('ఎ', '|'), ('ల', '|'), ('రా', 'U'), ('రన్', 'U'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('నా', 'U'), ('మ', '|'), ('క', '|'), ('థ', '|'), ('నం', 'U'), ('బే', 'U'), ('మ', 'U'), ('ర్త్యు', '|'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('లో', 'U'), ('బొ', '|'), ('లు', '|'), ('పా', 'U'), ('రం', 'U'), ('ద', '|'), ('గి', '|'), ('లుం', 'U'), ('డు', '|'), ('నే', 'U'), ('ని', '|'), ('య', '|'), ('ఘ', '|'), ('ముల్', 'U'), ('పొం', 'U'), ('దం', 'U'), ('గ', '|'), ('నె', 'U'), ('ట్లో', 'U'), ('పె', '|'), ('డున్', 'U'), ('క', '|'), ('ల', '|'), ('యం', 'U'), ('బా', 'U'), ('వ', '|'), ('కు', '|'), ('చే', 'U'), ('త', '|'), ('బ', 'U'), ('ట్టు', '|'), ('వ', '|'), ('డు', '|'), ('న', 'U'), ('క్కా', 'U'), ('ష్ఠం', 'U'), ('బు', '|'), ('పై', 'U'), ('గీ', 'U'), ('ట', '|'), ('ముల్', 'U'), ('ని', '|'), ('లు', '|'), ('వ', 'U'), ('న్నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('భ', 'U'), ('క్త', '|'), ('పో', 'U'), ('ష', '|'), ('ణ', '|'), ('కృ', '|'), ('పా', 'U'), ('ని', 'U'), ('త్యా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('ఎ', '|'), ('ల', '|'), ('రా', 'U'), ('ర', 'U'), ('న్భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('నా', 'U'), ('మ', '|'), ('క', '|'), ('థ', '|'), ('నం', 'U'), ('బే', 'U'), ('మ', 'U'), ('ర్త్యు', '|'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('లో', 'U'), ('బొ', '|'), ('లు', '|'), ('పా', 'U'), ('రం', 'U'), ('ద', '|'), ('గి', '|'), ('లుం', 'U'), ('డు', '|'), ('నే', 'U'), ('ని', '|'), ('య', '|'), ('ఘ', '|'), ('ము', 'U'), ('ల్పొం', 'U'), ('దం', 'U'), ('గ', '|'), ('నె', 'U'), ('ట్లో', 'U'), ('పె', '|'), ('డున్', 'U'), ('క', '|'), ('ల', '|'), ('యం', 'U'), ('బా', 'U'), ('వ', '|'), ('కు', '|'), ('చే', 'U'), ('త', '|'), ('బ', 'U'), ('ట్టు', '|'), ('వ', '|'), ('డు', '|'), ('న', 'U'), ('క్కా', 'U'), ('ష్ఠం', 'U'), ('బు', '|'), ('పై', 'U'), ('గీ', 'U'), ('ట', '|'), ('ముల్', 'U'), ('ని', '|'), ('లు', '|'), ('వ', 'U'), ('న్నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('భ', 'U'), ('క్త', '|'), ('పో', 'U'), ('ష', '|'), ('ణ', '|'), ('కృ', '|'), ('పా', 'U'), ('ని', 'U'), ('త్యా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('ల', '|'), ('యం', 'U'), ('ది', 'U'), ('క్కు', '|'), ('లు', '|'), ('నిం', 'U'), ('డి', '|'), ('చం', 'U'), ('డ', '|'), ('త', '|'), ('ర', '|'), ('మై', 'U'), ('క', 'U'), ('ప్పా', 'U'), ('రు', '|'), ('మే', 'U'), ('ఘౌ', 'U'), ('ఘ', '|'), ('ముల్', 'U'), ('వె', '|'), ('ల', '|'), ('యన్', 'U'), ('ఘో', 'U'), ('ర', '|'), ('స', '|'), ('మీ', 'U'), ('ర', '|'), ('ణ', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణ', '|'), ('చే', 'U'), ('వే', 'U'), ('పా', 'U'), ('యు', '|'), ('చం', 'U'), ('దం', 'U'), ('బు', '|'), ('నన్', 'U'), ('జ', '|'), ('ల', '|'), ('దం', 'U'), ('భో', 'U'), ('ళి', '|'), ('మృ', '|'), ('గా', 'U'), ('గ్ని', '|'), ('త', 'U'), ('స్క', '|'), ('ర', '|'), ('రు', '|'), ('జా', 'U'), ('శ', '|'), ('త్రో', 'U'), ('ర', '|'), ('గ', '|'), ('వ్రా', 'U'), ('త', '|'), ('ముల్', 'U'), ('దొ', '|'), ('ల', '|'), ('గు', 'U'), ('న్మీ', 'U'), ('ద', '|'), ('గు', '|'), ('ది', 'U'), ('వ్య', '|'), ('మం', 'U'), ('త్ర', '|'), ('ప', '|'), ('ఠ', '|'), ('నన్', 'U'), ('దో', 'U'), ('ష', 'U'), ('ఘ్న', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('క', '|'), ('ల', '|'), ('యం', 'U'), ('ది', 'U'), ('క్కు', '|'), ('లు', '|'), ('నిం', 'U'), ('డి', '|'), ('చం', 'U'), ('డ', '|'), ('త', '|'), ('ర', '|'), ('మై', 'U'), ('క', 'U'), ('ప్పా', 'U'), ('రు', '|'), ('మే', 'U'), ('ఘౌ', 'U'), ('ఘ', '|'), ('ముల్', 'U'), ('వె', '|'), ('ల', '|'), ('య', 'U'), ('న్ఘో', 'U'), ('ర', '|'), ('స', '|'), ('మీ', 'U'), ('ర', '|'), ('ణ', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణ', '|'), ('చే', 'U'), ('వే', 'U'), ('పా', 'U'), ('యు', '|'), ('చం', 'U'), ('దం', 'U'), ('బు', '|'), ('నన్', 'U'), ('జ', '|'), ('ల', '|'), ('దం', 'U'), ('భో', 'U'), ('ళి', '|'), ('మృ', '|'), ('గా', 'U'), ('గ్ని', '|'), ('త', 'U'), ('స్క', '|'), ('ర', '|'), ('రు', '|'), ('జా', 'U'), ('శ', '|'), ('త్రో', 'U'), ('ర', '|'), ('గ', '|'), ('వ్రా', 'U'), ('త', '|'), ('ముల్', 'U'), ('దొ', '|'), ('ల', '|'), ('గు', 'U'), ('న్మీ', 'U'), ('ద', '|'), ('గు', '|'), ('ది', 'U'), ('వ్య', '|'), ('మం', 'U'), ('త్ర', '|'), ('ప', '|'), ('ఠ', '|'), ('న', 'U'), ('న్దో', 'U'), ('ష', 'U'), ('ఘ్న', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('లు', '|'), ('షా', 'U'), ('గా', 'U'), ('థ', '|'), ('వి', '|'), ('నా', 'U'), ('శ', '|'), ('కా', 'U'), ('రి', '|'), ('య', '|'), ('గు', '|'), ('చుం', 'U'), ('గై', 'U'), ('వ', 'U'), ('ల్య', '|'), ('సం', 'U'), ('ధా', 'U'), ('యి', '|'), ('యై', 'U'), ('న', '|'), ('లి', '|'), ('నొ', 'U'), ('ప్పా', 'U'), ('రె', '|'), ('డు', '|'), ('మం', 'U'), ('త్ర', '|'), ('రా', 'U'), ('జ', '|'), ('మ', '|'), ('గు', '|'), ('నీ', 'U'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('ప్రే', 'U'), ('మం', 'U'), ('బు', '|'), ('తో', 'U'), ('న', '|'), ('ల', '|'), ('ర', 'U'), ('న్నె', 'U'), ('వ్వ', '|'), ('ని', '|'), ('వా', 'U'), ('క్కు', '|'), ('నం', 'U'), ('బొ', '|'), ('ర', '|'), ('య', '|'), ('దే', 'U'), ('న', 'U'), ('న్నీ', 'U'), ('చు', '|'), ('ఘో', 'U'), ('రా', 'U'), ('త్మ', '|'), ('యున్', 'U'), ('వె', '|'), ('ల', '|'), ('యన్', 'U'), ('భూ', 'U'), ('రు', '|'), ('హ', '|'), ('కో', 'U'), ('ట', '|'), ('రం', 'U'), ('బ', '|'), ('ది', '|'), ('య', '|'), ('సూ', 'U'), ('వే', 'U'), ('దా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('క', '|'), ('లు', '|'), ('షా', 'U'), ('గా', 'U'), ('థ', '|'), ('వి', '|'), ('నా', 'U'), ('శ', '|'), ('కా', 'U'), ('రి', '|'), ('య', '|'), ('గు', '|'), ('చుం', 'U'), ('గై', 'U'), ('వ', 'U'), ('ల్య', '|'), ('సం', 'U'), ('ధా', 'U'), ('యి', '|'), ('యై', 'U'), ('న', '|'), ('లి', '|'), ('నొ', 'U'), ('ప్పా', 'U'), ('రె', '|'), ('డు', '|'), ('మం', 'U'), ('త్ర', '|'), ('రా', 'U'), ('జ', '|'), ('మ', '|'), ('గు', '|'), ('నీ', 'U'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('ప్రే', 'U'), ('మం', 'U'), ('బు', '|'), ('తో', 'U'), ('న', '|'), ('ల', '|'), ('ర', 'U'), ('న్నె', 'U'), ('వ్వ', '|'), ('ని', '|'), ('వా', 'U'), ('క్కు', '|'), ('నం', 'U'), ('బొ', '|'), ('ర', '|'), ('య', '|'), ('దే', 'U'), ('న', 'U'), ('న్నీ', 'U'), ('చు', '|'), ('ఘో', 'U'), ('రా', 'U'), ('త్మ', '|'), ('యున్', 'U'), ('వె', '|'), ('ల', '|'), ('య', 'U'), ('న్భూ', 'U'), ('రు', '|'), ('హ', '|'), ('కో', 'U'), ('ట', '|'), ('రం', 'U'), ('బ', '|'), ('ది', '|'), ('య', '|'), ('సూ', 'U'), ('వే', 'U'), ('దా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('ర', '|'), ('మం', 'U'), ('బై', 'U'), ('ప', '|'), ('ర', '|'), ('త', 'U'), ('త్వ', '|'), ('మై', 'U'), ('స', '|'), ('క', '|'), ('ల', '|'), ('సం', 'U'), ('ప', 'U'), ('త్సా', 'U'), ('ర', '|'), ('మై', 'U'), ('భ', 'U'), ('వ్య', '|'), ('మై', 'U'), ('సు', '|'), ('ర', '|'), ('సి', 'U'), ('ద్ధో', 'U'), ('ర', '|'), ('గ', '|'), ('య', 'U'), ('క్ష', '|'), ('ప', 'U'), ('క్షి', '|'), ('ము', '|'), ('ని', '|'), ('ర', 'U'), ('క్షో', 'U'), ('హృ', 'U'), ('ద్గు', '|'), ('హా', 'U'), ('భ్యం', 'U'), ('త', '|'), ('ర', 'U'), ('స్థి', '|'), ('ర', '|'), ('సు', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('సు', '|'), ('దీ', 'U'), ('ప', '|'), ('మై', 'U'), ('శ్రు', '|'), ('తి', '|'), ('క', '|'), ('ళా', 'U'), ('సి', 'U'), ('ద్ధాం', 'U'), ('త', '|'), ('మై', 'U'), ('సి', 'U'), ('ద్ధ', '|'), ('మై', 'U'), ('స', '|'), ('రి', '|'), ('లే', 'U'), ('కె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('నీ', 'U'), ('దు', '|'), ('నా', 'U'), ('మ', '|'), ('మ', '|'), ('మ', '|'), ('రున్', 'U'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('ప', '|'), ('ర', '|'), ('మం', 'U'), ('బై', 'U'), ('ప', '|'), ('ర', '|'), ('త', 'U'), ('త్వ', '|'), ('మై', 'U'), ('స', '|'), ('క', '|'), ('ల', '|'), ('సం', 'U'), ('ప', 'U'), ('త్సా', 'U'), ('ర', '|'), ('మై', 'U'), ('భ', 'U'), ('వ్య', '|'), ('మై', 'U'), ('సు', '|'), ('ర', '|'), ('సి', 'U'), ('ద్ధో', 'U'), ('ర', '|'), ('గ', '|'), ('య', 'U'), ('క్ష', '|'), ('ప', 'U'), ('క్షి', '|'), ('ము', '|'), ('ని', '|'), ('ర', 'U'), ('క్షో', 'U'), ('హృ', 'U'), ('ద్గు', '|'), ('హా', 'U'), ('భ్యం', 'U'), ('త', '|'), ('ర', 'U'), ('స్థి', '|'), ('ర', '|'), ('సు', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('సు', '|'), ('దీ', 'U'), ('ప', '|'), ('మై', 'U'), ('శ్రు', '|'), ('తి', '|'), ('క', '|'), ('ళా', 'U'), ('సి', 'U'), ('ద్ధాం', 'U'), ('త', '|'), ('మై', 'U'), ('సి', 'U'), ('ద్ధ', '|'), ('మై', 'U'), ('స', '|'), ('రి', '|'), ('లే', 'U'), ('కె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('నీ', 'U'), ('దు', '|'), ('నా', 'U'), ('మ', '|'), ('మ', '|'), ('మ', '|'), ('రు', 'U'), ('న్స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('ధి', '|'), ('కా', 'U'), ('ఘౌ', 'U'), ('ఘ', '|'), ('త', '|'), ('మో', 'U'), ('ది', '|'), ('వా', 'U'), ('క', '|'), ('ర', '|'), ('ము', '|'), ('నై', 'U'), ('య', '|'), ('ద్రీం', 'U'), ('ద్ర', '|'), ('జా', 'U'), ('జి', 'U'), ('హ్వ', '|'), ('కున్', 'U'), ('సు', '|'), ('ధ', '|'), ('యై', 'U'), ('వే', 'U'), ('ద', '|'), ('వి', '|'), ('నూ', 'U'), ('త్న', '|'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('ల', '|'), ('కున్', 'U'), ('సూ', 'U'), ('త్రా', 'U'), ('భి', '|'), ('ధా', 'U'), ('నం', 'U'), ('బు', '|'), ('నై', 'U'), ('బు', '|'), ('ధ', '|'), ('సం', 'U'), ('దో', 'U'), ('హ', '|'), ('మ', '|'), ('నో', 'U'), ('హ', '|'), ('రాం', 'U'), ('కు', '|'), ('ర', '|'), ('ము', '|'), ('నై', 'U'), ('భూ', 'U'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('కో', 'U'), ('టి', '|'), ('కిన్', 'U'), ('వి', '|'), ('ధు', '|'), ('లై', 'U'), ('మీ', 'U'), ('బ', '|'), ('హు', '|'), ('నా', 'U'), ('మ', '|'), ('రా', 'U'), ('జి', '|'), ('వె', '|'), ('ల', '|'), ('యున్', 'U'), ('వే', 'U'), ('దా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('అ', '|'), ('ధి', '|'), ('కా', 'U'), ('ఘౌ', 'U'), ('ఘ', '|'), ('త', '|'), ('మో', 'U'), ('ది', '|'), ('వా', 'U'), ('క', '|'), ('ర', '|'), ('ము', '|'), ('నై', 'U'), ('య', '|'), ('ద్రీం', 'U'), ('ద్ర', '|'), ('జా', 'U'), ('జి', 'U'), ('హ్వ', '|'), ('కున్', 'U'), ('సు', '|'), ('ధ', '|'), ('యై', 'U'), ('వే', 'U'), ('ద', '|'), ('వి', '|'), ('నూ', 'U'), ('త్న', '|'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('ల', '|'), ('కు', 'U'), ('న్సూ', 'U'), ('త్రా', 'U'), ('భి', '|'), ('ధా', 'U'), ('నం', 'U'), ('బు', '|'), ('నై', 'U'), ('బు', '|'), ('ధ', '|'), ('సం', 'U'), ('దో', 'U'), ('హ', '|'), ('మ', '|'), ('నో', 'U'), ('హ', '|'), ('రాం', 'U'), ('కు', '|'), ('ర', '|'), ('ము', '|'), ('నై', 'U'), ('భూ', 'U'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('కో', 'U'), ('టి', '|'), ('కిన్', 'U'), ('వి', '|'), ('ధు', '|'), ('లై', 'U'), ('మీ', 'U'), ('బ', '|'), ('హు', '|'), ('నా', 'U'), ('మ', '|'), ('రా', 'U'), ('జి', '|'), ('వె', '|'), ('ల', '|'), ('యు', 'U'), ('న్వే', 'U'), ('దా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[('పొ', '|'), ('న', '|'), ('ర', 'U'), ('న్ము', 'U'), ('క్తి', '|'), ('కి', '|'), ('ద్రో', 'U'), ('వ', '|'), ('వే', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('కుం', 'U'), ('బు', 'U'), ('ట్టి', 'U'), ('ల్లు', '|'), ('మో', 'U'), ('దం', 'U'), ('బు', '|'), ('నం', 'U'), ('దు', '|'), ('ని', '|'), ('కి', 'U'), ('స్థా', 'U'), ('న', '|'), ('ము', '|'), ('ని', 'U'), ('ష్ట', '|'), ('భో', 'U'), ('గ', '|'), ('ము', '|'), ('ల', '|'), ('కు', 'U'), ('న్ను', 'U'), ('త్ప', 'U'), ('త్తి', '|'), ('యే', 'U'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('నున్', 'U'), ('ఘ', '|'), ('న', '|'), ('పా', 'U'), ('పం', 'U'), ('బు', '|'), ('ల', '|'), ('వై', 'U'), ('రి', '|'), ('ష', '|'), ('డ్రి', '|'), ('పు', '|'), ('ల', '|'), ('కున్', 'U'), ('గా', 'U'), ('లా', 'U'), ('వ', '|'), ('సా', 'U'), ('నం', 'U'), ('బు', '|'), ('మీ', 'U'), ('వి', '|'), ('ను', '|'), ('తాం', 'U'), ('ఘ్రి', 'U'), ('ద్వ', '|'), ('య', '|'), ('ప', 'U'), ('ద్మ', '|'), ('సే', 'U'), ('వ', '|'), ('న', '|'), ('గ', '|'), ('దా', 'U'), ('వి', 'U'), ('శ్వే', 'U'), ('శ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('పొ', '|'), ('న', '|'), ('ర', 'U'), ('న్ము', 'U'), ('క్తి', '|'), ('కి', '|'), ('ద్రో', 'U'), ('వ', '|'), ('వే', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('కుం', 'U'), ('బు', 'U'), ('ట్టి', 'U'), ('ల్లు', '|'), ('మో', 'U'), ('దం', 'U'), ('బు', '|'), ('నం', 'U'), ('దు', '|'), ('ని', '|'), ('కి', 'U'), ('స్థా', 'U'), ('న', '|'), ('ము', '|'), ('ని', 'U'), ('ష్ట', '|'), ('భో', 'U'), ('గ', '|'), ('ము', '|'), ('ల', '|'), ('కు', 'U'), ('న్ను', 'U'), ('త్ప', 'U'), ('త్తి', '|'), ('యే', 'U'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('నున్', 'U'), ('ఘ', '|'), ('న', '|'), ('పా', 'U'), ('పం', 'U'), ('బు', '|'), ('ల', '|'), ('వై', 'U'), ('రి', '|'), ('ష', '|'), ('డ్రి', '|'), ('పు', '|'), ('ల', '|'), ('కు', 'U'), ('న్గా', 'U'), ('లా', 'U'), ('వ', '|'), ('సా', 'U'), ('నం', 'U'), ('బు', '|'), ('మీ', 'U'), ('వి', '|'), ('ను', '|'), ('తాం', 'U'), ('ఘ్రి', 'U'), ('ద్వ', '|'), ('య', '|'), ('ప', 'U'), ('ద్మ', '|'), ('సే', 'U'), ('వ', '|'), ('న', '|'), ('గ', '|'), ('దా', 'U'), ('వి', 'U'), ('శ్వే', 'U'), ('శ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[('భ', '|'), ('వ', '|'), ('రో', 'U'), ('గం', 'U'), ('బు', '|'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('పా', 'U'), ('త', '|'), ('క', '|'), ('త', '|'), ('మో', 'U'), ('బా', 'U'), ('లా', 'U'), ('ర్క', '|'), ('బిం', 'U'), ('బం', 'U'), ('బు', '|'), ('క', 'U'), ('ర్మ', '|'), ('వి', '|'), ('ష', 'U'), ('జ్వా', 'U'), ('ల', '|'), ('సు', '|'), ('ధాం', 'U'), ('శు', '|'), ('గా', 'U'), ('మృ', '|'), ('త', '|'), ('తు', '|'), ('షా', 'U'), ('ర', '|'), ('వ్రా', 'U'), ('త', '|'), ('పా', 'U'), ('థో', 'U'), ('ధి', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వి', '|'), ('కై', 'U'), ('వ', 'U'), ('ల్య', '|'), ('ప', '|'), ('దా', 'U'), ('వ', '|'), ('లో', 'U'), ('క', '|'), ('న', '|'), ('క', '|'), ('ళా', 'U'), ('ది', 'U'), ('వ్యాం', 'U'), ('జ', '|'), ('న', '|'), ('శ్రే', 'U'), ('ష్ఠ', '|'), ('మై', 'U'), ('భు', '|'), ('వి', '|'), ('లో', 'U'), ('మీ', 'U'), ('ద', '|'), ('గు', '|'), ('మం', 'U'), ('త్ర', '|'), ('రా', 'U'), ('జ', '|'), ('మ', '|'), ('మ', '|'), ('రున్', 'U'), ('భూ', 'U'), ('తా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('భ', '|'), ('వ', '|'), ('రో', 'U'), ('గం', 'U'), ('బు', '|'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('పా', 'U'), ('త', '|'), ('క', '|'), ('త', '|'), ('మో', 'U'), ('బా', 'U'), ('లా', 'U'), ('ర్క', '|'), ('బిం', 'U'), ('బం', 'U'), ('బు', '|'), ('క', 'U'), ('ర్మ', '|'), ('వి', '|'), ('ష', 'U'), ('జ్వా', 'U'), ('ల', '|'), ('సు', '|'), ('ధాం', 'U'), ('శు', '|'), ('గా', 'U'), ('మృ', '|'), ('త', '|'), ('తు', '|'), ('షా', 'U'), ('ర', '|'), ('వ్రా', 'U'), ('త', '|'), ('పా', 'U'), ('థో', 'U'), ('ధి', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వి', '|'), ('కై', 'U'), ('వ', 'U'), ('ల్య', '|'), ('ప', '|'), ('దా', 'U'), ('వ', '|'), ('లో', 'U'), ('క', '|'), ('న', '|'), ('క', '|'), ('ళా', 'U'), ('ది', 'U'), ('వ్యాం', 'U'), ('జ', '|'), ('న', '|'), ('శ్రే', 'U'), ('ష్ఠ', '|'), ('మై', 'U'), ('భు', '|'), ('వి', '|'), ('లో', 'U'), ('మీ', 'U'), ('ద', '|'), ('గు', '|'), ('మం', 'U'), ('త్ర', '|'), ('రా', 'U'), ('జ', '|'), ('మ', '|'), ('మ', '|'), ('రు', 'U'), ('న్భూ', 'U'), ('తా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[('వ', '|'), ('రు', '|'), ('సన్', 'U'), ('గ', 'U'), ('ర్మ', '|'), ('పి', '|'), ('పీ', 'U'), ('లి', '|'), ('కా', 'U'), ('కృ', '|'), ('త', '|'), ('త', '|'), ('నూ', 'U'), ('వ', 'U'), ('ల్మీ', 'U'), ('క', '|'), ('నా', 'U'), ('ళం', 'U'), ('బు', '|'), ('లో', 'U'), ('బ', '|'), ('రు', '|'), ('షా', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('తో', 'U'), ('వ', '|'), ('సిం', 'U'), ('చి', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('పా', 'U'), ('పో', 'U'), ('ర', '|'), ('గ', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('కిం', 'U'), ('బ', '|'), ('ర', '|'), ('మో', 'U'), ('చ్చా', 'U'), ('ట', '|'), ('న', '|'), ('మై', 'U'), ('ర', '|'), ('హ', 'U'), ('స్య', '|'), ('మ', '|'), ('హి', '|'), ('మం', 'U'), ('బా', 'U'), ('టిం', 'U'), ('పు', '|'), ('చు', 'U'), ('న్నుం', 'U'), ('డు', '|'), ('మీ', 'U'), ('తి', '|'), ('రు', '|'), ('మం', 'U'), ('త్రం', 'U'), ('బ', '|'), ('గు', '|'), ('మం', 'U'), ('త్ర', '|'), ('రా', 'U'), ('జ', '|'), ('మ', '|'), ('మ', '|'), ('రుం', 'U'), ('ది', 'U'), ('వ్యా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('వ', '|'), ('రు', '|'), ('స', 'U'), ('న్గ', 'U'), ('ర్మ', '|'), ('పి', '|'), ('పీ', 'U'), ('లి', '|'), ('కా', 'U'), ('కృ', '|'), ('త', '|'), ('త', '|'), ('నూ', 'U'), ('వ', 'U'), ('ల్మీ', 'U'), ('క', '|'), ('నా', 'U'), ('ళం', 'U'), ('బు', '|'), ('లో', 'U'), ('బ', '|'), ('రు', '|'), ('షా', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('తో', 'U'), ('వ', '|'), ('సిం', 'U'), ('చి', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('పా', 'U'), ('పో', 'U'), ('ర', '|'), ('గ', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('కిం', 'U'), ('బ', '|'), ('ర', '|'), ('మో', 'U'), ('చ్చా', 'U'), ('ట', '|'), ('న', '|'), ('మై', 'U'), ('ర', '|'), ('హ', 'U'), ('స్య', '|'), ('మ', '|'), ('హి', '|'), ('మం', 'U'), ('బా', 'U'), ('టిం', 'U'), ('పు', '|'), ('చు', 'U'), ('న్నుం', 'U'), ('డు', '|'), ('మీ', 'U'), ('తి', '|'), ('రు', '|'), ('మం', 'U'), ('త్రం', 'U'), ('బ', '|'), ('గు', '|'), ('మం', 'U'), ('త్ర', '|'), ('రా', 'U'), ('జ', '|'), ('మ', '|'), ('మ', '|'), ('రుం', 'U'), ('ది', 'U'), ('వ్యా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[('హ', '|'), ('రు', '|'), ('ని', 'U'), ('న్న', '|'), ('ద్రి', '|'), ('జ', '|'), ('నాం', 'U'), ('జ', '|'), ('నే', 'U'), ('యు', '|'), ('ని', '|'), ('గు', '|'), ('హు', 'U'), ('న్న', 'U'), ('య్యం', 'U'), ('బ', '|'), ('రీ', 'U'), ('షున్', 'U'), ('ధ్రు', '|'), ('వుం', 'U'), ('గ', '|'), ('రి', '|'), ('బ్ర', 'U'), ('హ్లా', 'U'), ('దు', '|'), ('వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణా', 'U'), ('ఖ్యు', '|'), ('ని', '|'), ('బ', '|'), ('లిన్', 'U'), ('ఘం', 'U'), ('టా', 'U'), ('శ్ర', '|'), ('వు', 'U'), ('న్నా', 'U'), ('ర', '|'), ('దున్', 'U'), ('గ', '|'), ('ర', '|'), ('మొ', 'U'), ('ప్ప', 'U'), ('న్వి', '|'), ('దు', '|'), ('రున్', 'U'), ('బ', '|'), ('రా', 'U'), ('శ', '|'), ('ర', '|'), ('సు', '|'), ('తున్', 'U'), ('గాం', 'U'), ('గే', 'U'), ('యు', '|'), ('నిన్', 'U'), ('ద్రౌ', 'U'), ('ప', '|'), ('దిన్', 'U'), ('న', '|'), ('రు', '|'), ('న', '|'), ('క్రూ', 'U'), ('రు', '|'), ('ని', '|'), ('బా', 'U'), ('య', '|'), ('కుం', 'U'), ('డు', '|'), ('ను', '|'), ('భ', '|'), ('వ', 'U'), ('న్నా', 'U'), ('మం', 'U'), ('బు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('హ', '|'), ('రు', '|'), ('ని', 'U'), ('న్న', '|'), ('ద్రి', '|'), ('జ', '|'), ('నాం', 'U'), ('జ', '|'), ('నే', 'U'), ('యు', '|'), ('ని', '|'), ('గు', '|'), ('హు', 'U'), ('న్న', 'U'), ('య్యం', 'U'), ('బ', '|'), ('రీ', 'U'), ('షు', 'U'), ('న్ధ్రు', '|'), ('వుం', 'U'), ('గ', '|'), ('రి', '|'), ('బ్ర', 'U'), ('హ్లా', 'U'), ('దు', '|'), ('వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణా', 'U'), ('ఖ్యు', '|'), ('ని', '|'), ('బ', '|'), ('లి', 'U'), ('న్ఘం', 'U'), ('టా', 'U'), ('శ్ర', '|'), ('వు', 'U'), ('న్నా', 'U'), ('ర', '|'), ('దున్', 'U'), ('గ', '|'), ('ర', '|'), ('మొ', 'U'), ('ప్ప', 'U'), ('న్వి', '|'), ('దు', '|'), ('రు', 'U'), ('న్బ', '|'), ('రా', 'U'), ('శ', '|'), ('ర', '|'), ('సు', '|'), ('తు', 'U'), ('న్గాం', 'U'), ('గే', 'U'), ('యు', '|'), ('ని', 'U'), ('న్ద్రౌ', 'U'), ('ప', '|'), ('దిన్', 'U'), ('న', '|'), ('రు', '|'), ('న', '|'), ('క్రూ', 'U'), ('రు', '|'), ('ని', '|'), ('బా', 'U'), ('య', '|'), ('కుం', 'U'), ('డు', '|'), ('ను', '|'), ('భ', '|'), ('వ', 'U'), ('న్నా', 'U'), ('మం', 'U'), ('బు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[('శ్రీ', 'U'), ('కి', 'U'), ('న్మం', 'U'), ('ది', '|'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('వ', 'U'), ('క్ష', '|'), ('ము', '|'), ('సు', '|'), ('ర', 'U'), ('జ్యే', 'U'), ('ష్ఠో', 'U'), ('ద్భ', '|'), ('వ', 'U'), ('స్థా', 'U'), ('న', '|'), ('నా', 'U'), ('భీ', 'U'), ('కం', 'U'), ('జా', 'U'), ('త', '|'), ('ము', '|'), ('చం', 'U'), ('ద్రి', '|'), ('కాం', 'U'), ('త', '|'), ('ర', '|'), ('సు', '|'), ('ధా', 'U'), ('భి', 'U'), ('వ్య', 'U'), ('క్త', '|'), ('నే', 'U'), ('త్రం', 'U'), ('బు', '|'), ('లు', 'U'), ('న్లో', 'U'), ('క', 'U'), ('స్తు', 'U'), ('త్య', '|'), ('మ', '|'), ('రు', 'U'), ('న్న', '|'), ('దీ', 'U'), ('జ', '|'), ('న', '|'), ('క', '|'), ('మా', 'U'), ('లో', 'U'), ('లాం', 'U'), ('ఘ్రి', '|'), ('యున్', 'U'), ('గ', 'U'), ('ల్గు', '|'), ('నా', 'U'), ('లో', 'U'), ('కా', 'U'), ('రా', 'U'), ('ధ్యు', '|'), ('డ', '|'), ('వై', 'U'), ('న', '|'), ('ని', 'U'), ('న్నె', '|'), ('పు', '|'), ('డు', '|'), ('నా', 'U'), ('లో', 'U'), ('జూ', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('శ్రీ', 'U'), ('కి', 'U'), ('న్మం', 'U'), ('ది', '|'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('వ', 'U'), ('క్ష', '|'), ('ము', '|'), ('సు', '|'), ('ర', 'U'), ('జ్యే', 'U'), ('ష్ఠో', 'U'), ('ద్భ', '|'), ('వ', 'U'), ('స్థా', 'U'), ('న', '|'), ('నా', 'U'), ('భీ', 'U'), ('కం', 'U'), ('జా', 'U'), ('త', '|'), ('ము', '|'), ('చం', 'U'), ('ద్రి', '|'), ('కాం', 'U'), ('త', '|'), ('ర', '|'), ('సు', '|'), ('ధా', 'U'), ('భి', 'U'), ('వ్య', 'U'), ('క్త', '|'), ('నే', 'U'), ('త్రం', 'U'), ('బు', '|'), ('లున్', 'U'), ('లో', 'U'), ('క', 'U'), ('స్తు', 'U'), ('త్య', '|'), ('మ', '|'), ('రు', 'U'), ('న్న', '|'), ('దీ', 'U'), ('జ', '|'), ('న', '|'), ('క', '|'), ('మా', 'U'), ('లో', 'U'), ('లాం', 'U'), ('ఘ్రి', '|'), ('యు', 'U'), ('న్గ', 'U'), ('ల్గు', '|'), ('నా', 'U'), ('లో', 'U'), ('కా', 'U'), ('రా', 'U'), ('ధ్యు', '|'), ('డ', '|'), ('వై', 'U'), ('న', '|'), ('ని', 'U'), ('న్నె', '|'), ('పు', '|'), ('డు', '|'), ('నా', 'U'), ('లో', 'U'), ('జూ', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[('విం', 'U'), ('దుల్', 'U'), ('విం', 'U'), ('దు', '|'), ('ల', '|'), ('టం', 'U'), ('చు', '|'), ('గో', 'U'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('ణుల్', 'U'), ('వ్రే', 'U'), ('ప', 'U'), ('ల్లె', '|'), ('లో', 'U'), ('బి', 'U'), ('న్న', '|'), ('నా', 'U'), ('డం', 'U'), ('దెల్', 'U'), ('మ్రో', 'U'), ('య', '|'), ('గ', '|'), ('ము', 'U'), ('ద్దు', '|'), ('మో', 'U'), ('మ', '|'), ('ల', '|'), ('ర', '|'), ('ని', 'U'), ('న్నా', 'U'), ('లిం', 'U'), ('గి', '|'), ('తుం', 'U'), ('జే', 'U'), ('యు', '|'), ('చో', 'U'), ('డెం', 'U'), ('దం', 'U'), ('బుల్', 'U'), ('ద', '|'), ('ని', '|'), ('వా', 'U'), ('ర', '|'), ('రా', 'U'), ('గ', '|'), ('ర', '|'), ('స', '|'), ('వీ', 'U'), ('టీ', 'U'), ('లీ', 'U'), ('ల', '|'), ('లన్', 'U'), ('దే', 'U'), ('ల్చు', '|'), ('మీ', 'U'), ('మం', 'U'), ('ద', 'U'), ('స్మే', 'U'), ('ర', '|'), ('ము', '|'), ('ఖేం', 'U'), ('దు', '|'), ('రో', 'U'), ('చు', '|'), ('లు', '|'), ('మ', '|'), ('ము', 'U'), ('న్మ', 'U'), ('న్నిం', 'U'), ('చు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('విం', 'U'), ('దు', 'U'), ('ల్విం', 'U'), ('దు', '|'), ('ల', '|'), ('టం', 'U'), ('చు', '|'), ('గో', 'U'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('ణు', 'U'), ('ల్వ్రే', 'U'), ('ప', 'U'), ('ల్లె', '|'), ('లో', 'U'), ('బి', 'U'), ('న్న', '|'), ('నా', 'U'), ('డం', 'U'), ('దె', 'U'), ('ల్మ్రో', 'U'), ('య', '|'), ('గ', '|'), ('ము', 'U'), ('ద్దు', '|'), ('మో', 'U'), ('మ', '|'), ('ల', '|'), ('ర', '|'), ('ని', 'U'), ('న్నా', 'U'), ('లిం', 'U'), ('గి', '|'), ('తుం', 'U'), ('జే', 'U'), ('యు', '|'), ('చో', 'U'), ('డెం', 'U'), ('దం', 'U'), ('బు', 'U'), ('ల్ద', '|'), ('ని', '|'), ('వా', 'U'), ('ర', '|'), ('రా', 'U'), ('గ', '|'), ('ర', '|'), ('స', '|'), ('వీ', 'U'), ('టీ', 'U'), ('లీ', 'U'), ('ల', '|'), ('ల', 'U'), ('న్దే', 'U'), ('ల్చు', '|'), ('మీ', 'U'), ('మం', 'U'), ('ద', 'U'), ('స్మే', 'U'), ('ర', '|'), ('ము', '|'), ('ఖేం', 'U'), ('దు', '|'), ('రో', 'U'), ('చు', '|'), ('లు', '|'), ('మ', '|'), ('ము', 'U'), ('న్మ', 'U'), ('న్నిం', 'U'), ('చు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[('అ', 'U'), ('న్నా', 'U'), ('కృ', 'U'), ('ష్ణ', '|'), ('మ', '|'), ('నే', 'U'), ('డు', '|'), ('వే', 'U'), ('ల్పు', '|'), ('ల', '|'), ('కు', '|'), ('మీ', 'U'), ('ద', 'U'), ('న్నా', 'U'), ('ర', '|'), ('మీ', 'U'), ('చ', 'U'), ('ట్ల', '|'), ('లో', 'U'), ('వె', 'U'), ('న్నల్', 'U'), ('ము', 'U'), ('ట్ట', '|'), ('కు', '|'), ('మ', 'U'), ('న్న', '|'), ('నా', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ము', '|'), ('న', 'U'), ('న్వి', 'U'), ('శ్వా', 'U'), ('కృ', '|'), ('తి', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('యు', 'U'), ('న్నన్', 'U'), ('ది', 'U'), ('క్కు', '|'), ('లు', '|'), ('చూ', 'U'), ('చు', '|'), ('చున్', 'U'), ('బె', '|'), ('గ', '|'), ('డి', '|'), ('ని', 'U'), ('న్నో', 'U'), ('లి', 'U'), ('న్ను', '|'), ('తుల్', 'U'), ('సే', 'U'), ('యు', '|'), ('చున్', 'U'), ('గ', 'U'), ('న్నుల్', 'U'), ('మూ', 'U'), ('య', '|'), ('య', '|'), ('శో', 'U'), ('ద', '|'), ('కున్', 'U'), ('జి', '|'), ('ఱు', '|'), ('త', '|'), ('వై', 'U'), ('క', 'U'), ('న్పిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('అ', 'U'), ('న్నా', 'U'), ('కృ', 'U'), ('ష్ణ', '|'), ('మ', '|'), ('నే', 'U'), ('డు', '|'), ('వే', 'U'), ('ల్పు', '|'), ('ల', '|'), ('కు', '|'), ('మీ', 'U'), ('ద', 'U'), ('న్నా', 'U'), ('ర', '|'), ('మీ', 'U'), ('చ', 'U'), ('ట్ల', '|'), ('లో', 'U'), ('వె', 'U'), ('న్న', 'U'), ('ల్ము', 'U'), ('ట్ట', '|'), ('కు', '|'), ('మ', 'U'), ('న్న', '|'), ('నా', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ము', '|'), ('న', 'U'), ('న్వి', 'U'), ('శ్వా', 'U'), ('కృ', '|'), ('తి', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('యు', 'U'), ('న్న', 'U'), ('న్ది', 'U'), ('క్కు', '|'), ('లు', '|'), ('చూ', 'U'), ('చు', '|'), ('చు', 'U'), ('న్బె', '|'), ('గ', '|'), ('డి', '|'), ('ని', 'U'), ('న్నో', 'U'), ('లి', 'U'), ('న్ను', '|'), ('తు', 'U'), ('ల్సే', 'U'), ('యు', '|'), ('చున్', 'U'), ('గ', 'U'), ('న్ను', 'U'), ('ల్మూ', 'U'), ('య', '|'), ('య', '|'), ('శో', 'U'), ('ద', '|'), ('కు', 'U'), ('న్జి', '|'), ('ఱు', '|'), ('త', '|'), ('వై', 'U'), ('క', 'U'), ('న్పిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[('ఉ', 'U'), ('ల్లో', 'U'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('గా', 'U'), ('గు', '|'), ('రుల్', 'U'), ('ను', '|'), ('దు', '|'), ('టి', '|'), ('పై', 'U'), ('ను', 'U'), ('ప్పొం', 'U'), ('గ', '|'), ('మో', 'U'), ('మె', 'U'), ('త్తి', '|'), ('ధ', 'U'), ('మ్మి', 'U'), ('ల్లం', 'U'), ('బ', 'U'), ('ల్ల', '|'), ('ల', '|'), ('నా', 'U'), ('డ', '|'), ('రా', 'U'), ('గ', '|'), ('ర', '|'), ('స', '|'), ('స', 'U'), ('మ్మి', '|'), ('శ్రం', 'U'), ('బు', '|'), ('గా', 'U'), ('నీ', 'U'), ('వు', '|'), ('వ్రే', 'U'), ('ప', 'U'), ('ల్లెం', 'U'), ('దా', 'U'), ('డు', '|'), ('చు', '|'), ('గో', 'U'), ('ప', '|'), ('గో', 'U'), ('ని', '|'), ('వ', '|'), ('హ', '|'), ('గో', 'U'), ('ప', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('యు', 'U'), ('ల్లం', 'U'), ('బు', '|'), ('మీ', 'U'), ('పి', 'U'), ('ల్లం', 'U'), ('గ్రో', 'U'), ('వి', '|'), ('ని', '|'), ('జు', 'U'), ('ట్టి', '|'), ('రా', 'U'), ('ది', '|'), ('గు', '|'), ('చు', '|'), ('నీ', 'U'), ('పెం', 'U'), ('పొ', 'U'), ('ప్పు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('ఉ', 'U'), ('ల్లో', 'U'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('గా', 'U'), ('గు', '|'), ('రు', 'U'), ('ల్ను', '|'), ('దు', '|'), ('టి', '|'), ('పై', 'U'), ('ను', 'U'), ('ప్పొం', 'U'), ('గ', '|'), ('మో', 'U'), ('మె', 'U'), ('త్తి', '|'), ('ధ', 'U'), ('మ్మి', 'U'), ('ల్లం', 'U'), ('బ', 'U'), ('ల్ల', '|'), ('ల', '|'), ('నా', 'U'), ('డ', '|'), ('రా', 'U'), ('గ', '|'), ('ర', '|'), ('స', '|'), ('స', 'U'), ('మ్మి', '|'), ('శ్రం', 'U'), ('బు', '|'), ('గా', 'U'), ('నీ', 'U'), ('వు', '|'), ('వ్రే', 'U'), ('ప', 'U'), ('ల్లెం', 'U'), ('దా', 'U'), ('డు', '|'), ('చు', '|'), ('గో', 'U'), ('ప', '|'), ('గో', 'U'), ('ని', '|'), ('వ', '|'), ('హ', '|'), ('గో', 'U'), ('ప', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('యు', 'U'), ('ల్లం', 'U'), ('బు', '|'), ('మీ', 'U'), ('పి', 'U'), ('ల్లం', 'U'), ('గ్రో', 'U'), ('వి', '|'), ('ని', '|'), ('జు', 'U'), ('ట్టి', '|'), ('రా', 'U'), ('ది', '|'), ('గు', '|'), ('చు', '|'), ('నీ', 'U'), ('పెం', 'U'), ('పొ', 'U'), ('ప్పు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('స', '|'), ('వొ', 'U'), ('ప్పన్', 'U'), ('ప', '|'), ('సి', '|'), ('మే', 'U'), ('సి', '|'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('గ', '|'), ('లు', '|'), ('గం', 'U'), ('గాం', 'U'), ('తా', 'U'), ('ర', '|'), ('ముం', 'U'), ('బా', 'U'), ('సి', '|'), ('య', 'U'), ('ప్ప', '|'), ('సి', '|'), ('యు', 'U'), ('న్నీ', 'U'), ('వు', '|'), ('ను', '|'), ('వ', 'U'), ('చ్చు', '|'), ('చో', 'U'), ('నె', '|'), ('దు', '|'), ('రు', '|'), ('గా', 'U'), ('బై', 'U'), ('కొ', 'U'), ('న్న', '|'), ('గో', 'U'), ('పాం', 'U'), ('గ', '|'), ('నా', 'U'), ('ర', '|'), ('స', '|'), ('వ', 'U'), ('ద్వృ', 'U'), ('త్త', '|'), ('ప', '|'), ('యో', 'U'), ('ధ', '|'), ('ర', 'U'), ('ద్వ', '|'), ('య', '|'), ('హ', '|'), ('రి', '|'), ('ద్రా', 'U'), ('లే', 'U'), ('ప', '|'), ('నా', 'U'), ('మో', 'U'), ('ద', '|'), ('ముల్', 'U'), ('ప', '|'), ('సి', '|'), ('గొం', 'U'), ('చున్', 'U'), ('బ', '|'), ('సి', '|'), ('గొం', 'U'), ('చు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ట', '|'), ('లు', '|'), ('నే', 'U'), ('భా', 'U'), ('విం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('క', '|'), ('స', '|'), ('వొ', 'U'), ('ప్ప', 'U'), ('న్ప', '|'), ('సి', '|'), ('మే', 'U'), ('సి', '|'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('గ', '|'), ('లు', '|'), ('గం', 'U'), ('గాం', 'U'), ('తా', 'U'), ('ర', '|'), ('ముం', 'U'), ('బా', 'U'), ('సి', '|'), ('య', 'U'), ('ప్ప', '|'), ('సి', '|'), ('యు', 'U'), ('న్నీ', 'U'), ('వు', '|'), ('ను', '|'), ('వ', 'U'), ('చ్చు', '|'), ('చో', 'U'), ('నె', '|'), ('దు', '|'), ('రు', '|'), ('గా', 'U'), ('బై', 'U'), ('కొ', 'U'), ('న్న', '|'), ('గో', 'U'), ('పాం', 'U'), ('గ', '|'), ('నా', 'U'), ('ర', '|'), ('స', '|'), ('వ', 'U'), ('ద్వృ', 'U'), ('త్త', '|'), ('ప', '|'), ('యో', 'U'), ('ధ', '|'), ('ర', 'U'), ('ద్వ', '|'), ('య', '|'), ('హ', '|'), ('రి', '|'), ('ద్రా', 'U'), ('లే', 'U'), ('ప', '|'), ('నా', 'U'), ('మో', 'U'), ('ద', '|'), ('ముల్', 'U'), ('ప', '|'), ('సి', '|'), ('గొం', 'U'), ('చు', 'U'), ('న్బ', '|'), ('సి', '|'), ('గొం', 'U'), ('చు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ట', '|'), ('లు', '|'), ('నే', 'U'), ('భా', 'U'), ('విం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[('చ', 'U'), ('న్నుల్', 'U'), ('మీ', 'U'), ('ది', '|'), ('కి', '|'), ('చౌ', 'U'), ('క', '|'), ('ళిం', 'U'), ('ప', '|'), ('న', '|'), ('డు', '|'), ('ముం', 'U'), ('జ', 'U'), ('వ్వా', 'U'), ('డ', '|'), ('కం', 'U'), ('ద', 'U'), ('ర్ప', '|'), ('సం', 'U'), ('ప', 'U'), ('న్నా', 'U'), ('ఖ్యం', 'U'), ('బు', '|'), ('న', '|'), ('టిం', 'U'), ('చు', '|'), ('మా', 'U'), ('డ్కి', '|'), ('క', '|'), ('బ', '|'), ('రీ', 'U'), ('భా', 'U'), ('రం', 'U'), ('బు', '|'), ('లూ', 'U'), ('టా', 'U'), ('డ', '|'), ('గా', 'U'), ('వి', 'U'), ('న్నా', 'U'), ('ణం', 'U'), ('బు', '|'), ('న', '|'), ('టిం', 'U'), ('ప', '|'), ('గో', 'U'), ('ప', '|'), ('జ', '|'), ('న', '|'), ('గో', 'U'), ('బృం', 'U'), ('దం', 'U'), ('బు', '|'), ('తో', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('మీ', 'U'), ('వ', 'U'), ('న్నెల్', 'U'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('ముం', 'U'), ('చి', '|'), ('గ్రో', 'U'), ('లు', '|'), ('ట', '|'), ('లు', '|'), ('నే', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('చ', 'U'), ('న్ను', 'U'), ('ల్మీ', 'U'), ('ది', '|'), ('కి', '|'), ('చౌ', 'U'), ('క', '|'), ('ళిం', 'U'), ('ప', '|'), ('న', '|'), ('డు', '|'), ('ముం', 'U'), ('జ', 'U'), ('వ్వా', 'U'), ('డ', '|'), ('కం', 'U'), ('ద', 'U'), ('ర్ప', '|'), ('సం', 'U'), ('ప', 'U'), ('న్నా', 'U'), ('ఖ్యం', 'U'), ('బు', '|'), ('న', '|'), ('టిం', 'U'), ('చు', '|'), ('మా', 'U'), ('డ్కి', '|'), ('క', '|'), ('బ', '|'), ('రీ', 'U'), ('భా', 'U'), ('రం', 'U'), ('బు', '|'), ('లూ', 'U'), ('టా', 'U'), ('డ', '|'), ('గా', 'U'), ('వి', 'U'), ('న్నా', 'U'), ('ణం', 'U'), ('బు', '|'), ('న', '|'), ('టిం', 'U'), ('ప', '|'), ('గో', 'U'), ('ప', '|'), ('జ', '|'), ('న', '|'), ('గో', 'U'), ('బృం', 'U'), ('దం', 'U'), ('బు', '|'), ('తో', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('మీ', 'U'), ('వ', 'U'), ('న్నె', 'U'), ('ల్క', 'U'), ('న్ను', '|'), ('ల', '|'), ('ముం', 'U'), ('చి', '|'), ('గ్రో', 'U'), ('లు', '|'), ('ట', '|'), ('లు', '|'), ('నే', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[('పె', '|'), ('రు', '|'), ('గుల్', 'U'), ('ద్ర', 'U'), ('చ్చు', '|'), ('చు', '|'), ('నొ', 'U'), ('క్క', '|'), ('గో', 'U'), ('పి', '|'), ('క', '|'), ('మి', '|'), ('ముం', 'U'), ('బ్రే', 'U'), ('మం', 'U'), ('బు', '|'), ('నం', 'U'), ('జూ', 'U'), ('చి', '|'), ('రా', 'U'), ('గ', '|'), ('ర', '|'), ('సా', 'U'), ('వే', 'U'), ('శ', '|'), ('త', '|'), ('రి', 'U'), ('త్త', '|'), ('ద్ర', 'U'), ('చ్చ', '|'), ('ని', '|'), ('డ', '|'), ('నా', 'U'), ('క', 'U'), ('వ్వం', 'U'), ('బు', '|'), ('నీ', 'U'), ('వు', 'U'), ('న్మ', '|'), ('నో', 'U'), ('హ', '|'), ('ర', '|'), ('లీ', 'U'), ('లం', 'U'), ('గ', '|'), ('ను', '|'), ('గొం', 'U'), ('చు', '|'), ('ధే', 'U'), ('ను', '|'), ('వ', '|'), ('ని', '|'), ('య', 'U'), ('య్యా', 'U'), ('బో', 'U'), ('తు', '|'), ('నుం', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('తీ', 'U'), ('వ', '|'), ('ర', '|'), ('వృ', 'U'), ('త్తాం', 'U'), ('త', '|'), ('ము', '|'), ('లే', 'U'), ('ను', '|'), ('పు', 'U'), ('ణ్య', '|'), ('క', '|'), ('థ', '|'), ('గా', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('పె', '|'), ('రు', '|'), ('గు', 'U'), ('ల్ద్ర', 'U'), ('చ్చు', '|'), ('చు', '|'), ('నొ', 'U'), ('క్క', '|'), ('గో', 'U'), ('పి', '|'), ('క', '|'), ('మి', '|'), ('ముం', 'U'), ('బ్రే', 'U'), ('మం', 'U'), ('బు', '|'), ('నం', 'U'), ('జూ', 'U'), ('చి', '|'), ('రా', 'U'), ('గ', '|'), ('ర', '|'), ('సా', 'U'), ('వే', 'U'), ('శ', '|'), ('త', '|'), ('రి', 'U'), ('త్త', '|'), ('ద్ర', 'U'), ('చ్చ', '|'), ('ని', '|'), ('డ', '|'), ('నా', 'U'), ('క', 'U'), ('వ్వం', 'U'), ('బు', '|'), ('నీ', 'U'), ('వు', 'U'), ('న్మ', '|'), ('నో', 'U'), ('హ', '|'), ('ర', '|'), ('లీ', 'U'), ('లం', 'U'), ('గ', '|'), ('ను', '|'), ('గొం', 'U'), ('చు', '|'), ('ధే', 'U'), ('ను', '|'), ('వ', '|'), ('ని', '|'), ('య', 'U'), ('య్యా', 'U'), ('బో', 'U'), ('తు', '|'), ('నుం', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('తీ', 'U'), ('వ', '|'), ('ర', '|'), ('వృ', 'U'), ('త్తాం', 'U'), ('త', '|'), ('ము', '|'), ('లే', 'U'), ('ను', '|'), ('పు', 'U'), ('ణ్య', '|'), ('క', '|'), ('థ', '|'), ('గా', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[('కే', 'U'), ('లన్', 'U'), ('గో', 'U'), ('ల', '|'), ('యు', '|'), ('గూ', 'U'), ('టి', '|'), ('చి', 'U'), ('క్క', '|'), ('ము', '|'), ('నొ', '|'), ('గిం', 'U'), ('గీ', 'U'), ('లిం', 'U'), ('చి', '|'), ('నె', 'U'), ('త్తం', 'U'), ('బు', '|'), ('నం', 'U'), ('బీ', 'U'), ('లీ', 'U'), ('పిం', 'U'), ('చ', '|'), ('ము', '|'), ('జు', 'U'), ('ట్టి', '|'), ('నె', 'U'), ('న్న', '|'), ('డు', '|'), ('ము', '|'), ('నం', 'U'), ('బిం', 'U'), ('ఛా', 'U'), ('వ', '|'), ('ళిన్', 'U'), ('గ', 'U'), ('ట్టి', '|'), ('క', 'U'), ('ర్ణా', 'U'), ('లం', 'U'), ('కా', 'U'), ('ర', '|'), ('క', '|'), ('దం', 'U'), ('బ', '|'), ('గు', 'U'), ('చ్ఛ', '|'), ('మ', '|'), ('ధు', '|'), ('మ', 'U'), ('త్తా', 'U'), ('లీ', 'U'), ('స్వ', '|'), ('నం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('నీ', 'U'), ('వా', 'U'), ('లన్', 'U'), ('గా', 'U'), ('చి', '|'), ('న', '|'), ('భా', 'U'), ('వ', '|'), ('మి', 'U'), ('ట్టి', '|'), ('ద', '|'), ('ని', '|'), ('నే', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('కే', 'U'), ('ల', 'U'), ('న్గో', 'U'), ('ల', '|'), ('యు', '|'), ('గూ', 'U'), ('టి', '|'), ('చి', 'U'), ('క్క', '|'), ('ము', '|'), ('నొ', '|'), ('గిం', 'U'), ('గీ', 'U'), ('లిం', 'U'), ('చి', '|'), ('నె', 'U'), ('త్తం', 'U'), ('బు', '|'), ('నం', 'U'), ('బీ', 'U'), ('లీ', 'U'), ('పిం', 'U'), ('చ', '|'), ('ము', '|'), ('జు', 'U'), ('ట్టి', '|'), ('నె', 'U'), ('న్న', '|'), ('డు', '|'), ('ము', '|'), ('నం', 'U'), ('బిం', 'U'), ('ఛా', 'U'), ('వ', '|'), ('ళి', 'U'), ('న్గ', 'U'), ('ట్టి', '|'), ('క', 'U'), ('ర్ణా', 'U'), ('లం', 'U'), ('కా', 'U'), ('ర', '|'), ('క', '|'), ('దం', 'U'), ('బ', '|'), ('గు', 'U'), ('చ్ఛ', '|'), ('మ', '|'), ('ధు', '|'), ('మ', 'U'), ('త్తా', 'U'), ('లీ', 'U'), ('స్వ', '|'), ('నం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('నీ', 'U'), ('వా', 'U'), ('ల', 'U'), ('న్గా', 'U'), ('చి', '|'), ('న', '|'), ('భా', 'U'), ('వ', '|'), ('మి', 'U'), ('ట్టి', '|'), ('ద', '|'), ('ని', '|'), ('నే', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[('కా', 'U'), ('ళిం', 'U'), ('దీ', 'U'), ('త', '|'), ('ట', '|'), ('భూ', 'U'), ('మి', '|'), ('నా', 'U'), ('ల', '|'), ('క', '|'), ('దు', '|'), ('పుల్', 'U'), ('కా', 'U'), ('లూ', 'U'), ('ది', '|'), ('మే', 'U'), ('యన్', 'U'), ('స', '|'), ('ము', 'U'), ('త్తా', 'U'), ('లో', 'U'), ('ల', '|'), ('త', '|'), ('మా', 'U'), ('ల', '|'), ('పా', 'U'), ('ద', '|'), ('ప', '|'), ('శి', '|'), ('ఖాం', 'U'), ('త', 'U'), ('స్థుం', 'U'), ('డ', '|'), ('వై', 'U'), ('వే', 'U'), ('ణు', '|'), ('రం', 'U'), ('ధ్రా', 'U'), ('లిన్', 'U'), ('రా', 'U'), ('గ', '|'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('నిం', 'U'), ('డ', '|'), ('వి', '|'), ('ల', '|'), ('స', '|'), ('ద్రా', 'U'), ('గం', 'U'), ('బు', '|'), ('సం', 'U'), ('ధిం', 'U'), ('చి', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('వ్రా', 'U'), ('త', '|'), ('ము', '|'), ('గం', 'U'), ('డు', '|'), ('గో', 'U'), ('యి', '|'), ('ల', '|'), ('లు', '|'), ('గా', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('కా', 'U'), ('ళిం', 'U'), ('దీ', 'U'), ('త', '|'), ('ట', '|'), ('భూ', 'U'), ('మి', '|'), ('నా', 'U'), ('ల', '|'), ('క', '|'), ('దు', '|'), ('పు', 'U'), ('ల్కా', 'U'), ('లూ', 'U'), ('ది', '|'), ('మే', 'U'), ('య', 'U'), ('న్స', '|'), ('ము', 'U'), ('త్తా', 'U'), ('లో', 'U'), ('ల', '|'), ('త', '|'), ('మా', 'U'), ('ల', '|'), ('పా', 'U'), ('ద', '|'), ('ప', '|'), ('శి', '|'), ('ఖాం', 'U'), ('త', 'U'), ('స్థుం', 'U'), ('డ', '|'), ('వై', 'U'), ('వే', 'U'), ('ణు', '|'), ('రం', 'U'), ('ధ్రా', 'U'), ('లి', '|'), ('న్రా', 'U'), ('గ', '|'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('నిం', 'U'), ('డ', '|'), ('వి', '|'), ('ల', '|'), ('స', '|'), ('ద్రా', 'U'), ('గం', 'U'), ('బు', '|'), ('సం', 'U'), ('ధిం', 'U'), ('చి', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('వ్రా', 'U'), ('త', '|'), ('ము', '|'), ('గం', 'U'), ('డు', '|'), ('గో', 'U'), ('యి', '|'), ('ల', '|'), ('లు', '|'), ('గా', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[('రా', 'U'), ('ణిం', 'U'), ('చెన్', 'U'), ('గ', '|'), ('డు', '|'), ('నం', 'U'), ('చు', '|'), ('నీ', 'U'), ('స', '|'), ('హ', '|'), ('చ', '|'), ('రుల్', 'U'), ('రా', 'U'), ('గి', 'U'), ('ల్లి', '|'), ('సో', 'U'), ('లం', 'U'), ('గ', '|'), ('మీ', 'U'), ('వే', 'U'), ('ణు', 'U'), ('క్వా', 'U'), ('ణ', '|'), ('ము', '|'), ('వీ', 'U'), ('ను', '|'), ('లం', 'U'), ('బ', '|'), ('డి', '|'), ('మ', '|'), ('నో', 'U'), ('వీ', 'U'), ('థుల్', 'U'), ('బ', '|'), ('య', 'U'), ('ల్ము', 'U'), ('ట్ట', '|'), ('గా', 'U'), ('ఘో', 'U'), ('ణా', 'U'), ('గ్రం', 'U'), ('బు', '|'), ('లు', '|'), ('మీ', 'U'), ('ది', '|'), ('కె', 'U'), ('త్తు', '|'), ('కొ', '|'), ('ని', '|'), ('లాం', 'U'), ('గూ', 'U'), ('లం', 'U'), ('బు', '|'), ('ల', 'U'), ('ల్లా', 'U'), ('ర్చి', '|'), ('గో', 'U'), ('శ్రే', 'U'), ('ణుల్', 'U'), ('చిం', 'U'), ('దు', '|'), ('లు', '|'), ('ద్రొ', 'U'), ('క్కి', '|'), ('యా', 'U'), ('డు', '|'), ('ట', '|'), ('లు', '|'), ('నే', 'U'), ('జ', 'U'), ('ర్చిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('రా', 'U'), ('ణిం', 'U'), ('చె', 'U'), ('న్గ', '|'), ('డు', '|'), ('నం', 'U'), ('చు', '|'), ('నీ', 'U'), ('స', '|'), ('హ', '|'), ('చ', '|'), ('రు', '|'), ('ల్రా', 'U'), ('గి', 'U'), ('ల్లి', '|'), ('సో', 'U'), ('లం', 'U'), ('గ', '|'), ('మీ', 'U'), ('వే', 'U'), ('ణు', 'U'), ('క్వా', 'U'), ('ణ', '|'), ('ము', '|'), ('వీ', 'U'), ('ను', '|'), ('లం', 'U'), ('బ', '|'), ('డి', '|'), ('మ', '|'), ('నో', 'U'), ('వీ', 'U'), ('థు', 'U'), ('ల్బ', '|'), ('య', 'U'), ('ల్ము', 'U'), ('ట్ట', '|'), ('గా', 'U'), ('ఘో', 'U'), ('ణా', 'U'), ('గ్రం', 'U'), ('బు', '|'), ('లు', '|'), ('మీ', 'U'), ('ది', '|'), ('కె', 'U'), ('త్తు', '|'), ('కొ', '|'), ('ని', '|'), ('లాం', 'U'), ('గూ', 'U'), ('లం', 'U'), ('బు', '|'), ('ల', 'U'), ('ల్లా', 'U'), ('ర్చి', '|'), ('గో', 'U'), ('శ్రే', 'U'), ('ణు', 'U'), ('ల్చిం', 'U'), ('దు', '|'), ('లు', '|'), ('ద్రొ', 'U'), ('క్కి', '|'), ('యా', 'U'), ('డు', '|'), ('ట', '|'), ('లు', '|'), ('నే', 'U'), ('జ', 'U'), ('ర్చిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('సు', '|'), ('లం', 'U'), ('గా', 'U'), ('ప', '|'), ('రి', '|'), ('యే', 'U'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('మ', '|'), ('ధు', '|'), ('ర', '|'), ('ప్రా', 'U'), ('యో', 'U'), ('ల్ల', '|'), ('స', 'U'), ('ద్వృ', 'U'), ('త్త', '|'), ('వా', 'U'), ('గ్వి', '|'), ('స', '|'), ('రా', 'U'), ('రా', 'U'), ('వ', '|'), ('ము', '|'), ('మో', 'U'), ('వి', '|'), ('దా', 'U'), ('వె', '|'), ('దు', '|'), ('రు', '|'), ('గ్రో', 'U'), ('విం', 'U'), ('బె', 'U'), ('ట్టి', '|'), ('నా', 'U'), ('డం', 'U'), ('చు', '|'), ('నిన్', 'U'), ('గ', '|'), ('స', '|'), ('టుల్', 'U'), ('సే', 'U'), ('య', '|'), ('గ', '|'), ('నా', 'U'), ('డు', '|'), ('గో', 'U'), ('పి', '|'), ('క', '|'), ('ల', '|'), ('త', 'U'), ('ద్గా', 'U'), ('నం', 'U'), ('బు', '|'), ('లన్', 'U'), ('మ', 'U'), ('న్మ', '|'), ('థ', 'U'), ('వ్య', '|'), ('స', '|'), ('నా', 'U'), ('స', 'U'), ('క్తు', '|'), ('ల', '|'), ('జే', 'U'), ('యు', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('నే', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('ప', '|'), ('సు', '|'), ('లం', 'U'), ('గా', 'U'), ('ప', '|'), ('రి', '|'), ('యే', 'U'), ('మె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('మ', '|'), ('ధు', '|'), ('ర', '|'), ('ప్రా', 'U'), ('యో', 'U'), ('ల్ల', '|'), ('స', 'U'), ('ద్వృ', 'U'), ('త్త', '|'), ('వా', 'U'), ('గ్వి', '|'), ('స', '|'), ('రా', 'U'), ('రా', 'U'), ('వ', '|'), ('ము', '|'), ('మో', 'U'), ('వి', '|'), ('దా', 'U'), ('వె', '|'), ('దు', '|'), ('రు', '|'), ('గ్రో', 'U'), ('విం', 'U'), ('బె', 'U'), ('ట్టి', '|'), ('నా', 'U'), ('డం', 'U'), ('చు', '|'), ('నిన్', 'U'), ('గ', '|'), ('స', '|'), ('టు', 'U'), ('ల్సే', 'U'), ('య', '|'), ('గ', '|'), ('నా', 'U'), ('డు', '|'), ('గో', 'U'), ('పి', '|'), ('క', '|'), ('ల', '|'), ('త', 'U'), ('ద్గా', 'U'), ('నం', 'U'), ('బు', '|'), ('ల', 'U'), ('న్మ', 'U'), ('న్మ', '|'), ('థ', 'U'), ('వ్య', '|'), ('స', '|'), ('నా', 'U'), ('స', 'U'), ('క్తు', '|'), ('ల', '|'), ('జే', 'U'), ('యు', '|'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('నే', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[('జ', '|'), ('డ', '|'), ('యెం', 'U'), ('తే', 'U'), ('ద', '|'), ('డ', '|'), ('వ', 'U'), ('య్యె', '|'), ('జె', 'U'), ('య్యి', '|'), ('య', '|'), ('ల', '|'), ('సెన్', 'U'), ('శై', 'U'), ('లం', 'U'), ('బు', '|'), ('మా', 'U'), ('చే', 'U'), ('తు', '|'), ('లం', 'U'), ('ది', '|'), ('డు', '|'), ('మ', 'U'), ('న్నన్', 'U'), ('జి', '|'), ('రు', '|'), ('న', 'U'), ('వ్వు', '|'), ('తో', 'U'), ('వ', '|'), ('ద', '|'), ('లి', '|'), ('నన్', 'U'), ('హీ', 'U'), ('నో', 'U'), ('క్తి', '|'), ('గీ', 'U'), ('పె', 'U'), ('ట్ట', '|'), ('నె', 'U'), ('క్కు', '|'), ('డు', '|'), ('గో', 'U'), ('వుల్', 'U'), ('బ్రి', '|'), ('య', '|'), ('మం', 'U'), ('ద', '|'), ('నిం', 'U'), ('ద్రు', '|'), ('డ', '|'), ('డ', '|'), ('లం', 'U'), ('గో', 'U'), ('వ', 'U'), ('ర్ధ', '|'), ('నా', 'U'), ('ద్రీం', 'U'), ('ద్ర', '|'), ('మున్', 'U'), ('గొ', '|'), ('డు', '|'), ('గై', 'U'), ('యుం', 'U'), ('డ', '|'), ('గ', '|'), ('గే', 'U'), ('ల', '|'), ('బూ', 'U'), ('ని', '|'), ('తి', '|'), ('గ', '|'), ('దా', 'U'), ('గో', 'U'), ('విం', 'U'), ('ద', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('జ', '|'), ('డ', '|'), ('యెం', 'U'), ('తే', 'U'), ('ద', '|'), ('డ', '|'), ('వ', 'U'), ('య్యె', '|'), ('జె', 'U'), ('య్యి', '|'), ('య', '|'), ('ల', '|'), ('సె', 'U'), ('న్శై', 'U'), ('లం', 'U'), ('బు', '|'), ('మా', 'U'), ('చే', 'U'), ('తు', '|'), ('లం', 'U'), ('ది', '|'), ('డు', '|'), ('మ', 'U'), ('న్న', 'U'), ('న్జి', '|'), ('రు', '|'), ('న', 'U'), ('వ్వు', '|'), ('తో', 'U'), ('వ', '|'), ('ద', '|'), ('లి', '|'), ('న', 'U'), ('న్హీ', 'U'), ('నో', 'U'), ('క్తి', '|'), ('గీ', 'U'), ('పె', 'U'), ('ట్ట', '|'), ('నె', 'U'), ('క్కు', '|'), ('డు', '|'), ('గో', 'U'), ('వు', 'U'), ('ల్బ్రి', '|'), ('య', '|'), ('మం', 'U'), ('ద', '|'), ('నిం', 'U'), ('ద్రు', '|'), ('డ', '|'), ('డ', '|'), ('లం', 'U'), ('గో', 'U'), ('వ', 'U'), ('ర్ధ', '|'), ('నా', 'U'), ('ద్రీం', 'U'), ('ద్ర', '|'), ('మున్', 'U'), ('గొ', '|'), ('డు', '|'), ('గై', 'U'), ('యుం', 'U'), ('డ', '|'), ('గ', '|'), ('గే', 'U'), ('ల', '|'), ('బూ', 'U'), ('ని', '|'), ('తి', '|'), ('గ', '|'), ('దా', 'U'), ('గో', 'U'), ('విం', 'U'), ('ద', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[('ల', '|'), ('లి', '|'), ('తా', 'U'), ('కుం', 'U'), ('చి', '|'), ('త', '|'), ('వే', 'U'), ('ణి', '|'), ('యం', 'U'), ('ద', '|'), ('డ', '|'), ('వి', '|'), ('మొ', 'U'), ('ల్లల్', 'U'), ('జా', 'U'), ('ఱ', '|'), ('ఫా', 'U'), ('ల', 'U'), ('స్థ', '|'), ('లిన్', 'U'), ('ది', '|'), ('ల', '|'), ('కం', 'U'), ('బొ', 'U'), ('య్య', '|'), ('న', '|'), ('జా', 'U'), ('ఱ', '|'), ('గుం', 'U'), ('డ', '|'), ('ల', '|'), ('రు', '|'), ('చుల్', 'U'), ('దీ', 'U'), ('పిం', 'U'), ('ప', '|'), ('లే', 'U'), ('జె', 'U'), ('క్కు', '|'), ('లన్', 'U'), ('మొ', '|'), ('ల', '|'), ('క', 'U'), ('న్న', 'U'), ('వ్వు', '|'), ('ల', '|'), ('చూ', 'U'), ('పు', '|'), ('లో', 'U'), ('ర', '|'), ('గి', '|'), ('ల', '|'), ('మే', 'U'), ('న్ము', 'U'), ('వ్వం', 'U'), ('క', '|'), ('లన్', 'U'), ('బో', 'U'), ('వ', '|'), ('గా', 'U'), ('న', '|'), ('లి', '|'), ('గై', 'U'), ('కొం', 'U'), ('దు', '|'), ('వు', '|'), ('గా', 'U'), ('దె', '|'), ('నీ', 'U'), ('వు', '|'), ('ము', '|'), ('ర', '|'), ('ళీ', 'U'), ('నా', 'U'), ('ట్యం', 'U'), ('బు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('ల', '|'), ('లి', '|'), ('తా', 'U'), ('కుం', 'U'), ('చి', '|'), ('త', '|'), ('వే', 'U'), ('ణి', '|'), ('యం', 'U'), ('ద', '|'), ('డ', '|'), ('వి', '|'), ('మొ', 'U'), ('ల్ల', 'U'), ('ల్జా', 'U'), ('ఱ', '|'), ('ఫా', 'U'), ('ల', 'U'), ('స్థ', '|'), ('లిన్', 'U'), ('ది', '|'), ('ల', '|'), ('కం', 'U'), ('బొ', 'U'), ('య్య', '|'), ('న', '|'), ('జా', 'U'), ('ఱ', '|'), ('గుం', 'U'), ('డ', '|'), ('ల', '|'), ('రు', '|'), ('చు', 'U'), ('ల్దీ', 'U'), ('పిం', 'U'), ('ప', '|'), ('లే', 'U'), ('జె', 'U'), ('క్కు', '|'), ('లన్', 'U'), ('మొ', '|'), ('ల', '|'), ('క', 'U'), ('న్న', 'U'), ('వ్వు', '|'), ('ల', '|'), ('చూ', 'U'), ('పు', '|'), ('లో', 'U'), ('ర', '|'), ('గి', '|'), ('ల', '|'), ('మే', 'U'), ('న్ము', 'U'), ('వ్వం', 'U'), ('క', '|'), ('ల', 'U'), ('న్బో', 'U'), ('వ', '|'), ('గా', 'U'), ('న', '|'), ('లి', '|'), ('గై', 'U'), ('కొం', 'U'), ('దు', '|'), ('వు', '|'), ('గా', 'U'), ('దె', '|'), ('నీ', 'U'), ('వు', '|'), ('ము', '|'), ('ర', '|'), ('ళీ', 'U'), ('నా', 'U'), ('ట్యం', 'U'), ('బు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[('మా', 'U'), ('పా', 'U'), ('లం', 'U'), ('గ', '|'), ('డు', '|'), ('గ్రొ', 'U'), ('వ్వి', '|'), ('గో', 'U'), ('పి', '|'), ('క', '|'), ('ల', '|'), ('తో', 'U'), ('మ', 'U'), ('త్తి', 'U'), ('ల్లి', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('తు', '|'), ('వే', 'U'), ('మా', 'U'), ('పా', 'U'), ('లెం', 'U'), ('బు', '|'), ('ల', '|'), ('వ', 'U'), ('చ్చి', '|'), ('యుం', 'U'), ('డు', '|'), ('దు', '|'), ('వె', '|'), ('స', 'U'), ('న్మా', 'U'), ('పా', 'U'), ('ల', '|'), ('లో', 'U'), ('నుం', 'U'), ('డు', '|'), ('మీ', 'U'), ('మా', 'U'), ('పా', 'U'), ('లై', 'U'), ('న', '|'), ('సు', '|'), ('ఖా', 'U'), ('బ్ధి', '|'), ('లో', 'U'), ('ము', '|'), ('ను', '|'), ('గు', '|'), ('చున్', 'U'), ('మ', 'U'), ('న్నిం', 'U'), ('చి', '|'), ('తా', 'U'), ('గొ', 'U'), ('ల్ల', '|'), ('లన్', 'U'), ('మా', 'U'), ('పా', 'U'), ('లం', 'U'), ('గ', '|'), ('ల', '|'), ('వే', 'U'), ('ల్పు', '|'), ('వీ', 'U'), ('వె', '|'), ('య', '|'), ('ని', '|'), ('కా', 'U'), ('మ', 'U'), ('న్నిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('మా', 'U'), ('పా', 'U'), ('లం', 'U'), ('గ', '|'), ('డు', '|'), ('గ్రొ', 'U'), ('వ్వి', '|'), ('గో', 'U'), ('పి', '|'), ('క', '|'), ('ల', '|'), ('తో', 'U'), ('మ', 'U'), ('త్తి', 'U'), ('ల్లి', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('తు', '|'), ('వే', 'U'), ('మా', 'U'), ('పా', 'U'), ('లెం', 'U'), ('బు', '|'), ('ల', '|'), ('వ', 'U'), ('చ్చి', '|'), ('యుం', 'U'), ('డు', '|'), ('దు', '|'), ('వె', '|'), ('స', 'U'), ('న్మా', 'U'), ('పా', 'U'), ('ల', '|'), ('లో', 'U'), ('నుం', 'U'), ('డు', '|'), ('మీ', 'U'), ('మా', 'U'), ('పా', 'U'), ('లై', 'U'), ('న', '|'), ('సు', '|'), ('ఖా', 'U'), ('బ్ధి', '|'), ('లో', 'U'), ('ము', '|'), ('ను', '|'), ('గు', '|'), ('చు', 'U'), ('న్మ', 'U'), ('న్నిం', 'U'), ('చి', '|'), ('తా', 'U'), ('గొ', 'U'), ('ల్ల', '|'), ('లన్', 'U'), ('మా', 'U'), ('పా', 'U'), ('లం', 'U'), ('గ', '|'), ('ల', '|'), ('వే', 'U'), ('ల్పు', '|'), ('వీ', 'U'), ('వె', '|'), ('య', '|'), ('ని', '|'), ('కా', 'U'), ('మ', 'U'), ('న్నిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[('ల', '|'), ('లి', '|'), ('తం', 'U'), ('బై', 'U'), ('న', '|'), ('భ', '|'), ('వ', 'U'), ('త్త', '|'), ('నూ', 'U'), ('వి', '|'), ('ల', '|'), ('స', '|'), ('నన్', 'U'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('ది', 'U'), ('వ్యా', 'U'), ('మృ', '|'), ('తం', 'U'), ('బ', '|'), ('లు', '|'), ('గు', 'U'), ('ల్వా', 'U'), ('ర', '|'), ('గ', '|'), ('నీ', 'U'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('ము', '|'), ('న', '|'), ('దా', 'U'), ('మం', 'U'), ('దం', 'U'), ('ద', '|'), ('గో', 'U'), ('పాం', 'U'), ('గ', '|'), ('నల్', 'U'), ('త', '|'), ('ల', '|'), ('పు', 'U'), ('ల్పా', 'U'), ('దు', '|'), ('లు', '|'), ('క', 'U'), ('ట్టి', '|'), ('కం', 'U'), ('ద', '|'), ('ళి', '|'), ('త', '|'), ('నూ', 'U'), ('త్న', '|'), ('శ్రీ', 'U'), ('లు', '|'), ('వా', 'U'), ('టిం', 'U'), ('తు', '|'), ('రా', 'U'), ('నె', '|'), ('ల', '|'), ('తల్', 'U'), ('తీ', 'U'), ('వె', '|'), ('లు', '|'), ('చై', 'U'), ('త్ర', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణ', '|'), ('మౌ', 'U'), ('నీ', 'U'), ('యొ', 'U'), ('ప్పు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('ల', '|'), ('లి', '|'), ('తం', 'U'), ('బై', 'U'), ('న', '|'), ('భ', '|'), ('వ', 'U'), ('త్త', '|'), ('నూ', 'U'), ('వి', '|'), ('ల', '|'), ('స', '|'), ('న', 'U'), ('న్లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('ది', 'U'), ('వ్యా', 'U'), ('మృ', '|'), ('తం', 'U'), ('బ', '|'), ('లు', '|'), ('గు', 'U'), ('ల్వా', 'U'), ('ర', '|'), ('గ', '|'), ('నీ', 'U'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('ము', '|'), ('న', '|'), ('దా', 'U'), ('మం', 'U'), ('దం', 'U'), ('ద', '|'), ('గో', 'U'), ('పాం', 'U'), ('గ', '|'), ('నల్', 'U'), ('త', '|'), ('ల', '|'), ('పు', 'U'), ('ల్పా', 'U'), ('దు', '|'), ('లు', '|'), ('క', 'U'), ('ట్టి', '|'), ('కం', 'U'), ('ద', '|'), ('ళి', '|'), ('త', '|'), ('నూ', 'U'), ('త్న', '|'), ('శ్రీ', 'U'), ('లు', '|'), ('వా', 'U'), ('టిం', 'U'), ('తు', '|'), ('రా', 'U'), ('నె', '|'), ('ల', '|'), ('త', 'U'), ('ల్తీ', 'U'), ('వె', '|'), ('లు', '|'), ('చై', 'U'), ('త్ర', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణ', '|'), ('మౌ', 'U'), ('నీ', 'U'), ('యొ', 'U'), ('ప్పు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[('లీ', 'U'), ('లన్', 'U'), ('పూ', 'U'), ('త', '|'), ('న', '|'), ('ప్రా', 'U'), ('ణ', '|'), ('వా', 'U'), ('యు', '|'), ('వు', '|'), ('లు', '|'), ('పా', 'U'), ('లిం', 'U'), ('డ్లం', 'U'), ('దు', '|'), ('వె', 'U'), ('ళ్ళిం', 'U'), ('చి', '|'), ('దు', 'U'), ('శ్శీ', 'U'), ('లుం', 'U'), ('డై', 'U'), ('చ', '|'), ('ను', '|'), ('బం', 'U'), ('డి', '|'), ('దా', 'U'), ('న', '|'), ('వు', '|'), ('వె', '|'), ('సం', 'U'), ('జిం', 'U'), ('దై', 'U'), ('ప', '|'), ('డం', 'U'), ('ద', 'U'), ('న్ని', '|'), ('యా', 'U'), ('రో', 'U'), ('ల', 'U'), ('న్మ', 'U'), ('ద్దు', '|'), ('లు', '|'), ('గూ', 'U'), ('ల్చి', '|'), ('ధే', 'U'), ('ను', '|'), ('ద', '|'), ('ను', '|'), ('జున్', 'U'), ('రో', 'U'), ('జం', 'U'), ('గ', '|'), ('నీ', 'U'), ('ల్గిం', 'U'), ('చి', '|'), ('వే', 'U'), ('కూ', 'U'), ('లన్', 'U'), ('కం', 'U'), ('సు', '|'), ('ని', '|'), ('గొ', 'U'), ('ట్టి', '|'), ('గో', 'U'), ('పి', '|'), ('క', '|'), ('ల', '|'), ('కో', 'U'), ('ర్కుల్', 'U'), ('దీ', 'U'), ('ర్తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('లీ', 'U'), ('ల', 'U'), ('న్పూ', 'U'), ('త', '|'), ('న', '|'), ('ప్రా', 'U'), ('ణ', '|'), ('వా', 'U'), ('యు', '|'), ('వు', '|'), ('లు', '|'), ('పా', 'U'), ('లిం', 'U'), ('డ్లం', 'U'), ('దు', '|'), ('వె', 'U'), ('ళ్ళిం', 'U'), ('చి', '|'), ('దు', 'U'), ('శ్శీ', 'U'), ('లుం', 'U'), ('డై', 'U'), ('చ', '|'), ('ను', '|'), ('బం', 'U'), ('డి', '|'), ('దా', 'U'), ('న', '|'), ('వు', '|'), ('వె', '|'), ('సం', 'U'), ('జిం', 'U'), ('దై', 'U'), ('ప', '|'), ('డం', 'U'), ('ద', 'U'), ('న్ని', '|'), ('యా', 'U'), ('రో', 'U'), ('ల', 'U'), ('న్మ', 'U'), ('ద్దు', '|'), ('లు', '|'), ('గూ', 'U'), ('ల్చి', '|'), ('ధే', 'U'), ('ను', '|'), ('ద', '|'), ('ను', '|'), ('జు', '|'), ('న్రో', 'U'), ('జం', 'U'), ('గ', '|'), ('నీ', 'U'), ('ల్గిం', 'U'), ('చి', '|'), ('వే', 'U'), ('కూ', 'U'), ('ల', 'U'), ('న్కం', 'U'), ('సు', '|'), ('ని', '|'), ('గొ', 'U'), ('ట్టి', '|'), ('గో', 'U'), ('పి', '|'), ('క', '|'), ('ల', '|'), ('కో', 'U'), ('ర్కు', 'U'), ('ల్దీ', 'U'), ('ర్తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[('ర', '|'), ('స', '|'), ('నా', 'U'), ('గ్రం', 'U'), ('బు', '|'), ('న', '|'), ('నీ', 'U'), ('దు', '|'), ('నా', 'U'), ('మ', '|'), ('రు', '|'), ('చి', '|'), ('యున్', 'U'), ('ర', 'U'), ('మ్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('జె', 'U'), ('వ్లు', '|'), ('కు', 'U'), ('న్న', '|'), ('స', '|'), ('లా', 'U'), ('రం', 'U'), ('గ', '|'), ('భ', '|'), ('వ', 'U'), ('త్క', '|'), ('థా', 'U'), ('భి', '|'), ('ర', '|'), ('తి', '|'), ('యున్', 'U'), ('హ', 'U'), ('స్తా', 'U'), ('బ్జ', '|'), ('యు', 'U'), ('గ్మం', 'U'), ('బు', '|'), ('లన్', 'U'), ('వె', '|'), ('స', '|'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('సు', '|'), ('పూ', 'U'), ('జి', '|'), ('తా', 'U'), ('ది', '|'), ('యు', '|'), ('గ', '|'), ('మున్', 'U'), ('వి', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('మ', 'U'), ('ధ్యా', 'U'), ('త్మ', '|'), ('కున్', 'U'), ('వె', '|'), ('స', '|'), ('నిం', 'U'), ('పొం', 'U'), ('ద', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('దా', 'U'), ('బ', '|'), ('శు', '|'), ('వు', '|'), ('సూ', 'U'), ('వే', 'U'), ('దా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('ర', '|'), ('స', '|'), ('నా', 'U'), ('గ్రం', 'U'), ('బు', '|'), ('న', '|'), ('నీ', 'U'), ('దు', '|'), ('నా', 'U'), ('మ', '|'), ('రు', '|'), ('చి', '|'), ('యు', '|'), ('న్ర', 'U'), ('మ్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('జె', 'U'), ('వ్లు', '|'), ('కు', 'U'), ('న్న', '|'), ('స', '|'), ('లా', 'U'), ('రం', 'U'), ('గ', '|'), ('భ', '|'), ('వ', 'U'), ('త్క', '|'), ('థా', 'U'), ('భి', '|'), ('ర', '|'), ('తి', '|'), ('యు', 'U'), ('న్హ', 'U'), ('స్తా', 'U'), ('బ్జ', '|'), ('యు', 'U'), ('గ్మం', 'U'), ('బు', '|'), ('లన్', 'U'), ('వె', '|'), ('స', '|'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('సు', '|'), ('పూ', 'U'), ('జి', '|'), ('తా', 'U'), ('ది', '|'), ('యు', '|'), ('గ', '|'), ('ము', 'U'), ('న్వి', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('మ', 'U'), ('ధ్యా', 'U'), ('త్మ', '|'), ('కున్', 'U'), ('వె', '|'), ('స', '|'), ('నిం', 'U'), ('పొం', 'U'), ('ద', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('దా', 'U'), ('బ', '|'), ('శు', '|'), ('వు', '|'), ('సూ', 'U'), ('వే', 'U'), ('దా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[('చ', 'U'), ('ల్ల', 'U'), ('ల్వే', 'U'), ('ఱొ', '|'), ('క', '|'), ('యూ', 'U'), ('ర', '|'), ('న', 'U'), ('మ్ము', '|'), ('కొ', '|'), ('ను', '|'), ('నా', 'U'), ('సం', 'U'), ('బో', 'U'), ('వు', '|'), ('చో', 'U'), ('ద్రో', 'U'), ('వ', '|'), ('నీ', 'U'), ('వు', 'U'), ('ల్లా', 'U'), ('సం', 'U'), ('బు', '|'), ('న', '|'), ('న', 'U'), ('డ్డ', '|'), ('క', 'U'), ('ట్టి', '|'), ('మ', '|'), ('ద', '|'), ('నో', 'U'), ('ద్యో', 'U'), ('గా', 'U'), ('ను', '|'), ('లా', 'U'), ('పం', 'U'), ('బు', '|'), ('లన్', 'U'), ('చ', 'U'), ('ల్లన్', 'U'), ('జ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('చూ', 'U'), ('పు', '|'), ('జ', 'U'), ('ల్లు', '|'), ('మ', '|'), ('ని', '|'), ('గో', 'U'), ('ప', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('పై', 'U'), ('జ', 'U'), ('ల్లు', '|'), ('మీ', 'U'), ('చ', 'U'), ('ల్లం', 'U'), ('బో', 'U'), ('రు', '|'), ('తె', '|'), ('ఱం', 'U'), ('గు', '|'), ('జి', 'U'), ('త్త', '|'), ('ము', '|'), ('న', '|'), ('నే', 'U'), ('జ', 'U'), ('ర్చిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('చ', 'U'), ('ల్ల', 'U'), ('ల్వే', 'U'), ('ఱొ', '|'), ('క', '|'), ('యూ', 'U'), ('ర', '|'), ('న', 'U'), ('మ్ము', '|'), ('కొ', '|'), ('ను', '|'), ('నా', 'U'), ('సం', 'U'), ('బో', 'U'), ('వు', '|'), ('చో', 'U'), ('ద్రో', 'U'), ('వ', '|'), ('నీ', 'U'), ('వు', 'U'), ('ల్లా', 'U'), ('సం', 'U'), ('బు', '|'), ('న', '|'), ('న', 'U'), ('డ్డ', '|'), ('క', 'U'), ('ట్టి', '|'), ('మ', '|'), ('ద', '|'), ('నో', 'U'), ('ద్యో', 'U'), ('గా', 'U'), ('ను', '|'), ('లా', 'U'), ('పం', 'U'), ('బు', '|'), ('లన్', 'U'), ('చ', 'U'), ('ల్ల', 'U'), ('న్జ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('చూ', 'U'), ('పు', '|'), ('జ', 'U'), ('ల్లు', '|'), ('మ', '|'), ('ని', '|'), ('గో', 'U'), ('ప', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('పై', 'U'), ('జ', 'U'), ('ల్లు', '|'), ('మీ', 'U'), ('చ', 'U'), ('ల్లం', 'U'), ('బో', 'U'), ('రు', '|'), ('తె', '|'), ('ఱం', 'U'), ('గు', '|'), ('జి', 'U'), ('త్త', '|'), ('ము', '|'), ('న', '|'), ('నే', 'U'), ('జ', 'U'), ('ర్చిం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('ల', '|'), ('య', 'U'), ('న్వే', 'U'), ('ద', '|'), ('ము', '|'), ('లున్', 'U'), ('బు', '|'), ('రా', 'U'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('బ్ర', 'U'), ('ఖ్యా', 'U'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('తె', 'U'), ('ల్పి', '|'), ('మీ', 'U'), ('వ', '|'), ('ల', '|'), ('నన్', 'U'), ('భ', 'U'), ('క్తి', '|'), ('వి', '|'), ('హీ', 'U'), ('ను', '|'), ('డై', 'U'), ('న', '|'), ('పి', '|'), ('ద', '|'), ('పన్', 'U'), ('వ్య', 'U'), ('ర్థ', '|'), ('ప్ర', '|'), ('య', 'U'), ('త్నం', 'U'), ('బె', '|'), ('పో', 'U'), ('గు', '|'), ('ల', '|'), ('కాం', 'U'), ('తా', 'U'), ('మ', '|'), ('ణి', '|'), ('గొ', 'U'), ('డ్డు', '|'), ('వో', 'U'), ('యి', '|'), ('న', '|'), ('గ', '|'), ('తిం', 'U'), ('గ్రొ', 'U'), ('వ్వా', 'U'), ('రు', '|'), ('స', 'U'), ('స్యం', 'U'), ('బు', '|'), ('దా', 'U'), ('ఫ', '|'), ('ల', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('నీ', 'U'), ('చ', '|'), ('పో', 'U'), ('వు', '|'), ('ప', '|'), ('గి', '|'), ('దిన్', 'U'), ('ప', 'U'), ('ద్మా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('క', '|'), ('ల', '|'), ('య', 'U'), ('న్వే', 'U'), ('ద', '|'), ('ము', '|'), ('లు', 'U'), ('న్బు', '|'), ('రా', 'U'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('బ్ర', 'U'), ('ఖ్యా', 'U'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('తె', 'U'), ('ల్పి', '|'), ('మీ', 'U'), ('వ', '|'), ('ల', '|'), ('న', 'U'), ('న్భ', 'U'), ('క్తి', '|'), ('వి', '|'), ('హీ', 'U'), ('ను', '|'), ('డై', 'U'), ('న', '|'), ('పి', '|'), ('ద', '|'), ('ప', 'U'), ('న్వ్య', 'U'), ('ర్థ', '|'), ('ప్ర', '|'), ('య', 'U'), ('త్నం', 'U'), ('బె', '|'), ('పో', 'U'), ('గు', '|'), ('ల', '|'), ('కాం', 'U'), ('తా', 'U'), ('మ', '|'), ('ణి', '|'), ('గొ', 'U'), ('డ్డు', '|'), ('వో', 'U'), ('యి', '|'), ('న', '|'), ('గ', '|'), ('తిం', 'U'), ('గ్రొ', 'U'), ('వ్వా', 'U'), ('రు', '|'), ('స', 'U'), ('స్యం', 'U'), ('బు', '|'), ('దా', 'U'), ('ఫ', '|'), ('ల', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('నీ', 'U'), ('చ', '|'), ('పో', 'U'), ('వు', '|'), ('ప', '|'), ('గి', '|'), ('ది', 'U'), ('న్ప', 'U'), ('ద్మా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[('స్నా', 'U'), ('నం', 'U'), ('బుల్', 'U'), ('న', '|'), ('దు', '|'), ('లం', 'U'), ('దు', '|'), ('జే', 'U'), ('యు', '|'), ('ట', '|'), ('గ', '|'), ('జ', 'U'), ('స్నా', 'U'), ('నం', 'U'), ('బు', '|'), ('చం', 'U'), ('దం', 'U'), ('బ', '|'), ('గున్', 'U'), ('మౌ', 'U'), ('నం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('జ', '|'), ('పిం', 'U'), ('చు', '|'), ('వే', 'U'), ('ద', '|'), ('మ', '|'), ('ట', '|'), ('వీ', 'U'), ('మ', 'U'), ('ధ్యం', 'U'), ('బు', '|'), ('లో', 'U'), ('నే', 'U'), ('డ్ప', '|'), ('గున్', 'U'), ('నా', 'U'), ('నా', 'U'), ('హో', 'U'), ('మ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('బూ', 'U'), ('డి', '|'), ('ద', '|'), ('ల', '|'), ('లో', 'U'), ('న', 'U'), ('న్వే', 'U'), ('ల్చు', '|'), ('నె', 'U'), ('య్యై', 'U'), ('చ', '|'), ('ను', 'U'), ('న్నీ', 'U'), ('నా', 'U'), ('మో', 'U'), ('క్తి', '|'), ('యు', '|'), ('నీ', 'U'), ('ప', '|'), ('దా', 'U'), ('బ్జ', '|'), ('ర', '|'), ('తి', '|'), ('యున్', 'U'), ('లే', 'U'), ('కు', 'U'), ('న్న', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('స్నా', 'U'), ('నం', 'U'), ('బు', 'U'), ('ల్న', '|'), ('దు', '|'), ('లం', 'U'), ('దు', '|'), ('జే', 'U'), ('యు', '|'), ('ట', '|'), ('గ', '|'), ('జ', 'U'), ('స్నా', 'U'), ('నం', 'U'), ('బు', '|'), ('చం', 'U'), ('దం', 'U'), ('బ', '|'), ('గున్', 'U'), ('మౌ', 'U'), ('నం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('జ', '|'), ('పిం', 'U'), ('చు', '|'), ('వే', 'U'), ('ద', '|'), ('మ', '|'), ('ట', '|'), ('వీ', 'U'), ('మ', 'U'), ('ధ్యం', 'U'), ('బు', '|'), ('లో', 'U'), ('నే', 'U'), ('డ్ప', '|'), ('గున్', 'U'), ('నా', 'U'), ('నా', 'U'), ('హో', 'U'), ('మ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('బూ', 'U'), ('డి', '|'), ('ద', '|'), ('ల', '|'), ('లో', 'U'), ('న', 'U'), ('న్వే', 'U'), ('ల్చు', '|'), ('నె', 'U'), ('య్యై', 'U'), ('చ', '|'), ('ను', 'U'), ('న్నీ', 'U'), ('నా', 'U'), ('మో', 'U'), ('క్తి', '|'), ('యు', '|'), ('నీ', 'U'), ('ప', '|'), ('దా', 'U'), ('బ్జ', '|'), ('ర', '|'), ('తి', '|'), ('యు', 'U'), ('న్లే', 'U'), ('కు', 'U'), ('న్న', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('ను', '|'), ('వుం', 'U'), ('జీ', 'U'), ('వు', '|'), ('డు', '|'), ('నే', 'U'), ('క', '|'), ('మై', 'U'), ('న', '|'), ('పి', '|'), ('ద', '|'), ('పన్', 'U'), ('ధ', 'U'), ('ర్మ', '|'), ('క్రి', '|'), ('యా', 'U'), ('రం', 'U'), ('భు', '|'), ('డై', 'U'), ('య', '|'), ('న', '|'), ('యం', 'U'), ('బు', 'U'), ('న్మ', '|'), ('ది', '|'), ('ద', 'U'), ('న్నె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('క', '|'), ('తు', '|'), ('ది', 'U'), ('న్నా', 'U'), ('మా', 'U'), ('య', '|'), ('చే', 'U'), ('మ', 'U'), ('గ్ను', '|'), ('డై', 'U'), ('త', '|'), ('ను', '|'), ('త', 'U'), ('త్త్వా', 'U'), ('ది', '|'), ('వి', '|'), ('యో', 'U'), ('గ', '|'), ('మై', 'U'), ('న', '|'), ('పి', '|'), ('ద', '|'), ('పం', 'U'), ('దా', 'U'), ('నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('నీ', 'U'), ('దు', '|'), ('ద', 'U'), ('ర్శ', '|'), ('న', '|'), ('మిం', 'U'), ('పా', 'U'), ('ర', '|'), ('గ', '|'), ('భ', 'U'), ('క్తి', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('మ', '|'), ('హా', 'U'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('త', '|'), ('ను', '|'), ('వుం', 'U'), ('జీ', 'U'), ('వు', '|'), ('డు', '|'), ('నే', 'U'), ('క', '|'), ('మై', 'U'), ('న', '|'), ('పి', '|'), ('ద', '|'), ('ప', 'U'), ('న్ధ', 'U'), ('ర్మ', '|'), ('క్రి', '|'), ('యా', 'U'), ('రం', 'U'), ('భు', '|'), ('డై', 'U'), ('య', '|'), ('న', '|'), ('యం', 'U'), ('బు', 'U'), ('న్మ', '|'), ('ది', '|'), ('ద', 'U'), ('న్నె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('క', '|'), ('తు', '|'), ('ది', 'U'), ('న్నా', 'U'), ('మా', 'U'), ('య', '|'), ('చే', 'U'), ('మ', 'U'), ('గ్ను', '|'), ('డై', 'U'), ('త', '|'), ('ను', '|'), ('త', 'U'), ('త్త్వా', 'U'), ('ది', '|'), ('వి', '|'), ('యో', 'U'), ('గ', '|'), ('మై', 'U'), ('న', '|'), ('పి', '|'), ('ద', '|'), ('పం', 'U'), ('దా', 'U'), ('నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('నీ', 'U'), ('దు', '|'), ('ద', 'U'), ('ర్శ', '|'), ('న', '|'), ('మిం', 'U'), ('పా', 'U'), ('ర', '|'), ('గ', '|'), ('భ', 'U'), ('క్తి', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('మ', '|'), ('హా', 'U'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('న', '|'), ('కున్', 'U'), ('సా', 'U'), ('త్వి', '|'), ('క', '|'), ('సం', 'U'), ('ప', '|'), ('దా', 'U'), ('న్వి', '|'), ('త', '|'), ('మ', '|'), ('హా', 'U'), ('దా', 'U'), ('సో', 'U'), ('హ', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('నన్', 'U'), ('న', '|'), ('న', '|'), ('యం', 'U'), ('బు', 'U'), ('న్మ', '|'), ('ది', '|'), ('న', 'U'), ('న్య', '|'), ('దై', 'U'), ('వ', '|'), ('భ', '|'), ('జ', '|'), ('నం', 'U'), ('బా', 'U'), ('రం', 'U'), ('గ', '|'), ('దూ', 'U'), ('లిం', 'U'), ('పు', '|'), ('చున్', 'U'), ('జ', '|'), ('ని', '|'), ('తా', 'U'), ('హ్లా', 'U'), ('ద', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('నీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణ', '|'), ('ముల్', 'U'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('పూ', 'U'), ('జిం', 'U'), ('చి', '|'), ('నిన్', 'U'), ('గ', '|'), ('ను', '|'), ('గొ', 'U'), ('న్నం', 'U'), ('త', '|'), ('నె', '|'), ('క', 'U'), ('ల్మ', '|'), ('షం', 'U'), ('బు', '|'), ('ల', '|'), ('డ', '|'), ('గుం', 'U'), ('గ', 'U'), ('ర్మ', 'U'), ('ఘ్న', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('త', '|'), ('న', '|'), ('కు', 'U'), ('న్సా', 'U'), ('త్వి', '|'), ('క', '|'), ('సం', 'U'), ('ప', '|'), ('దా', 'U'), ('న్వి', '|'), ('త', '|'), ('మ', '|'), ('హా', 'U'), ('దా', 'U'), ('సో', 'U'), ('హ', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('నన్', 'U'), ('న', '|'), ('న', '|'), ('యం', 'U'), ('బు', 'U'), ('న్మ', '|'), ('ది', '|'), ('న', 'U'), ('న్య', '|'), ('దై', 'U'), ('వ', '|'), ('భ', '|'), ('జ', '|'), ('నం', 'U'), ('బా', 'U'), ('రం', 'U'), ('గ', '|'), ('దూ', 'U'), ('లిం', 'U'), ('పు', '|'), ('చున్', 'U'), ('జ', '|'), ('ని', '|'), ('తా', 'U'), ('హ్లా', 'U'), ('ద', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('నీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణ', '|'), ('ము', 'U'), ('ల్స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('పూ', 'U'), ('జిం', 'U'), ('చి', '|'), ('నిన్', 'U'), ('గ', '|'), ('ను', '|'), ('గొ', 'U'), ('న్నం', 'U'), ('త', '|'), ('నె', '|'), ('క', 'U'), ('ల్మ', '|'), ('షం', 'U'), ('బు', '|'), ('ల', '|'), ('డ', '|'), ('గుం', 'U'), ('గ', 'U'), ('ర్మ', 'U'), ('ఘ్న', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('రి', '|'), ('కిం', 'U'), ('పన్', 'U'), ('హ', '|'), ('రి', '|'), ('భ', 'U'), ('క్తి', '|'), ('భే', 'U'), ('ష', '|'), ('జు', '|'), ('న', '|'), ('కున్', 'U'), ('భ', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('మీ', 'U'), ('ద', '|'), ('మీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణాం', 'U'), ('భో', 'U'), ('రు', '|'), ('హ', '|'), ('ద', 'U'), ('ర్శ', '|'), ('నం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('దే', 'U'), ('సం', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('నె', 'U'), ('ట్ల', 'U'), ('న్న', '|'), ('దా', 'U'), ('ధ', '|'), ('ర', '|'), ('లో', 'U'), ('జో', 'U'), ('రు', '|'), ('డు', '|'), ('గ', 'U'), ('న్న', '|'), ('దు', 'U'), ('స్త', '|'), ('ర', '|'), ('ప', '|'), ('ర', '|'), ('ద్ర', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('పై', 'U'), ('నా', 'U'), ('శ', '|'), ('లం', 'U'), ('బొ', '|'), ('ర', '|'), ('య', 'U'), ('న్నే', 'U'), ('ర్చు', '|'), ('నె', '|'), ('దు', 'U'), ('ర్ల', '|'), ('భం', 'U'), ('బ', '|'), ('గు', '|'), ('గృ', '|'), ('పాం', 'U'), ('భో', 'U'), ('జా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('ప', '|'), ('రి', '|'), ('కిం', 'U'), ('ప', 'U'), ('న్హ', '|'), ('రి', '|'), ('భ', 'U'), ('క్తి', '|'), ('భే', 'U'), ('ష', '|'), ('జు', '|'), ('న', '|'), ('కు', 'U'), ('న్భ', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('మీ', 'U'), ('ద', '|'), ('మీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణాం', 'U'), ('భో', 'U'), ('రు', '|'), ('హ', '|'), ('ద', 'U'), ('ర్శ', '|'), ('నం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('దే', 'U'), ('సం', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('నె', 'U'), ('ట్ల', 'U'), ('న్న', '|'), ('దా', 'U'), ('ధ', '|'), ('ర', '|'), ('లో', 'U'), ('జో', 'U'), ('రు', '|'), ('డు', '|'), ('గ', 'U'), ('న్న', '|'), ('దు', 'U'), ('స్త', '|'), ('ర', '|'), ('ప', '|'), ('ర', '|'), ('ద్ర', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('పై', 'U'), ('నా', 'U'), ('శ', '|'), ('లం', 'U'), ('బొ', '|'), ('ర', '|'), ('య', 'U'), ('న్నే', 'U'), ('ర్చు', '|'), ('నె', '|'), ('దు', 'U'), ('ర్ల', '|'), ('భం', 'U'), ('బ', '|'), ('గు', '|'), ('గృ', '|'), ('పాం', 'U'), ('భో', 'U'), ('జా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('ర', '|'), ('మ', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('పూ', 'U'), ('రి', '|'), ('త', '|'), ('మ', '|'), ('హా', 'U'), ('భ', 'U'), ('వ్యాం', 'U'), ('త', '|'), ('రా', 'U'), ('ళం', 'U'), ('బు', '|'), ('నన్', 'U'), ('ప', '|'), ('ర', '|'), ('గ', 'U'), ('న్నీ', 'U'), ('ని', '|'), ('జ', '|'), ('నా', 'U'), ('మ', '|'), ('మం', 'U'), ('త్ర', '|'), ('మొ', '|'), ('న', '|'), ('రన్', 'U'), ('భ', 'U'), ('క్తి', 'U'), ('న్న', '|'), ('ను', 'U'), ('ష్ఠిం', 'U'), ('పు', '|'), ('చుం', 'U'), ('దు', '|'), ('రి', '|'), ('తా', 'U'), ('న్వే', 'U'), ('ష', '|'), ('ణ', '|'), ('కా', 'U'), ('ల', '|'), ('భూ', 'U'), ('త', '|'), ('ము', '|'), ('వె', '|'), ('సన్', 'U'), ('దూ', 'U'), ('లం', 'U'), ('గ', '|'), ('వా', 'U'), ('క', 'U'), ('ట్టు', '|'), ('వా', 'U'), ('డ', '|'), ('రు', '|'), ('గున్', 'U'), ('భ', 'U'), ('వ్య', '|'), ('ప', '|'), ('దం', 'U'), ('బు', '|'), ('నొం', 'U'), ('దు', '|'), ('ట', '|'), ('కు', '|'), ('నై', 'U'), ('య', 'U'), ('వ్య', 'U'), ('క్త', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('ప', '|'), ('ర', '|'), ('మ', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('పూ', 'U'), ('రి', '|'), ('త', '|'), ('మ', '|'), ('హా', 'U'), ('భ', 'U'), ('వ్యాం', 'U'), ('త', '|'), ('రా', 'U'), ('ళం', 'U'), ('బు', '|'), ('నన్', 'U'), ('ప', '|'), ('ర', '|'), ('గ', 'U'), ('న్నీ', 'U'), ('ని', '|'), ('జ', '|'), ('నా', 'U'), ('మ', '|'), ('మం', 'U'), ('త్ర', '|'), ('మొ', '|'), ('న', '|'), ('ర', 'U'), ('న్భ', 'U'), ('క్తి', 'U'), ('న్న', '|'), ('ను', 'U'), ('ష్ఠిం', 'U'), ('పు', '|'), ('చుం', 'U'), ('దు', '|'), ('రి', '|'), ('తా', 'U'), ('న్వే', 'U'), ('ష', '|'), ('ణ', '|'), ('కా', 'U'), ('ల', '|'), ('భూ', 'U'), ('త', '|'), ('ము', '|'), ('వె', '|'), ('స', 'U'), ('న్దూ', 'U'), ('లం', 'U'), ('గ', '|'), ('వా', 'U'), ('క', 'U'), ('ట్టు', '|'), ('వా', 'U'), ('డ', '|'), ('రు', '|'), ('గు', 'U'), ('న్భ', 'U'), ('వ్య', '|'), ('ప', '|'), ('దం', 'U'), ('బు', '|'), ('నొం', 'U'), ('దు', '|'), ('ట', '|'), ('కు', '|'), ('నై', 'U'), ('య', 'U'), ('వ్య', 'U'), ('క్త', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('రు', '|'), ('షా', 'U'), ('లా', 'U'), ('ప', '|'), ('ము', '|'), ('లా', 'U'), ('డ', '|'), ('నో', 'U'), ('డి', '|'), ('మ', '|'), ('ది', '|'), ('నీ', 'U'), ('పా', 'U'), ('పా', 'U'), ('ర్జ', '|'), ('నా', 'U'), ('రం', 'U'), ('భు', '|'), ('డై', 'U'), ('ని', '|'), ('ర', '|'), ('సిం', 'U'), ('చే', 'U'), ('రి', '|'), ('కి', '|'), ('గీ', 'U'), ('డు', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('మ', '|'), ('ది', 'U'), ('న్ని', 'U'), ('ర్ము', 'U'), ('క్త', '|'), ('క', 'U'), ('ర్ముం', 'U'), ('డు', '|'), ('నై', 'U'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('నం', 'U'), ('ద', '|'), ('ని', '|'), ('షే', 'U'), ('ధ', '|'), ('ముల్', 'U'), ('స', '|'), ('మ', '|'), ('ము', '|'), ('గా', 'U'), ('భా', 'U'), ('విం', 'U'), ('చి', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('నా', 'U'), ('ప', '|'), ('ర', '|'), ('మ', 'U'), ('జ్ఞా', 'U'), ('ని', '|'), ('భ', '|'), ('వ', 'U'), ('త్కృ', '|'), ('పం', 'U'), ('బొ', '|'), ('ర', '|'), ('యు', '|'), ('నో', 'U'), ('ప', 'U'), ('ద్మా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('ప', '|'), ('రు', '|'), ('షా', 'U'), ('లా', 'U'), ('ప', '|'), ('ము', '|'), ('లా', 'U'), ('డ', '|'), ('నో', 'U'), ('డి', '|'), ('మ', '|'), ('ది', '|'), ('నీ', 'U'), ('పా', 'U'), ('పా', 'U'), ('ర్జ', '|'), ('నా', 'U'), ('రం', 'U'), ('భు', '|'), ('డై', 'U'), ('ని', '|'), ('ర', '|'), ('సిం', 'U'), ('చే', 'U'), ('రి', '|'), ('కి', '|'), ('గీ', 'U'), ('డు', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('మ', '|'), ('ది', 'U'), ('న్ని', 'U'), ('ర్ము', 'U'), ('క్త', '|'), ('క', 'U'), ('ర్ముం', 'U'), ('డు', '|'), ('నై', 'U'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('నం', 'U'), ('ద', '|'), ('ని', '|'), ('షే', 'U'), ('ధ', '|'), ('ము', 'U'), ('ల్స', '|'), ('మ', '|'), ('ము', '|'), ('గా', 'U'), ('భా', 'U'), ('విం', 'U'), ('చి', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('నా', 'U'), ('ప', '|'), ('ర', '|'), ('మ', 'U'), ('జ్ఞా', 'U'), ('ని', '|'), ('భ', '|'), ('వ', 'U'), ('త్కృ', '|'), ('పం', 'U'), ('బొ', '|'), ('ర', '|'), ('యు', '|'), ('నో', 'U'), ('ప', 'U'), ('ద్మా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[('వె', '|'), ('ర', '|'), ('వొ', 'U'), ('ప్ప', 'U'), ('న్బ', '|'), ('హు', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('లొ', '|'), ('గి', 'U'), ('న్వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('వే', 'U'), ('తె', 'U'), ('ల్పి', '|'), ('మీ', 'U'), ('వ', '|'), ('ర', '|'), ('నా', 'U'), ('మా', 'U'), ('మృ', '|'), ('త', '|'), ('పూ', 'U'), ('ర', '|'), ('మా', 'U'), ('ను', '|'), ('చు', '|'), ('ద', '|'), ('గన్', 'U'), ('వై', 'U'), ('రా', 'U'), ('గ్య', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('నన్', 'U'), ('స', '|'), ('రి', '|'), ('న', '|'), ('శ్రాం', 'U'), ('త', '|'), ('ము', '|'), ('గో', 'U'), ('రు', '|'), ('వా', 'U'), ('రు', '|'), ('పి', '|'), ('ద', '|'), ('పన్', 'U'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('మా', 'U'), ('తుః', 'U'), ('ప', '|'), ('యో', 'U'), ('ధ', '|'), ('ర', '|'), ('దు', 'U'), ('గ్ధం', 'U'), ('బు', '|'), ('లు', '|'), ('గ్రో', 'U'), ('ల', '|'), ('నే', 'U'), ('ర', '|'), ('రు', '|'), ('వె', '|'), ('సన్', 'U'), ('దై', 'U'), ('త్యా', 'U'), ('రి', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('వె', '|'), ('ర', '|'), ('వొ', 'U'), ('ప్ప', 'U'), ('న్బ', '|'), ('హు', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('లొ', '|'), ('గి', 'U'), ('న్వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('వే', 'U'), ('తె', 'U'), ('ల్పి', '|'), ('మీ', 'U'), ('వ', '|'), ('ర', '|'), ('నా', 'U'), ('మా', 'U'), ('మృ', '|'), ('త', '|'), ('పూ', 'U'), ('ర', '|'), ('మా', 'U'), ('ను', '|'), ('చు', '|'), ('ద', '|'), ('గ', 'U'), ('న్వై', 'U'), ('రా', 'U'), ('గ్య', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('నన్', 'U'), ('స', '|'), ('రి', '|'), ('న', '|'), ('శ్రాం', 'U'), ('త', '|'), ('ము', '|'), ('గో', 'U'), ('రు', '|'), ('వా', 'U'), ('రు', '|'), ('పి', '|'), ('ద', '|'), ('ప', 'U'), ('న్సం', 'U'), ('సా', 'U'), ('ర', '|'), ('మా', 'U'), ('తుః', 'U'), ('ప', '|'), ('యో', 'U'), ('ధ', '|'), ('ర', '|'), ('దు', 'U'), ('గ్ధం', 'U'), ('బు', '|'), ('లు', '|'), ('గ్రో', 'U'), ('ల', '|'), ('నే', 'U'), ('ర', '|'), ('రు', '|'), ('వె', '|'), ('స', 'U'), ('న్దై', 'U'), ('త్యా', 'U'), ('రి', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[('వే', 'U'), ('దం', 'U'), ('బం', 'U'), ('దు', '|'), ('సు', '|'), ('ని', 'U'), ('శ్చ', '|'), ('యుం', 'U'), ('డ', '|'), ('గు', '|'), ('మ', '|'), ('హా', 'U'), ('వే', 'U'), ('ల్పె', 'U'), ('వ్వ', '|'), ('డో', 'U'), ('యం', 'U'), ('చు', '|'), ('నా', 'U'), ('వే', 'U'), ('ద', 'U'), ('వ్యా', 'U'), ('స', '|'), ('ప', '|'), ('రా', 'U'), ('శ', '|'), ('రుల్', 'U'), ('వె', '|'), ('ద', '|'), ('కి', '|'), ('న', 'U'), ('న్వే', 'U'), ('ఱొం', 'U'), ('డు', '|'), ('లే', 'U'), ('డం', 'U'), ('చు', '|'), ('మీ', 'U'), ('పా', 'U'), ('దాం', 'U'), ('భో', 'U'), ('జ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('భా', 'U'), ('విం', 'U'), ('తు', '|'), ('ర', 'U'), ('త్యు', 'U'), ('న్న', '|'), ('తిన్', 'U'), ('శ్రీ', 'U'), ('దే', 'U'), ('వీ', 'U'), ('వ', '|'), ('ద', '|'), ('నా', 'U'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('మ', '|'), ('ధు', '|'), ('పా', 'U'), ('శ్రీ', 'U'), ('రం', 'U'), ('గ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('వే', 'U'), ('దం', 'U'), ('బం', 'U'), ('దు', '|'), ('సు', '|'), ('ని', 'U'), ('శ్చ', '|'), ('యుం', 'U'), ('డ', '|'), ('గు', '|'), ('మ', '|'), ('హా', 'U'), ('వే', 'U'), ('ల్పె', 'U'), ('వ్వ', '|'), ('డో', 'U'), ('యం', 'U'), ('చు', '|'), ('నా', 'U'), ('వే', 'U'), ('ద', 'U'), ('వ్యా', 'U'), ('స', '|'), ('ప', '|'), ('రా', 'U'), ('శ', '|'), ('రు', 'U'), ('ల్వె', '|'), ('ద', '|'), ('కి', '|'), ('న', 'U'), ('న్వే', 'U'), ('ఱొం', 'U'), ('డు', '|'), ('లే', 'U'), ('డం', 'U'), ('చు', '|'), ('మీ', 'U'), ('పా', 'U'), ('దాం', 'U'), ('భో', 'U'), ('జ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('భా', 'U'), ('విం', 'U'), ('తు', '|'), ('ర', 'U'), ('త్యు', 'U'), ('న్న', '|'), ('తిన్', 'U'), ('శ్రీ', 'U'), ('దే', 'U'), ('వీ', 'U'), ('వ', '|'), ('ద', '|'), ('నా', 'U'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('మ', '|'), ('ధు', '|'), ('పా', 'U'), ('శ్రీ', 'U'), ('రం', 'U'), ('గ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[('సు', '|'), ('త', '|'), ('దా', 'U'), ('రా', 'U'), ('ప్త', '|'), ('జ', '|'), ('నా', 'U'), ('ది', '|'), ('వి', 'U'), ('త్త', '|'), ('ము', '|'), ('ల', '|'), ('పై', 'U'), ('శూ', 'U'), ('న్యా', 'U'), ('భి', '|'), ('లా', 'U'), ('షుం', 'U'), ('డు', '|'), ('నై', 'U'), ('య', '|'), ('త', '|'), ('నో', 'U'), ('ద్రే', 'U'), ('క', '|'), ('యు', '|'), ('తం', 'U'), ('బు', '|'), ('లై', 'U'), ('పొ', '|'), ('ద', '|'), ('లు', '|'), ('న', 'U'), ('య్యై', 'U'), ('యిం', 'U'), ('ద్రి', '|'), ('య', '|'), ('వ్రా', 'U'), ('త', '|'), ('ముల్', 'U'), ('మృ', '|'), ('తి', '|'), ('బొం', 'U'), ('దిం', 'U'), ('చి', '|'), ('ద', '|'), ('మం', 'U'), ('బు', '|'), ('నన్', 'U'), ('శ', '|'), ('మ', '|'), ('ము', '|'), ('నన్', 'U'), ('మీ', 'U'), ('ఱం', 'U'), ('గ', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('ని', 'U'), ('ర్గ', '|'), ('త', '|'), ('సం', 'U'), ('సా', 'U'), ('రి', '|'), ('భ', '|'), ('వ', 'U'), ('త్కృ', '|'), ('పం', 'U'), ('బొ', '|'), ('ర', '|'), ('యు', '|'), ('నో', 'U'), ('కం', 'U'), ('జా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('సు', '|'), ('త', '|'), ('దా', 'U'), ('రా', 'U'), ('ప్త', '|'), ('జ', '|'), ('నా', 'U'), ('ది', '|'), ('వి', 'U'), ('త్త', '|'), ('ము', '|'), ('ల', '|'), ('పై', 'U'), ('శూ', 'U'), ('న్యా', 'U'), ('భి', '|'), ('లా', 'U'), ('షుం', 'U'), ('డు', '|'), ('నై', 'U'), ('య', '|'), ('త', '|'), ('నో', 'U'), ('ద్రే', 'U'), ('క', '|'), ('యు', '|'), ('తం', 'U'), ('బు', '|'), ('లై', 'U'), ('పొ', '|'), ('ద', '|'), ('లు', '|'), ('న', 'U'), ('య్యై', 'U'), ('యిం', 'U'), ('ద్రి', '|'), ('య', '|'), ('వ్రా', 'U'), ('త', '|'), ('ముల్', 'U'), ('మృ', '|'), ('తి', '|'), ('బొం', 'U'), ('దిం', 'U'), ('చి', '|'), ('ద', '|'), ('మం', 'U'), ('బు', '|'), ('న', 'U'), ('న్శ', '|'), ('మ', '|'), ('ము', '|'), ('న', 'U'), ('న్మీ', 'U'), ('ఱం', 'U'), ('గ', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('ని', 'U'), ('ర్గ', '|'), ('త', '|'), ('సం', 'U'), ('సా', 'U'), ('రి', '|'), ('భ', '|'), ('వ', 'U'), ('త్కృ', '|'), ('పం', 'U'), ('బొ', '|'), ('ర', '|'), ('యు', '|'), ('నో', 'U'), ('కం', 'U'), ('జా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[('ప్ర', '|'), ('మ', '|'), ('దం', 'U'), ('బా', 'U'), ('ర', '|'), ('గ', '|'), ('పు', 'U'), ('ణ్య', '|'), ('కా', 'U'), ('ల', '|'), ('గ', '|'), ('తు', '|'), ('లన్', 'U'), ('భ', 'U'), ('క్తి', 'U'), ('న్న', '|'), ('ను', 'U'), ('ష్ఠిం', 'U'), ('పు', '|'), ('చున్', 'U'), ('న', '|'), ('మ', '|'), ('ర', 'U'), ('న్న', 'U'), ('న్న', '|'), ('సు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('గో', 'U'), ('స', '|'), ('లి', '|'), ('ల', '|'), ('క', 'U'), ('న్యా', 'U'), ('ధా', 'U'), ('రు', '|'), ('ణి', '|'), ('గ్రా', 'U'), ('మ', '|'), ('దా', 'U'), ('న', '|'), ('ము', '|'), ('లా', 'U'), ('మ్నా', 'U'), ('య', '|'), ('వి', '|'), ('ధో', 'U'), ('క్తి', '|'), ('భూ', 'U'), ('సు', '|'), ('రు', '|'), ('ల', '|'), ('కున్', 'U'), ('స', 'U'), ('న్మా', 'U'), ('ర్గు', '|'), ('డై', 'U'), ('యి', 'U'), ('చ్చు', '|'), ('వా', 'U'), ('డ', '|'), ('మ', '|'), ('రేం', 'U'), ('ద్రా', 'U'), ('ర్చి', '|'), ('త', '|'), ('వై', 'U'), ('భ', '|'), ('వో', 'U'), ('న్న', '|'), ('తు', '|'), ('డ', '|'), ('గు', 'U'), ('న్నా', 'U'), ('మీ', 'U'), ('ద', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('ప్ర', '|'), ('మ', '|'), ('దం', 'U'), ('బా', 'U'), ('ర', '|'), ('గ', '|'), ('పు', 'U'), ('ణ్య', '|'), ('కా', 'U'), ('ల', '|'), ('గ', '|'), ('తు', '|'), ('ల', 'U'), ('న్భ', 'U'), ('క్తి', 'U'), ('న్న', '|'), ('ను', 'U'), ('ష్ఠిం', 'U'), ('పు', '|'), ('చున్', 'U'), ('న', '|'), ('మ', '|'), ('ర', 'U'), ('న్న', 'U'), ('న్న', '|'), ('సు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('గో', 'U'), ('స', '|'), ('లి', '|'), ('ల', '|'), ('క', 'U'), ('న్యా', 'U'), ('ధా', 'U'), ('రు', '|'), ('ణి', '|'), ('గ్రా', 'U'), ('మ', '|'), ('దా', 'U'), ('న', '|'), ('ము', '|'), ('లా', 'U'), ('మ్నా', 'U'), ('య', '|'), ('వి', '|'), ('ధో', 'U'), ('క్తి', '|'), ('భూ', 'U'), ('సు', '|'), ('రు', '|'), ('ల', '|'), ('కు', 'U'), ('న్స', 'U'), ('న్మా', 'U'), ('ర్గు', '|'), ('డై', 'U'), ('యి', 'U'), ('చ్చు', '|'), ('వా', 'U'), ('డ', '|'), ('మ', '|'), ('రేం', 'U'), ('ద్రా', 'U'), ('ర్చి', '|'), ('త', '|'), ('వై', 'U'), ('భ', '|'), ('వో', 'U'), ('న్న', '|'), ('తు', '|'), ('డ', '|'), ('గు', 'U'), ('న్నా', 'U'), ('మీ', 'U'), ('ద', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[('ఇ', '|'), ('ల', '|'), ('నె', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('లో', 'U'), ('నె', '|'), ('ఱు', '|'), ('క', '|'), ('దా', 'U'), ('నెం', 'U'), ('తెం', 'U'), ('త', '|'), ('గ', 'U'), ('ల్గుం', 'U'), ('డు', '|'), ('నా', 'U'), ('కొ', '|'), ('ల', '|'), ('దిం', 'U'), ('జెం', 'U'), ('ది', '|'), ('వె', '|'), ('లుం', 'U'), ('గు', '|'), ('చుం', 'U'), ('దు', '|'), ('క', '|'), ('ల', '|'), ('య', 'U'), ('న్గో', 'U'), ('విం', 'U'), ('ద', '|'), ('నీ', 'U'), ('రూ', 'U'), ('పు', '|'), ('లన్', 'U'), ('అ', '|'), ('ల', '|'), ('ర', 'U'), ('న్నం', 'U'), ('బు', '|'), ('మి', '|'), ('తం', 'U'), ('బు', '|'), ('లై', 'U'), ('స', '|'), ('ర', '|'), ('సి', '|'), ('లో', 'U'), ('నం', 'U'), ('భో', 'U'), ('రు', '|'), ('హం', 'U'), ('బుల్', 'U'), ('ద', '|'), ('గన్', 'U'), ('ని', '|'), ('ల', '|'), ('నొ', 'U'), ('ప్పా', 'U'), ('రె', '|'), ('డు', '|'), ('చం', 'U'), ('ద', '|'), ('మొం', 'U'), ('దె', '|'), ('దె', '|'), ('పు', '|'), ('డు', 'U'), ('న్నీ', 'U'), ('లాం', 'U'), ('గ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('ఇ', '|'), ('ల', '|'), ('నె', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('లో', 'U'), ('నె', '|'), ('ఱు', '|'), ('క', '|'), ('దా', 'U'), ('నెం', 'U'), ('తెం', 'U'), ('త', '|'), ('గ', 'U'), ('ల్గుం', 'U'), ('డు', '|'), ('నా', 'U'), ('కొ', '|'), ('ల', '|'), ('దిం', 'U'), ('జెం', 'U'), ('ది', '|'), ('వె', '|'), ('లుం', 'U'), ('గు', '|'), ('చుం', 'U'), ('దు', '|'), ('క', '|'), ('ల', '|'), ('య', 'U'), ('న్గో', 'U'), ('విం', 'U'), ('ద', '|'), ('నీ', 'U'), ('రూ', 'U'), ('పు', '|'), ('లన్', 'U'), ('అ', '|'), ('ల', '|'), ('ర', 'U'), ('న్నం', 'U'), ('బు', '|'), ('మి', '|'), ('తం', 'U'), ('బు', '|'), ('లై', 'U'), ('స', '|'), ('ర', '|'), ('సి', '|'), ('లో', 'U'), ('నం', 'U'), ('భో', 'U'), ('రు', '|'), ('హం', 'U'), ('బు', 'U'), ('ల్ద', '|'), ('గన్', 'U'), ('ని', '|'), ('ల', '|'), ('నొ', 'U'), ('ప్పా', 'U'), ('రె', '|'), ('డు', '|'), ('చం', 'U'), ('ద', '|'), ('మొం', 'U'), ('దె', '|'), ('దె', '|'), ('పు', '|'), ('డు', 'U'), ('న్నీ', 'U'), ('లాం', 'U'), ('గ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[('మ', '|'), ('ది', '|'), ('లో', 'U'), ('ను', 'U'), ('త్త', '|'), ('మ', '|'), ('భ', 'U'), ('క్తి', '|'), ('పీ', 'U'), ('ఠ', '|'), ('ము', '|'), ('ప', '|'), ('యిన్', 'U'), ('మా', 'U'), ('నా', 'U'), ('థ', '|'), ('మీ', 'U'), ('పా', 'U'), ('ద', '|'), ('ముల్', 'U'), ('గ', '|'), ('ది', '|'), ('యం', 'U'), ('జే', 'U'), ('ర్చి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('కే', 'U'), ('నొ', '|'), ('డ', '|'), ('య', '|'), ('డన్', 'U'), ('గా', 'U'), ('దం', 'U'), ('చు', '|'), ('న', 'U'), ('త్యు', 'U'), ('న్న', '|'), ('తిన్', 'U'), ('ప', '|'), ('ది', '|'), ('లుం', 'U'), ('డై', 'U'), ('స', '|'), ('మ', '|'), ('వ', 'U'), ('ర్తి', '|'), ('మృ', 'U'), ('త్యు', '|'), ('వు', '|'), ('న', '|'), ('కున్', 'U'), ('బా', 'U'), ('ఠం', 'U'), ('బు', '|'), ('గా', 'U'), ('బ', 'U'), ('ల్కు', '|'), ('మీ', 'U'), ('ప', '|'), ('ద', '|'), ('ప', 'U'), ('ద్మా', 'U'), ('ర్చ', '|'), ('కు', '|'), ('లెం', 'U'), ('త', '|'), ('పు', 'U'), ('ణ్యు', '|'), ('లొ', '|'), ('కృ', '|'), ('పా', 'U'), ('పా', 'U'), ('రీ', 'U'), ('ణ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('మ', '|'), ('ది', '|'), ('లో', 'U'), ('ను', 'U'), ('త్త', '|'), ('మ', '|'), ('భ', 'U'), ('క్తి', '|'), ('పీ', 'U'), ('ఠ', '|'), ('ము', '|'), ('ప', '|'), ('యి', 'U'), ('న్మా', 'U'), ('నా', 'U'), ('థ', '|'), ('మీ', 'U'), ('పా', 'U'), ('ద', '|'), ('ముల్', 'U'), ('గ', '|'), ('ది', '|'), ('యం', 'U'), ('జే', 'U'), ('ర్చి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('కే', 'U'), ('నొ', '|'), ('డ', '|'), ('య', '|'), ('డ', 'U'), ('న్గా', 'U'), ('దం', 'U'), ('చు', '|'), ('న', 'U'), ('త్యు', 'U'), ('న్న', '|'), ('తిన్', 'U'), ('ప', '|'), ('ది', '|'), ('లుం', 'U'), ('డై', 'U'), ('స', '|'), ('మ', '|'), ('వ', 'U'), ('ర్తి', '|'), ('మృ', 'U'), ('త్యు', '|'), ('వు', '|'), ('న', '|'), ('కు', 'U'), ('న్బా', 'U'), ('ఠం', 'U'), ('బు', '|'), ('గా', 'U'), ('బ', 'U'), ('ల్కు', '|'), ('మీ', 'U'), ('ప', '|'), ('ద', '|'), ('ప', 'U'), ('ద్మా', 'U'), ('ర్చ', '|'), ('కు', '|'), ('లెం', 'U'), ('త', '|'), ('పు', 'U'), ('ణ్యు', '|'), ('లొ', '|'), ('కృ', '|'), ('పా', 'U'), ('పా', 'U'), ('రీ', 'U'), ('ణ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[('కు', '|'), ('ల', '|'), ('మె', 'U'), ('న్నం', 'U'), ('గొ', '|'), ('ల', '|'), ('దే', 'U'), ('ల', '|'), ('యే', 'U'), ('కు', '|'), ('ల', '|'), ('జు', '|'), ('డుం', 'U'), ('గో', 'U'), ('త్రా', 'U'), ('భి', '|'), ('మా', 'U'), ('నా', 'U'), ('భి', '|'), ('లా', 'U'), ('ష', '|'), ('లు', '|'), ('న', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('బా', 'U'), ('సి', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('మ', '|'), ('దిన్', 'U'), ('సం', 'U'), ('ధిం', 'U'), ('చి', '|'), ('శు', 'U'), ('ద్ధా', 'U'), ('త్ము', '|'), ('డై', 'U'), ('య', '|'), ('ల', '|'), ('రా', 'U'), ('రం', 'U'), ('బ', '|'), ('రు', '|'), ('సం', 'U'), ('బు', '|'), ('సో', 'U'), ('కు', '|'), ('ని', '|'), ('ను', '|'), ('మున్', 'U'), ('హే', 'U'), ('మా', 'U'), ('కృ', '|'), ('తి', 'U'), ('స్తో', 'U'), ('మ', '|'), ('మై', 'U'), ('వె', '|'), ('ల', '|'), ('యు', 'U'), ('న్నా', 'U'), ('గ', '|'), ('తి', '|'), ('వా', 'U'), ('డు', '|'), ('ము', 'U'), ('క్తి', '|'), ('క', '|'), ('రు', '|'), ('గున్', 'U'), ('వే', 'U'), ('దా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('కు', '|'), ('ల', '|'), ('మె', 'U'), ('న్నం', 'U'), ('గొ', '|'), ('ల', '|'), ('దే', 'U'), ('ల', '|'), ('యే', 'U'), ('కు', '|'), ('ల', '|'), ('జు', '|'), ('డుం', 'U'), ('గో', 'U'), ('త్రా', 'U'), ('భి', '|'), ('మా', 'U'), ('నా', 'U'), ('భి', '|'), ('లా', 'U'), ('ష', '|'), ('లు', '|'), ('న', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('బా', 'U'), ('సి', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('మ', '|'), ('ది', 'U'), ('న్సం', 'U'), ('ధిం', 'U'), ('చి', '|'), ('శు', 'U'), ('ద్ధా', 'U'), ('త్ము', '|'), ('డై', 'U'), ('య', '|'), ('ల', '|'), ('రా', 'U'), ('రం', 'U'), ('బ', '|'), ('రు', '|'), ('సం', 'U'), ('బు', '|'), ('సో', 'U'), ('కు', '|'), ('ని', '|'), ('ను', '|'), ('ము', 'U'), ('న్హే', 'U'), ('మా', 'U'), ('కృ', '|'), ('తి', 'U'), ('స్తో', 'U'), ('మ', '|'), ('మై', 'U'), ('వె', '|'), ('ల', '|'), ('యు', 'U'), ('న్నా', 'U'), ('గ', '|'), ('తి', '|'), ('వా', 'U'), ('డు', '|'), ('ము', 'U'), ('క్తి', '|'), ('క', '|'), ('రు', '|'), ('గు', 'U'), ('న్వే', 'U'), ('దా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[('వె', '|'), ('ల', '|'), ('యన్', 'U'), ('యౌ', 'U'), ('వ', '|'), ('న', '|'), ('కా', 'U'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('మ', '|'), ('రు', '|'), ('డున్', 'U'), ('వృ', 'U'), ('ద్ధా', 'U'), ('ప్య', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('నన్', 'U'), ('బ', '|'), ('లు', '|'), ('రో', 'U'), ('గం', 'U'), ('బు', '|'), ('లు', '|'), ('నం', 'U'), ('త్య', '|'), ('మం', 'U'), ('దు', '|'), ('య', '|'), ('ము', '|'), ('డుం', 'U'), ('బా', 'U'), ('ధిం', 'U'), ('ప', '|'), ('న', 'U'), ('ట్టై', 'U'), ('న', '|'), ('యీ', 'U'), ('ప', '|'), ('లు', '|'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('లు', '|'), ('చా', 'U'), ('ల', '|'), ('దూ', 'U'), ('లి', '|'), ('తి', '|'), ('న', '|'), ('నుం', 'U'), ('బా', 'U'), ('లిం', 'U'), ('ప', '|'), ('వే', 'U'), ('దే', 'U'), ('వ', '|'), ('మీ', 'U'), ('ఫ', '|'), ('లి', '|'), ('తా', 'U'), ('నం', 'U'), ('ద', '|'), ('ద', '|'), ('యా', 'U'), ('వ', '|'), ('లో', 'U'), ('క', '|'), ('న', '|'), ('ము', '|'), ('నా', 'U'), ('పై', 'U'), ('జూ', 'U'), ('పు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('వె', '|'), ('ల', '|'), ('య', 'U'), ('న్యౌ', 'U'), ('వ', '|'), ('న', '|'), ('కా', 'U'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('మ', '|'), ('రు', '|'), ('డు', 'U'), ('న్వృ', 'U'), ('ద్ధా', 'U'), ('ప్య', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('నన్', 'U'), ('బ', '|'), ('లు', '|'), ('రో', 'U'), ('గం', 'U'), ('బు', '|'), ('లు', '|'), ('నం', 'U'), ('త్య', '|'), ('మం', 'U'), ('దు', '|'), ('య', '|'), ('ము', '|'), ('డుం', 'U'), ('బా', 'U'), ('ధిం', 'U'), ('ప', '|'), ('న', 'U'), ('ట్టై', 'U'), ('న', '|'), ('యీ', 'U'), ('ప', '|'), ('లు', '|'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('లు', '|'), ('చా', 'U'), ('ల', '|'), ('దూ', 'U'), ('లి', '|'), ('తి', '|'), ('న', '|'), ('నుం', 'U'), ('బా', 'U'), ('లిం', 'U'), ('ప', '|'), ('వే', 'U'), ('దే', 'U'), ('వ', '|'), ('మీ', 'U'), ('ఫ', '|'), ('లి', '|'), ('తా', 'U'), ('నం', 'U'), ('ద', '|'), ('ద', '|'), ('యా', 'U'), ('వ', '|'), ('లో', 'U'), ('క', '|'), ('న', '|'), ('ము', '|'), ('నా', 'U'), ('పై', 'U'), ('జూ', 'U'), ('పు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[('బ', '|'), ('లు', '|'), ('క', 'U'), ('ర్మా', 'U'), ('య', '|'), ('త', '|'), ('పా', 'U'), ('శ', '|'), ('బం', 'U'), ('ధ', '|'), ('వి', '|'), ('త', '|'), ('తిన్', 'U'), ('బా', 'U'), ('హా', 'U'), ('ప', '|'), ('రి', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('కిన్', 'U'), ('జ', '|'), ('ల', '|'), ('యం', 'U'), ('త్రా', 'U'), ('న్వి', '|'), ('త', '|'), ('బం', 'U'), ('ధ', '|'), ('యా', 'U'), ('త', '|'), ('న', '|'), ('గ', '|'), ('తిన్', 'U'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('కూ', 'U'), ('పం', 'U'), ('బు', '|'), ('లో', 'U'), ('న', '|'), ('ల', '|'), ('రం', 'U'), ('ద్రి', 'U'), ('మ్మ', '|'), ('రు', '|'), ('చుం', 'U'), ('డు', '|'), ('న', 'U'), ('న్ను', '|'), ('న', '|'), ('క', '|'), ('టా', 'U'), ('యా', 'U'), ('ర్తుం', 'U'), ('డ', '|'), ('నై', 'U'), ('వే', 'U'), ('డె', '|'), ('దన్', 'U'), ('వె', '|'), ('ల', '|'), ('య', 'U'), ('న్నీ', 'U'), ('కృ', '|'), ('ప', '|'), ('చే', 'U'), ('త', '|'), ('జే', 'U'), ('కొ', '|'), ('న', '|'), ('వె', '|'), ('నన్', 'U'), ('వే', 'U'), ('వే', 'U'), ('గ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('బ', '|'), ('లు', '|'), ('క', 'U'), ('ర్మా', 'U'), ('య', '|'), ('త', '|'), ('పా', 'U'), ('శ', '|'), ('బం', 'U'), ('ధ', '|'), ('వి', '|'), ('త', '|'), ('తి', 'U'), ('న్బా', 'U'), ('హా', 'U'), ('ప', '|'), ('రి', '|'), ('శ్రే', 'U'), ('ణి', '|'), ('కిన్', 'U'), ('జ', '|'), ('ల', '|'), ('యం', 'U'), ('త్రా', 'U'), ('న్వి', '|'), ('త', '|'), ('బం', 'U'), ('ధ', '|'), ('యా', 'U'), ('త', '|'), ('న', '|'), ('గ', '|'), ('తి', 'U'), ('న్సం', 'U'), ('సా', 'U'), ('ర', '|'), ('కూ', 'U'), ('పం', 'U'), ('బు', '|'), ('లో', 'U'), ('న', '|'), ('ల', '|'), ('రం', 'U'), ('ద్రి', 'U'), ('మ్మ', '|'), ('రు', '|'), ('చుం', 'U'), ('డు', '|'), ('న', 'U'), ('న్ను', '|'), ('న', '|'), ('క', '|'), ('టా', 'U'), ('యా', 'U'), ('ర్తుం', 'U'), ('డ', '|'), ('నై', 'U'), ('వే', 'U'), ('డె', '|'), ('దన్', 'U'), ('వె', '|'), ('ల', '|'), ('య', 'U'), ('న్నీ', 'U'), ('కృ', '|'), ('ప', '|'), ('చే', 'U'), ('త', '|'), ('జే', 'U'), ('కొ', '|'), ('న', '|'), ('వె', '|'), ('న', 'U'), ('న్వే', 'U'), ('వే', 'U'), ('గ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[('మ', '|'), ('మ', '|'), ('హం', 'U'), ('కా', 'U'), ('ర', '|'), ('వి', '|'), ('కా', 'U'), ('ర', '|'), ('స', 'U'), ('న్ని', '|'), ('భ', '|'), ('మ', '|'), ('హా', 'U'), ('మ', 'U'), ('త్తా', 'U'), ('ది', '|'), ('లో', 'U'), ('భాం', 'U'), ('ధ', '|'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('చే', 'U'), ('ము', 'U'), ('క్తి', '|'), ('కి', '|'), ('నే', 'U'), ('గు', '|'), ('మా', 'U'), ('ర్గ', '|'), ('మె', '|'), ('ఱు', '|'), ('గన్', 'U'), ('రా', 'U'), ('దిం', 'U'), ('క', '|'), ('నా', 'U'), ('లో', 'U'), ('న', '|'), ('నీ', 'U'), ('వి', '|'), ('మ', '|'), ('లా', 'U'), ('పాం', 'U'), ('గ', '|'), ('ద', '|'), ('యా', 'U'), ('ది', '|'), ('వా', 'U'), ('క', '|'), ('ర', '|'), ('రు', '|'), ('చిన్', 'U'), ('వె', 'U'), ('ల్గిం', 'U'), ('పు', '|'), ('మిం', 'U'), ('పా', 'U'), ('ర', '|'), ('నో', 'U'), ('క', '|'), ('మ', '|'), ('లా', 'U'), ('నం', 'U'), ('ద', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('వ', 'U'), ('క్ష', '|'), ('ల', '|'), ('లి', '|'), ('తా', 'U'), ('కం', 'U'), ('జా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('మ', '|'), ('మ', '|'), ('హం', 'U'), ('కా', 'U'), ('ర', '|'), ('వి', '|'), ('కా', 'U'), ('ర', '|'), ('స', 'U'), ('న్ని', '|'), ('భ', '|'), ('మ', '|'), ('హా', 'U'), ('మ', 'U'), ('త్తా', 'U'), ('ది', '|'), ('లో', 'U'), ('భాం', 'U'), ('ధ', '|'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('చే', 'U'), ('ము', 'U'), ('క్తి', '|'), ('కి', '|'), ('నే', 'U'), ('గు', '|'), ('మా', 'U'), ('ర్గ', '|'), ('మె', '|'), ('ఱు', '|'), ('గ', '|'), ('న్రా', 'U'), ('దిం', 'U'), ('క', '|'), ('నా', 'U'), ('లో', 'U'), ('న', '|'), ('నీ', 'U'), ('వి', '|'), ('మ', '|'), ('లా', 'U'), ('పాం', 'U'), ('గ', '|'), ('ద', '|'), ('యా', 'U'), ('ది', '|'), ('వా', 'U'), ('క', '|'), ('ర', '|'), ('రు', '|'), ('చి', 'U'), ('న్వె', 'U'), ('ల్గిం', 'U'), ('పు', '|'), ('మిం', 'U'), ('పా', 'U'), ('ర', '|'), ('నో', 'U'), ('క', '|'), ('మ', '|'), ('లా', 'U'), ('నం', 'U'), ('ద', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('వ', 'U'), ('క్ష', '|'), ('ల', '|'), ('లి', '|'), ('తా', 'U'), ('కం', 'U'), ('జా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[('స', '|'), ('త', '|'), ('తా', 'U'), ('చా', 'U'), ('ర', '|'), ('ము', '|'), ('సూ', 'U'), ('నృ', '|'), ('తం', 'U'), ('బు', '|'), ('కృ', '|'), ('ప', '|'), ('యున్', 'U'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('నున్', 'U'), ('శీ', 'U'), ('ల', '|'), ('మున్', 'U'), ('న', '|'), ('తి', '|'), ('శాం', 'U'), ('త', 'U'), ('త్వ', '|'), ('ము', '|'), ('చి', 'U'), ('త్త', '|'), ('శు', 'U'), ('ద్ధి', '|'), ('క', '|'), ('ర', '|'), ('ము', 'U'), ('న్న', 'U'), ('ధ్యా', 'U'), ('త్మ', '|'), ('యున్', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('మున్', 'U'), ('ధృ', '|'), ('తి', '|'), ('యున్', 'U'), ('ధ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('స', 'U'), ('ర్వ', '|'), ('జీ', 'U'), ('వ', '|'), ('హి', '|'), ('త', '|'), ('ముం', 'U'), ('దూ', 'U'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('కుం', 'U'), ('డ', '|'), ('స', 'U'), ('మ్మ', '|'), ('తి', '|'), ('కిం', 'U'), ('జే', 'U'), ('రు', '|'), ('వ', '|'), ('మీ', 'U'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('సు', '|'), ('ఖ', '|'), ('మున్', 'U'), ('మా', 'U'), ('నా', 'U'), ('థ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('స', '|'), ('త', '|'), ('తా', 'U'), ('చా', 'U'), ('ర', '|'), ('ము', '|'), ('సూ', 'U'), ('నృ', '|'), ('తం', 'U'), ('బు', '|'), ('కృ', '|'), ('ప', '|'), ('యు', 'U'), ('న్స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('ను', 'U'), ('న్శీ', 'U'), ('ల', '|'), ('మున్', 'U'), ('న', '|'), ('తి', '|'), ('శాం', 'U'), ('త', 'U'), ('త్వ', '|'), ('ము', '|'), ('చి', 'U'), ('త్త', '|'), ('శు', 'U'), ('ద్ధి', '|'), ('క', '|'), ('ర', '|'), ('ము', 'U'), ('న్న', 'U'), ('ధ్యా', 'U'), ('త్మ', '|'), ('యు', 'U'), ('న్ధ్యా', 'U'), ('న', '|'), ('మున్', 'U'), ('ధృ', '|'), ('తి', '|'), ('యు', 'U'), ('న్ధ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('స', 'U'), ('ర్వ', '|'), ('జీ', 'U'), ('వ', '|'), ('హి', '|'), ('త', '|'), ('ముం', 'U'), ('దూ', 'U'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('కుం', 'U'), ('డ', '|'), ('స', 'U'), ('మ్మ', '|'), ('తి', '|'), ('కిం', 'U'), ('జే', 'U'), ('రు', '|'), ('వ', '|'), ('మీ', 'U'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('సు', '|'), ('ఖ', '|'), ('ము', 'U'), ('న్మా', 'U'), ('నా', 'U'), ('థ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[('భ', '|'), ('వ', '|'), ('నా', 'U'), ('శిన్', 'U'), ('గ', '|'), ('య', '|'), ('తుం', 'U'), ('గ', '|'), ('భ', '|'), ('ద్ర', '|'), ('య', '|'), ('ము', '|'), ('నన్', 'U'), ('భా', 'U'), ('గీ', 'U'), ('ర', '|'), ('థిం', 'U'), ('గృ', 'U'), ('ష్ణ', '|'), ('వే', 'U'), ('త్ర', '|'), ('వ', '|'), ('తి', 'U'), ('న్న', 'U'), ('ర్మ', '|'), ('ద', '|'), ('పె', 'U'), ('న్న', '|'), ('గౌ', 'U'), ('త', '|'), ('మి', '|'), ('ప', '|'), ('యో', 'U'), ('రా', 'U'), ('శి', 'U'), ('న్వి', '|'), ('య', 'U'), ('ద్గం', 'U'), ('గ', '|'), ('యం', 'U'), ('ద', '|'), ('వ', '|'), ('గా', 'U'), ('హం', 'U'), ('బు', '|'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('పు', 'U'), ('ణ్య', '|'), ('ము', '|'), ('లు', '|'), ('బెం', 'U'), ('పా', 'U'), ('రం', 'U'), ('గ', '|'), ('నే', 'U'), ('డి', 'U'), ('చ్చ', '|'), ('టన్', 'U'), ('భ', '|'), ('వ', '|'), ('దం', 'U'), ('ఘ్రి', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('నం', 'U'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('పో', 'U'), ('ప', 'U'), ('ద్మా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('భ', '|'), ('వ', '|'), ('నా', 'U'), ('శి', 'U'), ('న్గ', '|'), ('య', '|'), ('తుం', 'U'), ('గ', '|'), ('భ', '|'), ('ద్ర', '|'), ('య', '|'), ('ము', '|'), ('న', 'U'), ('న్భా', 'U'), ('గీ', 'U'), ('ర', '|'), ('థిం', 'U'), ('గృ', 'U'), ('ష్ణ', '|'), ('వే', 'U'), ('త్ర', '|'), ('వ', '|'), ('తి', 'U'), ('న్న', 'U'), ('ర్మ', '|'), ('ద', '|'), ('పె', 'U'), ('న్న', '|'), ('గౌ', 'U'), ('త', '|'), ('మి', '|'), ('ప', '|'), ('యో', 'U'), ('రా', 'U'), ('శి', 'U'), ('న్వి', '|'), ('య', 'U'), ('ద్గం', 'U'), ('గ', '|'), ('యం', 'U'), ('ద', '|'), ('వ', '|'), ('గా', 'U'), ('హం', 'U'), ('బు', '|'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('పు', 'U'), ('ణ్య', '|'), ('ము', '|'), ('లు', '|'), ('బెం', 'U'), ('పా', 'U'), ('రం', 'U'), ('గ', '|'), ('నే', 'U'), ('డి', 'U'), ('చ్చ', '|'), ('టన్', 'U'), ('భ', '|'), ('వ', '|'), ('దం', 'U'), ('ఘ్రి', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('నం', 'U'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('పో', 'U'), ('ప', 'U'), ('ద్మా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[('ధ', '|'), ('ర', '|'), ('గ్రా', 'U'), ('మా', 'U'), ('ధి', '|'), ('పు', '|'), ('నిం', 'U'), ('టి', '|'), ('దా', 'U'), ('సు', '|'), ('డు', '|'), ('వె', '|'), ('సం', 'U'), ('దా', 'U'), ('ద్రో', 'U'), ('హ', '|'), ('ముం', 'U'), ('జే', 'U'), ('సి', '|'), ('నన్', 'U'), ('ప', '|'), ('ర', '|'), ('గం', 'U'), ('జె', 'U'), ('ల్లు', '|'), ('ట', '|'), ('సూ', 'U'), ('చి', '|'), ('తీ', 'U'), ('భు', '|'), ('వ', '|'), ('న', '|'), ('సం', 'U'), ('పా', 'U'), ('ద్యుం', 'U'), ('డ', '|'), ('వై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('మీ', 'U'), ('వ', '|'), ('ర', '|'), ('దా', 'U'), ('సా', 'U'), ('వ', '|'), ('లి', '|'), ('దా', 'U'), ('స', '|'), ('దా', 'U'), ('సి', '|'), ('న', '|'), ('ని', '|'), ('దు', 'U'), ('ర్వా', 'U'), ('రౌ', 'U'), ('ఘ', '|'), ('ముల్', 'U'), ('జే', 'U'), ('సి', '|'), ('తిన్', 'U'), ('క', '|'), ('రు', '|'), ('ణం', 'U'), ('జే', 'U'), ('కొ', '|'), ('ని', '|'), ('కా', 'U'), ('వు', '|'), ('మ', 'U'), ('య్య', '|'), ('త్రి', '|'), ('జ', '|'), ('గ', 'U'), ('త్క', 'U'), ('ల్యా', 'U'), ('ణ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('ధ', '|'), ('ర', '|'), ('గ్రా', 'U'), ('మా', 'U'), ('ధి', '|'), ('పు', '|'), ('నిం', 'U'), ('టి', '|'), ('దా', 'U'), ('సు', '|'), ('డు', '|'), ('వె', '|'), ('సం', 'U'), ('దా', 'U'), ('ద్రో', 'U'), ('హ', '|'), ('ముం', 'U'), ('జే', 'U'), ('సి', '|'), ('నన్', 'U'), ('ప', '|'), ('ర', '|'), ('గం', 'U'), ('జె', 'U'), ('ల్లు', '|'), ('ట', '|'), ('సూ', 'U'), ('చి', '|'), ('తీ', 'U'), ('భు', '|'), ('వ', '|'), ('న', '|'), ('సం', 'U'), ('పా', 'U'), ('ద్యుం', 'U'), ('డ', '|'), ('వై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('మీ', 'U'), ('వ', '|'), ('ర', '|'), ('దా', 'U'), ('సా', 'U'), ('వ', '|'), ('లి', '|'), ('దా', 'U'), ('స', '|'), ('దా', 'U'), ('సి', '|'), ('న', '|'), ('ని', '|'), ('దు', 'U'), ('ర్వా', 'U'), ('రౌ', 'U'), ('ఘ', '|'), ('ము', 'U'), ('ల్జే', 'U'), ('సి', '|'), ('తిన్', 'U'), ('క', '|'), ('రు', '|'), ('ణం', 'U'), ('జే', 'U'), ('కొ', '|'), ('ని', '|'), ('కా', 'U'), ('వు', '|'), ('మ', 'U'), ('య్య', '|'), ('త్రి', '|'), ('జ', '|'), ('గ', 'U'), ('త్క', 'U'), ('ల్యా', 'U'), ('ణ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[('గ', '|'), ('ణు', '|'), ('తిం', 'U'), ('పన్', 'U'), ('బ', '|'), ('హు', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ని', '|'), ('గ', '|'), ('మౌ', 'U'), ('ఘం', 'U'), ('బె', 'U'), ('ప్పు', '|'), ('డు', 'U'), ('న్ని', 'U'), ('న్న', '|'), ('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('బం', 'U'), ('ధుం', 'U'), ('డ', '|'), ('ని', '|'), ('చె', 'U'), ('ప్ప', '|'), ('న', 'U'), ('త్తె', '|'), ('ఱ', '|'), ('గు', '|'), ('దూ', 'U'), ('రం', 'U'), ('బం', 'U'), ('ద', '|'), ('కుం', 'U'), ('డం', 'U'), ('గ', '|'), ('నే', 'U'), ('బ్ర', '|'), ('ణ', '|'), ('తుల్', 'U'), ('జే', 'U'), ('సె', '|'), ('ద', '|'), ('గొం', 'U'), ('త', '|'), ('యై', 'U'), ('న', '|'), ('గ', '|'), ('ణు', '|'), ('తిం', 'U'), ('పం', 'U'), ('బా', 'U'), ('డి', '|'), ('లే', 'U'), ('కుం', 'U'), ('డి', '|'), ('నన్', 'U'), ('ఋ', '|'), ('ణ', '|'), ('మా', 'U'), ('నా', 'U'), ('ను', '|'), ('తి', '|'), ('నీ', 'U'), ('వు', '|'), ('శ్రీ', 'U'), ('ప', '|'), ('తి', '|'), ('వి', '|'), ('నీ', 'U'), ('కే', 'U'), ('ల', 'U'), ('ప్పు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('గ', '|'), ('ణు', '|'), ('తిం', 'U'), ('ప', 'U'), ('న్బ', '|'), ('హు', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ని', '|'), ('గ', '|'), ('మౌ', 'U'), ('ఘం', 'U'), ('బె', 'U'), ('ప్పు', '|'), ('డు', 'U'), ('న్ని', 'U'), ('న్న', '|'), ('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('బం', 'U'), ('ధుం', 'U'), ('డ', '|'), ('ని', '|'), ('చె', 'U'), ('ప్ప', '|'), ('న', 'U'), ('త్తె', '|'), ('ఱ', '|'), ('గు', '|'), ('దూ', 'U'), ('రం', 'U'), ('బం', 'U'), ('ద', '|'), ('కుం', 'U'), ('డం', 'U'), ('గ', '|'), ('నే', 'U'), ('బ్ర', '|'), ('ణ', '|'), ('తు', 'U'), ('ల్జే', 'U'), ('సె', '|'), ('ద', '|'), ('గొం', 'U'), ('త', '|'), ('యై', 'U'), ('న', '|'), ('గ', '|'), ('ణు', '|'), ('తిం', 'U'), ('పం', 'U'), ('బా', 'U'), ('డి', '|'), ('లే', 'U'), ('కుం', 'U'), ('డి', '|'), ('నన్', 'U'), ('ఋ', '|'), ('ణ', '|'), ('మా', 'U'), ('నా', 'U'), ('ను', '|'), ('తి', '|'), ('నీ', 'U'), ('వు', '|'), ('శ్రీ', 'U'), ('ప', '|'), ('తి', '|'), ('వి', '|'), ('నీ', 'U'), ('కే', 'U'), ('ల', 'U'), ('ప్పు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('రి', '|'), ('నా', 'U'), ('థుం', 'U'), ('డు', '|'), ('జ', '|'), ('ల', '|'), ('గ్ర', '|'), ('హ', '|'), ('గ్ర', '|'), ('హ', '|'), ('ణ', '|'), ('దుః', 'U'), ('ఖా', 'U'), ('క్రాం', 'U'), ('తు', '|'), ('డై', 'U'), ('యీ', 'U'), ('శ', '|'), ('మీ', 'U'), ('శ', '|'), ('ర', '|'), ('ణం', 'U'), ('బ', 'U'), ('న్న', '|'), ('గృ', '|'), ('శా', 'U'), ('ను', '|'), ('భా', 'U'), ('ను', '|'), ('శ', '|'), ('త', '|'), ('తే', 'U'), ('జ', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('యై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('మీ', 'U'), ('క', '|'), ('ర', '|'), ('చ', '|'), ('క్రం', 'U'), ('బు', '|'), ('న', '|'), ('న', '|'), ('క్ర', '|'), ('కం', 'U'), ('ఠ', '|'), ('ము', '|'), ('వె', '|'), ('సన్', 'U'), ('ఖం', 'U'), ('డిం', 'U'), ('చి', '|'), ('మిం', 'U'), ('చెం', 'U'), ('ద', '|'), ('యా', 'U'), ('ప', '|'), ('ర', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్త', '|'), ('భ', '|'), ('యా', 'U'), ('న', '|'), ('క', '|'), ('ప్ర', '|'), ('క', '|'), ('ర', '|'), ('స', 'U'), ('త్ప్రా', 'U'), ('క', 'U'), ('ట్య', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('క', '|'), ('రి', '|'), ('నా', 'U'), ('థుం', 'U'), ('డు', '|'), ('జ', '|'), ('ల', '|'), ('గ్ర', '|'), ('హ', '|'), ('గ్ర', '|'), ('హ', '|'), ('ణ', '|'), ('దుః', 'U'), ('ఖా', 'U'), ('క్రాం', 'U'), ('తు', '|'), ('డై', 'U'), ('యీ', 'U'), ('శ', '|'), ('మీ', 'U'), ('శ', '|'), ('ర', '|'), ('ణం', 'U'), ('బ', 'U'), ('న్న', '|'), ('గృ', '|'), ('శా', 'U'), ('ను', '|'), ('భా', 'U'), ('ను', '|'), ('శ', '|'), ('త', '|'), ('తే', 'U'), ('జ', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('యై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('మీ', 'U'), ('క', '|'), ('ర', '|'), ('చ', '|'), ('క్రం', 'U'), ('బు', '|'), ('న', '|'), ('న', '|'), ('క్ర', '|'), ('కం', 'U'), ('ఠ', '|'), ('ము', '|'), ('వె', '|'), ('స', 'U'), ('న్ఖం', 'U'), ('డిం', 'U'), ('చి', '|'), ('మిం', 'U'), ('చెం', 'U'), ('ద', '|'), ('యా', 'U'), ('ప', '|'), ('ర', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్త', '|'), ('భ', '|'), ('యా', 'U'), ('న', '|'), ('క', '|'), ('ప్ర', '|'), ('క', '|'), ('ర', '|'), ('స', 'U'), ('త్ప్రా', 'U'), ('క', 'U'), ('ట్య', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[('ఏ', 'U'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('న', '|'), ('నిన్', 'U'), ('ద', '|'), ('లం', 'U'), ('చె', '|'), ('గ', '|'), ('జ', '|'), ('యూ', 'U'), ('ధేం', 'U'), ('ద్రుం', 'U'), ('డు', '|'), ('ఆ', 'U'), ('ప', 'U'), ('న్ను', '|'), ('డై', 'U'), ('యే', 'U'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('న', '|'), ('ద్రౌ', 'U'), ('ప', '|'), ('ద', 'U'), ('య్యె', '|'), ('డ', '|'), ('ర', '|'), ('మా', 'U'), ('ధీ', 'U'), ('శా', 'U'), ('య', '|'), ('నె', 'U'), ('న్వా', 'U'), ('య', '|'), ('సం', 'U'), ('బే', 'U'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('న', '|'), ('నీ', 'U'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', '|'), ('నె', '|'), ('నో', 'U'), ('యీ', 'U'), ('నీ', 'U'), ('కృ', '|'), ('పా', 'U'), ('దృ', 'U'), ('ష్టి', '|'), ('చే', 'U'), ('నా', 'U'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('న', '|'), ('నీ', 'U'), ('త', '|'), ('లం', 'U'), ('పు', '|'), ('గ', '|'), ('లు', '|'), ('గ', 'U'), ('న్నా', 'U'), ('కి', 'U'), ('మ్ము', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('ఏ', 'U'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('న', '|'), ('ని', 'U'), ('న్ద', '|'), ('లం', 'U'), ('చె', '|'), ('గ', '|'), ('జ', '|'), ('యూ', 'U'), ('ధేం', 'U'), ('ద్రుం', 'U'), ('డు', '|'), ('ఆ', 'U'), ('ప', 'U'), ('న్ను', '|'), ('డై', 'U'), ('యే', 'U'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('న', '|'), ('ద్రౌ', 'U'), ('ప', '|'), ('ద', 'U'), ('య్యె', '|'), ('డ', '|'), ('ర', '|'), ('మా', 'U'), ('ధీ', 'U'), ('శా', 'U'), ('య', '|'), ('నె', 'U'), ('న్వా', 'U'), ('య', '|'), ('సం', 'U'), ('బే', 'U'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('న', '|'), ('నీ', 'U'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', '|'), ('నె', '|'), ('నో', 'U'), ('యీ', 'U'), ('నీ', 'U'), ('కృ', '|'), ('పా', 'U'), ('దృ', 'U'), ('ష్టి', '|'), ('చే', 'U'), ('నా', 'U'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('న', '|'), ('నీ', 'U'), ('త', '|'), ('లం', 'U'), ('పు', '|'), ('గ', '|'), ('లు', '|'), ('గ', 'U'), ('న్నా', 'U'), ('కి', 'U'), ('మ్ము', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('ల', '|'), ('గ్రీ', 'U'), ('వు', '|'), ('డు', '|'), ('చే', 'U'), ('తి', '|'), ('పు', 'U'), ('న్క', '|'), ('వి', '|'), ('డి', '|'), ('చె', 'U'), ('న్నీ', 'U'), ('యిం', 'U'), ('తి', '|'), ('భి', 'U'), ('క్షం', 'U'), ('బు', '|'), ('నన్', 'U'), ('నీ', 'U'), ('ల', '|'), ('గ్రీ', 'U'), ('వు', '|'), ('డు', '|'), ('యీ', 'U'), ('శ్వ', '|'), ('రా', 'U'), ('ఖ్య', '|'), ('ద', '|'), ('న', '|'), ('రె', 'U'), ('న్నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('జ', 'U'), ('ప్యం', 'U'), ('బు', '|'), ('నన్', 'U'), ('నీ', 'U'), ('ల', '|'), ('గ్రీ', 'U'), ('వు', '|'), ('డు', '|'), ('మిం', 'U'), ('చి', '|'), ('త్రుం', 'U'), ('చె', '|'), ('బు', '|'), ('ర', '|'), ('ముల్', 'U'), ('నీ', 'U'), ('ప్రా', 'U'), ('పు', '|'), ('సే', 'U'), ('విం', 'U'), ('చి', '|'), ('నన్', 'U'), ('నీ', 'U'), ('ల', '|'), ('గ్రీ', 'U'), ('వ', '|'), ('ము', '|'), ('ఖా', 'U'), ('బ్జ', '|'), ('భా', 'U'), ('స్క', '|'), ('ర', '|'), ('కృ', '|'), ('పా', 'U'), ('ని', 'U'), ('త్యా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('నీ', 'U'), ('ల', '|'), ('గ్రీ', 'U'), ('వు', '|'), ('డు', '|'), ('చే', 'U'), ('తి', '|'), ('పు', 'U'), ('న్క', '|'), ('వి', '|'), ('డి', '|'), ('చె', 'U'), ('న్నీ', 'U'), ('యిం', 'U'), ('తి', '|'), ('భి', 'U'), ('క్షం', 'U'), ('బు', '|'), ('నన్', 'U'), ('నీ', 'U'), ('ల', '|'), ('గ్రీ', 'U'), ('వు', '|'), ('డు', '|'), ('యీ', 'U'), ('శ్వ', '|'), ('రా', 'U'), ('ఖ్య', '|'), ('ద', '|'), ('న', '|'), ('రె', 'U'), ('న్నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('జ', 'U'), ('ప్యం', 'U'), ('బు', '|'), ('నన్', 'U'), ('నీ', 'U'), ('ల', '|'), ('గ్రీ', 'U'), ('వు', '|'), ('డు', '|'), ('మిం', 'U'), ('చి', '|'), ('త్రుం', 'U'), ('చె', '|'), ('బు', '|'), ('ర', '|'), ('ము', 'U'), ('ల్నీ', 'U'), ('ప్రా', 'U'), ('పు', '|'), ('సే', 'U'), ('విం', 'U'), ('చి', '|'), ('నన్', 'U'), ('నీ', 'U'), ('ల', '|'), ('గ్రీ', 'U'), ('వ', '|'), ('ము', '|'), ('ఖా', 'U'), ('బ్జ', '|'), ('భా', 'U'), ('స్క', '|'), ('ర', '|'), ('కృ', '|'), ('పా', 'U'), ('ని', 'U'), ('త్యా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[('ని', '|'), ('ను', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('మూ', 'U'), ('గ', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('మున్', 'U'), ('వీ', 'U'), ('ను', '|'), ('లన్', 'U'), ('వి', '|'), ('ని', '|'), ('మో', 'U'), ('దిం', 'U'), ('ప', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('చె', 'U'), ('వ్డు', '|'), ('మ', '|'), ('రి', '|'), ('నిన్', 'U'), ('వే', 'U'), ('డ్కన్', 'U'), ('మ', '|'), ('నో', 'U'), ('వీ', 'U'), ('థి', '|'), ('నిన్', 'U'), ('గ', '|'), ('ని', '|'), ('పూ', 'U'), ('జిం', 'U'), ('ప', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('నా', 'U'), ('శ', '|'), ('క', '|'), ('రు', '|'), ('డౌ', 'U'), ('క', 'U'), ('ర్మ', '|'), ('క్రి', '|'), ('యా', 'U'), ('రం', 'U'), ('భు', '|'), ('డై', 'U'), ('త', '|'), ('న', '|'), ('లో', 'U'), ('గా', 'U'), ('న', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('నీ', 'U'), ('చ', '|'), ('మ', '|'), ('తి', '|'), ('పో', 'U'), ('త', 'U'), ('త్వ', 'U'), ('జ్ఞ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('ని', '|'), ('ను', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('మూ', 'U'), ('గ', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ము', 'U'), ('న్వీ', 'U'), ('ను', '|'), ('లన్', 'U'), ('వి', '|'), ('ని', '|'), ('మో', 'U'), ('దిం', 'U'), ('ప', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('చె', 'U'), ('వ్డు', '|'), ('మ', '|'), ('రి', '|'), ('ని', 'U'), ('న్వే', 'U'), ('డ్క', 'U'), ('న్మ', '|'), ('నో', 'U'), ('వీ', 'U'), ('థి', '|'), ('నిన్', 'U'), ('గ', '|'), ('ని', '|'), ('పూ', 'U'), ('జిం', 'U'), ('ప', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('నా', 'U'), ('శ', '|'), ('క', '|'), ('రు', '|'), ('డౌ', 'U'), ('క', 'U'), ('ర్మ', '|'), ('క్రి', '|'), ('యా', 'U'), ('రం', 'U'), ('భు', '|'), ('డై', 'U'), ('త', '|'), ('న', '|'), ('లో', 'U'), ('గా', 'U'), ('న', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('నీ', 'U'), ('చ', '|'), ('మ', '|'), ('తి', '|'), ('పో', 'U'), ('త', 'U'), ('త్వ', 'U'), ('జ్ఞ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[('ని', '|'), ('ను', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('ని', '|'), ('నీ', 'U'), ('చ', '|'), ('బం', 'U'), ('ధ', '|'), ('మ', '|'), ('తి', '|'), ('దా', 'U'), ('ని', 'U'), ('ర్మ', 'U'), ('గ్న', '|'), ('మూ', 'U'), ('ఢా', 'U'), ('త్ము', '|'), ('డై', 'U'), ('పె', '|'), ('ను', '|'), ('దై', 'U'), ('వం', 'U'), ('బు', '|'), ('ల', '|'), ('గో', 'U'), ('రి', '|'), ('తా', 'U'), ('మ', '|'), ('న', '|'), ('ము', '|'), ('నన్', 'U'), ('సే', 'U'), ('విం', 'U'), ('చు', '|'), ('చం', 'U'), ('దం', 'U'), ('బు', '|'), ('తా', 'U'), ('న', '|'), ('వ', '|'), ('లం', 'U'), ('బా', 'U'), ('రి', '|'), ('న', '|'), ('భూ', 'U'), ('తి', '|'), ('యం', 'U'), ('దు', '|'), ('వె', '|'), ('ల', '|'), ('య', 'U'), ('న్నా', 'U'), ('జ్యా', 'U'), ('హు', '|'), ('తుల్', 'U'), ('పూ', 'U'), ('ని', '|'), ('వే', 'U'), ('ల్చి', '|'), ('న', '|'), ('చం', 'U'), ('దం', 'U'), ('బు', '|'), ('న', 'U'), ('వ్య', 'U'), ('ర్థ', '|'), ('మై', 'U'), ('త', '|'), ('న', '|'), ('రు', '|'), ('జూ', 'U'), ('చి', '|'), ('ద్రూ', 'U'), ('ప', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('ని', '|'), ('ను', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('ని', '|'), ('నీ', 'U'), ('చ', '|'), ('బం', 'U'), ('ధ', '|'), ('మ', '|'), ('తి', '|'), ('దా', 'U'), ('ని', 'U'), ('ర్మ', 'U'), ('గ్న', '|'), ('మూ', 'U'), ('ఢా', 'U'), ('త్ము', '|'), ('డై', 'U'), ('పె', '|'), ('ను', '|'), ('దై', 'U'), ('వం', 'U'), ('బు', '|'), ('ల', '|'), ('గో', 'U'), ('రి', '|'), ('తా', 'U'), ('మ', '|'), ('న', '|'), ('ము', '|'), ('న', 'U'), ('న్సే', 'U'), ('విం', 'U'), ('చు', '|'), ('చం', 'U'), ('దం', 'U'), ('బు', '|'), ('తా', 'U'), ('న', '|'), ('వ', '|'), ('లం', 'U'), ('బా', 'U'), ('రి', '|'), ('న', '|'), ('భూ', 'U'), ('తి', '|'), ('యం', 'U'), ('దు', '|'), ('వె', '|'), ('ల', '|'), ('య', 'U'), ('న్నా', 'U'), ('జ్యా', 'U'), ('హు', '|'), ('తు', 'U'), ('ల్పూ', 'U'), ('ని', '|'), ('వే', 'U'), ('ల్చి', '|'), ('న', '|'), ('చం', 'U'), ('దం', 'U'), ('బు', '|'), ('న', 'U'), ('వ్య', 'U'), ('ర్థ', '|'), ('మై', 'U'), ('త', '|'), ('న', '|'), ('రు', '|'), ('జూ', 'U'), ('చి', '|'), ('ద్రూ', 'U'), ('ప', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('వే', 'U'), ('త', 'U'), ('ల్లి', '|'), ('వి', '|'), ('నీ', 'U'), ('వె', '|'), ('తం', 'U'), ('డ్రి', '|'), ('వ', '|'), ('ర', '|'), ('య', 'U'), ('న్నీ', 'U'), ('వే', 'U'), ('జ', '|'), ('గ', 'U'), ('న్నా', 'U'), ('థు', '|'), ('డౌ', 'U'), ('నీ', 'U'), ('వే', 'U'), ('ని', 'U'), ('శ్చ', '|'), ('ల', '|'), ('బాం', 'U'), ('ధ', '|'), ('వుం', 'U'), ('డ', '|'), ('వ', '|'), ('ర', '|'), ('య', 'U'), ('న్నీ', 'U'), ('వే', 'U'), ('ము', '|'), ('ని', 'U'), ('స్తు', 'U'), ('త్యు', '|'), ('డౌ', 'U'), ('నీ', 'U'), ('వే', 'U'), ('శం', 'U'), ('క', '|'), ('ర', '|'), ('మూ', 'U'), ('ల', '|'), ('మం', 'U'), ('త్ర', '|'), ('మ', '|'), ('ర', '|'), ('యన్', 'U'), ('నీ', 'U'), ('వే', 'U'), ('జ', '|'), ('గ', 'U'), ('త్క', 'U'), ('ర్త', '|'), ('వున్', 'U'), ('నీ', 'U'), ('వే', 'U'), ('ది', 'U'), ('క్క', '|'), ('ను', '|'), ('వా', 'U'), ('రి', '|'), ('వా', 'U'), ('ర', '|'), ('లె', '|'), ('క', '|'), ('డు', 'U'), ('న్నీ', 'U'), ('వా', 'U'), ('రు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('నీ', 'U'), ('వే', 'U'), ('త', 'U'), ('ల్లి', '|'), ('వి', '|'), ('నీ', 'U'), ('వె', '|'), ('తం', 'U'), ('డ్రి', '|'), ('వ', '|'), ('ర', '|'), ('య', 'U'), ('న్నీ', 'U'), ('వే', 'U'), ('జ', '|'), ('గ', 'U'), ('న్నా', 'U'), ('థు', '|'), ('డౌ', 'U'), ('నీ', 'U'), ('వే', 'U'), ('ని', 'U'), ('శ్చ', '|'), ('ల', '|'), ('బాం', 'U'), ('ధ', '|'), ('వుం', 'U'), ('డ', '|'), ('వ', '|'), ('ర', '|'), ('య', 'U'), ('న్నీ', 'U'), ('వే', 'U'), ('ము', '|'), ('ని', 'U'), ('స్తు', 'U'), ('త్యు', '|'), ('డౌ', 'U'), ('నీ', 'U'), ('వే', 'U'), ('శం', 'U'), ('క', '|'), ('ర', '|'), ('మూ', 'U'), ('ల', '|'), ('మం', 'U'), ('త్ర', '|'), ('మ', '|'), ('ర', '|'), ('య', 'U'), ('న్నీ', 'U'), ('వే', 'U'), ('జ', '|'), ('గ', 'U'), ('త్క', 'U'), ('ర్త', '|'), ('వున్', 'U'), ('నీ', 'U'), ('వే', 'U'), ('ది', 'U'), ('క్క', '|'), ('ను', '|'), ('వా', 'U'), ('రి', '|'), ('వా', 'U'), ('ర', '|'), ('లె', '|'), ('క', '|'), ('డు', 'U'), ('న్నీ', 'U'), ('వా', 'U'), ('రు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[('చె', 'U'), ('ల్లం', 'U'), ('జే', 'U'), ('సి', '|'), ('తి', '|'), ('పా', 'U'), ('త', '|'), ('కం', 'U'), ('బు', '|'), ('లు', '|'), ('మ', '|'), ('దిన్', 'U'), ('శ్రీ', 'U'), ('నా', 'U'), ('థ', '|'), ('మీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ముల్', 'U'), ('పొ', 'U'), ('ల్లుల్', 'U'), ('బో', 'U'), ('వ', '|'), ('ని', '|'), ('న', 'U'), ('మ్మి', '|'), ('ప', 'U'), ('ద్య', '|'), ('శ', '|'), ('త', '|'), ('మున్', 'U'), ('బూ', 'U'), ('ర్ణం', 'U'), ('బు', '|'), ('గా', 'U'), ('జె', 'U'), ('ప్పి', '|'), ('తిన్', 'U'), ('చె', 'U'), ('ల్లం', 'U'), ('బో', 'U'), ('న', '|'), ('ను', '|'), ('న', 'U'), ('మ్మె', '|'), ('వీ', 'U'), ('డ', '|'), ('ని', '|'), ('ద', '|'), ('యం', 'U'), ('జే', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('మీ', 'U'), ('త', 'U'), ('ల్లిం', 'U'), ('దం', 'U'), ('డ్రి', '|'), ('యు', '|'), ('నీ', 'U'), ('వు', '|'), ('గా', 'U'), ('క', '|'), ('యొ', '|'), ('రు', '|'), ('లే', 'U'), ('త', 'U'), ('ర్కిం', 'U'), ('ప', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('చె', 'U'), ('ల్లం', 'U'), ('జే', 'U'), ('సి', '|'), ('తి', '|'), ('పా', 'U'), ('త', '|'), ('కం', 'U'), ('బు', '|'), ('లు', '|'), ('మ', '|'), ('ది', 'U'), ('న్శ్రీ', 'U'), ('నా', 'U'), ('థ', '|'), ('మీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ముల్', 'U'), ('పొ', 'U'), ('ల్లు', 'U'), ('ల్బో', 'U'), ('వ', '|'), ('ని', '|'), ('న', 'U'), ('మ్మి', '|'), ('ప', 'U'), ('ద్య', '|'), ('శ', '|'), ('త', '|'), ('ము', 'U'), ('న్బూ', 'U'), ('ర్ణం', 'U'), ('బు', '|'), ('గా', 'U'), ('జె', 'U'), ('ప్పి', '|'), ('తిన్', 'U'), ('చె', 'U'), ('ల్లం', 'U'), ('బో', 'U'), ('న', '|'), ('ను', '|'), ('న', 'U'), ('మ్మె', '|'), ('వీ', 'U'), ('డ', '|'), ('ని', '|'), ('ద', '|'), ('యం', 'U'), ('జే', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('మీ', 'U'), ('త', 'U'), ('ల్లిం', 'U'), ('దం', 'U'), ('డ్రి', '|'), ('యు', '|'), ('నీ', 'U'), ('వు', '|'), ('గా', 'U'), ('క', '|'), ('యొ', '|'), ('రు', '|'), ('లే', 'U'), ('త', 'U'), ('ర్కిం', 'U'), ('ప', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హా', 'U'), ('చ్యు', '|'), ('త', '|'), ('వా', 'U'), ('సు', '|'), ('దే', 'U'), ('వ', '|'), ('వి', '|'), ('క', '|'), ('స', 'U'), ('న్నా', 'U'), ('ళీ', 'U'), ('క', '|'), ('ప', '|'), ('త్రా', 'U'), ('క్ష', '|'), ('భూ', 'U'), ('ధ', '|'), ('ర', '|'), ('గో', 'U'), ('విం', 'U'), ('ద', '|'), ('ము', '|'), ('కుం', 'U'), ('ద', '|'), ('కే', 'U'), ('శ', '|'), ('వ', '|'), ('జ', '|'), ('గ', 'U'), ('త్త్రా', 'U'), ('తా', 'U'), ('హి', '|'), ('త', 'U'), ('ల్పాం', 'U'), ('బు', '|'), ('జో', 'U'), ('ద', '|'), ('ర', '|'), ('దా', 'U'), ('మో', 'U'), ('ద', '|'), ('ర', '|'), ('తా', 'U'), ('ర్క్ష్య', '|'), ('వా', 'U'), ('హ', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('దై', 'U'), ('త్యా', 'U'), ('రి', '|'), ('వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('మం', 'U'), ('ది', '|'), ('ర', '|'), ('పీ', 'U'), ('తాం', 'U'), ('బ', '|'), ('ర', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', 'U'), ('త్స', '|'), ('ల', '|'), ('కృ', '|'), ('పన్', 'U'), ('దీ', 'U'), ('విం', 'U'), ('పు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హా', 'U'), ('చ్యు', '|'), ('త', '|'), ('వా', 'U'), ('సు', '|'), ('దే', 'U'), ('వ', '|'), ('వి', '|'), ('క', '|'), ('స', 'U'), ('న్నా', 'U'), ('ళీ', 'U'), ('క', '|'), ('ప', '|'), ('త్రా', 'U'), ('క్ష', '|'), ('భూ', 'U'), ('ధ', '|'), ('ర', '|'), ('గో', 'U'), ('విం', 'U'), ('ద', '|'), ('ము', '|'), ('కుం', 'U'), ('ద', '|'), ('కే', 'U'), ('శ', '|'), ('వ', '|'), ('జ', '|'), ('గ', 'U'), ('త్త్రా', 'U'), ('తా', 'U'), ('హి', '|'), ('త', 'U'), ('ల్పాం', 'U'), ('బు', '|'), ('జో', 'U'), ('ద', '|'), ('ర', '|'), ('దా', 'U'), ('మో', 'U'), ('ద', '|'), ('ర', '|'), ('తా', 'U'), ('ర్క్ష్య', '|'), ('వా', 'U'), ('హ', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('దై', 'U'), ('త్యా', 'U'), ('రి', '|'), ('వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('మం', 'U'), ('ది', '|'), ('ర', '|'), ('పీ', 'U'), ('తాం', 'U'), ('బ', '|'), ('ర', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', 'U'), ('త్స', '|'), ('ల', '|'), ('కృ', '|'), ('ప', 'U'), ('న్దీ', 'U'), ('విం', 'U'), ('పు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('డ', '|'), ('కం', 'U'), ('టం', 'U'), ('గ', '|'), ('డ', '|'), ('లే', 'U'), ('ని', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('లొ', '|'), ('గిం', 'U'), ('గా', 'U'), ('విం', 'U'), ('పు', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('శ', '|'), ('పా', 'U'), ('ల్క', '|'), ('డ', '|'), ('లిన్', 'U'), ('బ', 'U'), ('న్న', '|'), ('గ', '|'), ('శా', 'U'), ('యి', '|'), ('వై', 'U'), ('భు', '|'), ('వ', '|'), ('న', '|'), ('ముల్', 'U'), ('గ', 'U'), ('ల్పిం', 'U'), ('చు', '|'), ('స', 'U'), ('త్పు', '|'), ('త్రు', '|'), ('నిన్', 'U'), ('బొ', '|'), ('డ', '|'), ('మన్', 'U'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('నా', 'U'), ('భి', '|'), ('పం', 'U'), ('క', '|'), ('జ', '|'), ('జ', '|'), ('గ', 'U'), ('త్పు', 'U'), ('ణ్యా', 'U'), ('త్మ', '|'), ('భా', 'U'), ('గీ', 'U'), ('ర', '|'), ('థీ', 'U'), ('ప', '|'), ('డ', '|'), ('తిం', 'U'), ('గ', 'U'), ('న్న', '|'), ('ప', '|'), ('దా', 'U'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('నే', 'U'), ('భా', 'U'), ('విం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('క', '|'), ('డ', '|'), ('కం', 'U'), ('టం', 'U'), ('గ', '|'), ('డ', '|'), ('లే', 'U'), ('ని', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('లొ', '|'), ('గిం', 'U'), ('గా', 'U'), ('విం', 'U'), ('పు', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('శ', '|'), ('పా', 'U'), ('ల్క', '|'), ('డ', '|'), ('లి', 'U'), ('న్బ', 'U'), ('న్న', '|'), ('గ', '|'), ('శా', 'U'), ('యి', '|'), ('వై', 'U'), ('భు', '|'), ('వ', '|'), ('న', '|'), ('ము', 'U'), ('ల్గ', 'U'), ('ల్పిం', 'U'), ('చు', '|'), ('స', 'U'), ('త్పు', '|'), ('త్రు', '|'), ('నిన్', 'U'), ('బొ', '|'), ('డ', '|'), ('మ', 'U'), ('న్జే', 'U'), ('సి', '|'), ('న', '|'), ('నా', 'U'), ('భి', '|'), ('పం', 'U'), ('క', '|'), ('జ', '|'), ('జ', '|'), ('గ', 'U'), ('త్పు', 'U'), ('ణ్యా', 'U'), ('త్మ', '|'), ('భా', 'U'), ('గీ', 'U'), ('ర', '|'), ('థీ', 'U'), ('ప', '|'), ('డ', '|'), ('తిం', 'U'), ('గ', 'U'), ('న్న', '|'), ('ప', '|'), ('దా', 'U'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('నే', 'U'), ('భా', 'U'), ('విం', 'U'), ('తు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('ప', '|'), ('ముల్', 'U'), ('మం', 'U'), ('త్ర', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('య', 'U'), ('జ్ఞ', '|'), ('ఫ', '|'), ('ల', '|'), ('ముల్', 'U'), ('దా', 'U'), ('న', '|'), ('క్రి', '|'), ('యా', 'U'), ('రం', 'U'), ('భ', '|'), ('ముల్', 'U'), ('జ', '|'), ('ప', '|'), ('ముల్', 'U'), ('పు', 'U'), ('ణ్య', '|'), ('సు', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('సే', 'U'), ('వ', '|'), ('ఫ', '|'), ('ల', '|'), ('ముల్', 'U'), ('స', 'U'), ('ద్వే', 'U'), ('ద', '|'), ('వి', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('మున్', 'U'), ('ఉ', '|'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('వ్ర', '|'), ('త', '|'), ('శీ', 'U'), ('ల', '|'), ('క', 'U'), ('ర్మ', '|'), ('ఫ', '|'), ('ల', '|'), ('ముల్', 'U'), ('ఒ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('ని', 'U'), ('న్నా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('ను', '|'), ('ప', '|'), ('మిం', 'U'), ('పం', 'U'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('రి', '|'), ('కే', 'U'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('వే', 'U'), ('యు', 'U'), ('న్నే', 'U'), ('ల', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('త', '|'), ('ప', '|'), ('ము', 'U'), ('ల్మం', 'U'), ('త్ర', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('య', 'U'), ('జ్ఞ', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', 'U'), ('ల్దా', 'U'), ('న', '|'), ('క్రి', '|'), ('యా', 'U'), ('రం', 'U'), ('భ', '|'), ('ముల్', 'U'), ('జ', '|'), ('ప', '|'), ('ము', 'U'), ('ల్పు', 'U'), ('ణ్య', '|'), ('సు', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('సే', 'U'), ('వ', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', 'U'), ('ల్స', 'U'), ('ద్వే', 'U'), ('ద', '|'), ('వి', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('మున్', 'U'), ('ఉ', '|'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('వ్ర', '|'), ('త', '|'), ('శీ', 'U'), ('ల', '|'), ('క', 'U'), ('ర్మ', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', 'U'), ('ల్ఒ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('ని', 'U'), ('న్నా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('ను', '|'), ('ప', '|'), ('మిం', 'U'), ('పం', 'U'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('రి', '|'), ('కే', 'U'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('వే', 'U'), ('యు', 'U'), ('న్నే', 'U'), ('ల', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('లి', '|'), ('తా', 'U'), ('ఘౌ', 'U'), ('ఘ', '|'), ('వి', '|'), ('నా', 'U'), ('శ', '|'), ('కా', 'U'), ('రి', '|'), ('య', '|'), ('గు', '|'), ('చుం', 'U'), ('గై', 'U'), ('వ', 'U'), ('ల్య', '|'), ('సం', 'U'), ('ధా', 'U'), ('యి', '|'), ('యై', 'U'), ('న', '|'), ('లి', '|'), ('నొ', 'U'), ('ప్పా', 'U'), ('రె', '|'), ('డు', '|'), ('మం', 'U'), ('త్ర', '|'), ('రా', 'U'), ('జ', '|'), ('మ', '|'), ('గు', '|'), ('నీ', 'U'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('ప్రే', 'U'), ('మం', 'U'), ('బు', '|'), ('నన్', 'U'), ('అ', '|'), ('ల', '|'), ('ర', 'U'), ('న్నె', 'U'), ('వ్వ', '|'), ('ని', '|'), ('వా', 'U'), ('క్కు', '|'), ('నం', 'U'), ('బొ', '|'), ('ర', '|'), ('య', '|'), ('దో', 'U'), ('య', 'U'), ('న్నీ', 'U'), ('చు', '|'), ('దే', 'U'), ('హం', 'U'), ('బు', '|'), ('దా', 'U'), ('వె', '|'), ('ల', '|'), ('యన్', 'U'), ('భూ', 'U'), ('రు', '|'), ('హ', '|'), ('కో', 'U'), ('ట', '|'), ('రం', 'U'), ('బ', '|'), ('ది', '|'), ('య', '|'), ('సూ', 'U'), ('వే', 'U'), ('దా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('క', '|'), ('లి', '|'), ('తా', 'U'), ('ఘౌ', 'U'), ('ఘ', '|'), ('వి', '|'), ('నా', 'U'), ('శ', '|'), ('కా', 'U'), ('రి', '|'), ('య', '|'), ('గు', '|'), ('చుం', 'U'), ('గై', 'U'), ('వ', 'U'), ('ల్య', '|'), ('సం', 'U'), ('ధా', 'U'), ('యి', '|'), ('యై', 'U'), ('న', '|'), ('లి', '|'), ('నొ', 'U'), ('ప్పా', 'U'), ('రె', '|'), ('డు', '|'), ('మం', 'U'), ('త్ర', '|'), ('రా', 'U'), ('జ', '|'), ('మ', '|'), ('గు', '|'), ('నీ', 'U'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('ప్రే', 'U'), ('మం', 'U'), ('బు', '|'), ('నన్', 'U'), ('అ', '|'), ('ల', '|'), ('ర', 'U'), ('న్నె', 'U'), ('వ్వ', '|'), ('ని', '|'), ('వా', 'U'), ('క్కు', '|'), ('నం', 'U'), ('బొ', '|'), ('ర', '|'), ('య', '|'), ('దో', 'U'), ('య', 'U'), ('న్నీ', 'U'), ('చు', '|'), ('దే', 'U'), ('హం', 'U'), ('బు', '|'), ('దా', 'U'), ('వె', '|'), ('ల', '|'), ('య', 'U'), ('న్భూ', 'U'), ('రు', '|'), ('హ', '|'), ('కో', 'U'), ('ట', '|'), ('రం', 'U'), ('బ', '|'), ('ది', '|'), ('య', '|'), ('సూ', 'U'), ('వే', 'U'), ('దా', 'U'), ('త్మ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[('ర', '|'), ('మ', '|'), ('ణీ', 'U'), ('యం', 'U'), ('బు', '|'), ('గ', '|'), ('నా', 'U'), ('ది', '|'), ('మం', 'U'), ('బు', '|'), ('న', '|'), ('వ', '|'), ('తా', 'U'), ('రం', 'U'), ('బున్', 'U'), ('భ', '|'), ('వ', 'U'), ('ద్ది', 'U'), ('వ్య', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('నా', 'U'), ('మా', 'U'), ('మృ', '|'), ('త', '|'), ('మున్', 'U'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('ద', '|'), ('శ', '|'), ('క', '|'), ('ప్రా', 'U'), ('ప్త', 'U'), ('య్యె', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ము', '|'), ('సు', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('మో', 'U'), ('క్ష', '|'), ('మున్', 'U'), ('ద్వి', '|'), ('వి', '|'), ('ధ', '|'), ('సం', 'U'), ('ప్రా', 'U'), ('ప్తిన్', 'U'), ('శ', '|'), ('తాం', 'U'), ('ధ్రా', 'U'), ('ఖ్య', '|'), ('కా', 'U'), ('వ్య', '|'), ('ము', '|'), ('న', 'U'), ('ర్పిం', 'U'), ('చి', '|'), ('తి', '|'), ('మీ', 'U'), ('ప', '|'), ('దా', 'U'), ('బ్జ', '|'), ('ము', '|'), ('ల', '|'), ('కున్', 'U'), ('వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('ర', '|'), ('మ', '|'), ('ణీ', 'U'), ('యం', 'U'), ('బు', '|'), ('గ', '|'), ('నా', 'U'), ('ది', '|'), ('మం', 'U'), ('బు', '|'), ('న', '|'), ('వ', '|'), ('తా', 'U'), ('రం', 'U'), ('బు', 'U'), ('న్భ', '|'), ('వ', 'U'), ('ద్ది', 'U'), ('వ్య', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('నా', 'U'), ('మా', 'U'), ('మృ', '|'), ('త', '|'), ('ము', 'U'), ('న్ద', '|'), ('లం', 'U'), ('ప', '|'), ('ద', '|'), ('శ', '|'), ('క', '|'), ('ప్రా', 'U'), ('ప్త', 'U'), ('య్యె', '|'), ('గృ', 'U'), ('ష్ణా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ము', '|'), ('సు', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('మో', 'U'), ('క్ష', '|'), ('ము', 'U'), ('న్ద్వి', '|'), ('వి', '|'), ('ధ', '|'), ('సం', 'U'), ('ప్రా', 'U'), ('ప్తి', 'U'), ('న్శ', '|'), ('తాం', 'U'), ('ధ్రా', 'U'), ('ఖ్య', '|'), ('కా', 'U'), ('వ్య', '|'), ('ము', '|'), ('న', 'U'), ('ర్పిం', 'U'), ('చి', '|'), ('తి', '|'), ('మీ', 'U'), ('ప', '|'), ('దా', 'U'), ('బ్జ', '|'), ('ము', '|'), ('ల', '|'), ('కు', 'U'), ('న్వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('మూ', 'U'), ('ర్తుల్', 'U'), ('గ', '|'), ('న', '|'), ('నీ', 'U'), ('క', '|'), ('థల్', 'U'), ('వి', '|'), ('న', '|'), ('దు', '|'), ('దిన్', 'U'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('ని', 'U'), ('ర్మా', 'U'), ('ల్య', '|'), ('ని', 'U'), ('ష్ఠా', 'U'), ('మో', 'U'), ('దం', 'U'), ('బు', '|'), ('నె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('నీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణా', 'U'), ('తో', 'U'), ('యం', 'U'), ('బా', 'U'), ('డ', '|'), ('నై', 'U'), ('వే', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('నీ', 'U'), ('మం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('నీ', 'U'), ('జ', '|'), ('ప', '|'), ('ము', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('పన్', 'U'), ('గృ', '|'), ('పం', 'U'), ('జే', 'U'), ('య', '|'), ('వే', 'U'), ('శ్రీ', 'U'), ('మిం', 'U'), ('చన్', 'U'), ('బ', '|'), ('హు', '|'), ('జ', 'U'), ('న్మ', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('ల', '|'), ('కున్', 'U'), ('శ్రీ', 'U'), ('యా', 'U'), ('ది', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
+          <t>[('నీ', 'U'), ('మూ', 'U'), ('ర్తు', 'U'), ('ల్గ', '|'), ('న', '|'), ('నీ', 'U'), ('క', '|'), ('థ', 'U'), ('ల్వి', '|'), ('న', '|'), ('దు', '|'), ('ది', 'U'), ('న్నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('ని', 'U'), ('ర్మా', 'U'), ('ల్య', '|'), ('ని', 'U'), ('ష్ఠా', 'U'), ('మో', 'U'), ('దం', 'U'), ('బు', '|'), ('నె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('నీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణా', 'U'), ('తో', 'U'), ('యం', 'U'), ('బా', 'U'), ('డ', '|'), ('నై', 'U'), ('వే', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('నీ', 'U'), ('మం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('భ', '|'), ('జిం', 'U'), ('ప', '|'), ('నీ', 'U'), ('జ', '|'), ('ప', '|'), ('ము', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('ప', 'U'), ('న్గృ', '|'), ('పం', 'U'), ('జే', 'U'), ('య', '|'), ('వే', 'U'), ('శ్రీ', 'U'), ('మిం', 'U'), ('చ', 'U'), ('న్బ', '|'), ('హు', '|'), ('జ', 'U'), ('న్మ', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('ల', '|'), ('కు', 'U'), ('న్శ్రీ', 'U'), ('యా', 'U'), ('ది', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U')]</t>
         </is>
       </c>
     </row>
